--- a/dist/files/xls/shablon-alboma-dp.xlsx
+++ b/dist/files/xls/shablon-alboma-dp.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OPEN_SERVER\OSPanel\domains\localhost\www\dist\files\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="14655" tabRatio="898"/>
   </bookViews>
@@ -22,13 +27,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'ВЕДОМОСТЬ ФУРНИТУРЫ'!$A$2:$K$27</definedName>
     <definedName name="address">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$J$15</definedName>
     <definedName name="agent">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$J$14</definedName>
-    <definedName name="builder">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$K$25</definedName>
+    <definedName name="builder">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$K$24</definedName>
     <definedName name="client">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$J$13</definedName>
     <definedName name="complect">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$J$18</definedName>
     <definedName name="floor">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$J$16</definedName>
     <definedName name="order">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$J$19</definedName>
-    <definedName name="Print_Area" localSheetId="4">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$37</definedName>
-    <definedName name="Print_Area" localSheetId="0">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$A$1:$T$36</definedName>
+    <definedName name="Print_Area" localSheetId="4">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$36</definedName>
+    <definedName name="Print_Area" localSheetId="0">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$A$1:$T$35</definedName>
     <definedName name="product">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$J$20</definedName>
     <definedName name="room">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$J$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'ВЕДОМОСТЬ МАТЕРИАЛОВ'!$A$1:$K$27</definedName>
@@ -37,10 +42,10 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Обмерный план'!$A$1:$R$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Ситуационный план'!$A$1:$R$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Состав проекта'!$A$1:$V$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$A$1:$T$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$A$1:$T$35</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -446,7 +451,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
@@ -1455,7 +1460,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1763,8 +1768,57 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1773,96 +1827,83 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1879,15 +1920,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1947,33 +1979,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2038,6 +2043,21 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="3" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5400,7 +5420,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5408,10 +5428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:N25"/>
+      <selection activeCell="K24" sqref="K24:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5461,18 +5481,18 @@
       <c r="J2" s="6"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="118" t="s">
+      <c r="M2" s="136"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="117">
+      <c r="P2" s="133"/>
+      <c r="Q2" s="134">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
-      </c>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
+        <v>43507</v>
+      </c>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
       <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5488,17 +5508,17 @@
       <c r="J3" s="6"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="118" t="s">
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="115" t="s">
+      <c r="P3" s="133"/>
+      <c r="Q3" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
       <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5513,7 +5533,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="118" t="s">
+      <c r="L4" s="135" t="s">
         <v>34</v>
       </c>
       <c r="M4" s="123"/>
@@ -5537,7 +5557,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="118" t="s">
+      <c r="L5" s="135" t="s">
         <v>35</v>
       </c>
       <c r="M5" s="123"/>
@@ -5550,11 +5570,11 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -5574,11 +5594,11 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -5598,11 +5618,11 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -5626,7 +5646,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="132" t="s">
+      <c r="E9" s="122" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="123"/>
@@ -5717,22 +5737,22 @@
       <c r="C13" s="110"/>
       <c r="D13" s="110"/>
       <c r="E13" s="111"/>
-      <c r="F13" s="126" t="s">
+      <c r="F13" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="134" t="s">
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="134"/>
-      <c r="Q13" s="134"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="126"/>
       <c r="R13" s="110"/>
       <c r="S13" s="110"/>
       <c r="T13" s="112"/>
@@ -5749,45 +5769,45 @@
       <c r="G14" s="125"/>
       <c r="H14" s="125"/>
       <c r="I14" s="125"/>
-      <c r="J14" s="115" t="s">
+      <c r="J14" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="118"/>
+      <c r="Q14" s="118"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:20" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="124" t="s">
+    <row r="15" spans="1:20" s="212" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="208"/>
+      <c r="B15" s="209"/>
+      <c r="C15" s="209"/>
+      <c r="D15" s="209"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="115" t="s">
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="4"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="126"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="209"/>
+      <c r="S15" s="209"/>
+      <c r="T15" s="211"/>
     </row>
     <row r="16" spans="1:20" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -5801,16 +5821,16 @@
       <c r="G16" s="125"/>
       <c r="H16" s="125"/>
       <c r="I16" s="125"/>
-      <c r="J16" s="115" t="s">
+      <c r="J16" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -5827,16 +5847,16 @@
       <c r="G17" s="125"/>
       <c r="H17" s="125"/>
       <c r="I17" s="125"/>
-      <c r="J17" s="115" t="s">
+      <c r="J17" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="136"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="128"/>
+      <c r="Q17" s="128"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="4"/>
@@ -5847,22 +5867,22 @@
       <c r="C18" s="110"/>
       <c r="D18" s="110"/>
       <c r="E18" s="111"/>
-      <c r="F18" s="126" t="s">
+      <c r="F18" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="134" t="s">
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="135"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="127"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="127"/>
       <c r="R18" s="110"/>
       <c r="S18" s="110"/>
       <c r="T18" s="112"/>
@@ -5879,16 +5899,16 @@
       <c r="G19" s="125"/>
       <c r="H19" s="125"/>
       <c r="I19" s="125"/>
-      <c r="J19" s="115">
+      <c r="J19" s="118">
         <v>500</v>
       </c>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="115"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="115"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="4"/>
@@ -5905,16 +5925,16 @@
       <c r="G20" s="125"/>
       <c r="H20" s="125"/>
       <c r="I20" s="125"/>
-      <c r="J20" s="115" t="s">
+      <c r="J20" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="4"/>
@@ -5963,17 +5983,19 @@
       <c r="S22" s="3"/>
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="G23" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -5982,79 +6004,79 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+      <c r="S23" s="7"/>
       <c r="T23" s="4"/>
     </row>
-    <row r="24" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="4"/>
-    </row>
-    <row r="25" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="137" t="s">
+    <row r="24" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="130"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="128" t="s">
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="128"/>
-      <c r="M25" s="128"/>
-      <c r="N25" s="128"/>
-      <c r="O25" s="128" t="s">
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="P25" s="128"/>
-      <c r="Q25" s="21" t="s">
+      <c r="P24" s="121"/>
+      <c r="Q24" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="R25" s="21" t="s">
+      <c r="R24" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="S25" s="114">
+      <c r="S24" s="114">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
-      </c>
-      <c r="T25" s="22"/>
-    </row>
-    <row r="26" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43507</v>
+      </c>
+      <c r="T24" s="22"/>
+    </row>
+    <row r="25" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="G26" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -6066,53 +6088,64 @@
       <c r="S26" s="7"/>
       <c r="T26" s="4"/>
     </row>
-    <row r="27" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="133" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="4"/>
+    <row r="27" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="117"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
+      <c r="O27" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="114">
+        <f ca="1">TODAY()</f>
+        <v>43507</v>
+      </c>
+      <c r="T27" s="22"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="131" t="s">
+      <c r="A28" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="131"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="128" t="s">
+      <c r="L28" s="117"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="128"/>
+      <c r="P28" s="121"/>
       <c r="Q28" s="21" t="s">
         <v>3</v>
       </c>
@@ -6121,252 +6154,216 @@
       </c>
       <c r="S28" s="114">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
+        <v>43507</v>
       </c>
       <c r="T28" s="22"/>
     </row>
-    <row r="29" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="129" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="131" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="128" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="128"/>
-      <c r="Q29" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="R29" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="S29" s="114">
-        <f ca="1">TODAY()</f>
-        <v>43505</v>
-      </c>
-      <c r="T29" s="22"/>
-    </row>
-    <row r="30" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="G30" s="119" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
       <c r="S30" s="7"/>
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="133" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="130"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="4"/>
-    </row>
-    <row r="32" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="129" t="s">
+      <c r="A31" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="131" t="s">
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="131"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="128" t="s">
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="128"/>
-      <c r="Q32" s="25" t="s">
+      <c r="P31" s="121"/>
+      <c r="Q31" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="25" t="s">
+      <c r="R31" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="S32" s="114">
+      <c r="S31" s="114">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
-      </c>
-      <c r="T32" s="22"/>
-    </row>
-    <row r="33" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43507</v>
+      </c>
+      <c r="T31" s="22"/>
+    </row>
+    <row r="32" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="G33" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
       <c r="S33" s="7"/>
       <c r="T33" s="4"/>
     </row>
-    <row r="34" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="130"/>
-      <c r="I34" s="130"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="4"/>
-    </row>
-    <row r="35" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="129" t="s">
+    <row r="34" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="130"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="131" t="s">
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="131"/>
-      <c r="M35" s="131"/>
-      <c r="N35" s="131"/>
-      <c r="O35" s="128" t="s">
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="P35" s="128"/>
-      <c r="Q35" s="21" t="s">
+      <c r="P34" s="121"/>
+      <c r="Q34" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="R35" s="21" t="s">
+      <c r="R34" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="S35" s="114">
+      <c r="S34" s="114">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
-      </c>
-      <c r="T35" s="22"/>
-    </row>
-    <row r="36" spans="1:20" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="10"/>
+        <v>43507</v>
+      </c>
+      <c r="T34" s="22"/>
+    </row>
+    <row r="35" spans="1:20" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
     <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="O31:P31"/>
     <mergeCell ref="E9:N12"/>
-    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G33:J33"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="J13:Q13"/>
@@ -6378,21 +6375,22 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="G30:J30"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -6427,40 +6425,40 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="141"/>
-      <c r="P10" s="141"/>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="141"/>
-      <c r="S10" s="141"/>
-      <c r="T10" s="141"/>
-      <c r="U10" s="141"/>
-      <c r="V10" s="141"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="138"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="138"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G12" s="39"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="142"/>
-      <c r="M12" s="142"/>
-      <c r="N12" s="142"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="139"/>
+      <c r="N12" s="139"/>
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
     </row>
@@ -6468,15 +6466,15 @@
       <c r="G13" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="143" t="s">
+      <c r="H13" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="145"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="141"/>
+      <c r="M13" s="141"/>
+      <c r="N13" s="142"/>
       <c r="O13" s="34" t="s">
         <v>39</v>
       </c>
@@ -6488,15 +6486,15 @@
       <c r="G14" s="34">
         <v>2</v>
       </c>
-      <c r="H14" s="146" t="s">
+      <c r="H14" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="147"/>
-      <c r="M14" s="147"/>
-      <c r="N14" s="148"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="145"/>
       <c r="O14" s="34" t="s">
         <v>41</v>
       </c>
@@ -6506,15 +6504,15 @@
       <c r="G15" s="34">
         <v>3</v>
       </c>
-      <c r="H15" s="146" t="s">
+      <c r="H15" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="147"/>
-      <c r="M15" s="147"/>
-      <c r="N15" s="148"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="144"/>
+      <c r="M15" s="144"/>
+      <c r="N15" s="145"/>
       <c r="O15" s="34" t="s">
         <v>36</v>
       </c>
@@ -6526,15 +6524,15 @@
       <c r="G16" s="34">
         <v>4</v>
       </c>
-      <c r="H16" s="146" t="s">
+      <c r="H16" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="147"/>
-      <c r="M16" s="147"/>
-      <c r="N16" s="148"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="144"/>
+      <c r="N16" s="145"/>
       <c r="O16" s="34" t="s">
         <v>43</v>
       </c>
@@ -6544,15 +6542,15 @@
       <c r="G17" s="34">
         <v>5</v>
       </c>
-      <c r="H17" s="146" t="s">
+      <c r="H17" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="148"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="145"/>
       <c r="O17" s="34" t="s">
         <v>43</v>
       </c>
@@ -6562,15 +6560,15 @@
       <c r="G18" s="34">
         <v>6</v>
       </c>
-      <c r="H18" s="146" t="s">
+      <c r="H18" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="147"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="148"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="145"/>
       <c r="O18" s="34" t="s">
         <v>43</v>
       </c>
@@ -6580,15 +6578,15 @@
       <c r="G19" s="34">
         <v>7</v>
       </c>
-      <c r="H19" s="146" t="s">
+      <c r="H19" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="148"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="145"/>
       <c r="O19" s="34" t="s">
         <v>43</v>
       </c>
@@ -6598,15 +6596,15 @@
       <c r="G20" s="34">
         <v>8</v>
       </c>
-      <c r="H20" s="146" t="s">
+      <c r="H20" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="148"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="145"/>
       <c r="O20" s="34" t="s">
         <v>43</v>
       </c>
@@ -6614,301 +6612,301 @@
     </row>
     <row r="21" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G21" s="39"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="149"/>
-      <c r="L21" s="149"/>
-      <c r="M21" s="149"/>
-      <c r="N21" s="149"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="147"/>
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
     </row>
     <row r="22" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G22" s="33"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="146"/>
+      <c r="N22" s="146"/>
       <c r="O22" s="33"/>
       <c r="P22" s="36"/>
     </row>
     <row r="23" spans="7:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G23" s="33"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="138"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="138"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="146"/>
+      <c r="N23" s="146"/>
       <c r="O23" s="33"/>
       <c r="P23" s="37"/>
     </row>
     <row r="24" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G24" s="33"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="146"/>
+      <c r="N24" s="146"/>
       <c r="O24" s="33"/>
       <c r="P24" s="36"/>
     </row>
     <row r="25" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25" s="33"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="138"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="138"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="146"/>
+      <c r="N25" s="146"/>
       <c r="O25" s="33"/>
       <c r="P25" s="36"/>
     </row>
     <row r="26" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G26" s="33"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="146"/>
+      <c r="N26" s="146"/>
       <c r="O26" s="33"/>
       <c r="P26" s="36"/>
     </row>
     <row r="27" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G27" s="33"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="138"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="138"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="146"/>
       <c r="O27" s="33"/>
       <c r="P27" s="36"/>
     </row>
     <row r="28" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G28" s="33"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="138"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
       <c r="O28" s="33"/>
       <c r="P28" s="36"/>
     </row>
     <row r="29" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G29" s="33"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="138"/>
-      <c r="L29" s="138"/>
-      <c r="M29" s="138"/>
-      <c r="N29" s="138"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
       <c r="O29" s="33"/>
       <c r="P29" s="36"/>
     </row>
     <row r="30" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G30" s="33"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="138"/>
-      <c r="M30" s="138"/>
-      <c r="N30" s="138"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="146"/>
+      <c r="N30" s="146"/>
       <c r="O30" s="33"/>
       <c r="P30" s="36"/>
     </row>
     <row r="31" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G31" s="33"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="138"/>
-      <c r="K31" s="138"/>
-      <c r="L31" s="138"/>
-      <c r="M31" s="138"/>
-      <c r="N31" s="138"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
       <c r="O31" s="33"/>
       <c r="P31" s="36"/>
     </row>
     <row r="32" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G32" s="33"/>
-      <c r="H32" s="138"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="138"/>
-      <c r="K32" s="138"/>
-      <c r="L32" s="138"/>
-      <c r="M32" s="138"/>
-      <c r="N32" s="138"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
       <c r="O32" s="33"/>
       <c r="P32" s="36"/>
     </row>
     <row r="33" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G33" s="33"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="138"/>
-      <c r="J33" s="138"/>
-      <c r="K33" s="138"/>
-      <c r="L33" s="138"/>
-      <c r="M33" s="138"/>
-      <c r="N33" s="138"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="146"/>
+      <c r="N33" s="146"/>
       <c r="O33" s="33"/>
       <c r="P33" s="36"/>
     </row>
     <row r="34" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G34" s="33"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="138"/>
-      <c r="K34" s="138"/>
-      <c r="L34" s="138"/>
-      <c r="M34" s="138"/>
-      <c r="N34" s="138"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="146"/>
+      <c r="N34" s="146"/>
       <c r="O34" s="33"/>
       <c r="P34" s="36"/>
     </row>
     <row r="35" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G35" s="33"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="138"/>
-      <c r="K35" s="138"/>
-      <c r="L35" s="138"/>
-      <c r="M35" s="138"/>
-      <c r="N35" s="138"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="146"/>
+      <c r="M35" s="146"/>
+      <c r="N35" s="146"/>
       <c r="O35" s="33"/>
       <c r="P35" s="36"/>
     </row>
     <row r="36" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G36" s="33"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="138"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="138"/>
-      <c r="M36" s="138"/>
-      <c r="N36" s="138"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="146"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="146"/>
+      <c r="M36" s="146"/>
+      <c r="N36" s="146"/>
       <c r="O36" s="33"/>
       <c r="P36" s="36"/>
     </row>
     <row r="37" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G37" s="33"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="138"/>
-      <c r="K37" s="138"/>
-      <c r="L37" s="138"/>
-      <c r="M37" s="138"/>
-      <c r="N37" s="138"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="146"/>
+      <c r="K37" s="146"/>
+      <c r="L37" s="146"/>
+      <c r="M37" s="146"/>
+      <c r="N37" s="146"/>
       <c r="O37" s="33"/>
       <c r="P37" s="36"/>
     </row>
     <row r="38" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G38" s="33"/>
-      <c r="H38" s="138"/>
-      <c r="I38" s="138"/>
-      <c r="J38" s="138"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="138"/>
-      <c r="M38" s="138"/>
-      <c r="N38" s="138"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="146"/>
+      <c r="K38" s="146"/>
+      <c r="L38" s="146"/>
+      <c r="M38" s="146"/>
+      <c r="N38" s="146"/>
       <c r="O38" s="33"/>
       <c r="P38" s="36"/>
     </row>
     <row r="39" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G39" s="33"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="138"/>
-      <c r="J39" s="138"/>
-      <c r="K39" s="138"/>
-      <c r="L39" s="138"/>
-      <c r="M39" s="138"/>
-      <c r="N39" s="138"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="146"/>
+      <c r="K39" s="146"/>
+      <c r="L39" s="146"/>
+      <c r="M39" s="146"/>
+      <c r="N39" s="146"/>
       <c r="O39" s="33"/>
       <c r="P39" s="36"/>
     </row>
     <row r="40" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G40" s="33"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="138"/>
-      <c r="K40" s="138"/>
-      <c r="L40" s="138"/>
-      <c r="M40" s="138"/>
-      <c r="N40" s="138"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="146"/>
+      <c r="K40" s="146"/>
+      <c r="L40" s="146"/>
+      <c r="M40" s="146"/>
+      <c r="N40" s="146"/>
       <c r="O40" s="33"/>
       <c r="P40" s="36"/>
     </row>
     <row r="41" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G41" s="33"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="138"/>
-      <c r="K41" s="138"/>
-      <c r="L41" s="138"/>
-      <c r="M41" s="138"/>
-      <c r="N41" s="138"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="146"/>
+      <c r="K41" s="146"/>
+      <c r="L41" s="146"/>
+      <c r="M41" s="146"/>
+      <c r="N41" s="146"/>
       <c r="O41" s="33"/>
       <c r="P41" s="36"/>
     </row>
     <row r="42" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G42" s="33"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="138"/>
-      <c r="K42" s="138"/>
-      <c r="L42" s="138"/>
-      <c r="M42" s="138"/>
-      <c r="N42" s="138"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="146"/>
+      <c r="K42" s="146"/>
+      <c r="L42" s="146"/>
+      <c r="M42" s="146"/>
+      <c r="N42" s="146"/>
       <c r="O42" s="33"/>
       <c r="P42" s="36"/>
     </row>
     <row r="43" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G43" s="33"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="138"/>
-      <c r="K43" s="138"/>
-      <c r="L43" s="138"/>
-      <c r="M43" s="138"/>
-      <c r="N43" s="138"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="146"/>
+      <c r="K43" s="146"/>
+      <c r="L43" s="146"/>
+      <c r="M43" s="146"/>
+      <c r="N43" s="146"/>
       <c r="O43" s="33"/>
       <c r="P43" s="36"/>
     </row>
     <row r="44" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G44" s="33"/>
-      <c r="H44" s="138"/>
-      <c r="I44" s="138"/>
-      <c r="J44" s="138"/>
-      <c r="K44" s="138"/>
-      <c r="L44" s="138"/>
-      <c r="M44" s="138"/>
-      <c r="N44" s="138"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="146"/>
+      <c r="K44" s="146"/>
+      <c r="L44" s="146"/>
+      <c r="M44" s="146"/>
+      <c r="N44" s="146"/>
       <c r="O44" s="33"/>
       <c r="P44" s="36"/>
     </row>
     <row r="45" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G45" s="33"/>
-      <c r="H45" s="138"/>
-      <c r="I45" s="138"/>
-      <c r="J45" s="138"/>
-      <c r="K45" s="138"/>
-      <c r="L45" s="138"/>
-      <c r="M45" s="138"/>
-      <c r="N45" s="138"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="146"/>
+      <c r="K45" s="146"/>
+      <c r="L45" s="146"/>
+      <c r="M45" s="146"/>
+      <c r="N45" s="146"/>
       <c r="O45" s="33"/>
       <c r="P45" s="36"/>
     </row>
@@ -6918,56 +6916,36 @@
     <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Y57" s="41">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
+        <v>43507</v>
       </c>
     </row>
     <row r="58" spans="2:25" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B58" s="139" t="str">
+      <c r="B58" s="148" t="str">
         <f ca="1">"Москва " &amp; YEAR(Y57)</f>
         <v>Москва 2019</v>
       </c>
-      <c r="C58" s="140"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="140"/>
-      <c r="F58" s="140"/>
-      <c r="G58" s="140"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
-      <c r="J58" s="140"/>
-      <c r="K58" s="140"/>
-      <c r="L58" s="140"/>
-      <c r="M58" s="140"/>
-      <c r="N58" s="140"/>
-      <c r="O58" s="140"/>
-      <c r="P58" s="140"/>
-      <c r="Q58" s="140"/>
-      <c r="R58" s="140"/>
-      <c r="S58" s="140"/>
-      <c r="T58" s="140"/>
-      <c r="U58" s="140"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="149"/>
+      <c r="E58" s="149"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="149"/>
+      <c r="I58" s="149"/>
+      <c r="J58" s="149"/>
+      <c r="K58" s="149"/>
+      <c r="L58" s="149"/>
+      <c r="M58" s="149"/>
+      <c r="N58" s="149"/>
+      <c r="O58" s="149"/>
+      <c r="P58" s="149"/>
+      <c r="Q58" s="149"/>
+      <c r="R58" s="149"/>
+      <c r="S58" s="149"/>
+      <c r="T58" s="149"/>
+      <c r="U58" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A10:V10"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H25:N25"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="H35:N35"/>
-    <mergeCell ref="H36:N36"/>
     <mergeCell ref="H26:N26"/>
     <mergeCell ref="H27:N27"/>
     <mergeCell ref="H28:N28"/>
@@ -6984,6 +6962,26 @@
     <mergeCell ref="H39:N39"/>
     <mergeCell ref="H40:N40"/>
     <mergeCell ref="H31:N31"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="H35:N35"/>
+    <mergeCell ref="H36:N36"/>
+    <mergeCell ref="A10:V10"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H16:N16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -7012,799 +7010,799 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="181"/>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="183"/>
+      <c r="A1" s="153"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="155"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="186"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="158"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="155"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="157"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="152"/>
     </row>
     <row r="4" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="157"/>
+      <c r="A4" s="150"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="152"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="155"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="157"/>
+      <c r="A5" s="150"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="152"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="155"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="157"/>
+      <c r="A6" s="150"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="152"/>
     </row>
     <row r="7" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="155"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="157"/>
+      <c r="A7" s="150"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="152"/>
     </row>
     <row r="8" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="155"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="157"/>
+      <c r="A8" s="150"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="151"/>
+      <c r="R8" s="152"/>
     </row>
     <row r="9" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="155"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="157"/>
+      <c r="A9" s="150"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="152"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="155"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="157"/>
+      <c r="A10" s="150"/>
+      <c r="B10" s="151"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="152"/>
     </row>
     <row r="11" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="156"/>
-      <c r="O11" s="156"/>
-      <c r="P11" s="156"/>
-      <c r="Q11" s="156"/>
-      <c r="R11" s="157"/>
+      <c r="A11" s="150"/>
+      <c r="B11" s="151"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="152"/>
     </row>
     <row r="12" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="155"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="156"/>
-      <c r="R12" s="157"/>
+      <c r="A12" s="150"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="152"/>
     </row>
     <row r="13" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="155"/>
-      <c r="B13" s="156"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="156"/>
-      <c r="P13" s="156"/>
-      <c r="Q13" s="156"/>
-      <c r="R13" s="157"/>
+      <c r="A13" s="150"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="152"/>
     </row>
     <row r="14" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="155"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="157"/>
+      <c r="A14" s="150"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="152"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="155"/>
-      <c r="B15" s="156"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="156"/>
-      <c r="P15" s="156"/>
-      <c r="Q15" s="156"/>
-      <c r="R15" s="157"/>
+      <c r="A15" s="150"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="152"/>
     </row>
     <row r="16" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="155"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="156"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="156"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="156"/>
-      <c r="Q16" s="156"/>
-      <c r="R16" s="157"/>
+      <c r="A16" s="150"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="151"/>
+      <c r="R16" s="152"/>
     </row>
     <row r="17" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="155"/>
-      <c r="B17" s="156"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="156"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="156"/>
-      <c r="O17" s="156"/>
-      <c r="P17" s="156"/>
-      <c r="Q17" s="156"/>
-      <c r="R17" s="157"/>
+      <c r="A17" s="150"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="151"/>
+      <c r="R17" s="152"/>
     </row>
     <row r="18" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="155"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="156"/>
-      <c r="Q18" s="156"/>
-      <c r="R18" s="157"/>
+      <c r="A18" s="150"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="152"/>
     </row>
     <row r="19" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="155"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="156"/>
-      <c r="Q19" s="156"/>
-      <c r="R19" s="157"/>
+      <c r="A19" s="150"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="151"/>
+      <c r="R19" s="152"/>
     </row>
     <row r="20" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="155"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="156"/>
-      <c r="Q20" s="156"/>
-      <c r="R20" s="157"/>
+      <c r="A20" s="150"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="151"/>
+      <c r="O20" s="151"/>
+      <c r="P20" s="151"/>
+      <c r="Q20" s="151"/>
+      <c r="R20" s="152"/>
     </row>
     <row r="21" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="155"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="156"/>
-      <c r="Q21" s="156"/>
-      <c r="R21" s="157"/>
+      <c r="A21" s="150"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="151"/>
+      <c r="Q21" s="151"/>
+      <c r="R21" s="152"/>
     </row>
     <row r="22" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="155"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="156"/>
-      <c r="Q22" s="156"/>
-      <c r="R22" s="157"/>
+      <c r="A22" s="150"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="151"/>
+      <c r="Q22" s="151"/>
+      <c r="R22" s="152"/>
     </row>
     <row r="23" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="155"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="156"/>
-      <c r="P23" s="156"/>
-      <c r="Q23" s="156"/>
-      <c r="R23" s="157"/>
+      <c r="A23" s="150"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="151"/>
+      <c r="P23" s="151"/>
+      <c r="Q23" s="151"/>
+      <c r="R23" s="152"/>
     </row>
     <row r="24" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="155"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="156"/>
-      <c r="O24" s="156"/>
-      <c r="P24" s="156"/>
-      <c r="Q24" s="156"/>
-      <c r="R24" s="157"/>
+      <c r="A24" s="150"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="151"/>
+      <c r="R24" s="152"/>
     </row>
     <row r="25" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="155"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="156"/>
-      <c r="Q25" s="156"/>
-      <c r="R25" s="157"/>
+      <c r="A25" s="150"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="151"/>
+      <c r="N25" s="151"/>
+      <c r="O25" s="151"/>
+      <c r="P25" s="151"/>
+      <c r="Q25" s="151"/>
+      <c r="R25" s="152"/>
     </row>
     <row r="26" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="155"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="156"/>
-      <c r="Q26" s="156"/>
-      <c r="R26" s="157"/>
+      <c r="A26" s="150"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="151"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="151"/>
+      <c r="Q26" s="151"/>
+      <c r="R26" s="152"/>
     </row>
     <row r="27" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="155"/>
-      <c r="B27" s="156"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="156"/>
-      <c r="O27" s="156"/>
-      <c r="P27" s="156"/>
-      <c r="Q27" s="156"/>
-      <c r="R27" s="157"/>
+      <c r="A27" s="150"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="151"/>
+      <c r="N27" s="151"/>
+      <c r="O27" s="151"/>
+      <c r="P27" s="151"/>
+      <c r="Q27" s="151"/>
+      <c r="R27" s="152"/>
     </row>
     <row r="28" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="155"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="156"/>
-      <c r="P28" s="156"/>
-      <c r="Q28" s="156"/>
-      <c r="R28" s="157"/>
+      <c r="A28" s="150"/>
+      <c r="B28" s="151"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="151"/>
+      <c r="O28" s="151"/>
+      <c r="P28" s="151"/>
+      <c r="Q28" s="151"/>
+      <c r="R28" s="152"/>
     </row>
     <row r="29" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="155"/>
-      <c r="B29" s="156"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="156"/>
-      <c r="O29" s="156"/>
-      <c r="P29" s="156"/>
-      <c r="Q29" s="156"/>
-      <c r="R29" s="157"/>
+      <c r="A29" s="150"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="151"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="151"/>
+      <c r="Q29" s="151"/>
+      <c r="R29" s="152"/>
     </row>
     <row r="30" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="155"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="156"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="156"/>
-      <c r="Q30" s="156"/>
-      <c r="R30" s="157"/>
+      <c r="A30" s="150"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="151"/>
+      <c r="O30" s="151"/>
+      <c r="P30" s="151"/>
+      <c r="Q30" s="151"/>
+      <c r="R30" s="152"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="155"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="156"/>
-      <c r="O31" s="156"/>
-      <c r="P31" s="156"/>
-      <c r="Q31" s="156"/>
-      <c r="R31" s="157"/>
+      <c r="A31" s="150"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="151"/>
+      <c r="M31" s="151"/>
+      <c r="N31" s="151"/>
+      <c r="O31" s="151"/>
+      <c r="P31" s="151"/>
+      <c r="Q31" s="151"/>
+      <c r="R31" s="152"/>
     </row>
     <row r="32" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="155"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="156"/>
-      <c r="O32" s="156"/>
-      <c r="P32" s="156"/>
-      <c r="Q32" s="156"/>
-      <c r="R32" s="157"/>
+      <c r="A32" s="150"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="151"/>
+      <c r="O32" s="151"/>
+      <c r="P32" s="151"/>
+      <c r="Q32" s="151"/>
+      <c r="R32" s="152"/>
       <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="155"/>
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="156"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="156"/>
-      <c r="O33" s="156"/>
-      <c r="P33" s="156"/>
-      <c r="Q33" s="156"/>
-      <c r="R33" s="157"/>
+      <c r="A33" s="150"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="151"/>
+      <c r="M33" s="151"/>
+      <c r="N33" s="151"/>
+      <c r="O33" s="151"/>
+      <c r="P33" s="151"/>
+      <c r="Q33" s="151"/>
+      <c r="R33" s="152"/>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="155"/>
-      <c r="B34" s="156"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="156"/>
-      <c r="N34" s="156"/>
-      <c r="O34" s="156"/>
-      <c r="P34" s="156"/>
-      <c r="Q34" s="156"/>
-      <c r="R34" s="157"/>
+      <c r="A34" s="150"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="151"/>
+      <c r="M34" s="151"/>
+      <c r="N34" s="151"/>
+      <c r="O34" s="151"/>
+      <c r="P34" s="151"/>
+      <c r="Q34" s="151"/>
+      <c r="R34" s="152"/>
       <c r="S34" s="12"/>
     </row>
     <row r="35" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="155"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="156"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
-      <c r="N35" s="156"/>
-      <c r="O35" s="156"/>
-      <c r="P35" s="156"/>
-      <c r="Q35" s="156"/>
-      <c r="R35" s="157"/>
+      <c r="A35" s="150"/>
+      <c r="B35" s="151"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="151"/>
+      <c r="L35" s="151"/>
+      <c r="M35" s="151"/>
+      <c r="N35" s="151"/>
+      <c r="O35" s="151"/>
+      <c r="P35" s="151"/>
+      <c r="Q35" s="151"/>
+      <c r="R35" s="152"/>
       <c r="S35" s="12"/>
     </row>
     <row r="36" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="155"/>
-      <c r="B36" s="156"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156"/>
-      <c r="K36" s="156"/>
-      <c r="L36" s="156"/>
-      <c r="M36" s="156"/>
-      <c r="N36" s="156"/>
-      <c r="O36" s="156"/>
-      <c r="P36" s="156"/>
-      <c r="Q36" s="156"/>
-      <c r="R36" s="157"/>
+      <c r="A36" s="150"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="151"/>
+      <c r="K36" s="151"/>
+      <c r="L36" s="151"/>
+      <c r="M36" s="151"/>
+      <c r="N36" s="151"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="151"/>
+      <c r="Q36" s="151"/>
+      <c r="R36" s="152"/>
       <c r="S36" s="12"/>
     </row>
     <row r="37" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="155"/>
-      <c r="B37" s="156"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="156"/>
-      <c r="H37" s="156"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="156"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="156"/>
-      <c r="N37" s="156"/>
-      <c r="O37" s="156"/>
-      <c r="P37" s="156"/>
-      <c r="Q37" s="156"/>
-      <c r="R37" s="157"/>
+      <c r="A37" s="150"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="151"/>
+      <c r="M37" s="151"/>
+      <c r="N37" s="151"/>
+      <c r="O37" s="151"/>
+      <c r="P37" s="151"/>
+      <c r="Q37" s="151"/>
+      <c r="R37" s="152"/>
       <c r="S37" s="12"/>
     </row>
     <row r="38" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="155"/>
-      <c r="B38" s="156"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="156"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="156"/>
-      <c r="N38" s="156"/>
-      <c r="O38" s="156"/>
-      <c r="P38" s="156"/>
-      <c r="Q38" s="156"/>
-      <c r="R38" s="157"/>
+      <c r="A38" s="150"/>
+      <c r="B38" s="151"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="151"/>
+      <c r="N38" s="151"/>
+      <c r="O38" s="151"/>
+      <c r="P38" s="151"/>
+      <c r="Q38" s="151"/>
+      <c r="R38" s="152"/>
       <c r="S38" s="12"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="178" t="s">
+      <c r="A39" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="179"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="179"/>
-      <c r="E39" s="179"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="179"/>
-      <c r="H39" s="179"/>
-      <c r="I39" s="179"/>
-      <c r="J39" s="179"/>
-      <c r="K39" s="179"/>
-      <c r="L39" s="179"/>
-      <c r="M39" s="179"/>
-      <c r="N39" s="179"/>
-      <c r="O39" s="179"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="180"/>
+      <c r="B39" s="160"/>
+      <c r="C39" s="160"/>
+      <c r="D39" s="160"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="160"/>
+      <c r="K39" s="160"/>
+      <c r="L39" s="160"/>
+      <c r="M39" s="160"/>
+      <c r="N39" s="160"/>
+      <c r="O39" s="160"/>
+      <c r="P39" s="160"/>
+      <c r="Q39" s="160"/>
+      <c r="R39" s="161"/>
       <c r="S39" s="12"/>
     </row>
     <row r="40" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="158"/>
+      <c r="A40" s="167"/>
       <c r="B40" s="54" t="s">
         <v>50</v>
       </c>
@@ -7813,8 +7811,8 @@
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="162"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="171"/>
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
       <c r="L40" s="55"/>
@@ -7823,17 +7821,17 @@
       <c r="O40" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="P40" s="165" t="s">
+      <c r="P40" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="Q40" s="166"/>
+      <c r="Q40" s="175"/>
       <c r="R40" s="57" t="s">
         <v>54</v>
       </c>
       <c r="S40" s="12"/>
     </row>
     <row r="41" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="159"/>
+      <c r="A41" s="168"/>
       <c r="B41" s="43" t="s">
         <v>51</v>
       </c>
@@ -7852,8 +7850,8 @@
       <c r="G41" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="163"/>
-      <c r="I41" s="164"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="173"/>
       <c r="J41" s="44" t="s">
         <v>55</v>
       </c>
@@ -7870,136 +7868,100 @@
         <v>59</v>
       </c>
       <c r="O41" s="45"/>
-      <c r="P41" s="167"/>
-      <c r="Q41" s="168"/>
-      <c r="R41" s="173"/>
+      <c r="P41" s="176"/>
+      <c r="Q41" s="177"/>
+      <c r="R41" s="182"/>
       <c r="S41" s="12"/>
     </row>
     <row r="42" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="159"/>
+      <c r="A42" s="168"/>
       <c r="B42" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="176" t="s">
+      <c r="C42" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="177"/>
+      <c r="D42" s="186"/>
       <c r="E42" s="50"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="176" t="s">
+      <c r="J42" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="K42" s="177"/>
+      <c r="K42" s="186"/>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
       <c r="N42" s="31"/>
       <c r="O42" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="P42" s="169"/>
-      <c r="Q42" s="170"/>
-      <c r="R42" s="174"/>
+      <c r="P42" s="178"/>
+      <c r="Q42" s="179"/>
+      <c r="R42" s="183"/>
       <c r="S42" s="12"/>
     </row>
     <row r="43" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="159"/>
+      <c r="A43" s="168"/>
       <c r="B43" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="176" t="s">
+      <c r="C43" s="185" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="177"/>
+      <c r="D43" s="186"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="52"/>
       <c r="I43" s="53"/>
-      <c r="J43" s="176" t="s">
+      <c r="J43" s="185" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="177"/>
+      <c r="K43" s="186"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
       <c r="O43" s="47"/>
-      <c r="P43" s="171"/>
-      <c r="Q43" s="172"/>
-      <c r="R43" s="175"/>
+      <c r="P43" s="180"/>
+      <c r="Q43" s="181"/>
+      <c r="R43" s="184"/>
     </row>
     <row r="44" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="160"/>
+      <c r="A44" s="169"/>
       <c r="B44" s="58"/>
-      <c r="C44" s="150" t="s">
+      <c r="C44" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="151"/>
+      <c r="D44" s="163"/>
       <c r="E44" s="59"/>
       <c r="F44" s="60"/>
       <c r="G44" s="60"/>
       <c r="H44" s="61"/>
       <c r="I44" s="62"/>
-      <c r="J44" s="150" t="s">
+      <c r="J44" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="K44" s="151"/>
+      <c r="K44" s="163"/>
       <c r="L44" s="59"/>
       <c r="M44" s="59" t="s">
         <v>70</v>
       </c>
       <c r="N44" s="60"/>
-      <c r="O44" s="152" t="s">
+      <c r="O44" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="P44" s="153"/>
-      <c r="Q44" s="152" t="s">
+      <c r="P44" s="165"/>
+      <c r="Q44" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="R44" s="154"/>
+      <c r="R44" s="166"/>
     </row>
     <row r="45" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A8:R8"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="A10:R10"/>
-    <mergeCell ref="A11:R11"/>
-    <mergeCell ref="A27:R27"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="A14:R14"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A18:R18"/>
-    <mergeCell ref="A19:R19"/>
-    <mergeCell ref="A20:R20"/>
-    <mergeCell ref="A21:R21"/>
-    <mergeCell ref="A22:R22"/>
-    <mergeCell ref="A23:R23"/>
-    <mergeCell ref="A39:R39"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="A29:R29"/>
-    <mergeCell ref="A30:R30"/>
-    <mergeCell ref="A31:R31"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="A33:R33"/>
-    <mergeCell ref="A34:R34"/>
-    <mergeCell ref="A35:R35"/>
-    <mergeCell ref="A36:R36"/>
-    <mergeCell ref="A37:R37"/>
-    <mergeCell ref="A38:R38"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="O44:P44"/>
     <mergeCell ref="Q44:R44"/>
@@ -8016,6 +7978,42 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A39:R39"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="A29:R29"/>
+    <mergeCell ref="A30:R30"/>
+    <mergeCell ref="A31:R31"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="A33:R33"/>
+    <mergeCell ref="A34:R34"/>
+    <mergeCell ref="A35:R35"/>
+    <mergeCell ref="A36:R36"/>
+    <mergeCell ref="A37:R37"/>
+    <mergeCell ref="A38:R38"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:R14"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="A20:R20"/>
+    <mergeCell ref="A21:R21"/>
+    <mergeCell ref="A22:R22"/>
+    <mergeCell ref="A23:R23"/>
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A11:R11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B43" r:id="rId1" display="http://www.sofia-decor.ru/"/>
@@ -8047,799 +8045,799 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="181"/>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="183"/>
+      <c r="A1" s="153"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="155"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="186"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="158"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="155"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="157"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="152"/>
     </row>
     <row r="4" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="157"/>
+      <c r="A4" s="150"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="152"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="155"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="157"/>
+      <c r="A5" s="150"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="152"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="155"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="157"/>
+      <c r="A6" s="150"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="152"/>
     </row>
     <row r="7" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="155"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="157"/>
+      <c r="A7" s="150"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="152"/>
     </row>
     <row r="8" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="155"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="157"/>
+      <c r="A8" s="150"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="151"/>
+      <c r="R8" s="152"/>
     </row>
     <row r="9" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="155"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="157"/>
+      <c r="A9" s="150"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="152"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="155"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="157"/>
+      <c r="A10" s="150"/>
+      <c r="B10" s="151"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="152"/>
     </row>
     <row r="11" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="156"/>
-      <c r="O11" s="156"/>
-      <c r="P11" s="156"/>
-      <c r="Q11" s="156"/>
-      <c r="R11" s="157"/>
+      <c r="A11" s="150"/>
+      <c r="B11" s="151"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="152"/>
     </row>
     <row r="12" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="155"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="156"/>
-      <c r="R12" s="157"/>
+      <c r="A12" s="150"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="152"/>
     </row>
     <row r="13" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="155"/>
-      <c r="B13" s="156"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="156"/>
-      <c r="P13" s="156"/>
-      <c r="Q13" s="156"/>
-      <c r="R13" s="157"/>
+      <c r="A13" s="150"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="152"/>
     </row>
     <row r="14" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="155"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="157"/>
+      <c r="A14" s="150"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="152"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="155"/>
-      <c r="B15" s="156"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="156"/>
-      <c r="P15" s="156"/>
-      <c r="Q15" s="156"/>
-      <c r="R15" s="157"/>
+      <c r="A15" s="150"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="152"/>
     </row>
     <row r="16" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="155"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="156"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="156"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="156"/>
-      <c r="Q16" s="156"/>
-      <c r="R16" s="157"/>
+      <c r="A16" s="150"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="151"/>
+      <c r="R16" s="152"/>
     </row>
     <row r="17" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="155"/>
-      <c r="B17" s="156"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="156"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="156"/>
-      <c r="O17" s="156"/>
-      <c r="P17" s="156"/>
-      <c r="Q17" s="156"/>
-      <c r="R17" s="157"/>
+      <c r="A17" s="150"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="151"/>
+      <c r="R17" s="152"/>
     </row>
     <row r="18" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="155"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="156"/>
-      <c r="Q18" s="156"/>
-      <c r="R18" s="157"/>
+      <c r="A18" s="150"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="152"/>
     </row>
     <row r="19" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="155"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="156"/>
-      <c r="Q19" s="156"/>
-      <c r="R19" s="157"/>
+      <c r="A19" s="150"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="151"/>
+      <c r="R19" s="152"/>
     </row>
     <row r="20" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="155"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="156"/>
-      <c r="Q20" s="156"/>
-      <c r="R20" s="157"/>
+      <c r="A20" s="150"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="151"/>
+      <c r="O20" s="151"/>
+      <c r="P20" s="151"/>
+      <c r="Q20" s="151"/>
+      <c r="R20" s="152"/>
     </row>
     <row r="21" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="155"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="156"/>
-      <c r="Q21" s="156"/>
-      <c r="R21" s="157"/>
+      <c r="A21" s="150"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="151"/>
+      <c r="Q21" s="151"/>
+      <c r="R21" s="152"/>
     </row>
     <row r="22" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="155"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="156"/>
-      <c r="Q22" s="156"/>
-      <c r="R22" s="157"/>
+      <c r="A22" s="150"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="151"/>
+      <c r="Q22" s="151"/>
+      <c r="R22" s="152"/>
     </row>
     <row r="23" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="155"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="156"/>
-      <c r="P23" s="156"/>
-      <c r="Q23" s="156"/>
-      <c r="R23" s="157"/>
+      <c r="A23" s="150"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="151"/>
+      <c r="P23" s="151"/>
+      <c r="Q23" s="151"/>
+      <c r="R23" s="152"/>
     </row>
     <row r="24" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="155"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="156"/>
-      <c r="O24" s="156"/>
-      <c r="P24" s="156"/>
-      <c r="Q24" s="156"/>
-      <c r="R24" s="157"/>
+      <c r="A24" s="150"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="151"/>
+      <c r="R24" s="152"/>
     </row>
     <row r="25" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="155"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="156"/>
-      <c r="Q25" s="156"/>
-      <c r="R25" s="157"/>
+      <c r="A25" s="150"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="151"/>
+      <c r="N25" s="151"/>
+      <c r="O25" s="151"/>
+      <c r="P25" s="151"/>
+      <c r="Q25" s="151"/>
+      <c r="R25" s="152"/>
     </row>
     <row r="26" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="155"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="156"/>
-      <c r="Q26" s="156"/>
-      <c r="R26" s="157"/>
+      <c r="A26" s="150"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="151"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="151"/>
+      <c r="Q26" s="151"/>
+      <c r="R26" s="152"/>
     </row>
     <row r="27" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="155"/>
-      <c r="B27" s="156"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="156"/>
-      <c r="O27" s="156"/>
-      <c r="P27" s="156"/>
-      <c r="Q27" s="156"/>
-      <c r="R27" s="157"/>
+      <c r="A27" s="150"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="151"/>
+      <c r="N27" s="151"/>
+      <c r="O27" s="151"/>
+      <c r="P27" s="151"/>
+      <c r="Q27" s="151"/>
+      <c r="R27" s="152"/>
     </row>
     <row r="28" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="155"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="156"/>
-      <c r="P28" s="156"/>
-      <c r="Q28" s="156"/>
-      <c r="R28" s="157"/>
+      <c r="A28" s="150"/>
+      <c r="B28" s="151"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="151"/>
+      <c r="O28" s="151"/>
+      <c r="P28" s="151"/>
+      <c r="Q28" s="151"/>
+      <c r="R28" s="152"/>
     </row>
     <row r="29" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="155"/>
-      <c r="B29" s="156"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="156"/>
-      <c r="O29" s="156"/>
-      <c r="P29" s="156"/>
-      <c r="Q29" s="156"/>
-      <c r="R29" s="157"/>
+      <c r="A29" s="150"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="151"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="151"/>
+      <c r="Q29" s="151"/>
+      <c r="R29" s="152"/>
     </row>
     <row r="30" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="155"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="156"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="156"/>
-      <c r="Q30" s="156"/>
-      <c r="R30" s="157"/>
+      <c r="A30" s="150"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="151"/>
+      <c r="O30" s="151"/>
+      <c r="P30" s="151"/>
+      <c r="Q30" s="151"/>
+      <c r="R30" s="152"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="155"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="156"/>
-      <c r="O31" s="156"/>
-      <c r="P31" s="156"/>
-      <c r="Q31" s="156"/>
-      <c r="R31" s="157"/>
+      <c r="A31" s="150"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="151"/>
+      <c r="M31" s="151"/>
+      <c r="N31" s="151"/>
+      <c r="O31" s="151"/>
+      <c r="P31" s="151"/>
+      <c r="Q31" s="151"/>
+      <c r="R31" s="152"/>
     </row>
     <row r="32" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="155"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="156"/>
-      <c r="O32" s="156"/>
-      <c r="P32" s="156"/>
-      <c r="Q32" s="156"/>
-      <c r="R32" s="157"/>
+      <c r="A32" s="150"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="151"/>
+      <c r="O32" s="151"/>
+      <c r="P32" s="151"/>
+      <c r="Q32" s="151"/>
+      <c r="R32" s="152"/>
       <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="155"/>
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="156"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="156"/>
-      <c r="O33" s="156"/>
-      <c r="P33" s="156"/>
-      <c r="Q33" s="156"/>
-      <c r="R33" s="157"/>
+      <c r="A33" s="150"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="151"/>
+      <c r="M33" s="151"/>
+      <c r="N33" s="151"/>
+      <c r="O33" s="151"/>
+      <c r="P33" s="151"/>
+      <c r="Q33" s="151"/>
+      <c r="R33" s="152"/>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="155"/>
-      <c r="B34" s="156"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="156"/>
-      <c r="N34" s="156"/>
-      <c r="O34" s="156"/>
-      <c r="P34" s="156"/>
-      <c r="Q34" s="156"/>
-      <c r="R34" s="157"/>
+      <c r="A34" s="150"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="151"/>
+      <c r="M34" s="151"/>
+      <c r="N34" s="151"/>
+      <c r="O34" s="151"/>
+      <c r="P34" s="151"/>
+      <c r="Q34" s="151"/>
+      <c r="R34" s="152"/>
       <c r="S34" s="12"/>
     </row>
     <row r="35" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="155"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="156"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
-      <c r="N35" s="156"/>
-      <c r="O35" s="156"/>
-      <c r="P35" s="156"/>
-      <c r="Q35" s="156"/>
-      <c r="R35" s="157"/>
+      <c r="A35" s="150"/>
+      <c r="B35" s="151"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="151"/>
+      <c r="L35" s="151"/>
+      <c r="M35" s="151"/>
+      <c r="N35" s="151"/>
+      <c r="O35" s="151"/>
+      <c r="P35" s="151"/>
+      <c r="Q35" s="151"/>
+      <c r="R35" s="152"/>
       <c r="S35" s="12"/>
     </row>
     <row r="36" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="155"/>
-      <c r="B36" s="156"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156"/>
-      <c r="K36" s="156"/>
-      <c r="L36" s="156"/>
-      <c r="M36" s="156"/>
-      <c r="N36" s="156"/>
-      <c r="O36" s="156"/>
-      <c r="P36" s="156"/>
-      <c r="Q36" s="156"/>
-      <c r="R36" s="157"/>
+      <c r="A36" s="150"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="151"/>
+      <c r="K36" s="151"/>
+      <c r="L36" s="151"/>
+      <c r="M36" s="151"/>
+      <c r="N36" s="151"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="151"/>
+      <c r="Q36" s="151"/>
+      <c r="R36" s="152"/>
       <c r="S36" s="12"/>
     </row>
     <row r="37" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="155"/>
-      <c r="B37" s="156"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="156"/>
-      <c r="H37" s="156"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="156"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="156"/>
-      <c r="N37" s="156"/>
-      <c r="O37" s="156"/>
-      <c r="P37" s="156"/>
-      <c r="Q37" s="156"/>
-      <c r="R37" s="157"/>
+      <c r="A37" s="150"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="151"/>
+      <c r="M37" s="151"/>
+      <c r="N37" s="151"/>
+      <c r="O37" s="151"/>
+      <c r="P37" s="151"/>
+      <c r="Q37" s="151"/>
+      <c r="R37" s="152"/>
       <c r="S37" s="12"/>
     </row>
     <row r="38" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="155"/>
-      <c r="B38" s="156"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="156"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="156"/>
-      <c r="N38" s="156"/>
-      <c r="O38" s="156"/>
-      <c r="P38" s="156"/>
-      <c r="Q38" s="156"/>
-      <c r="R38" s="157"/>
+      <c r="A38" s="150"/>
+      <c r="B38" s="151"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="151"/>
+      <c r="N38" s="151"/>
+      <c r="O38" s="151"/>
+      <c r="P38" s="151"/>
+      <c r="Q38" s="151"/>
+      <c r="R38" s="152"/>
       <c r="S38" s="12"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="178" t="s">
+      <c r="A39" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="179"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="179"/>
-      <c r="E39" s="179"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="179"/>
-      <c r="H39" s="179"/>
-      <c r="I39" s="179"/>
-      <c r="J39" s="179"/>
-      <c r="K39" s="179"/>
-      <c r="L39" s="179"/>
-      <c r="M39" s="179"/>
-      <c r="N39" s="179"/>
-      <c r="O39" s="179"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="180"/>
+      <c r="B39" s="160"/>
+      <c r="C39" s="160"/>
+      <c r="D39" s="160"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="160"/>
+      <c r="K39" s="160"/>
+      <c r="L39" s="160"/>
+      <c r="M39" s="160"/>
+      <c r="N39" s="160"/>
+      <c r="O39" s="160"/>
+      <c r="P39" s="160"/>
+      <c r="Q39" s="160"/>
+      <c r="R39" s="161"/>
       <c r="S39" s="12"/>
     </row>
     <row r="40" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="158"/>
+      <c r="A40" s="167"/>
       <c r="B40" s="54" t="s">
         <v>50</v>
       </c>
@@ -8848,8 +8846,8 @@
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="162"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="171"/>
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
       <c r="L40" s="55"/>
@@ -8858,17 +8856,17 @@
       <c r="O40" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="P40" s="165" t="s">
+      <c r="P40" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="Q40" s="166"/>
+      <c r="Q40" s="175"/>
       <c r="R40" s="57" t="s">
         <v>54</v>
       </c>
       <c r="S40" s="12"/>
     </row>
     <row r="41" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="159"/>
+      <c r="A41" s="168"/>
       <c r="B41" s="43" t="s">
         <v>51</v>
       </c>
@@ -8887,8 +8885,8 @@
       <c r="G41" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="163"/>
-      <c r="I41" s="164"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="173"/>
       <c r="J41" s="44" t="s">
         <v>55</v>
       </c>
@@ -8905,136 +8903,100 @@
         <v>59</v>
       </c>
       <c r="O41" s="45"/>
-      <c r="P41" s="167"/>
-      <c r="Q41" s="168"/>
-      <c r="R41" s="173"/>
+      <c r="P41" s="176"/>
+      <c r="Q41" s="177"/>
+      <c r="R41" s="182"/>
       <c r="S41" s="12"/>
     </row>
     <row r="42" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="159"/>
+      <c r="A42" s="168"/>
       <c r="B42" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="176" t="s">
+      <c r="C42" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="177"/>
+      <c r="D42" s="186"/>
       <c r="E42" s="50"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="176" t="s">
+      <c r="J42" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="K42" s="177"/>
+      <c r="K42" s="186"/>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
       <c r="N42" s="31"/>
       <c r="O42" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="P42" s="169"/>
-      <c r="Q42" s="170"/>
-      <c r="R42" s="174"/>
+      <c r="P42" s="178"/>
+      <c r="Q42" s="179"/>
+      <c r="R42" s="183"/>
       <c r="S42" s="12"/>
     </row>
     <row r="43" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="159"/>
+      <c r="A43" s="168"/>
       <c r="B43" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="176" t="s">
+      <c r="C43" s="185" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="177"/>
+      <c r="D43" s="186"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="52"/>
       <c r="I43" s="53"/>
-      <c r="J43" s="176" t="s">
+      <c r="J43" s="185" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="177"/>
+      <c r="K43" s="186"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
       <c r="O43" s="47"/>
-      <c r="P43" s="171"/>
-      <c r="Q43" s="172"/>
-      <c r="R43" s="175"/>
+      <c r="P43" s="180"/>
+      <c r="Q43" s="181"/>
+      <c r="R43" s="184"/>
     </row>
     <row r="44" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="160"/>
+      <c r="A44" s="169"/>
       <c r="B44" s="58"/>
-      <c r="C44" s="150" t="s">
+      <c r="C44" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="151"/>
+      <c r="D44" s="163"/>
       <c r="E44" s="59"/>
       <c r="F44" s="60"/>
       <c r="G44" s="60"/>
       <c r="H44" s="61"/>
       <c r="I44" s="62"/>
-      <c r="J44" s="150" t="s">
+      <c r="J44" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="K44" s="151"/>
+      <c r="K44" s="163"/>
       <c r="L44" s="59"/>
       <c r="M44" s="59" t="s">
         <v>70</v>
       </c>
       <c r="N44" s="60"/>
-      <c r="O44" s="152" t="s">
+      <c r="O44" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="P44" s="153"/>
-      <c r="Q44" s="152" t="s">
+      <c r="P44" s="165"/>
+      <c r="Q44" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="R44" s="154"/>
+      <c r="R44" s="166"/>
     </row>
     <row r="45" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A8:R8"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="A10:R10"/>
-    <mergeCell ref="A11:R11"/>
-    <mergeCell ref="A24:R24"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="A14:R14"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A18:R18"/>
-    <mergeCell ref="A19:R19"/>
-    <mergeCell ref="A20:R20"/>
-    <mergeCell ref="A21:R21"/>
-    <mergeCell ref="A22:R22"/>
-    <mergeCell ref="A23:R23"/>
-    <mergeCell ref="A36:R36"/>
-    <mergeCell ref="A25:R25"/>
-    <mergeCell ref="A26:R26"/>
-    <mergeCell ref="A27:R27"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="A29:R29"/>
-    <mergeCell ref="A30:R30"/>
-    <mergeCell ref="A31:R31"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="A33:R33"/>
-    <mergeCell ref="A34:R34"/>
-    <mergeCell ref="A35:R35"/>
     <mergeCell ref="Q44:R44"/>
     <mergeCell ref="A37:R37"/>
     <mergeCell ref="A38:R38"/>
@@ -9051,6 +9013,42 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="O44:P44"/>
+    <mergeCell ref="A36:R36"/>
+    <mergeCell ref="A25:R25"/>
+    <mergeCell ref="A26:R26"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="A29:R29"/>
+    <mergeCell ref="A30:R30"/>
+    <mergeCell ref="A31:R31"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="A33:R33"/>
+    <mergeCell ref="A34:R34"/>
+    <mergeCell ref="A35:R35"/>
+    <mergeCell ref="A24:R24"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:R14"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="A20:R20"/>
+    <mergeCell ref="A21:R21"/>
+    <mergeCell ref="A22:R22"/>
+    <mergeCell ref="A23:R23"/>
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A11:R11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B43" r:id="rId1" display="http://www.sofia-decor.ru/"/>
@@ -9064,10 +9062,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:N29"/>
+      <selection activeCell="K28" sqref="K28:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9116,18 +9114,18 @@
       <c r="J2" s="6"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="118" t="s">
+      <c r="M2" s="136"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="117">
+      <c r="P2" s="133"/>
+      <c r="Q2" s="134">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
-      </c>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
+        <v>43507</v>
+      </c>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
       <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -9143,17 +9141,17 @@
       <c r="J3" s="6"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="118" t="s">
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="115" t="s">
+      <c r="P3" s="133"/>
+      <c r="Q3" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
       <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9440,17 +9438,17 @@
       <c r="G16" s="125"/>
       <c r="H16" s="125"/>
       <c r="I16" s="125"/>
-      <c r="J16" s="134" t="str">
+      <c r="J16" s="126" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J13:Q13</f>
         <v>Иванов И.И.</v>
       </c>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="134"/>
-      <c r="P16" s="134"/>
-      <c r="Q16" s="134"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="126"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -9482,7 +9480,7 @@
       <c r="S17" s="3"/>
       <c r="T17" s="4"/>
     </row>
-    <row r="18" spans="1:20" ht="25.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -9494,17 +9492,17 @@
       <c r="G18" s="125"/>
       <c r="H18" s="125"/>
       <c r="I18" s="125"/>
-      <c r="J18" s="189" t="str">
+      <c r="J18" s="126" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J15:Q15</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="189"/>
-      <c r="L18" s="189"/>
-      <c r="M18" s="189"/>
-      <c r="N18" s="189"/>
-      <c r="O18" s="189"/>
-      <c r="P18" s="189"/>
-      <c r="Q18" s="189"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="126"/>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="126"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="4"/>
@@ -9575,17 +9573,17 @@
       <c r="G21" s="125"/>
       <c r="H21" s="125"/>
       <c r="I21" s="125"/>
-      <c r="J21" s="134" t="str">
+      <c r="J21" s="126" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J18:Q18</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="134"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="134"/>
-      <c r="O21" s="134"/>
-      <c r="P21" s="134"/>
-      <c r="Q21" s="134"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="126"/>
+      <c r="O21" s="126"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="126"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="4"/>
@@ -9710,17 +9708,19 @@
       <c r="S26" s="3"/>
       <c r="T26" s="4"/>
     </row>
-    <row r="27" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="G27" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -9729,80 +9729,80 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
+      <c r="S27" s="7"/>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="4"/>
-    </row>
-    <row r="29" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="137" t="s">
+    <row r="28" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="128" t="str">
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="121" t="str">
         <f>builder</f>
         <v>_____________________</v>
       </c>
-      <c r="L29" s="128"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="128" t="s">
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="128"/>
-      <c r="Q29" s="30" t="s">
+      <c r="P28" s="121"/>
+      <c r="Q28" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="30" t="s">
+      <c r="R28" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="S29" s="114">
+      <c r="S28" s="114">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
-      </c>
-      <c r="T29" s="22"/>
-    </row>
-    <row r="30" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43507</v>
+      </c>
+      <c r="T28" s="22"/>
+    </row>
+    <row r="29" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="G30" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -9814,53 +9814,64 @@
       <c r="S30" s="7"/>
       <c r="T30" s="4"/>
     </row>
-    <row r="31" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="133" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="130"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="4"/>
+    <row r="31" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="R31" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="S31" s="114">
+        <f ca="1">TODAY()</f>
+        <v>43507</v>
+      </c>
+      <c r="T31" s="22"/>
     </row>
     <row r="32" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="131" t="s">
+      <c r="A32" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="131"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="128" t="s">
+      <c r="L32" s="117"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="128"/>
+      <c r="P32" s="121"/>
       <c r="Q32" s="30" t="s">
         <v>3</v>
       </c>
@@ -9869,56 +9880,45 @@
       </c>
       <c r="S32" s="114">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
+        <v>43507</v>
       </c>
       <c r="T32" s="22"/>
     </row>
-    <row r="33" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="129" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="131" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="131"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="128" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="128"/>
-      <c r="Q33" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="114">
-        <f ca="1">TODAY()</f>
-        <v>43505</v>
-      </c>
-      <c r="T33" s="22"/>
-    </row>
-    <row r="34" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="G34" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -9930,104 +9930,80 @@
       <c r="S34" s="7"/>
       <c r="T34" s="4"/>
     </row>
-    <row r="35" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="130"/>
-      <c r="I35" s="130"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="4"/>
-    </row>
-    <row r="36" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="129" t="s">
+    <row r="35" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="130"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="131" t="s">
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="L36" s="131"/>
-      <c r="M36" s="131"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="128" t="s">
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="P36" s="128"/>
-      <c r="Q36" s="30" t="s">
+      <c r="P35" s="121"/>
+      <c r="Q35" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="R36" s="30" t="s">
+      <c r="R35" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="S36" s="114">
+      <c r="S35" s="114">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
-      </c>
-      <c r="T36" s="22"/>
-    </row>
-    <row r="37" spans="1:20" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="10"/>
+        <v>43507</v>
+      </c>
+      <c r="T35" s="22"/>
+    </row>
+    <row r="36" spans="1:20" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="E13:P15"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="G34:J34"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="J19:Q19"/>
@@ -10039,25 +10015,25 @@
     <mergeCell ref="J17:Q17"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="E13:P15"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="92" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/dist/files/xls/shablon-alboma-dp.xlsx
+++ b/dist/files/xls/shablon-alboma-dp.xlsx
@@ -1768,29 +1768,42 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1799,6 +1812,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1808,30 +1845,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1857,17 +1881,23 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1878,6 +1908,75 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1895,90 +1994,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2043,21 +2058,6 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="3" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2084,15 +2084,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>157843</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>132806</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>431557</xdr:colOff>
+      <xdr:colOff>445164</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>286291</xdr:rowOff>
+      <xdr:rowOff>463184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2115,8 +2115,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="157843" y="132806"/>
-          <a:ext cx="2735560" cy="1340447"/>
+          <a:off x="171450" y="309699"/>
+          <a:ext cx="2750214" cy="1337306"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5481,18 +5481,18 @@
       <c r="J2" s="6"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="135" t="s">
+      <c r="M2" s="126"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="134">
+      <c r="P2" s="121"/>
+      <c r="Q2" s="122">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
-      </c>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
+        <v>43552</v>
+      </c>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
       <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5508,17 +5508,17 @@
       <c r="J3" s="6"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="135" t="s">
+      <c r="M3" s="126"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="118" t="s">
+      <c r="P3" s="121"/>
+      <c r="Q3" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
       <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5533,19 +5533,19 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="135" t="s">
+      <c r="L4" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5557,24 +5557,24 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="135" t="s">
+      <c r="L5" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="131" t="s">
+    <row r="6" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -5593,12 +5593,12 @@
       <c r="S6" s="3"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="131" t="s">
+    <row r="7" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -5617,12 +5617,12 @@
       <c r="S7" s="3"/>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="131" t="s">
+    <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -5646,18 +5646,18 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="122" t="s">
+      <c r="E9" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="123"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -5670,16 +5670,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="123"/>
-      <c r="N10" s="123"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
       <c r="O10" s="24"/>
       <c r="P10" s="26"/>
       <c r="Q10" s="5"/>
@@ -5692,16 +5692,16 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="123"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
       <c r="O11" s="24"/>
       <c r="P11" s="26"/>
       <c r="Q11" s="5"/>
@@ -5714,16 +5714,16 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
       <c r="O12" s="24"/>
       <c r="P12" s="26"/>
       <c r="Q12" s="5"/>
@@ -5737,22 +5737,22 @@
       <c r="C13" s="110"/>
       <c r="D13" s="110"/>
       <c r="E13" s="111"/>
-      <c r="F13" s="129" t="s">
+      <c r="F13" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="126" t="s">
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="126"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="139"/>
       <c r="R13" s="110"/>
       <c r="S13" s="110"/>
       <c r="T13" s="112"/>
@@ -5763,51 +5763,51 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="124" t="s">
+      <c r="F14" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="118" t="s">
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:20" s="212" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="208"/>
-      <c r="B15" s="209"/>
-      <c r="C15" s="209"/>
-      <c r="D15" s="209"/>
-      <c r="E15" s="210"/>
-      <c r="F15" s="129" t="s">
+    <row r="15" spans="1:20" s="119" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="126" t="s">
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="209"/>
-      <c r="S15" s="209"/>
-      <c r="T15" s="211"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="118"/>
     </row>
     <row r="16" spans="1:20" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -5815,22 +5815,22 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="124" t="s">
+      <c r="F16" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="118" t="s">
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -5841,22 +5841,22 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="124" t="s">
+      <c r="F17" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="118" t="s">
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="141"/>
+      <c r="O17" s="141"/>
+      <c r="P17" s="141"/>
+      <c r="Q17" s="141"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="4"/>
@@ -5867,22 +5867,22 @@
       <c r="C18" s="110"/>
       <c r="D18" s="110"/>
       <c r="E18" s="111"/>
-      <c r="F18" s="129" t="s">
+      <c r="F18" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="126" t="s">
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="140"/>
       <c r="R18" s="110"/>
       <c r="S18" s="110"/>
       <c r="T18" s="112"/>
@@ -5893,22 +5893,22 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="124" t="s">
+      <c r="F19" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="118">
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="120">
         <v>500</v>
       </c>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="120"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="4"/>
@@ -5919,22 +5919,22 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="124" t="s">
+      <c r="F20" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="118" t="s">
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="118"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="120"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="4"/>
@@ -5990,12 +5990,12 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="119" t="s">
+      <c r="G23" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -6008,28 +6008,28 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="120" t="s">
+      <c r="A24" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="121" t="s">
+      <c r="B24" s="135"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="121"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121" t="s">
+      <c r="L24" s="133"/>
+      <c r="M24" s="133"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="121"/>
+      <c r="P24" s="133"/>
       <c r="Q24" s="21" t="s">
         <v>3</v>
       </c>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="S24" s="114">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
+        <v>43552</v>
       </c>
       <c r="T24" s="22"/>
     </row>
@@ -6071,12 +6071,12 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="119" t="s">
+      <c r="G26" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -6089,28 +6089,28 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="115" t="s">
+      <c r="A27" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="117" t="s">
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="117"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="117"/>
-      <c r="O27" s="121" t="s">
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="121"/>
+      <c r="P27" s="133"/>
       <c r="Q27" s="21" t="s">
         <v>3</v>
       </c>
@@ -6119,33 +6119,33 @@
       </c>
       <c r="S27" s="114">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
+        <v>43552</v>
       </c>
       <c r="T27" s="22"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="115" t="s">
+      <c r="A28" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="116"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="117" t="s">
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="117"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="121" t="s">
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="121"/>
+      <c r="P28" s="133"/>
       <c r="Q28" s="21" t="s">
         <v>3</v>
       </c>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="S28" s="114">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
+        <v>43552</v>
       </c>
       <c r="T28" s="22"/>
     </row>
@@ -6187,12 +6187,12 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="119" t="s">
+      <c r="G30" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="135"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -6205,28 +6205,28 @@
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="115" t="s">
+      <c r="A31" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="117" t="s">
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="117"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="117"/>
-      <c r="O31" s="121" t="s">
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="121"/>
+      <c r="P31" s="133"/>
       <c r="Q31" s="25" t="s">
         <v>3</v>
       </c>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="S31" s="114">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
+        <v>43552</v>
       </c>
       <c r="T31" s="22"/>
     </row>
@@ -6268,12 +6268,12 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="119" t="s">
+      <c r="G33" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="135"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -6286,28 +6286,28 @@
       <c r="T33" s="4"/>
     </row>
     <row r="34" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="115" t="s">
+      <c r="A34" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="117" t="s">
+      <c r="B34" s="135"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="135"/>
+      <c r="J34" s="135"/>
+      <c r="K34" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="L34" s="117"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="117"/>
-      <c r="O34" s="121" t="s">
+      <c r="L34" s="136"/>
+      <c r="M34" s="136"/>
+      <c r="N34" s="136"/>
+      <c r="O34" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="P34" s="121"/>
+      <c r="P34" s="133"/>
       <c r="Q34" s="21" t="s">
         <v>3</v>
       </c>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="S34" s="114">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
+        <v>43552</v>
       </c>
       <c r="T34" s="22"/>
     </row>
@@ -6344,21 +6344,22 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="G30:J30"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="K31:N31"/>
     <mergeCell ref="O31:P31"/>
@@ -6375,26 +6376,29 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="L5:P5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="8" scale="92" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L
+                    https://500stp.website/shablony-dokumentov-titulnyy-dp.php</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6425,40 +6429,40 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="138"/>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="138"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="146"/>
+      <c r="O10" s="146"/>
+      <c r="P10" s="146"/>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="146"/>
+      <c r="S10" s="146"/>
+      <c r="T10" s="146"/>
+      <c r="U10" s="146"/>
+      <c r="V10" s="146"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G12" s="39"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="139"/>
-      <c r="N12" s="139"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="147"/>
+      <c r="N12" s="147"/>
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
     </row>
@@ -6466,15 +6470,15 @@
       <c r="G13" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="140" t="s">
+      <c r="H13" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="142"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="150"/>
       <c r="O13" s="34" t="s">
         <v>39</v>
       </c>
@@ -6486,15 +6490,15 @@
       <c r="G14" s="34">
         <v>2</v>
       </c>
-      <c r="H14" s="143" t="s">
+      <c r="H14" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="145"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="153"/>
       <c r="O14" s="34" t="s">
         <v>41</v>
       </c>
@@ -6504,15 +6508,15 @@
       <c r="G15" s="34">
         <v>3</v>
       </c>
-      <c r="H15" s="143" t="s">
+      <c r="H15" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="144"/>
-      <c r="N15" s="145"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="152"/>
+      <c r="N15" s="153"/>
       <c r="O15" s="34" t="s">
         <v>36</v>
       </c>
@@ -6524,15 +6528,15 @@
       <c r="G16" s="34">
         <v>4</v>
       </c>
-      <c r="H16" s="143" t="s">
+      <c r="H16" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="145"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="153"/>
       <c r="O16" s="34" t="s">
         <v>43</v>
       </c>
@@ -6542,15 +6546,15 @@
       <c r="G17" s="34">
         <v>5</v>
       </c>
-      <c r="H17" s="143" t="s">
+      <c r="H17" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="145"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="153"/>
       <c r="O17" s="34" t="s">
         <v>43</v>
       </c>
@@ -6560,15 +6564,15 @@
       <c r="G18" s="34">
         <v>6</v>
       </c>
-      <c r="H18" s="143" t="s">
+      <c r="H18" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="144"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="144"/>
-      <c r="N18" s="145"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="153"/>
       <c r="O18" s="34" t="s">
         <v>43</v>
       </c>
@@ -6578,15 +6582,15 @@
       <c r="G19" s="34">
         <v>7</v>
       </c>
-      <c r="H19" s="143" t="s">
+      <c r="H19" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="144"/>
-      <c r="N19" s="145"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="153"/>
       <c r="O19" s="34" t="s">
         <v>43</v>
       </c>
@@ -6596,15 +6600,15 @@
       <c r="G20" s="34">
         <v>8</v>
       </c>
-      <c r="H20" s="143" t="s">
+      <c r="H20" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="144"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="144"/>
-      <c r="M20" s="144"/>
-      <c r="N20" s="145"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="152"/>
+      <c r="N20" s="153"/>
       <c r="O20" s="34" t="s">
         <v>43</v>
       </c>
@@ -6612,301 +6616,301 @@
     </row>
     <row r="21" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G21" s="39"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="147"/>
-      <c r="M21" s="147"/>
-      <c r="N21" s="147"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
     </row>
     <row r="22" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G22" s="33"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="146"/>
-      <c r="M22" s="146"/>
-      <c r="N22" s="146"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
       <c r="O22" s="33"/>
       <c r="P22" s="36"/>
     </row>
     <row r="23" spans="7:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G23" s="33"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="146"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
       <c r="O23" s="33"/>
       <c r="P23" s="37"/>
     </row>
     <row r="24" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G24" s="33"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="146"/>
-      <c r="M24" s="146"/>
-      <c r="N24" s="146"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="143"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="143"/>
+      <c r="N24" s="143"/>
       <c r="O24" s="33"/>
       <c r="P24" s="36"/>
     </row>
     <row r="25" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25" s="33"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="146"/>
-      <c r="M25" s="146"/>
-      <c r="N25" s="146"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="143"/>
       <c r="O25" s="33"/>
       <c r="P25" s="36"/>
     </row>
     <row r="26" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G26" s="33"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
       <c r="O26" s="33"/>
       <c r="P26" s="36"/>
     </row>
     <row r="27" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G27" s="33"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="146"/>
-      <c r="M27" s="146"/>
-      <c r="N27" s="146"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
       <c r="O27" s="33"/>
       <c r="P27" s="36"/>
     </row>
     <row r="28" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G28" s="33"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="146"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="143"/>
+      <c r="N28" s="143"/>
       <c r="O28" s="33"/>
       <c r="P28" s="36"/>
     </row>
     <row r="29" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G29" s="33"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="146"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="143"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="143"/>
+      <c r="N29" s="143"/>
       <c r="O29" s="33"/>
       <c r="P29" s="36"/>
     </row>
     <row r="30" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G30" s="33"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="146"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="143"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="143"/>
+      <c r="N30" s="143"/>
       <c r="O30" s="33"/>
       <c r="P30" s="36"/>
     </row>
     <row r="31" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G31" s="33"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="143"/>
+      <c r="K31" s="143"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="143"/>
+      <c r="N31" s="143"/>
       <c r="O31" s="33"/>
       <c r="P31" s="36"/>
     </row>
     <row r="32" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G32" s="33"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="143"/>
+      <c r="K32" s="143"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="143"/>
+      <c r="N32" s="143"/>
       <c r="O32" s="33"/>
       <c r="P32" s="36"/>
     </row>
     <row r="33" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G33" s="33"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="146"/>
-      <c r="N33" s="146"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="143"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="143"/>
+      <c r="N33" s="143"/>
       <c r="O33" s="33"/>
       <c r="P33" s="36"/>
     </row>
     <row r="34" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G34" s="33"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="146"/>
-      <c r="M34" s="146"/>
-      <c r="N34" s="146"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="143"/>
+      <c r="K34" s="143"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="143"/>
+      <c r="N34" s="143"/>
       <c r="O34" s="33"/>
       <c r="P34" s="36"/>
     </row>
     <row r="35" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G35" s="33"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="146"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="146"/>
-      <c r="M35" s="146"/>
-      <c r="N35" s="146"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="143"/>
+      <c r="L35" s="143"/>
+      <c r="M35" s="143"/>
+      <c r="N35" s="143"/>
       <c r="O35" s="33"/>
       <c r="P35" s="36"/>
     </row>
     <row r="36" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G36" s="33"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="146"/>
-      <c r="J36" s="146"/>
-      <c r="K36" s="146"/>
-      <c r="L36" s="146"/>
-      <c r="M36" s="146"/>
-      <c r="N36" s="146"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="143"/>
+      <c r="L36" s="143"/>
+      <c r="M36" s="143"/>
+      <c r="N36" s="143"/>
       <c r="O36" s="33"/>
       <c r="P36" s="36"/>
     </row>
     <row r="37" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G37" s="33"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="146"/>
-      <c r="K37" s="146"/>
-      <c r="L37" s="146"/>
-      <c r="M37" s="146"/>
-      <c r="N37" s="146"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="143"/>
+      <c r="K37" s="143"/>
+      <c r="L37" s="143"/>
+      <c r="M37" s="143"/>
+      <c r="N37" s="143"/>
       <c r="O37" s="33"/>
       <c r="P37" s="36"/>
     </row>
     <row r="38" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G38" s="33"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="146"/>
-      <c r="K38" s="146"/>
-      <c r="L38" s="146"/>
-      <c r="M38" s="146"/>
-      <c r="N38" s="146"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="143"/>
+      <c r="K38" s="143"/>
+      <c r="L38" s="143"/>
+      <c r="M38" s="143"/>
+      <c r="N38" s="143"/>
       <c r="O38" s="33"/>
       <c r="P38" s="36"/>
     </row>
     <row r="39" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G39" s="33"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="146"/>
-      <c r="K39" s="146"/>
-      <c r="L39" s="146"/>
-      <c r="M39" s="146"/>
-      <c r="N39" s="146"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="143"/>
+      <c r="K39" s="143"/>
+      <c r="L39" s="143"/>
+      <c r="M39" s="143"/>
+      <c r="N39" s="143"/>
       <c r="O39" s="33"/>
       <c r="P39" s="36"/>
     </row>
     <row r="40" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G40" s="33"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="146"/>
-      <c r="K40" s="146"/>
-      <c r="L40" s="146"/>
-      <c r="M40" s="146"/>
-      <c r="N40" s="146"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="143"/>
+      <c r="J40" s="143"/>
+      <c r="K40" s="143"/>
+      <c r="L40" s="143"/>
+      <c r="M40" s="143"/>
+      <c r="N40" s="143"/>
       <c r="O40" s="33"/>
       <c r="P40" s="36"/>
     </row>
     <row r="41" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G41" s="33"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146"/>
-      <c r="K41" s="146"/>
-      <c r="L41" s="146"/>
-      <c r="M41" s="146"/>
-      <c r="N41" s="146"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="143"/>
+      <c r="J41" s="143"/>
+      <c r="K41" s="143"/>
+      <c r="L41" s="143"/>
+      <c r="M41" s="143"/>
+      <c r="N41" s="143"/>
       <c r="O41" s="33"/>
       <c r="P41" s="36"/>
     </row>
     <row r="42" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G42" s="33"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
-      <c r="K42" s="146"/>
-      <c r="L42" s="146"/>
-      <c r="M42" s="146"/>
-      <c r="N42" s="146"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="143"/>
+      <c r="K42" s="143"/>
+      <c r="L42" s="143"/>
+      <c r="M42" s="143"/>
+      <c r="N42" s="143"/>
       <c r="O42" s="33"/>
       <c r="P42" s="36"/>
     </row>
     <row r="43" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G43" s="33"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="146"/>
-      <c r="M43" s="146"/>
-      <c r="N43" s="146"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="143"/>
+      <c r="K43" s="143"/>
+      <c r="L43" s="143"/>
+      <c r="M43" s="143"/>
+      <c r="N43" s="143"/>
       <c r="O43" s="33"/>
       <c r="P43" s="36"/>
     </row>
     <row r="44" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G44" s="33"/>
-      <c r="H44" s="146"/>
-      <c r="I44" s="146"/>
-      <c r="J44" s="146"/>
-      <c r="K44" s="146"/>
-      <c r="L44" s="146"/>
-      <c r="M44" s="146"/>
-      <c r="N44" s="146"/>
+      <c r="H44" s="143"/>
+      <c r="I44" s="143"/>
+      <c r="J44" s="143"/>
+      <c r="K44" s="143"/>
+      <c r="L44" s="143"/>
+      <c r="M44" s="143"/>
+      <c r="N44" s="143"/>
       <c r="O44" s="33"/>
       <c r="P44" s="36"/>
     </row>
     <row r="45" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G45" s="33"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="146"/>
-      <c r="J45" s="146"/>
-      <c r="K45" s="146"/>
-      <c r="L45" s="146"/>
-      <c r="M45" s="146"/>
-      <c r="N45" s="146"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="143"/>
+      <c r="J45" s="143"/>
+      <c r="K45" s="143"/>
+      <c r="L45" s="143"/>
+      <c r="M45" s="143"/>
+      <c r="N45" s="143"/>
       <c r="O45" s="33"/>
       <c r="P45" s="36"/>
     </row>
@@ -6916,36 +6920,56 @@
     <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Y57" s="41">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
+        <v>43552</v>
       </c>
     </row>
     <row r="58" spans="2:25" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B58" s="148" t="str">
+      <c r="B58" s="144" t="str">
         <f ca="1">"Москва " &amp; YEAR(Y57)</f>
         <v>Москва 2019</v>
       </c>
-      <c r="C58" s="149"/>
-      <c r="D58" s="149"/>
-      <c r="E58" s="149"/>
-      <c r="F58" s="149"/>
-      <c r="G58" s="149"/>
-      <c r="H58" s="149"/>
-      <c r="I58" s="149"/>
-      <c r="J58" s="149"/>
-      <c r="K58" s="149"/>
-      <c r="L58" s="149"/>
-      <c r="M58" s="149"/>
-      <c r="N58" s="149"/>
-      <c r="O58" s="149"/>
-      <c r="P58" s="149"/>
-      <c r="Q58" s="149"/>
-      <c r="R58" s="149"/>
-      <c r="S58" s="149"/>
-      <c r="T58" s="149"/>
-      <c r="U58" s="149"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+      <c r="G58" s="145"/>
+      <c r="H58" s="145"/>
+      <c r="I58" s="145"/>
+      <c r="J58" s="145"/>
+      <c r="K58" s="145"/>
+      <c r="L58" s="145"/>
+      <c r="M58" s="145"/>
+      <c r="N58" s="145"/>
+      <c r="O58" s="145"/>
+      <c r="P58" s="145"/>
+      <c r="Q58" s="145"/>
+      <c r="R58" s="145"/>
+      <c r="S58" s="145"/>
+      <c r="T58" s="145"/>
+      <c r="U58" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A10:V10"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="H35:N35"/>
+    <mergeCell ref="H36:N36"/>
     <mergeCell ref="H26:N26"/>
     <mergeCell ref="H27:N27"/>
     <mergeCell ref="H28:N28"/>
@@ -6962,26 +6986,6 @@
     <mergeCell ref="H39:N39"/>
     <mergeCell ref="H40:N40"/>
     <mergeCell ref="H31:N31"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="H35:N35"/>
-    <mergeCell ref="H36:N36"/>
-    <mergeCell ref="A10:V10"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H25:N25"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="H16:N16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -7010,799 +7014,799 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="153"/>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="155"/>
+      <c r="A1" s="186"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="188"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
+      <c r="R2" s="191"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="150"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="152"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="162"/>
     </row>
     <row r="4" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="150"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="151"/>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="152"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="162"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="150"/>
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="151"/>
-      <c r="M5" s="151"/>
-      <c r="N5" s="151"/>
-      <c r="O5" s="151"/>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="151"/>
-      <c r="R5" s="152"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="162"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="150"/>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="151"/>
-      <c r="P6" s="151"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="152"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="161"/>
+      <c r="Q6" s="161"/>
+      <c r="R6" s="162"/>
     </row>
     <row r="7" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="150"/>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="151"/>
-      <c r="R7" s="152"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="162"/>
     </row>
     <row r="8" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="150"/>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="151"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="151"/>
-      <c r="R8" s="152"/>
+      <c r="A8" s="160"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="161"/>
+      <c r="Q8" s="161"/>
+      <c r="R8" s="162"/>
     </row>
     <row r="9" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="150"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="151"/>
-      <c r="R9" s="152"/>
+      <c r="A9" s="160"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="162"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="150"/>
-      <c r="B10" s="151"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="151"/>
-      <c r="R10" s="152"/>
+      <c r="A10" s="160"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="161"/>
+      <c r="R10" s="162"/>
     </row>
     <row r="11" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="150"/>
-      <c r="B11" s="151"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="151"/>
-      <c r="R11" s="152"/>
+      <c r="A11" s="160"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="162"/>
     </row>
     <row r="12" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="150"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="152"/>
+      <c r="A12" s="160"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="161"/>
+      <c r="Q12" s="161"/>
+      <c r="R12" s="162"/>
     </row>
     <row r="13" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="150"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="152"/>
+      <c r="A13" s="160"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="162"/>
     </row>
     <row r="14" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="150"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="152"/>
+      <c r="A14" s="160"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="162"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="150"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="151"/>
-      <c r="R15" s="152"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="161"/>
+      <c r="Q15" s="161"/>
+      <c r="R15" s="162"/>
     </row>
     <row r="16" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="150"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="151"/>
-      <c r="Q16" s="151"/>
-      <c r="R16" s="152"/>
+      <c r="A16" s="160"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="161"/>
+      <c r="R16" s="162"/>
     </row>
     <row r="17" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="150"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="151"/>
-      <c r="Q17" s="151"/>
-      <c r="R17" s="152"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="162"/>
     </row>
     <row r="18" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="150"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="151"/>
-      <c r="R18" s="152"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="162"/>
     </row>
     <row r="19" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="150"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="151"/>
-      <c r="R19" s="152"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="161"/>
+      <c r="P19" s="161"/>
+      <c r="Q19" s="161"/>
+      <c r="R19" s="162"/>
     </row>
     <row r="20" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="150"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="151"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="151"/>
-      <c r="P20" s="151"/>
-      <c r="Q20" s="151"/>
-      <c r="R20" s="152"/>
+      <c r="A20" s="160"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="161"/>
+      <c r="P20" s="161"/>
+      <c r="Q20" s="161"/>
+      <c r="R20" s="162"/>
     </row>
     <row r="21" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="150"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="151"/>
-      <c r="Q21" s="151"/>
-      <c r="R21" s="152"/>
+      <c r="A21" s="160"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="161"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="162"/>
     </row>
     <row r="22" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="150"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="151"/>
-      <c r="Q22" s="151"/>
-      <c r="R22" s="152"/>
+      <c r="A22" s="160"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="161"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="161"/>
+      <c r="Q22" s="161"/>
+      <c r="R22" s="162"/>
     </row>
     <row r="23" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="150"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="151"/>
-      <c r="Q23" s="151"/>
-      <c r="R23" s="152"/>
+      <c r="A23" s="160"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="162"/>
     </row>
     <row r="24" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="150"/>
-      <c r="B24" s="151"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="151"/>
-      <c r="Q24" s="151"/>
-      <c r="R24" s="152"/>
+      <c r="A24" s="160"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="161"/>
+      <c r="R24" s="162"/>
     </row>
     <row r="25" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="150"/>
-      <c r="B25" s="151"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="151"/>
-      <c r="Q25" s="151"/>
-      <c r="R25" s="152"/>
+      <c r="A25" s="160"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="161"/>
+      <c r="Q25" s="161"/>
+      <c r="R25" s="162"/>
     </row>
     <row r="26" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="150"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="151"/>
-      <c r="R26" s="152"/>
+      <c r="A26" s="160"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="161"/>
+      <c r="Q26" s="161"/>
+      <c r="R26" s="162"/>
     </row>
     <row r="27" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="150"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="151"/>
-      <c r="Q27" s="151"/>
-      <c r="R27" s="152"/>
+      <c r="A27" s="160"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="162"/>
     </row>
     <row r="28" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="150"/>
-      <c r="B28" s="151"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="151"/>
-      <c r="P28" s="151"/>
-      <c r="Q28" s="151"/>
-      <c r="R28" s="152"/>
+      <c r="A28" s="160"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="161"/>
+      <c r="L28" s="161"/>
+      <c r="M28" s="161"/>
+      <c r="N28" s="161"/>
+      <c r="O28" s="161"/>
+      <c r="P28" s="161"/>
+      <c r="Q28" s="161"/>
+      <c r="R28" s="162"/>
     </row>
     <row r="29" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="150"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="151"/>
-      <c r="Q29" s="151"/>
-      <c r="R29" s="152"/>
+      <c r="A29" s="160"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="161"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="162"/>
     </row>
     <row r="30" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="150"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="151"/>
-      <c r="O30" s="151"/>
-      <c r="P30" s="151"/>
-      <c r="Q30" s="151"/>
-      <c r="R30" s="152"/>
+      <c r="A30" s="160"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="161"/>
+      <c r="M30" s="161"/>
+      <c r="N30" s="161"/>
+      <c r="O30" s="161"/>
+      <c r="P30" s="161"/>
+      <c r="Q30" s="161"/>
+      <c r="R30" s="162"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="150"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="151"/>
-      <c r="P31" s="151"/>
-      <c r="Q31" s="151"/>
-      <c r="R31" s="152"/>
+      <c r="A31" s="160"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="161"/>
+      <c r="M31" s="161"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="161"/>
+      <c r="P31" s="161"/>
+      <c r="Q31" s="161"/>
+      <c r="R31" s="162"/>
     </row>
     <row r="32" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="150"/>
-      <c r="B32" s="151"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="151"/>
-      <c r="P32" s="151"/>
-      <c r="Q32" s="151"/>
-      <c r="R32" s="152"/>
+      <c r="A32" s="160"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="161"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="161"/>
+      <c r="P32" s="161"/>
+      <c r="Q32" s="161"/>
+      <c r="R32" s="162"/>
       <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="150"/>
-      <c r="B33" s="151"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="151"/>
-      <c r="O33" s="151"/>
-      <c r="P33" s="151"/>
-      <c r="Q33" s="151"/>
-      <c r="R33" s="152"/>
+      <c r="A33" s="160"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="161"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="161"/>
+      <c r="M33" s="161"/>
+      <c r="N33" s="161"/>
+      <c r="O33" s="161"/>
+      <c r="P33" s="161"/>
+      <c r="Q33" s="161"/>
+      <c r="R33" s="162"/>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="150"/>
-      <c r="B34" s="151"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
-      <c r="N34" s="151"/>
-      <c r="O34" s="151"/>
-      <c r="P34" s="151"/>
-      <c r="Q34" s="151"/>
-      <c r="R34" s="152"/>
+      <c r="A34" s="160"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="161"/>
+      <c r="M34" s="161"/>
+      <c r="N34" s="161"/>
+      <c r="O34" s="161"/>
+      <c r="P34" s="161"/>
+      <c r="Q34" s="161"/>
+      <c r="R34" s="162"/>
       <c r="S34" s="12"/>
     </row>
     <row r="35" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="150"/>
-      <c r="B35" s="151"/>
-      <c r="C35" s="151"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
-      <c r="N35" s="151"/>
-      <c r="O35" s="151"/>
-      <c r="P35" s="151"/>
-      <c r="Q35" s="151"/>
-      <c r="R35" s="152"/>
+      <c r="A35" s="160"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="161"/>
+      <c r="I35" s="161"/>
+      <c r="J35" s="161"/>
+      <c r="K35" s="161"/>
+      <c r="L35" s="161"/>
+      <c r="M35" s="161"/>
+      <c r="N35" s="161"/>
+      <c r="O35" s="161"/>
+      <c r="P35" s="161"/>
+      <c r="Q35" s="161"/>
+      <c r="R35" s="162"/>
       <c r="S35" s="12"/>
     </row>
     <row r="36" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="150"/>
-      <c r="B36" s="151"/>
-      <c r="C36" s="151"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
-      <c r="N36" s="151"/>
-      <c r="O36" s="151"/>
-      <c r="P36" s="151"/>
-      <c r="Q36" s="151"/>
-      <c r="R36" s="152"/>
+      <c r="A36" s="160"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="161"/>
+      <c r="L36" s="161"/>
+      <c r="M36" s="161"/>
+      <c r="N36" s="161"/>
+      <c r="O36" s="161"/>
+      <c r="P36" s="161"/>
+      <c r="Q36" s="161"/>
+      <c r="R36" s="162"/>
       <c r="S36" s="12"/>
     </row>
     <row r="37" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="150"/>
-      <c r="B37" s="151"/>
-      <c r="C37" s="151"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
-      <c r="N37" s="151"/>
-      <c r="O37" s="151"/>
-      <c r="P37" s="151"/>
-      <c r="Q37" s="151"/>
-      <c r="R37" s="152"/>
+      <c r="A37" s="160"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="161"/>
+      <c r="D37" s="161"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="161"/>
+      <c r="G37" s="161"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="161"/>
+      <c r="M37" s="161"/>
+      <c r="N37" s="161"/>
+      <c r="O37" s="161"/>
+      <c r="P37" s="161"/>
+      <c r="Q37" s="161"/>
+      <c r="R37" s="162"/>
       <c r="S37" s="12"/>
     </row>
     <row r="38" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="150"/>
-      <c r="B38" s="151"/>
-      <c r="C38" s="151"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
-      <c r="N38" s="151"/>
-      <c r="O38" s="151"/>
-      <c r="P38" s="151"/>
-      <c r="Q38" s="151"/>
-      <c r="R38" s="152"/>
+      <c r="A38" s="160"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="161"/>
+      <c r="M38" s="161"/>
+      <c r="N38" s="161"/>
+      <c r="O38" s="161"/>
+      <c r="P38" s="161"/>
+      <c r="Q38" s="161"/>
+      <c r="R38" s="162"/>
       <c r="S38" s="12"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="159" t="s">
+      <c r="A39" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="160"/>
-      <c r="C39" s="160"/>
-      <c r="D39" s="160"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="160"/>
-      <c r="J39" s="160"/>
-      <c r="K39" s="160"/>
-      <c r="L39" s="160"/>
-      <c r="M39" s="160"/>
-      <c r="N39" s="160"/>
-      <c r="O39" s="160"/>
-      <c r="P39" s="160"/>
-      <c r="Q39" s="160"/>
-      <c r="R39" s="161"/>
+      <c r="B39" s="184"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="184"/>
+      <c r="E39" s="184"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="184"/>
+      <c r="H39" s="184"/>
+      <c r="I39" s="184"/>
+      <c r="J39" s="184"/>
+      <c r="K39" s="184"/>
+      <c r="L39" s="184"/>
+      <c r="M39" s="184"/>
+      <c r="N39" s="184"/>
+      <c r="O39" s="184"/>
+      <c r="P39" s="184"/>
+      <c r="Q39" s="184"/>
+      <c r="R39" s="185"/>
       <c r="S39" s="12"/>
     </row>
     <row r="40" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="167"/>
+      <c r="A40" s="163"/>
       <c r="B40" s="54" t="s">
         <v>50</v>
       </c>
@@ -7811,8 +7815,8 @@
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
-      <c r="H40" s="170"/>
-      <c r="I40" s="171"/>
+      <c r="H40" s="166"/>
+      <c r="I40" s="167"/>
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
       <c r="L40" s="55"/>
@@ -7821,17 +7825,17 @@
       <c r="O40" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="P40" s="174" t="s">
+      <c r="P40" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="Q40" s="175"/>
+      <c r="Q40" s="171"/>
       <c r="R40" s="57" t="s">
         <v>54</v>
       </c>
       <c r="S40" s="12"/>
     </row>
     <row r="41" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="168"/>
+      <c r="A41" s="164"/>
       <c r="B41" s="43" t="s">
         <v>51</v>
       </c>
@@ -7850,8 +7854,8 @@
       <c r="G41" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="172"/>
-      <c r="I41" s="173"/>
+      <c r="H41" s="168"/>
+      <c r="I41" s="169"/>
       <c r="J41" s="44" t="s">
         <v>55</v>
       </c>
@@ -7868,100 +7872,136 @@
         <v>59</v>
       </c>
       <c r="O41" s="45"/>
-      <c r="P41" s="176"/>
-      <c r="Q41" s="177"/>
-      <c r="R41" s="182"/>
+      <c r="P41" s="172"/>
+      <c r="Q41" s="173"/>
+      <c r="R41" s="178"/>
       <c r="S41" s="12"/>
     </row>
     <row r="42" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="168"/>
+      <c r="A42" s="164"/>
       <c r="B42" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="185" t="s">
+      <c r="C42" s="181" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="186"/>
+      <c r="D42" s="182"/>
       <c r="E42" s="50"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="185" t="s">
+      <c r="J42" s="181" t="s">
         <v>65</v>
       </c>
-      <c r="K42" s="186"/>
+      <c r="K42" s="182"/>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
       <c r="N42" s="31"/>
       <c r="O42" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="P42" s="178"/>
-      <c r="Q42" s="179"/>
-      <c r="R42" s="183"/>
+      <c r="P42" s="174"/>
+      <c r="Q42" s="175"/>
+      <c r="R42" s="179"/>
       <c r="S42" s="12"/>
     </row>
     <row r="43" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="168"/>
+      <c r="A43" s="164"/>
       <c r="B43" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="185" t="s">
+      <c r="C43" s="181" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="186"/>
+      <c r="D43" s="182"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="52"/>
       <c r="I43" s="53"/>
-      <c r="J43" s="185" t="s">
+      <c r="J43" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="186"/>
+      <c r="K43" s="182"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
       <c r="O43" s="47"/>
-      <c r="P43" s="180"/>
-      <c r="Q43" s="181"/>
-      <c r="R43" s="184"/>
+      <c r="P43" s="176"/>
+      <c r="Q43" s="177"/>
+      <c r="R43" s="180"/>
     </row>
     <row r="44" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="169"/>
+      <c r="A44" s="165"/>
       <c r="B44" s="58"/>
-      <c r="C44" s="162" t="s">
+      <c r="C44" s="155" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="163"/>
+      <c r="D44" s="156"/>
       <c r="E44" s="59"/>
       <c r="F44" s="60"/>
       <c r="G44" s="60"/>
       <c r="H44" s="61"/>
       <c r="I44" s="62"/>
-      <c r="J44" s="162" t="s">
+      <c r="J44" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="K44" s="163"/>
+      <c r="K44" s="156"/>
       <c r="L44" s="59"/>
       <c r="M44" s="59" t="s">
         <v>70</v>
       </c>
       <c r="N44" s="60"/>
-      <c r="O44" s="164" t="s">
+      <c r="O44" s="157" t="s">
         <v>71</v>
       </c>
-      <c r="P44" s="165"/>
-      <c r="Q44" s="164" t="s">
+      <c r="P44" s="158"/>
+      <c r="Q44" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="R44" s="166"/>
+      <c r="R44" s="159"/>
     </row>
     <row r="45" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A11:R11"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:R14"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="A20:R20"/>
+    <mergeCell ref="A21:R21"/>
+    <mergeCell ref="A22:R22"/>
+    <mergeCell ref="A23:R23"/>
+    <mergeCell ref="A39:R39"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="A29:R29"/>
+    <mergeCell ref="A30:R30"/>
+    <mergeCell ref="A31:R31"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="A33:R33"/>
+    <mergeCell ref="A34:R34"/>
+    <mergeCell ref="A35:R35"/>
+    <mergeCell ref="A36:R36"/>
+    <mergeCell ref="A37:R37"/>
+    <mergeCell ref="A38:R38"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="O44:P44"/>
     <mergeCell ref="Q44:R44"/>
@@ -7978,42 +8018,6 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A39:R39"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="A29:R29"/>
-    <mergeCell ref="A30:R30"/>
-    <mergeCell ref="A31:R31"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="A33:R33"/>
-    <mergeCell ref="A34:R34"/>
-    <mergeCell ref="A35:R35"/>
-    <mergeCell ref="A36:R36"/>
-    <mergeCell ref="A37:R37"/>
-    <mergeCell ref="A38:R38"/>
-    <mergeCell ref="A27:R27"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="A14:R14"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A18:R18"/>
-    <mergeCell ref="A19:R19"/>
-    <mergeCell ref="A20:R20"/>
-    <mergeCell ref="A21:R21"/>
-    <mergeCell ref="A22:R22"/>
-    <mergeCell ref="A23:R23"/>
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A8:R8"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="A10:R10"/>
-    <mergeCell ref="A11:R11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B43" r:id="rId1" display="http://www.sofia-decor.ru/"/>
@@ -8045,799 +8049,799 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="153"/>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="155"/>
+      <c r="A1" s="186"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="188"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="189" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
+      <c r="R2" s="191"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="150"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="152"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="162"/>
     </row>
     <row r="4" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="150"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="151"/>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="152"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="162"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="150"/>
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="151"/>
-      <c r="M5" s="151"/>
-      <c r="N5" s="151"/>
-      <c r="O5" s="151"/>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="151"/>
-      <c r="R5" s="152"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="162"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="150"/>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="151"/>
-      <c r="P6" s="151"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="152"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="161"/>
+      <c r="Q6" s="161"/>
+      <c r="R6" s="162"/>
     </row>
     <row r="7" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="150"/>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="151"/>
-      <c r="R7" s="152"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="162"/>
     </row>
     <row r="8" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="150"/>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="151"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="151"/>
-      <c r="R8" s="152"/>
+      <c r="A8" s="160"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="161"/>
+      <c r="Q8" s="161"/>
+      <c r="R8" s="162"/>
     </row>
     <row r="9" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="150"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="151"/>
-      <c r="R9" s="152"/>
+      <c r="A9" s="160"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="162"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="150"/>
-      <c r="B10" s="151"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="151"/>
-      <c r="R10" s="152"/>
+      <c r="A10" s="160"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="161"/>
+      <c r="R10" s="162"/>
     </row>
     <row r="11" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="150"/>
-      <c r="B11" s="151"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="151"/>
-      <c r="R11" s="152"/>
+      <c r="A11" s="160"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="162"/>
     </row>
     <row r="12" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="150"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="152"/>
+      <c r="A12" s="160"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="161"/>
+      <c r="Q12" s="161"/>
+      <c r="R12" s="162"/>
     </row>
     <row r="13" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="150"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="152"/>
+      <c r="A13" s="160"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="162"/>
     </row>
     <row r="14" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="150"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="152"/>
+      <c r="A14" s="160"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="162"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="150"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="151"/>
-      <c r="R15" s="152"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="161"/>
+      <c r="Q15" s="161"/>
+      <c r="R15" s="162"/>
     </row>
     <row r="16" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="150"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="151"/>
-      <c r="Q16" s="151"/>
-      <c r="R16" s="152"/>
+      <c r="A16" s="160"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="161"/>
+      <c r="R16" s="162"/>
     </row>
     <row r="17" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="150"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="151"/>
-      <c r="Q17" s="151"/>
-      <c r="R17" s="152"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="162"/>
     </row>
     <row r="18" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="150"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="151"/>
-      <c r="R18" s="152"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="162"/>
     </row>
     <row r="19" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="150"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="151"/>
-      <c r="R19" s="152"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="161"/>
+      <c r="P19" s="161"/>
+      <c r="Q19" s="161"/>
+      <c r="R19" s="162"/>
     </row>
     <row r="20" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="150"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="151"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="151"/>
-      <c r="P20" s="151"/>
-      <c r="Q20" s="151"/>
-      <c r="R20" s="152"/>
+      <c r="A20" s="160"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="161"/>
+      <c r="P20" s="161"/>
+      <c r="Q20" s="161"/>
+      <c r="R20" s="162"/>
     </row>
     <row r="21" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="150"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="151"/>
-      <c r="Q21" s="151"/>
-      <c r="R21" s="152"/>
+      <c r="A21" s="160"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="161"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="162"/>
     </row>
     <row r="22" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="150"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="151"/>
-      <c r="Q22" s="151"/>
-      <c r="R22" s="152"/>
+      <c r="A22" s="160"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="161"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="161"/>
+      <c r="Q22" s="161"/>
+      <c r="R22" s="162"/>
     </row>
     <row r="23" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="150"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="151"/>
-      <c r="Q23" s="151"/>
-      <c r="R23" s="152"/>
+      <c r="A23" s="160"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="162"/>
     </row>
     <row r="24" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="150"/>
-      <c r="B24" s="151"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="151"/>
-      <c r="Q24" s="151"/>
-      <c r="R24" s="152"/>
+      <c r="A24" s="160"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="161"/>
+      <c r="R24" s="162"/>
     </row>
     <row r="25" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="150"/>
-      <c r="B25" s="151"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="151"/>
-      <c r="Q25" s="151"/>
-      <c r="R25" s="152"/>
+      <c r="A25" s="160"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="161"/>
+      <c r="Q25" s="161"/>
+      <c r="R25" s="162"/>
     </row>
     <row r="26" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="150"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="151"/>
-      <c r="R26" s="152"/>
+      <c r="A26" s="160"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="161"/>
+      <c r="Q26" s="161"/>
+      <c r="R26" s="162"/>
     </row>
     <row r="27" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="150"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="151"/>
-      <c r="Q27" s="151"/>
-      <c r="R27" s="152"/>
+      <c r="A27" s="160"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="162"/>
     </row>
     <row r="28" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="150"/>
-      <c r="B28" s="151"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="151"/>
-      <c r="P28" s="151"/>
-      <c r="Q28" s="151"/>
-      <c r="R28" s="152"/>
+      <c r="A28" s="160"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="161"/>
+      <c r="L28" s="161"/>
+      <c r="M28" s="161"/>
+      <c r="N28" s="161"/>
+      <c r="O28" s="161"/>
+      <c r="P28" s="161"/>
+      <c r="Q28" s="161"/>
+      <c r="R28" s="162"/>
     </row>
     <row r="29" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="150"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="151"/>
-      <c r="Q29" s="151"/>
-      <c r="R29" s="152"/>
+      <c r="A29" s="160"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="161"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="162"/>
     </row>
     <row r="30" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="150"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="151"/>
-      <c r="O30" s="151"/>
-      <c r="P30" s="151"/>
-      <c r="Q30" s="151"/>
-      <c r="R30" s="152"/>
+      <c r="A30" s="160"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="161"/>
+      <c r="M30" s="161"/>
+      <c r="N30" s="161"/>
+      <c r="O30" s="161"/>
+      <c r="P30" s="161"/>
+      <c r="Q30" s="161"/>
+      <c r="R30" s="162"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="150"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="151"/>
-      <c r="P31" s="151"/>
-      <c r="Q31" s="151"/>
-      <c r="R31" s="152"/>
+      <c r="A31" s="160"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="161"/>
+      <c r="M31" s="161"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="161"/>
+      <c r="P31" s="161"/>
+      <c r="Q31" s="161"/>
+      <c r="R31" s="162"/>
     </row>
     <row r="32" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="150"/>
-      <c r="B32" s="151"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="151"/>
-      <c r="P32" s="151"/>
-      <c r="Q32" s="151"/>
-      <c r="R32" s="152"/>
+      <c r="A32" s="160"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="161"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="161"/>
+      <c r="P32" s="161"/>
+      <c r="Q32" s="161"/>
+      <c r="R32" s="162"/>
       <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="150"/>
-      <c r="B33" s="151"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="151"/>
-      <c r="O33" s="151"/>
-      <c r="P33" s="151"/>
-      <c r="Q33" s="151"/>
-      <c r="R33" s="152"/>
+      <c r="A33" s="160"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="161"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="161"/>
+      <c r="M33" s="161"/>
+      <c r="N33" s="161"/>
+      <c r="O33" s="161"/>
+      <c r="P33" s="161"/>
+      <c r="Q33" s="161"/>
+      <c r="R33" s="162"/>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="150"/>
-      <c r="B34" s="151"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
-      <c r="N34" s="151"/>
-      <c r="O34" s="151"/>
-      <c r="P34" s="151"/>
-      <c r="Q34" s="151"/>
-      <c r="R34" s="152"/>
+      <c r="A34" s="160"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="161"/>
+      <c r="M34" s="161"/>
+      <c r="N34" s="161"/>
+      <c r="O34" s="161"/>
+      <c r="P34" s="161"/>
+      <c r="Q34" s="161"/>
+      <c r="R34" s="162"/>
       <c r="S34" s="12"/>
     </row>
     <row r="35" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="150"/>
-      <c r="B35" s="151"/>
-      <c r="C35" s="151"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
-      <c r="N35" s="151"/>
-      <c r="O35" s="151"/>
-      <c r="P35" s="151"/>
-      <c r="Q35" s="151"/>
-      <c r="R35" s="152"/>
+      <c r="A35" s="160"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="161"/>
+      <c r="I35" s="161"/>
+      <c r="J35" s="161"/>
+      <c r="K35" s="161"/>
+      <c r="L35" s="161"/>
+      <c r="M35" s="161"/>
+      <c r="N35" s="161"/>
+      <c r="O35" s="161"/>
+      <c r="P35" s="161"/>
+      <c r="Q35" s="161"/>
+      <c r="R35" s="162"/>
       <c r="S35" s="12"/>
     </row>
     <row r="36" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="150"/>
-      <c r="B36" s="151"/>
-      <c r="C36" s="151"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
-      <c r="N36" s="151"/>
-      <c r="O36" s="151"/>
-      <c r="P36" s="151"/>
-      <c r="Q36" s="151"/>
-      <c r="R36" s="152"/>
+      <c r="A36" s="160"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="161"/>
+      <c r="L36" s="161"/>
+      <c r="M36" s="161"/>
+      <c r="N36" s="161"/>
+      <c r="O36" s="161"/>
+      <c r="P36" s="161"/>
+      <c r="Q36" s="161"/>
+      <c r="R36" s="162"/>
       <c r="S36" s="12"/>
     </row>
     <row r="37" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="150"/>
-      <c r="B37" s="151"/>
-      <c r="C37" s="151"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
-      <c r="N37" s="151"/>
-      <c r="O37" s="151"/>
-      <c r="P37" s="151"/>
-      <c r="Q37" s="151"/>
-      <c r="R37" s="152"/>
+      <c r="A37" s="160"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="161"/>
+      <c r="D37" s="161"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="161"/>
+      <c r="G37" s="161"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="161"/>
+      <c r="M37" s="161"/>
+      <c r="N37" s="161"/>
+      <c r="O37" s="161"/>
+      <c r="P37" s="161"/>
+      <c r="Q37" s="161"/>
+      <c r="R37" s="162"/>
       <c r="S37" s="12"/>
     </row>
     <row r="38" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="150"/>
-      <c r="B38" s="151"/>
-      <c r="C38" s="151"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
-      <c r="N38" s="151"/>
-      <c r="O38" s="151"/>
-      <c r="P38" s="151"/>
-      <c r="Q38" s="151"/>
-      <c r="R38" s="152"/>
+      <c r="A38" s="160"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="161"/>
+      <c r="M38" s="161"/>
+      <c r="N38" s="161"/>
+      <c r="O38" s="161"/>
+      <c r="P38" s="161"/>
+      <c r="Q38" s="161"/>
+      <c r="R38" s="162"/>
       <c r="S38" s="12"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="159" t="s">
+      <c r="A39" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="160"/>
-      <c r="C39" s="160"/>
-      <c r="D39" s="160"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="160"/>
-      <c r="J39" s="160"/>
-      <c r="K39" s="160"/>
-      <c r="L39" s="160"/>
-      <c r="M39" s="160"/>
-      <c r="N39" s="160"/>
-      <c r="O39" s="160"/>
-      <c r="P39" s="160"/>
-      <c r="Q39" s="160"/>
-      <c r="R39" s="161"/>
+      <c r="B39" s="184"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="184"/>
+      <c r="E39" s="184"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="184"/>
+      <c r="H39" s="184"/>
+      <c r="I39" s="184"/>
+      <c r="J39" s="184"/>
+      <c r="K39" s="184"/>
+      <c r="L39" s="184"/>
+      <c r="M39" s="184"/>
+      <c r="N39" s="184"/>
+      <c r="O39" s="184"/>
+      <c r="P39" s="184"/>
+      <c r="Q39" s="184"/>
+      <c r="R39" s="185"/>
       <c r="S39" s="12"/>
     </row>
     <row r="40" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="167"/>
+      <c r="A40" s="163"/>
       <c r="B40" s="54" t="s">
         <v>50</v>
       </c>
@@ -8846,8 +8850,8 @@
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
-      <c r="H40" s="170"/>
-      <c r="I40" s="171"/>
+      <c r="H40" s="166"/>
+      <c r="I40" s="167"/>
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
       <c r="L40" s="55"/>
@@ -8856,17 +8860,17 @@
       <c r="O40" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="P40" s="174" t="s">
+      <c r="P40" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="Q40" s="175"/>
+      <c r="Q40" s="171"/>
       <c r="R40" s="57" t="s">
         <v>54</v>
       </c>
       <c r="S40" s="12"/>
     </row>
     <row r="41" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="168"/>
+      <c r="A41" s="164"/>
       <c r="B41" s="43" t="s">
         <v>51</v>
       </c>
@@ -8885,8 +8889,8 @@
       <c r="G41" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="172"/>
-      <c r="I41" s="173"/>
+      <c r="H41" s="168"/>
+      <c r="I41" s="169"/>
       <c r="J41" s="44" t="s">
         <v>55</v>
       </c>
@@ -8903,100 +8907,136 @@
         <v>59</v>
       </c>
       <c r="O41" s="45"/>
-      <c r="P41" s="176"/>
-      <c r="Q41" s="177"/>
-      <c r="R41" s="182"/>
+      <c r="P41" s="172"/>
+      <c r="Q41" s="173"/>
+      <c r="R41" s="178"/>
       <c r="S41" s="12"/>
     </row>
     <row r="42" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="168"/>
+      <c r="A42" s="164"/>
       <c r="B42" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="185" t="s">
+      <c r="C42" s="181" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="186"/>
+      <c r="D42" s="182"/>
       <c r="E42" s="50"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="185" t="s">
+      <c r="J42" s="181" t="s">
         <v>65</v>
       </c>
-      <c r="K42" s="186"/>
+      <c r="K42" s="182"/>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
       <c r="N42" s="31"/>
       <c r="O42" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="P42" s="178"/>
-      <c r="Q42" s="179"/>
-      <c r="R42" s="183"/>
+      <c r="P42" s="174"/>
+      <c r="Q42" s="175"/>
+      <c r="R42" s="179"/>
       <c r="S42" s="12"/>
     </row>
     <row r="43" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="168"/>
+      <c r="A43" s="164"/>
       <c r="B43" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="185" t="s">
+      <c r="C43" s="181" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="186"/>
+      <c r="D43" s="182"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="52"/>
       <c r="I43" s="53"/>
-      <c r="J43" s="185" t="s">
+      <c r="J43" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="186"/>
+      <c r="K43" s="182"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
       <c r="O43" s="47"/>
-      <c r="P43" s="180"/>
-      <c r="Q43" s="181"/>
-      <c r="R43" s="184"/>
+      <c r="P43" s="176"/>
+      <c r="Q43" s="177"/>
+      <c r="R43" s="180"/>
     </row>
     <row r="44" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="169"/>
+      <c r="A44" s="165"/>
       <c r="B44" s="58"/>
-      <c r="C44" s="162" t="s">
+      <c r="C44" s="155" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="163"/>
+      <c r="D44" s="156"/>
       <c r="E44" s="59"/>
       <c r="F44" s="60"/>
       <c r="G44" s="60"/>
       <c r="H44" s="61"/>
       <c r="I44" s="62"/>
-      <c r="J44" s="162" t="s">
+      <c r="J44" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="K44" s="163"/>
+      <c r="K44" s="156"/>
       <c r="L44" s="59"/>
       <c r="M44" s="59" t="s">
         <v>70</v>
       </c>
       <c r="N44" s="60"/>
-      <c r="O44" s="164" t="s">
+      <c r="O44" s="157" t="s">
         <v>71</v>
       </c>
-      <c r="P44" s="165"/>
-      <c r="Q44" s="164" t="s">
+      <c r="P44" s="158"/>
+      <c r="Q44" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="R44" s="166"/>
+      <c r="R44" s="159"/>
     </row>
     <row r="45" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A11:R11"/>
+    <mergeCell ref="A24:R24"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:R14"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="A20:R20"/>
+    <mergeCell ref="A21:R21"/>
+    <mergeCell ref="A22:R22"/>
+    <mergeCell ref="A23:R23"/>
+    <mergeCell ref="A36:R36"/>
+    <mergeCell ref="A25:R25"/>
+    <mergeCell ref="A26:R26"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="A29:R29"/>
+    <mergeCell ref="A30:R30"/>
+    <mergeCell ref="A31:R31"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="A33:R33"/>
+    <mergeCell ref="A34:R34"/>
+    <mergeCell ref="A35:R35"/>
     <mergeCell ref="Q44:R44"/>
     <mergeCell ref="A37:R37"/>
     <mergeCell ref="A38:R38"/>
@@ -9013,42 +9053,6 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="O44:P44"/>
-    <mergeCell ref="A36:R36"/>
-    <mergeCell ref="A25:R25"/>
-    <mergeCell ref="A26:R26"/>
-    <mergeCell ref="A27:R27"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="A29:R29"/>
-    <mergeCell ref="A30:R30"/>
-    <mergeCell ref="A31:R31"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="A33:R33"/>
-    <mergeCell ref="A34:R34"/>
-    <mergeCell ref="A35:R35"/>
-    <mergeCell ref="A24:R24"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="A14:R14"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A18:R18"/>
-    <mergeCell ref="A19:R19"/>
-    <mergeCell ref="A20:R20"/>
-    <mergeCell ref="A21:R21"/>
-    <mergeCell ref="A22:R22"/>
-    <mergeCell ref="A23:R23"/>
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A8:R8"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="A10:R10"/>
-    <mergeCell ref="A11:R11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B43" r:id="rId1" display="http://www.sofia-decor.ru/"/>
@@ -9114,18 +9118,18 @@
       <c r="J2" s="6"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="135" t="s">
+      <c r="M2" s="126"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="134">
+      <c r="P2" s="121"/>
+      <c r="Q2" s="122">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
-      </c>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
+        <v>43552</v>
+      </c>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
       <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -9141,17 +9145,17 @@
       <c r="J3" s="6"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="135" t="s">
+      <c r="M3" s="126"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="118" t="s">
+      <c r="P3" s="121"/>
+      <c r="Q3" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
       <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9199,11 +9203,11 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="188"/>
-      <c r="C6" s="188"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="193"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -9223,11 +9227,11 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="187" t="s">
+      <c r="A7" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="188"/>
-      <c r="C7" s="188"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -9247,11 +9251,11 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="187" t="s">
+      <c r="A8" s="192" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="193"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -9363,20 +9367,20 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="190" t="s">
+      <c r="E13" s="195" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="191"/>
-      <c r="G13" s="191"/>
-      <c r="H13" s="191"/>
-      <c r="I13" s="191"/>
-      <c r="J13" s="191"/>
-      <c r="K13" s="191"/>
-      <c r="L13" s="191"/>
-      <c r="M13" s="191"/>
-      <c r="N13" s="191"/>
-      <c r="O13" s="191"/>
-      <c r="P13" s="191"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="196"/>
+      <c r="L13" s="196"/>
+      <c r="M13" s="196"/>
+      <c r="N13" s="196"/>
+      <c r="O13" s="196"/>
+      <c r="P13" s="196"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -9387,18 +9391,18 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="191"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="191"/>
-      <c r="N14" s="191"/>
-      <c r="O14" s="191"/>
-      <c r="P14" s="191"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="196"/>
+      <c r="L14" s="196"/>
+      <c r="M14" s="196"/>
+      <c r="N14" s="196"/>
+      <c r="O14" s="196"/>
+      <c r="P14" s="196"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -9409,18 +9413,18 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="191"/>
-      <c r="F15" s="191"/>
-      <c r="G15" s="191"/>
-      <c r="H15" s="191"/>
-      <c r="I15" s="191"/>
-      <c r="J15" s="191"/>
-      <c r="K15" s="191"/>
-      <c r="L15" s="191"/>
-      <c r="M15" s="191"/>
-      <c r="N15" s="191"/>
-      <c r="O15" s="191"/>
-      <c r="P15" s="191"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="196"/>
+      <c r="L15" s="196"/>
+      <c r="M15" s="196"/>
+      <c r="N15" s="196"/>
+      <c r="O15" s="196"/>
+      <c r="P15" s="196"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -9432,23 +9436,23 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="124" t="s">
+      <c r="F16" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="126" t="str">
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="139" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J13:Q13</f>
         <v>Иванов И.И.</v>
       </c>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="126"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="139"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -9459,23 +9463,23 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="124" t="s">
+      <c r="F17" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="189" t="str">
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="194" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J14:Q14</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K17" s="189"/>
-      <c r="L17" s="189"/>
-      <c r="M17" s="189"/>
-      <c r="N17" s="189"/>
-      <c r="O17" s="189"/>
-      <c r="P17" s="189"/>
-      <c r="Q17" s="189"/>
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="194"/>
+      <c r="Q17" s="194"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="4"/>
@@ -9486,23 +9490,23 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="124" t="s">
+      <c r="F18" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="126" t="str">
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="139" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J15:Q15</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="126"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="126"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="126"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="126"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="139"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="4"/>
@@ -9513,23 +9517,23 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="124" t="s">
+      <c r="F19" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="189" t="str">
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="194" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J16:Q16</f>
         <v>восьмой</v>
       </c>
-      <c r="K19" s="189"/>
-      <c r="L19" s="189"/>
-      <c r="M19" s="189"/>
-      <c r="N19" s="189"/>
-      <c r="O19" s="189"/>
-      <c r="P19" s="189"/>
-      <c r="Q19" s="189"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="194"/>
+      <c r="Q19" s="194"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="4"/>
@@ -9540,23 +9544,23 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="124" t="s">
+      <c r="F20" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="189" t="str">
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="194" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J17:Q17</f>
         <v>кухня</v>
       </c>
-      <c r="K20" s="189"/>
-      <c r="L20" s="189"/>
-      <c r="M20" s="189"/>
-      <c r="N20" s="189"/>
-      <c r="O20" s="189"/>
-      <c r="P20" s="189"/>
-      <c r="Q20" s="189"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="194"/>
+      <c r="Q20" s="194"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="4"/>
@@ -9567,23 +9571,23 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="124" t="s">
+      <c r="F21" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="126" t="str">
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="139" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J18:Q18</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="126"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="126"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="139"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="4"/>
@@ -9594,23 +9598,23 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="124" t="s">
+      <c r="F22" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="189">
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="194">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J19:Q19</f>
         <v>500</v>
       </c>
-      <c r="K22" s="189"/>
-      <c r="L22" s="189"/>
-      <c r="M22" s="189"/>
-      <c r="N22" s="189"/>
-      <c r="O22" s="189"/>
-      <c r="P22" s="189"/>
-      <c r="Q22" s="189"/>
+      <c r="K22" s="194"/>
+      <c r="L22" s="194"/>
+      <c r="M22" s="194"/>
+      <c r="N22" s="194"/>
+      <c r="O22" s="194"/>
+      <c r="P22" s="194"/>
+      <c r="Q22" s="194"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="4"/>
@@ -9621,23 +9625,23 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="124" t="s">
+      <c r="F23" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="189" t="str">
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="194" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J20:Q20</f>
         <v>1-15,16</v>
       </c>
-      <c r="K23" s="189"/>
-      <c r="L23" s="189"/>
-      <c r="M23" s="189"/>
-      <c r="N23" s="189"/>
-      <c r="O23" s="189"/>
-      <c r="P23" s="189"/>
-      <c r="Q23" s="189"/>
+      <c r="K23" s="194"/>
+      <c r="L23" s="194"/>
+      <c r="M23" s="194"/>
+      <c r="N23" s="194"/>
+      <c r="O23" s="194"/>
+      <c r="P23" s="194"/>
+      <c r="Q23" s="194"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="4"/>
@@ -9715,12 +9719,12 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="119" t="s">
+      <c r="G27" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -9733,29 +9737,29 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="120" t="s">
+      <c r="A28" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="116"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="121" t="str">
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="133" t="str">
         <f>builder</f>
         <v>_____________________</v>
       </c>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121" t="s">
+      <c r="L28" s="133"/>
+      <c r="M28" s="133"/>
+      <c r="N28" s="133"/>
+      <c r="O28" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="121"/>
+      <c r="P28" s="133"/>
       <c r="Q28" s="30" t="s">
         <v>3</v>
       </c>
@@ -9764,7 +9768,7 @@
       </c>
       <c r="S28" s="114">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
+        <v>43552</v>
       </c>
       <c r="T28" s="22"/>
     </row>
@@ -9797,12 +9801,12 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="119" t="s">
+      <c r="G30" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="135"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -9815,28 +9819,28 @@
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="115" t="s">
+      <c r="A31" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="117" t="s">
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="117"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="117"/>
-      <c r="O31" s="121" t="s">
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="121"/>
+      <c r="P31" s="133"/>
       <c r="Q31" s="30" t="s">
         <v>3</v>
       </c>
@@ -9845,33 +9849,33 @@
       </c>
       <c r="S31" s="114">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
+        <v>43552</v>
       </c>
       <c r="T31" s="22"/>
     </row>
     <row r="32" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="115" t="s">
+      <c r="A32" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="117" t="s">
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="117"/>
-      <c r="M32" s="117"/>
-      <c r="N32" s="117"/>
-      <c r="O32" s="121" t="s">
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="121"/>
+      <c r="P32" s="133"/>
       <c r="Q32" s="30" t="s">
         <v>3</v>
       </c>
@@ -9880,7 +9884,7 @@
       </c>
       <c r="S32" s="114">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
+        <v>43552</v>
       </c>
       <c r="T32" s="22"/>
     </row>
@@ -9913,12 +9917,12 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="119" t="s">
+      <c r="G34" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="135"/>
+      <c r="J34" s="135"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -9931,28 +9935,28 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="115" t="s">
+      <c r="A35" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="117" t="s">
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="121" t="s">
+      <c r="L35" s="136"/>
+      <c r="M35" s="136"/>
+      <c r="N35" s="136"/>
+      <c r="O35" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="P35" s="121"/>
+      <c r="P35" s="133"/>
       <c r="Q35" s="30" t="s">
         <v>3</v>
       </c>
@@ -9961,7 +9965,7 @@
       </c>
       <c r="S35" s="114">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
+        <v>43552</v>
       </c>
       <c r="T35" s="22"/>
     </row>
@@ -9989,21 +9993,21 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="E13:P15"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J23:Q23"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="J19:Q19"/>
@@ -10015,21 +10019,21 @@
     <mergeCell ref="J17:Q17"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="E13:P15"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="G30:J30"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -10060,19 +10064,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="197" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="194"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="199"/>
     </row>
     <row r="2" spans="1:11" s="69" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="77" t="s">
@@ -10468,48 +10472,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="202" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="199"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="203"/>
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="203"/>
+      <c r="S1" s="204"/>
     </row>
     <row r="2" spans="1:19" s="103" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="205" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="205" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="205" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="205" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="200" t="s">
+      <c r="E2" s="205" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="200" t="s">
+      <c r="F2" s="205" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="200" t="s">
+      <c r="G2" s="205" t="s">
         <v>77</v>
       </c>
       <c r="H2" s="104" t="s">
@@ -10518,11 +10522,11 @@
       <c r="I2" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="203" t="s">
+      <c r="J2" s="208" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
       <c r="M2" s="104" t="s">
         <v>118</v>
       </c>
@@ -10546,13 +10550,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="93" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="201"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
       <c r="H3" s="99" t="s">
         <v>111</v>
       </c>
@@ -10591,24 +10595,24 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="93" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="201"/>
-      <c r="B4" s="201"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
+      <c r="A4" s="206"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
       <c r="H4" s="99" t="s">
         <v>103</v>
       </c>
       <c r="I4" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="J4" s="195" t="s">
+      <c r="J4" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="196"/>
-      <c r="L4" s="196"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="201"/>
       <c r="M4" s="100" t="s">
         <v>100</v>
       </c>
@@ -10632,24 +10636,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="93" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="202"/>
-      <c r="B5" s="202"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
+      <c r="A5" s="207"/>
+      <c r="B5" s="207"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
       <c r="H5" s="99" t="s">
         <v>93</v>
       </c>
       <c r="I5" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="195" t="s">
+      <c r="J5" s="200" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="196"/>
-      <c r="L5" s="196"/>
+      <c r="K5" s="201"/>
+      <c r="L5" s="201"/>
       <c r="M5" s="98" t="s">
         <v>90</v>
       </c>
@@ -11343,19 +11347,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="210" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="207"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="212"/>
     </row>
     <row r="2" spans="1:11" s="69" customFormat="1" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="77" t="s">

--- a/dist/files/xls/shablon-alboma-dp.xlsx
+++ b/dist/files/xls/shablon-alboma-dp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OPEN_SERVER\OSPanel\domains\localhost\www\dist\files\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sshishenko\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="133">
   <si>
     <t>РАЗРАБОТАЛ</t>
   </si>
@@ -446,6 +446,18 @@
   </si>
   <si>
     <t>— БЕЗ ЗАКАЛКИ</t>
+  </si>
+  <si>
+    <t>№ ОБРАЗЦА</t>
+  </si>
+  <si>
+    <t>массив</t>
+  </si>
+  <si>
+    <t>шпон</t>
+  </si>
+  <si>
+    <t>ПОЛИРОВКА (есть/нет)</t>
   </si>
 </sst>
 </file>
@@ -456,7 +468,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -846,6 +858,25 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ISOCPEUR"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -879,7 +910,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1453,6 +1484,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1460,7 +1506,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1783,6 +1829,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1821,31 +1897,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5430,7 +5506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="K24" sqref="K24:N24"/>
     </sheetView>
   </sheetViews>
@@ -5440,9 +5516,11 @@
     <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
     <col min="3" max="5" width="8.75" style="1"/>
     <col min="6" max="9" width="7.625" style="1" customWidth="1"/>
-    <col min="10" max="18" width="8.75" style="1"/>
-    <col min="19" max="19" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.625" style="1" customWidth="1"/>
+    <col min="10" max="13" width="8.75" style="1"/>
+    <col min="14" max="14" width="22.875" style="1" customWidth="1"/>
+    <col min="15" max="18" width="8.75" style="1"/>
+    <col min="19" max="19" width="9.75" style="1" customWidth="1"/>
+    <col min="20" max="20" width="0.625" style="1" customWidth="1"/>
     <col min="21" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
@@ -5481,18 +5559,18 @@
       <c r="J2" s="6"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="123" t="s">
+      <c r="M2" s="138"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="122">
+      <c r="P2" s="133"/>
+      <c r="Q2" s="134">
         <f ca="1">TODAY()</f>
-        <v>43552</v>
-      </c>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
+        <v>43593</v>
+      </c>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
       <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5508,17 +5586,17 @@
       <c r="J3" s="6"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="123" t="s">
+      <c r="M3" s="138"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="120" t="s">
+      <c r="P3" s="133"/>
+      <c r="Q3" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
       <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5533,13 +5611,13 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="123" t="s">
+      <c r="L4" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
@@ -5557,24 +5635,24 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="123" t="s">
+      <c r="L5" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -5594,11 +5672,11 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -5618,11 +5696,11 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -5646,18 +5724,18 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="137" t="s">
+      <c r="E9" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -5670,16 +5748,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="140"/>
       <c r="O10" s="24"/>
       <c r="P10" s="26"/>
       <c r="Q10" s="5"/>
@@ -5692,16 +5770,16 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="140"/>
       <c r="O11" s="24"/>
       <c r="P11" s="26"/>
       <c r="Q11" s="5"/>
@@ -5714,16 +5792,16 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
       <c r="O12" s="24"/>
       <c r="P12" s="26"/>
       <c r="Q12" s="5"/>
@@ -5737,22 +5815,22 @@
       <c r="C13" s="110"/>
       <c r="D13" s="110"/>
       <c r="E13" s="111"/>
-      <c r="F13" s="131" t="s">
+      <c r="F13" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="139" t="s">
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="139"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
       <c r="R13" s="110"/>
       <c r="S13" s="110"/>
       <c r="T13" s="112"/>
@@ -5763,22 +5841,22 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="129" t="s">
+      <c r="F14" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="120" t="s">
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="120"/>
-      <c r="Q14" s="120"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="132"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="4"/>
@@ -5789,22 +5867,22 @@
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
       <c r="E15" s="117"/>
-      <c r="F15" s="131" t="s">
+      <c r="F15" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="139" t="s">
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="139"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
       <c r="R15" s="116"/>
       <c r="S15" s="116"/>
       <c r="T15" s="118"/>
@@ -5815,22 +5893,22 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="129" t="s">
+      <c r="F16" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="120" t="s">
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="120"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="132"/>
+      <c r="Q16" s="132"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -5841,22 +5919,22 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="129" t="s">
+      <c r="F17" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="120" t="s">
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="141"/>
-      <c r="Q17" s="141"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="150"/>
+      <c r="Q17" s="150"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="4"/>
@@ -5867,22 +5945,22 @@
       <c r="C18" s="110"/>
       <c r="D18" s="110"/>
       <c r="E18" s="111"/>
-      <c r="F18" s="131" t="s">
+      <c r="F18" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="139" t="s">
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="140"/>
-      <c r="O18" s="140"/>
-      <c r="P18" s="140"/>
-      <c r="Q18" s="140"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="149"/>
+      <c r="Q18" s="149"/>
       <c r="R18" s="110"/>
       <c r="S18" s="110"/>
       <c r="T18" s="112"/>
@@ -5893,22 +5971,22 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="129" t="s">
+      <c r="F19" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="120">
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="132">
         <v>500</v>
       </c>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="120"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="132"/>
+      <c r="Q19" s="132"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="4"/>
@@ -5919,27 +5997,27 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="129" t="s">
+      <c r="F20" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="120" t="s">
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="120"/>
-      <c r="Q20" s="120"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="4"/>
     </row>
-    <row r="21" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5961,7 +6039,7 @@
       <c r="S21" s="3"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5990,12 +6068,12 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="138" t="s">
+      <c r="G23" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -6008,28 +6086,28 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="142" t="s">
+      <c r="A24" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="135"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="133" t="s">
+      <c r="B24" s="152"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="133"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="133"/>
-      <c r="O24" s="133" t="s">
+      <c r="L24" s="145"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="145"/>
+      <c r="O24" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="133"/>
+      <c r="P24" s="145"/>
       <c r="Q24" s="21" t="s">
         <v>3</v>
       </c>
@@ -6038,7 +6116,7 @@
       </c>
       <c r="S24" s="114">
         <f ca="1">TODAY()</f>
-        <v>43552</v>
+        <v>43593</v>
       </c>
       <c r="T24" s="22"/>
     </row>
@@ -6071,12 +6149,12 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="138" t="s">
+      <c r="G26" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -6089,28 +6167,28 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="134" t="s">
+      <c r="A27" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="136" t="s">
+      <c r="B27" s="152"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="136"/>
-      <c r="O27" s="133" t="s">
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="146"/>
+      <c r="O27" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="133"/>
+      <c r="P27" s="145"/>
       <c r="Q27" s="21" t="s">
         <v>3</v>
       </c>
@@ -6119,33 +6197,33 @@
       </c>
       <c r="S27" s="114">
         <f ca="1">TODAY()</f>
-        <v>43552</v>
+        <v>43593</v>
       </c>
       <c r="T27" s="22"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="136" t="s">
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
-      <c r="O28" s="133" t="s">
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="133"/>
+      <c r="P28" s="145"/>
       <c r="Q28" s="21" t="s">
         <v>3</v>
       </c>
@@ -6154,11 +6232,11 @@
       </c>
       <c r="S28" s="114">
         <f ca="1">TODAY()</f>
-        <v>43552</v>
+        <v>43593</v>
       </c>
       <c r="T28" s="22"/>
     </row>
-    <row r="29" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6180,19 +6258,27 @@
       <c r="S29" s="7"/>
       <c r="T29" s="4"/>
     </row>
-    <row r="30" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="138" t="s">
+    <row r="30" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="130" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="130"/>
+      <c r="F30" s="131" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="131"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="135"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -6205,28 +6291,28 @@
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="134" t="s">
+      <c r="A31" s="124"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="135"/>
-      <c r="K31" s="136" t="s">
+      <c r="I31" s="121"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="136"/>
-      <c r="O31" s="133" t="s">
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="133"/>
+      <c r="P31" s="145"/>
       <c r="Q31" s="25" t="s">
         <v>3</v>
       </c>
@@ -6235,18 +6321,18 @@
       </c>
       <c r="S31" s="114">
         <f ca="1">TODAY()</f>
-        <v>43552</v>
+        <v>43593</v>
       </c>
       <c r="T31" s="22"/>
     </row>
-    <row r="32" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+    <row r="32" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="125"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -6261,19 +6347,19 @@
       <c r="S32" s="7"/>
       <c r="T32" s="4"/>
     </row>
-    <row r="33" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="138" t="s">
+    <row r="33" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="125"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="H33" s="135"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="135"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -6285,29 +6371,29 @@
       <c r="S33" s="7"/>
       <c r="T33" s="4"/>
     </row>
-    <row r="34" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="134" t="s">
+    <row r="34" spans="1:20" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="126"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="135"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="135"/>
-      <c r="K34" s="136" t="s">
+      <c r="K34" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="L34" s="136"/>
-      <c r="M34" s="136"/>
-      <c r="N34" s="136"/>
-      <c r="O34" s="133" t="s">
+      <c r="L34" s="146"/>
+      <c r="M34" s="146"/>
+      <c r="N34" s="146"/>
+      <c r="O34" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="P34" s="133"/>
+      <c r="P34" s="145"/>
       <c r="Q34" s="21" t="s">
         <v>3</v>
       </c>
@@ -6316,7 +6402,7 @@
       </c>
       <c r="S34" s="114">
         <f ca="1">TODAY()</f>
-        <v>43552</v>
+        <v>43593</v>
       </c>
       <c r="T34" s="22"/>
     </row>
@@ -6343,8 +6429,7 @@
       <c r="T35" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A34:J34"/>
+  <mergeCells count="58">
     <mergeCell ref="K34:N34"/>
     <mergeCell ref="J20:Q20"/>
     <mergeCell ref="G23:J23"/>
@@ -6359,12 +6444,9 @@
     <mergeCell ref="O34:P34"/>
     <mergeCell ref="A28:J28"/>
     <mergeCell ref="K28:N28"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="A31:J31"/>
     <mergeCell ref="K31:N31"/>
     <mergeCell ref="O31:P31"/>
     <mergeCell ref="E9:N12"/>
-    <mergeCell ref="G33:J33"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="J13:Q13"/>
@@ -6391,6 +6473,21 @@
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="L5:P5"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -6429,40 +6526,40 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="146"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="146"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="146"/>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="146"/>
-      <c r="R10" s="146"/>
-      <c r="S10" s="146"/>
-      <c r="T10" s="146"/>
-      <c r="U10" s="146"/>
-      <c r="V10" s="146"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="158"/>
+      <c r="Q10" s="158"/>
+      <c r="R10" s="158"/>
+      <c r="S10" s="158"/>
+      <c r="T10" s="158"/>
+      <c r="U10" s="158"/>
+      <c r="V10" s="158"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G12" s="39"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
     </row>
@@ -6470,15 +6567,15 @@
       <c r="G13" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="148" t="s">
+      <c r="H13" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="149"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="149"/>
-      <c r="L13" s="149"/>
-      <c r="M13" s="149"/>
-      <c r="N13" s="150"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="162"/>
       <c r="O13" s="34" t="s">
         <v>39</v>
       </c>
@@ -6490,15 +6587,15 @@
       <c r="G14" s="34">
         <v>2</v>
       </c>
-      <c r="H14" s="151" t="s">
+      <c r="H14" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="153"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="165"/>
       <c r="O14" s="34" t="s">
         <v>41</v>
       </c>
@@ -6508,15 +6605,15 @@
       <c r="G15" s="34">
         <v>3</v>
       </c>
-      <c r="H15" s="151" t="s">
+      <c r="H15" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="152"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="152"/>
-      <c r="N15" s="153"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="165"/>
       <c r="O15" s="34" t="s">
         <v>36</v>
       </c>
@@ -6528,15 +6625,15 @@
       <c r="G16" s="34">
         <v>4</v>
       </c>
-      <c r="H16" s="151" t="s">
+      <c r="H16" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="153"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="165"/>
       <c r="O16" s="34" t="s">
         <v>43</v>
       </c>
@@ -6546,15 +6643,15 @@
       <c r="G17" s="34">
         <v>5</v>
       </c>
-      <c r="H17" s="151" t="s">
+      <c r="H17" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="152"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152"/>
-      <c r="N17" s="153"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="164"/>
+      <c r="L17" s="164"/>
+      <c r="M17" s="164"/>
+      <c r="N17" s="165"/>
       <c r="O17" s="34" t="s">
         <v>43</v>
       </c>
@@ -6564,15 +6661,15 @@
       <c r="G18" s="34">
         <v>6</v>
       </c>
-      <c r="H18" s="151" t="s">
+      <c r="H18" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="152"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="152"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="153"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="165"/>
       <c r="O18" s="34" t="s">
         <v>43</v>
       </c>
@@ -6582,15 +6679,15 @@
       <c r="G19" s="34">
         <v>7</v>
       </c>
-      <c r="H19" s="151" t="s">
+      <c r="H19" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="152"/>
-      <c r="N19" s="153"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="164"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="165"/>
       <c r="O19" s="34" t="s">
         <v>43</v>
       </c>
@@ -6600,15 +6697,15 @@
       <c r="G20" s="34">
         <v>8</v>
       </c>
-      <c r="H20" s="151" t="s">
+      <c r="H20" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="152"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="153"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="164"/>
+      <c r="M20" s="164"/>
+      <c r="N20" s="165"/>
       <c r="O20" s="34" t="s">
         <v>43</v>
       </c>
@@ -6616,301 +6713,301 @@
     </row>
     <row r="21" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G21" s="39"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="154"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="166"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="166"/>
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
     </row>
     <row r="22" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G22" s="33"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="143"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="155"/>
       <c r="O22" s="33"/>
       <c r="P22" s="36"/>
     </row>
     <row r="23" spans="7:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G23" s="33"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="143"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="155"/>
       <c r="O23" s="33"/>
       <c r="P23" s="37"/>
     </row>
     <row r="24" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G24" s="33"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="143"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="143"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="155"/>
+      <c r="N24" s="155"/>
       <c r="O24" s="33"/>
       <c r="P24" s="36"/>
     </row>
     <row r="25" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25" s="33"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="143"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="155"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="155"/>
       <c r="O25" s="33"/>
       <c r="P25" s="36"/>
     </row>
     <row r="26" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G26" s="33"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="143"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
       <c r="O26" s="33"/>
       <c r="P26" s="36"/>
     </row>
     <row r="27" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G27" s="33"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="155"/>
       <c r="O27" s="33"/>
       <c r="P27" s="36"/>
     </row>
     <row r="28" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G28" s="33"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="143"/>
-      <c r="K28" s="143"/>
-      <c r="L28" s="143"/>
-      <c r="M28" s="143"/>
-      <c r="N28" s="143"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="155"/>
       <c r="O28" s="33"/>
       <c r="P28" s="36"/>
     </row>
     <row r="29" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G29" s="33"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="143"/>
-      <c r="L29" s="143"/>
-      <c r="M29" s="143"/>
-      <c r="N29" s="143"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="155"/>
       <c r="O29" s="33"/>
       <c r="P29" s="36"/>
     </row>
     <row r="30" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G30" s="33"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="143"/>
-      <c r="K30" s="143"/>
-      <c r="L30" s="143"/>
-      <c r="M30" s="143"/>
-      <c r="N30" s="143"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="155"/>
+      <c r="N30" s="155"/>
       <c r="O30" s="33"/>
       <c r="P30" s="36"/>
     </row>
     <row r="31" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G31" s="33"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="143"/>
-      <c r="L31" s="143"/>
-      <c r="M31" s="143"/>
-      <c r="N31" s="143"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="155"/>
       <c r="O31" s="33"/>
       <c r="P31" s="36"/>
     </row>
     <row r="32" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G32" s="33"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="143"/>
-      <c r="K32" s="143"/>
-      <c r="L32" s="143"/>
-      <c r="M32" s="143"/>
-      <c r="N32" s="143"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="155"/>
       <c r="O32" s="33"/>
       <c r="P32" s="36"/>
     </row>
     <row r="33" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G33" s="33"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="143"/>
-      <c r="K33" s="143"/>
-      <c r="L33" s="143"/>
-      <c r="M33" s="143"/>
-      <c r="N33" s="143"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="155"/>
+      <c r="N33" s="155"/>
       <c r="O33" s="33"/>
       <c r="P33" s="36"/>
     </row>
     <row r="34" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G34" s="33"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="143"/>
-      <c r="K34" s="143"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="143"/>
-      <c r="N34" s="143"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="155"/>
+      <c r="N34" s="155"/>
       <c r="O34" s="33"/>
       <c r="P34" s="36"/>
     </row>
     <row r="35" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G35" s="33"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="143"/>
-      <c r="L35" s="143"/>
-      <c r="M35" s="143"/>
-      <c r="N35" s="143"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="155"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="155"/>
       <c r="O35" s="33"/>
       <c r="P35" s="36"/>
     </row>
     <row r="36" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G36" s="33"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="143"/>
-      <c r="L36" s="143"/>
-      <c r="M36" s="143"/>
-      <c r="N36" s="143"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="155"/>
       <c r="O36" s="33"/>
       <c r="P36" s="36"/>
     </row>
     <row r="37" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G37" s="33"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="143"/>
-      <c r="J37" s="143"/>
-      <c r="K37" s="143"/>
-      <c r="L37" s="143"/>
-      <c r="M37" s="143"/>
-      <c r="N37" s="143"/>
+      <c r="H37" s="155"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="155"/>
+      <c r="K37" s="155"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="155"/>
+      <c r="N37" s="155"/>
       <c r="O37" s="33"/>
       <c r="P37" s="36"/>
     </row>
     <row r="38" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G38" s="33"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="143"/>
-      <c r="K38" s="143"/>
-      <c r="L38" s="143"/>
-      <c r="M38" s="143"/>
-      <c r="N38" s="143"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
+      <c r="K38" s="155"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="155"/>
+      <c r="N38" s="155"/>
       <c r="O38" s="33"/>
       <c r="P38" s="36"/>
     </row>
     <row r="39" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G39" s="33"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="143"/>
-      <c r="K39" s="143"/>
-      <c r="L39" s="143"/>
-      <c r="M39" s="143"/>
-      <c r="N39" s="143"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="155"/>
+      <c r="N39" s="155"/>
       <c r="O39" s="33"/>
       <c r="P39" s="36"/>
     </row>
     <row r="40" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G40" s="33"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
-      <c r="J40" s="143"/>
-      <c r="K40" s="143"/>
-      <c r="L40" s="143"/>
-      <c r="M40" s="143"/>
-      <c r="N40" s="143"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="155"/>
+      <c r="M40" s="155"/>
+      <c r="N40" s="155"/>
       <c r="O40" s="33"/>
       <c r="P40" s="36"/>
     </row>
     <row r="41" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G41" s="33"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="143"/>
-      <c r="J41" s="143"/>
-      <c r="K41" s="143"/>
-      <c r="L41" s="143"/>
-      <c r="M41" s="143"/>
-      <c r="N41" s="143"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="155"/>
+      <c r="K41" s="155"/>
+      <c r="L41" s="155"/>
+      <c r="M41" s="155"/>
+      <c r="N41" s="155"/>
       <c r="O41" s="33"/>
       <c r="P41" s="36"/>
     </row>
     <row r="42" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G42" s="33"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="143"/>
-      <c r="K42" s="143"/>
-      <c r="L42" s="143"/>
-      <c r="M42" s="143"/>
-      <c r="N42" s="143"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="155"/>
+      <c r="L42" s="155"/>
+      <c r="M42" s="155"/>
+      <c r="N42" s="155"/>
       <c r="O42" s="33"/>
       <c r="P42" s="36"/>
     </row>
     <row r="43" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G43" s="33"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
-      <c r="K43" s="143"/>
-      <c r="L43" s="143"/>
-      <c r="M43" s="143"/>
-      <c r="N43" s="143"/>
+      <c r="H43" s="155"/>
+      <c r="I43" s="155"/>
+      <c r="J43" s="155"/>
+      <c r="K43" s="155"/>
+      <c r="L43" s="155"/>
+      <c r="M43" s="155"/>
+      <c r="N43" s="155"/>
       <c r="O43" s="33"/>
       <c r="P43" s="36"/>
     </row>
     <row r="44" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G44" s="33"/>
-      <c r="H44" s="143"/>
-      <c r="I44" s="143"/>
-      <c r="J44" s="143"/>
-      <c r="K44" s="143"/>
-      <c r="L44" s="143"/>
-      <c r="M44" s="143"/>
-      <c r="N44" s="143"/>
+      <c r="H44" s="155"/>
+      <c r="I44" s="155"/>
+      <c r="J44" s="155"/>
+      <c r="K44" s="155"/>
+      <c r="L44" s="155"/>
+      <c r="M44" s="155"/>
+      <c r="N44" s="155"/>
       <c r="O44" s="33"/>
       <c r="P44" s="36"/>
     </row>
     <row r="45" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G45" s="33"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="143"/>
-      <c r="J45" s="143"/>
-      <c r="K45" s="143"/>
-      <c r="L45" s="143"/>
-      <c r="M45" s="143"/>
-      <c r="N45" s="143"/>
+      <c r="H45" s="155"/>
+      <c r="I45" s="155"/>
+      <c r="J45" s="155"/>
+      <c r="K45" s="155"/>
+      <c r="L45" s="155"/>
+      <c r="M45" s="155"/>
+      <c r="N45" s="155"/>
       <c r="O45" s="33"/>
       <c r="P45" s="36"/>
     </row>
@@ -6920,33 +7017,33 @@
     <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Y57" s="41">
         <f ca="1">TODAY()</f>
-        <v>43552</v>
+        <v>43593</v>
       </c>
     </row>
     <row r="58" spans="2:25" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B58" s="144" t="str">
+      <c r="B58" s="156" t="str">
         <f ca="1">"Москва " &amp; YEAR(Y57)</f>
         <v>Москва 2019</v>
       </c>
-      <c r="C58" s="145"/>
-      <c r="D58" s="145"/>
-      <c r="E58" s="145"/>
-      <c r="F58" s="145"/>
-      <c r="G58" s="145"/>
-      <c r="H58" s="145"/>
-      <c r="I58" s="145"/>
-      <c r="J58" s="145"/>
-      <c r="K58" s="145"/>
-      <c r="L58" s="145"/>
-      <c r="M58" s="145"/>
-      <c r="N58" s="145"/>
-      <c r="O58" s="145"/>
-      <c r="P58" s="145"/>
-      <c r="Q58" s="145"/>
-      <c r="R58" s="145"/>
-      <c r="S58" s="145"/>
-      <c r="T58" s="145"/>
-      <c r="U58" s="145"/>
+      <c r="C58" s="157"/>
+      <c r="D58" s="157"/>
+      <c r="E58" s="157"/>
+      <c r="F58" s="157"/>
+      <c r="G58" s="157"/>
+      <c r="H58" s="157"/>
+      <c r="I58" s="157"/>
+      <c r="J58" s="157"/>
+      <c r="K58" s="157"/>
+      <c r="L58" s="157"/>
+      <c r="M58" s="157"/>
+      <c r="N58" s="157"/>
+      <c r="O58" s="157"/>
+      <c r="P58" s="157"/>
+      <c r="Q58" s="157"/>
+      <c r="R58" s="157"/>
+      <c r="S58" s="157"/>
+      <c r="T58" s="157"/>
+      <c r="U58" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -7014,799 +7111,799 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="186"/>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="188"/>
+      <c r="A1" s="198"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="200"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="201" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="191"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="160"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="162"/>
+      <c r="A3" s="172"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="174"/>
     </row>
     <row r="4" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="160"/>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="162"/>
+      <c r="A4" s="172"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="174"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="160"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="161"/>
-      <c r="R5" s="162"/>
+      <c r="A5" s="172"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="173"/>
+      <c r="M5" s="173"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="173"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="174"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="162"/>
+      <c r="A6" s="172"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="173"/>
+      <c r="L6" s="173"/>
+      <c r="M6" s="173"/>
+      <c r="N6" s="173"/>
+      <c r="O6" s="173"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
+      <c r="R6" s="174"/>
     </row>
     <row r="7" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="160"/>
-      <c r="B7" s="161"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="162"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="173"/>
+      <c r="K7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="174"/>
     </row>
     <row r="8" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="160"/>
-      <c r="B8" s="161"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="161"/>
-      <c r="P8" s="161"/>
-      <c r="Q8" s="161"/>
-      <c r="R8" s="162"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="173"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="173"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="173"/>
+      <c r="Q8" s="173"/>
+      <c r="R8" s="174"/>
     </row>
     <row r="9" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="160"/>
-      <c r="B9" s="161"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="162"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="173"/>
+      <c r="L9" s="173"/>
+      <c r="M9" s="173"/>
+      <c r="N9" s="173"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="173"/>
+      <c r="Q9" s="173"/>
+      <c r="R9" s="174"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="160"/>
-      <c r="B10" s="161"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="162"/>
+      <c r="A10" s="172"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="173"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="173"/>
+      <c r="N10" s="173"/>
+      <c r="O10" s="173"/>
+      <c r="P10" s="173"/>
+      <c r="Q10" s="173"/>
+      <c r="R10" s="174"/>
     </row>
     <row r="11" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="160"/>
-      <c r="B11" s="161"/>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="162"/>
+      <c r="A11" s="172"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="173"/>
+      <c r="K11" s="173"/>
+      <c r="L11" s="173"/>
+      <c r="M11" s="173"/>
+      <c r="N11" s="173"/>
+      <c r="O11" s="173"/>
+      <c r="P11" s="173"/>
+      <c r="Q11" s="173"/>
+      <c r="R11" s="174"/>
     </row>
     <row r="12" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="160"/>
-      <c r="B12" s="161"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="161"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="161"/>
-      <c r="Q12" s="161"/>
-      <c r="R12" s="162"/>
+      <c r="A12" s="172"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="173"/>
+      <c r="L12" s="173"/>
+      <c r="M12" s="173"/>
+      <c r="N12" s="173"/>
+      <c r="O12" s="173"/>
+      <c r="P12" s="173"/>
+      <c r="Q12" s="173"/>
+      <c r="R12" s="174"/>
     </row>
     <row r="13" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="160"/>
-      <c r="B13" s="161"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="161"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="162"/>
+      <c r="A13" s="172"/>
+      <c r="B13" s="173"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="173"/>
+      <c r="Q13" s="173"/>
+      <c r="R13" s="174"/>
     </row>
     <row r="14" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="160"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="162"/>
+      <c r="A14" s="172"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="173"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="173"/>
+      <c r="Q14" s="173"/>
+      <c r="R14" s="174"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="160"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="162"/>
+      <c r="A15" s="172"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="173"/>
+      <c r="M15" s="173"/>
+      <c r="N15" s="173"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="174"/>
     </row>
     <row r="16" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="160"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="161"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="161"/>
-      <c r="R16" s="162"/>
+      <c r="A16" s="172"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="173"/>
+      <c r="M16" s="173"/>
+      <c r="N16" s="173"/>
+      <c r="O16" s="173"/>
+      <c r="P16" s="173"/>
+      <c r="Q16" s="173"/>
+      <c r="R16" s="174"/>
     </row>
     <row r="17" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="160"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="161"/>
-      <c r="N17" s="161"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="162"/>
+      <c r="A17" s="172"/>
+      <c r="B17" s="173"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
+      <c r="L17" s="173"/>
+      <c r="M17" s="173"/>
+      <c r="N17" s="173"/>
+      <c r="O17" s="173"/>
+      <c r="P17" s="173"/>
+      <c r="Q17" s="173"/>
+      <c r="R17" s="174"/>
     </row>
     <row r="18" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="160"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="162"/>
+      <c r="A18" s="172"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="173"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="173"/>
+      <c r="N18" s="173"/>
+      <c r="O18" s="173"/>
+      <c r="P18" s="173"/>
+      <c r="Q18" s="173"/>
+      <c r="R18" s="174"/>
     </row>
     <row r="19" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="160"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
-      <c r="P19" s="161"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="162"/>
+      <c r="A19" s="172"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="173"/>
+      <c r="K19" s="173"/>
+      <c r="L19" s="173"/>
+      <c r="M19" s="173"/>
+      <c r="N19" s="173"/>
+      <c r="O19" s="173"/>
+      <c r="P19" s="173"/>
+      <c r="Q19" s="173"/>
+      <c r="R19" s="174"/>
     </row>
     <row r="20" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="160"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="162"/>
+      <c r="A20" s="172"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="173"/>
+      <c r="M20" s="173"/>
+      <c r="N20" s="173"/>
+      <c r="O20" s="173"/>
+      <c r="P20" s="173"/>
+      <c r="Q20" s="173"/>
+      <c r="R20" s="174"/>
     </row>
     <row r="21" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="160"/>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="161"/>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="162"/>
+      <c r="A21" s="172"/>
+      <c r="B21" s="173"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="173"/>
+      <c r="L21" s="173"/>
+      <c r="M21" s="173"/>
+      <c r="N21" s="173"/>
+      <c r="O21" s="173"/>
+      <c r="P21" s="173"/>
+      <c r="Q21" s="173"/>
+      <c r="R21" s="174"/>
     </row>
     <row r="22" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="160"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="162"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="173"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="173"/>
+      <c r="L22" s="173"/>
+      <c r="M22" s="173"/>
+      <c r="N22" s="173"/>
+      <c r="O22" s="173"/>
+      <c r="P22" s="173"/>
+      <c r="Q22" s="173"/>
+      <c r="R22" s="174"/>
     </row>
     <row r="23" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="160"/>
-      <c r="B23" s="161"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="162"/>
+      <c r="A23" s="172"/>
+      <c r="B23" s="173"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="173"/>
+      <c r="K23" s="173"/>
+      <c r="L23" s="173"/>
+      <c r="M23" s="173"/>
+      <c r="N23" s="173"/>
+      <c r="O23" s="173"/>
+      <c r="P23" s="173"/>
+      <c r="Q23" s="173"/>
+      <c r="R23" s="174"/>
     </row>
     <row r="24" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="160"/>
-      <c r="B24" s="161"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="161"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="161"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="161"/>
-      <c r="P24" s="161"/>
-      <c r="Q24" s="161"/>
-      <c r="R24" s="162"/>
+      <c r="A24" s="172"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="173"/>
+      <c r="K24" s="173"/>
+      <c r="L24" s="173"/>
+      <c r="M24" s="173"/>
+      <c r="N24" s="173"/>
+      <c r="O24" s="173"/>
+      <c r="P24" s="173"/>
+      <c r="Q24" s="173"/>
+      <c r="R24" s="174"/>
     </row>
     <row r="25" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="160"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="161"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="161"/>
-      <c r="P25" s="161"/>
-      <c r="Q25" s="161"/>
-      <c r="R25" s="162"/>
+      <c r="A25" s="172"/>
+      <c r="B25" s="173"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="173"/>
+      <c r="K25" s="173"/>
+      <c r="L25" s="173"/>
+      <c r="M25" s="173"/>
+      <c r="N25" s="173"/>
+      <c r="O25" s="173"/>
+      <c r="P25" s="173"/>
+      <c r="Q25" s="173"/>
+      <c r="R25" s="174"/>
     </row>
     <row r="26" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="160"/>
-      <c r="B26" s="161"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="161"/>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="162"/>
+      <c r="A26" s="172"/>
+      <c r="B26" s="173"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="173"/>
+      <c r="K26" s="173"/>
+      <c r="L26" s="173"/>
+      <c r="M26" s="173"/>
+      <c r="N26" s="173"/>
+      <c r="O26" s="173"/>
+      <c r="P26" s="173"/>
+      <c r="Q26" s="173"/>
+      <c r="R26" s="174"/>
     </row>
     <row r="27" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="160"/>
-      <c r="B27" s="161"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="161"/>
-      <c r="K27" s="161"/>
-      <c r="L27" s="161"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="161"/>
-      <c r="O27" s="161"/>
-      <c r="P27" s="161"/>
-      <c r="Q27" s="161"/>
-      <c r="R27" s="162"/>
+      <c r="A27" s="172"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="173"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="173"/>
+      <c r="K27" s="173"/>
+      <c r="L27" s="173"/>
+      <c r="M27" s="173"/>
+      <c r="N27" s="173"/>
+      <c r="O27" s="173"/>
+      <c r="P27" s="173"/>
+      <c r="Q27" s="173"/>
+      <c r="R27" s="174"/>
     </row>
     <row r="28" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="160"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="161"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="161"/>
-      <c r="K28" s="161"/>
-      <c r="L28" s="161"/>
-      <c r="M28" s="161"/>
-      <c r="N28" s="161"/>
-      <c r="O28" s="161"/>
-      <c r="P28" s="161"/>
-      <c r="Q28" s="161"/>
-      <c r="R28" s="162"/>
+      <c r="A28" s="172"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="173"/>
+      <c r="L28" s="173"/>
+      <c r="M28" s="173"/>
+      <c r="N28" s="173"/>
+      <c r="O28" s="173"/>
+      <c r="P28" s="173"/>
+      <c r="Q28" s="173"/>
+      <c r="R28" s="174"/>
     </row>
     <row r="29" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="160"/>
-      <c r="B29" s="161"/>
-      <c r="C29" s="161"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="161"/>
-      <c r="L29" s="161"/>
-      <c r="M29" s="161"/>
-      <c r="N29" s="161"/>
-      <c r="O29" s="161"/>
-      <c r="P29" s="161"/>
-      <c r="Q29" s="161"/>
-      <c r="R29" s="162"/>
+      <c r="A29" s="172"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="173"/>
+      <c r="K29" s="173"/>
+      <c r="L29" s="173"/>
+      <c r="M29" s="173"/>
+      <c r="N29" s="173"/>
+      <c r="O29" s="173"/>
+      <c r="P29" s="173"/>
+      <c r="Q29" s="173"/>
+      <c r="R29" s="174"/>
     </row>
     <row r="30" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="160"/>
-      <c r="B30" s="161"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="161"/>
-      <c r="M30" s="161"/>
-      <c r="N30" s="161"/>
-      <c r="O30" s="161"/>
-      <c r="P30" s="161"/>
-      <c r="Q30" s="161"/>
-      <c r="R30" s="162"/>
+      <c r="A30" s="172"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="173"/>
+      <c r="K30" s="173"/>
+      <c r="L30" s="173"/>
+      <c r="M30" s="173"/>
+      <c r="N30" s="173"/>
+      <c r="O30" s="173"/>
+      <c r="P30" s="173"/>
+      <c r="Q30" s="173"/>
+      <c r="R30" s="174"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="160"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="161"/>
-      <c r="M31" s="161"/>
-      <c r="N31" s="161"/>
-      <c r="O31" s="161"/>
-      <c r="P31" s="161"/>
-      <c r="Q31" s="161"/>
-      <c r="R31" s="162"/>
+      <c r="A31" s="172"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="173"/>
+      <c r="K31" s="173"/>
+      <c r="L31" s="173"/>
+      <c r="M31" s="173"/>
+      <c r="N31" s="173"/>
+      <c r="O31" s="173"/>
+      <c r="P31" s="173"/>
+      <c r="Q31" s="173"/>
+      <c r="R31" s="174"/>
     </row>
     <row r="32" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="160"/>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="161"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="161"/>
-      <c r="P32" s="161"/>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="162"/>
+      <c r="A32" s="172"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="173"/>
+      <c r="L32" s="173"/>
+      <c r="M32" s="173"/>
+      <c r="N32" s="173"/>
+      <c r="O32" s="173"/>
+      <c r="P32" s="173"/>
+      <c r="Q32" s="173"/>
+      <c r="R32" s="174"/>
       <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="160"/>
-      <c r="B33" s="161"/>
-      <c r="C33" s="161"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="161"/>
-      <c r="L33" s="161"/>
-      <c r="M33" s="161"/>
-      <c r="N33" s="161"/>
-      <c r="O33" s="161"/>
-      <c r="P33" s="161"/>
-      <c r="Q33" s="161"/>
-      <c r="R33" s="162"/>
+      <c r="A33" s="172"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="173"/>
+      <c r="K33" s="173"/>
+      <c r="L33" s="173"/>
+      <c r="M33" s="173"/>
+      <c r="N33" s="173"/>
+      <c r="O33" s="173"/>
+      <c r="P33" s="173"/>
+      <c r="Q33" s="173"/>
+      <c r="R33" s="174"/>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="160"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="161"/>
-      <c r="J34" s="161"/>
-      <c r="K34" s="161"/>
-      <c r="L34" s="161"/>
-      <c r="M34" s="161"/>
-      <c r="N34" s="161"/>
-      <c r="O34" s="161"/>
-      <c r="P34" s="161"/>
-      <c r="Q34" s="161"/>
-      <c r="R34" s="162"/>
+      <c r="A34" s="172"/>
+      <c r="B34" s="173"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="173"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="173"/>
+      <c r="L34" s="173"/>
+      <c r="M34" s="173"/>
+      <c r="N34" s="173"/>
+      <c r="O34" s="173"/>
+      <c r="P34" s="173"/>
+      <c r="Q34" s="173"/>
+      <c r="R34" s="174"/>
       <c r="S34" s="12"/>
     </row>
     <row r="35" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="160"/>
-      <c r="B35" s="161"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="161"/>
-      <c r="I35" s="161"/>
-      <c r="J35" s="161"/>
-      <c r="K35" s="161"/>
-      <c r="L35" s="161"/>
-      <c r="M35" s="161"/>
-      <c r="N35" s="161"/>
-      <c r="O35" s="161"/>
-      <c r="P35" s="161"/>
-      <c r="Q35" s="161"/>
-      <c r="R35" s="162"/>
+      <c r="A35" s="172"/>
+      <c r="B35" s="173"/>
+      <c r="C35" s="173"/>
+      <c r="D35" s="173"/>
+      <c r="E35" s="173"/>
+      <c r="F35" s="173"/>
+      <c r="G35" s="173"/>
+      <c r="H35" s="173"/>
+      <c r="I35" s="173"/>
+      <c r="J35" s="173"/>
+      <c r="K35" s="173"/>
+      <c r="L35" s="173"/>
+      <c r="M35" s="173"/>
+      <c r="N35" s="173"/>
+      <c r="O35" s="173"/>
+      <c r="P35" s="173"/>
+      <c r="Q35" s="173"/>
+      <c r="R35" s="174"/>
       <c r="S35" s="12"/>
     </row>
     <row r="36" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="160"/>
-      <c r="B36" s="161"/>
-      <c r="C36" s="161"/>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="161"/>
-      <c r="L36" s="161"/>
-      <c r="M36" s="161"/>
-      <c r="N36" s="161"/>
-      <c r="O36" s="161"/>
-      <c r="P36" s="161"/>
-      <c r="Q36" s="161"/>
-      <c r="R36" s="162"/>
+      <c r="A36" s="172"/>
+      <c r="B36" s="173"/>
+      <c r="C36" s="173"/>
+      <c r="D36" s="173"/>
+      <c r="E36" s="173"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="173"/>
+      <c r="H36" s="173"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="173"/>
+      <c r="K36" s="173"/>
+      <c r="L36" s="173"/>
+      <c r="M36" s="173"/>
+      <c r="N36" s="173"/>
+      <c r="O36" s="173"/>
+      <c r="P36" s="173"/>
+      <c r="Q36" s="173"/>
+      <c r="R36" s="174"/>
       <c r="S36" s="12"/>
     </row>
     <row r="37" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="160"/>
-      <c r="B37" s="161"/>
-      <c r="C37" s="161"/>
-      <c r="D37" s="161"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="161"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="161"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="161"/>
-      <c r="L37" s="161"/>
-      <c r="M37" s="161"/>
-      <c r="N37" s="161"/>
-      <c r="O37" s="161"/>
-      <c r="P37" s="161"/>
-      <c r="Q37" s="161"/>
-      <c r="R37" s="162"/>
+      <c r="A37" s="172"/>
+      <c r="B37" s="173"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="173"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="173"/>
+      <c r="K37" s="173"/>
+      <c r="L37" s="173"/>
+      <c r="M37" s="173"/>
+      <c r="N37" s="173"/>
+      <c r="O37" s="173"/>
+      <c r="P37" s="173"/>
+      <c r="Q37" s="173"/>
+      <c r="R37" s="174"/>
       <c r="S37" s="12"/>
     </row>
     <row r="38" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="160"/>
-      <c r="B38" s="161"/>
-      <c r="C38" s="161"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="161"/>
-      <c r="M38" s="161"/>
-      <c r="N38" s="161"/>
-      <c r="O38" s="161"/>
-      <c r="P38" s="161"/>
-      <c r="Q38" s="161"/>
-      <c r="R38" s="162"/>
+      <c r="A38" s="172"/>
+      <c r="B38" s="173"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="173"/>
+      <c r="K38" s="173"/>
+      <c r="L38" s="173"/>
+      <c r="M38" s="173"/>
+      <c r="N38" s="173"/>
+      <c r="O38" s="173"/>
+      <c r="P38" s="173"/>
+      <c r="Q38" s="173"/>
+      <c r="R38" s="174"/>
       <c r="S38" s="12"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="183" t="s">
+      <c r="A39" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="184"/>
-      <c r="C39" s="184"/>
-      <c r="D39" s="184"/>
-      <c r="E39" s="184"/>
-      <c r="F39" s="184"/>
-      <c r="G39" s="184"/>
-      <c r="H39" s="184"/>
-      <c r="I39" s="184"/>
-      <c r="J39" s="184"/>
-      <c r="K39" s="184"/>
-      <c r="L39" s="184"/>
-      <c r="M39" s="184"/>
-      <c r="N39" s="184"/>
-      <c r="O39" s="184"/>
-      <c r="P39" s="184"/>
-      <c r="Q39" s="184"/>
-      <c r="R39" s="185"/>
+      <c r="B39" s="196"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="196"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="196"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="196"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="196"/>
+      <c r="K39" s="196"/>
+      <c r="L39" s="196"/>
+      <c r="M39" s="196"/>
+      <c r="N39" s="196"/>
+      <c r="O39" s="196"/>
+      <c r="P39" s="196"/>
+      <c r="Q39" s="196"/>
+      <c r="R39" s="197"/>
       <c r="S39" s="12"/>
     </row>
     <row r="40" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="163"/>
+      <c r="A40" s="175"/>
       <c r="B40" s="54" t="s">
         <v>50</v>
       </c>
@@ -7815,8 +7912,8 @@
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="167"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="179"/>
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
       <c r="L40" s="55"/>
@@ -7825,17 +7922,17 @@
       <c r="O40" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="P40" s="170" t="s">
+      <c r="P40" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="Q40" s="171"/>
+      <c r="Q40" s="183"/>
       <c r="R40" s="57" t="s">
         <v>54</v>
       </c>
       <c r="S40" s="12"/>
     </row>
     <row r="41" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="164"/>
+      <c r="A41" s="176"/>
       <c r="B41" s="43" t="s">
         <v>51</v>
       </c>
@@ -7854,8 +7951,8 @@
       <c r="G41" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="168"/>
-      <c r="I41" s="169"/>
+      <c r="H41" s="180"/>
+      <c r="I41" s="181"/>
       <c r="J41" s="44" t="s">
         <v>55</v>
       </c>
@@ -7872,95 +7969,95 @@
         <v>59</v>
       </c>
       <c r="O41" s="45"/>
-      <c r="P41" s="172"/>
-      <c r="Q41" s="173"/>
-      <c r="R41" s="178"/>
+      <c r="P41" s="184"/>
+      <c r="Q41" s="185"/>
+      <c r="R41" s="190"/>
       <c r="S41" s="12"/>
     </row>
     <row r="42" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="164"/>
+      <c r="A42" s="176"/>
       <c r="B42" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="181" t="s">
+      <c r="C42" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="182"/>
+      <c r="D42" s="194"/>
       <c r="E42" s="50"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="181" t="s">
+      <c r="J42" s="193" t="s">
         <v>65</v>
       </c>
-      <c r="K42" s="182"/>
+      <c r="K42" s="194"/>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
       <c r="N42" s="31"/>
       <c r="O42" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="P42" s="174"/>
-      <c r="Q42" s="175"/>
-      <c r="R42" s="179"/>
+      <c r="P42" s="186"/>
+      <c r="Q42" s="187"/>
+      <c r="R42" s="191"/>
       <c r="S42" s="12"/>
     </row>
     <row r="43" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="164"/>
+      <c r="A43" s="176"/>
       <c r="B43" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="181" t="s">
+      <c r="C43" s="193" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="182"/>
+      <c r="D43" s="194"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="52"/>
       <c r="I43" s="53"/>
-      <c r="J43" s="181" t="s">
+      <c r="J43" s="193" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="182"/>
+      <c r="K43" s="194"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
       <c r="O43" s="47"/>
-      <c r="P43" s="176"/>
-      <c r="Q43" s="177"/>
-      <c r="R43" s="180"/>
+      <c r="P43" s="188"/>
+      <c r="Q43" s="189"/>
+      <c r="R43" s="192"/>
     </row>
     <row r="44" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="165"/>
+      <c r="A44" s="177"/>
       <c r="B44" s="58"/>
-      <c r="C44" s="155" t="s">
+      <c r="C44" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="156"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="59"/>
       <c r="F44" s="60"/>
       <c r="G44" s="60"/>
       <c r="H44" s="61"/>
       <c r="I44" s="62"/>
-      <c r="J44" s="155" t="s">
+      <c r="J44" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="K44" s="156"/>
+      <c r="K44" s="168"/>
       <c r="L44" s="59"/>
       <c r="M44" s="59" t="s">
         <v>70</v>
       </c>
       <c r="N44" s="60"/>
-      <c r="O44" s="157" t="s">
+      <c r="O44" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="P44" s="158"/>
-      <c r="Q44" s="157" t="s">
+      <c r="P44" s="170"/>
+      <c r="Q44" s="169" t="s">
         <v>72</v>
       </c>
-      <c r="R44" s="159"/>
+      <c r="R44" s="171"/>
     </row>
     <row r="45" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8049,799 +8146,799 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="186"/>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="188"/>
+      <c r="A1" s="198"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="200"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="191"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="160"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="162"/>
+      <c r="A3" s="172"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="174"/>
     </row>
     <row r="4" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="160"/>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="162"/>
+      <c r="A4" s="172"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="174"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="160"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="161"/>
-      <c r="R5" s="162"/>
+      <c r="A5" s="172"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="173"/>
+      <c r="M5" s="173"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="173"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="174"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="162"/>
+      <c r="A6" s="172"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="173"/>
+      <c r="L6" s="173"/>
+      <c r="M6" s="173"/>
+      <c r="N6" s="173"/>
+      <c r="O6" s="173"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
+      <c r="R6" s="174"/>
     </row>
     <row r="7" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="160"/>
-      <c r="B7" s="161"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="162"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="173"/>
+      <c r="K7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="174"/>
     </row>
     <row r="8" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="160"/>
-      <c r="B8" s="161"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="161"/>
-      <c r="P8" s="161"/>
-      <c r="Q8" s="161"/>
-      <c r="R8" s="162"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="173"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="173"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="173"/>
+      <c r="Q8" s="173"/>
+      <c r="R8" s="174"/>
     </row>
     <row r="9" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="160"/>
-      <c r="B9" s="161"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="162"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="173"/>
+      <c r="L9" s="173"/>
+      <c r="M9" s="173"/>
+      <c r="N9" s="173"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="173"/>
+      <c r="Q9" s="173"/>
+      <c r="R9" s="174"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="160"/>
-      <c r="B10" s="161"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="162"/>
+      <c r="A10" s="172"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="173"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="173"/>
+      <c r="N10" s="173"/>
+      <c r="O10" s="173"/>
+      <c r="P10" s="173"/>
+      <c r="Q10" s="173"/>
+      <c r="R10" s="174"/>
     </row>
     <row r="11" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="160"/>
-      <c r="B11" s="161"/>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="162"/>
+      <c r="A11" s="172"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="173"/>
+      <c r="K11" s="173"/>
+      <c r="L11" s="173"/>
+      <c r="M11" s="173"/>
+      <c r="N11" s="173"/>
+      <c r="O11" s="173"/>
+      <c r="P11" s="173"/>
+      <c r="Q11" s="173"/>
+      <c r="R11" s="174"/>
     </row>
     <row r="12" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="160"/>
-      <c r="B12" s="161"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="161"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="161"/>
-      <c r="Q12" s="161"/>
-      <c r="R12" s="162"/>
+      <c r="A12" s="172"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="173"/>
+      <c r="L12" s="173"/>
+      <c r="M12" s="173"/>
+      <c r="N12" s="173"/>
+      <c r="O12" s="173"/>
+      <c r="P12" s="173"/>
+      <c r="Q12" s="173"/>
+      <c r="R12" s="174"/>
     </row>
     <row r="13" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="160"/>
-      <c r="B13" s="161"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="161"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="162"/>
+      <c r="A13" s="172"/>
+      <c r="B13" s="173"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="173"/>
+      <c r="Q13" s="173"/>
+      <c r="R13" s="174"/>
     </row>
     <row r="14" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="160"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="162"/>
+      <c r="A14" s="172"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="173"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="173"/>
+      <c r="Q14" s="173"/>
+      <c r="R14" s="174"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="160"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="162"/>
+      <c r="A15" s="172"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="173"/>
+      <c r="M15" s="173"/>
+      <c r="N15" s="173"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="174"/>
     </row>
     <row r="16" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="160"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="161"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="161"/>
-      <c r="R16" s="162"/>
+      <c r="A16" s="172"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="173"/>
+      <c r="M16" s="173"/>
+      <c r="N16" s="173"/>
+      <c r="O16" s="173"/>
+      <c r="P16" s="173"/>
+      <c r="Q16" s="173"/>
+      <c r="R16" s="174"/>
     </row>
     <row r="17" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="160"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="161"/>
-      <c r="N17" s="161"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="162"/>
+      <c r="A17" s="172"/>
+      <c r="B17" s="173"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
+      <c r="L17" s="173"/>
+      <c r="M17" s="173"/>
+      <c r="N17" s="173"/>
+      <c r="O17" s="173"/>
+      <c r="P17" s="173"/>
+      <c r="Q17" s="173"/>
+      <c r="R17" s="174"/>
     </row>
     <row r="18" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="160"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="162"/>
+      <c r="A18" s="172"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="173"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="173"/>
+      <c r="N18" s="173"/>
+      <c r="O18" s="173"/>
+      <c r="P18" s="173"/>
+      <c r="Q18" s="173"/>
+      <c r="R18" s="174"/>
     </row>
     <row r="19" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="160"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
-      <c r="P19" s="161"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="162"/>
+      <c r="A19" s="172"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="173"/>
+      <c r="K19" s="173"/>
+      <c r="L19" s="173"/>
+      <c r="M19" s="173"/>
+      <c r="N19" s="173"/>
+      <c r="O19" s="173"/>
+      <c r="P19" s="173"/>
+      <c r="Q19" s="173"/>
+      <c r="R19" s="174"/>
     </row>
     <row r="20" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="160"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="162"/>
+      <c r="A20" s="172"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="173"/>
+      <c r="M20" s="173"/>
+      <c r="N20" s="173"/>
+      <c r="O20" s="173"/>
+      <c r="P20" s="173"/>
+      <c r="Q20" s="173"/>
+      <c r="R20" s="174"/>
     </row>
     <row r="21" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="160"/>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="161"/>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="162"/>
+      <c r="A21" s="172"/>
+      <c r="B21" s="173"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="173"/>
+      <c r="L21" s="173"/>
+      <c r="M21" s="173"/>
+      <c r="N21" s="173"/>
+      <c r="O21" s="173"/>
+      <c r="P21" s="173"/>
+      <c r="Q21" s="173"/>
+      <c r="R21" s="174"/>
     </row>
     <row r="22" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="160"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="162"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="173"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="173"/>
+      <c r="L22" s="173"/>
+      <c r="M22" s="173"/>
+      <c r="N22" s="173"/>
+      <c r="O22" s="173"/>
+      <c r="P22" s="173"/>
+      <c r="Q22" s="173"/>
+      <c r="R22" s="174"/>
     </row>
     <row r="23" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="160"/>
-      <c r="B23" s="161"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="162"/>
+      <c r="A23" s="172"/>
+      <c r="B23" s="173"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="173"/>
+      <c r="K23" s="173"/>
+      <c r="L23" s="173"/>
+      <c r="M23" s="173"/>
+      <c r="N23" s="173"/>
+      <c r="O23" s="173"/>
+      <c r="P23" s="173"/>
+      <c r="Q23" s="173"/>
+      <c r="R23" s="174"/>
     </row>
     <row r="24" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="160"/>
-      <c r="B24" s="161"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="161"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="161"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="161"/>
-      <c r="P24" s="161"/>
-      <c r="Q24" s="161"/>
-      <c r="R24" s="162"/>
+      <c r="A24" s="172"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="173"/>
+      <c r="K24" s="173"/>
+      <c r="L24" s="173"/>
+      <c r="M24" s="173"/>
+      <c r="N24" s="173"/>
+      <c r="O24" s="173"/>
+      <c r="P24" s="173"/>
+      <c r="Q24" s="173"/>
+      <c r="R24" s="174"/>
     </row>
     <row r="25" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="160"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="161"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="161"/>
-      <c r="P25" s="161"/>
-      <c r="Q25" s="161"/>
-      <c r="R25" s="162"/>
+      <c r="A25" s="172"/>
+      <c r="B25" s="173"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="173"/>
+      <c r="K25" s="173"/>
+      <c r="L25" s="173"/>
+      <c r="M25" s="173"/>
+      <c r="N25" s="173"/>
+      <c r="O25" s="173"/>
+      <c r="P25" s="173"/>
+      <c r="Q25" s="173"/>
+      <c r="R25" s="174"/>
     </row>
     <row r="26" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="160"/>
-      <c r="B26" s="161"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="161"/>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="162"/>
+      <c r="A26" s="172"/>
+      <c r="B26" s="173"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="173"/>
+      <c r="K26" s="173"/>
+      <c r="L26" s="173"/>
+      <c r="M26" s="173"/>
+      <c r="N26" s="173"/>
+      <c r="O26" s="173"/>
+      <c r="P26" s="173"/>
+      <c r="Q26" s="173"/>
+      <c r="R26" s="174"/>
     </row>
     <row r="27" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="160"/>
-      <c r="B27" s="161"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="161"/>
-      <c r="K27" s="161"/>
-      <c r="L27" s="161"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="161"/>
-      <c r="O27" s="161"/>
-      <c r="P27" s="161"/>
-      <c r="Q27" s="161"/>
-      <c r="R27" s="162"/>
+      <c r="A27" s="172"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="173"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="173"/>
+      <c r="K27" s="173"/>
+      <c r="L27" s="173"/>
+      <c r="M27" s="173"/>
+      <c r="N27" s="173"/>
+      <c r="O27" s="173"/>
+      <c r="P27" s="173"/>
+      <c r="Q27" s="173"/>
+      <c r="R27" s="174"/>
     </row>
     <row r="28" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="160"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="161"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="161"/>
-      <c r="K28" s="161"/>
-      <c r="L28" s="161"/>
-      <c r="M28" s="161"/>
-      <c r="N28" s="161"/>
-      <c r="O28" s="161"/>
-      <c r="P28" s="161"/>
-      <c r="Q28" s="161"/>
-      <c r="R28" s="162"/>
+      <c r="A28" s="172"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="173"/>
+      <c r="L28" s="173"/>
+      <c r="M28" s="173"/>
+      <c r="N28" s="173"/>
+      <c r="O28" s="173"/>
+      <c r="P28" s="173"/>
+      <c r="Q28" s="173"/>
+      <c r="R28" s="174"/>
     </row>
     <row r="29" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="160"/>
-      <c r="B29" s="161"/>
-      <c r="C29" s="161"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="161"/>
-      <c r="L29" s="161"/>
-      <c r="M29" s="161"/>
-      <c r="N29" s="161"/>
-      <c r="O29" s="161"/>
-      <c r="P29" s="161"/>
-      <c r="Q29" s="161"/>
-      <c r="R29" s="162"/>
+      <c r="A29" s="172"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="173"/>
+      <c r="K29" s="173"/>
+      <c r="L29" s="173"/>
+      <c r="M29" s="173"/>
+      <c r="N29" s="173"/>
+      <c r="O29" s="173"/>
+      <c r="P29" s="173"/>
+      <c r="Q29" s="173"/>
+      <c r="R29" s="174"/>
     </row>
     <row r="30" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="160"/>
-      <c r="B30" s="161"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="161"/>
-      <c r="M30" s="161"/>
-      <c r="N30" s="161"/>
-      <c r="O30" s="161"/>
-      <c r="P30" s="161"/>
-      <c r="Q30" s="161"/>
-      <c r="R30" s="162"/>
+      <c r="A30" s="172"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="173"/>
+      <c r="K30" s="173"/>
+      <c r="L30" s="173"/>
+      <c r="M30" s="173"/>
+      <c r="N30" s="173"/>
+      <c r="O30" s="173"/>
+      <c r="P30" s="173"/>
+      <c r="Q30" s="173"/>
+      <c r="R30" s="174"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="160"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="161"/>
-      <c r="M31" s="161"/>
-      <c r="N31" s="161"/>
-      <c r="O31" s="161"/>
-      <c r="P31" s="161"/>
-      <c r="Q31" s="161"/>
-      <c r="R31" s="162"/>
+      <c r="A31" s="172"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="173"/>
+      <c r="K31" s="173"/>
+      <c r="L31" s="173"/>
+      <c r="M31" s="173"/>
+      <c r="N31" s="173"/>
+      <c r="O31" s="173"/>
+      <c r="P31" s="173"/>
+      <c r="Q31" s="173"/>
+      <c r="R31" s="174"/>
     </row>
     <row r="32" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="160"/>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="161"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="161"/>
-      <c r="P32" s="161"/>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="162"/>
+      <c r="A32" s="172"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="173"/>
+      <c r="L32" s="173"/>
+      <c r="M32" s="173"/>
+      <c r="N32" s="173"/>
+      <c r="O32" s="173"/>
+      <c r="P32" s="173"/>
+      <c r="Q32" s="173"/>
+      <c r="R32" s="174"/>
       <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="160"/>
-      <c r="B33" s="161"/>
-      <c r="C33" s="161"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="161"/>
-      <c r="L33" s="161"/>
-      <c r="M33" s="161"/>
-      <c r="N33" s="161"/>
-      <c r="O33" s="161"/>
-      <c r="P33" s="161"/>
-      <c r="Q33" s="161"/>
-      <c r="R33" s="162"/>
+      <c r="A33" s="172"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="173"/>
+      <c r="K33" s="173"/>
+      <c r="L33" s="173"/>
+      <c r="M33" s="173"/>
+      <c r="N33" s="173"/>
+      <c r="O33" s="173"/>
+      <c r="P33" s="173"/>
+      <c r="Q33" s="173"/>
+      <c r="R33" s="174"/>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="160"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="161"/>
-      <c r="J34" s="161"/>
-      <c r="K34" s="161"/>
-      <c r="L34" s="161"/>
-      <c r="M34" s="161"/>
-      <c r="N34" s="161"/>
-      <c r="O34" s="161"/>
-      <c r="P34" s="161"/>
-      <c r="Q34" s="161"/>
-      <c r="R34" s="162"/>
+      <c r="A34" s="172"/>
+      <c r="B34" s="173"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="173"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="173"/>
+      <c r="L34" s="173"/>
+      <c r="M34" s="173"/>
+      <c r="N34" s="173"/>
+      <c r="O34" s="173"/>
+      <c r="P34" s="173"/>
+      <c r="Q34" s="173"/>
+      <c r="R34" s="174"/>
       <c r="S34" s="12"/>
     </row>
     <row r="35" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="160"/>
-      <c r="B35" s="161"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="161"/>
-      <c r="I35" s="161"/>
-      <c r="J35" s="161"/>
-      <c r="K35" s="161"/>
-      <c r="L35" s="161"/>
-      <c r="M35" s="161"/>
-      <c r="N35" s="161"/>
-      <c r="O35" s="161"/>
-      <c r="P35" s="161"/>
-      <c r="Q35" s="161"/>
-      <c r="R35" s="162"/>
+      <c r="A35" s="172"/>
+      <c r="B35" s="173"/>
+      <c r="C35" s="173"/>
+      <c r="D35" s="173"/>
+      <c r="E35" s="173"/>
+      <c r="F35" s="173"/>
+      <c r="G35" s="173"/>
+      <c r="H35" s="173"/>
+      <c r="I35" s="173"/>
+      <c r="J35" s="173"/>
+      <c r="K35" s="173"/>
+      <c r="L35" s="173"/>
+      <c r="M35" s="173"/>
+      <c r="N35" s="173"/>
+      <c r="O35" s="173"/>
+      <c r="P35" s="173"/>
+      <c r="Q35" s="173"/>
+      <c r="R35" s="174"/>
       <c r="S35" s="12"/>
     </row>
     <row r="36" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="160"/>
-      <c r="B36" s="161"/>
-      <c r="C36" s="161"/>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="161"/>
-      <c r="L36" s="161"/>
-      <c r="M36" s="161"/>
-      <c r="N36" s="161"/>
-      <c r="O36" s="161"/>
-      <c r="P36" s="161"/>
-      <c r="Q36" s="161"/>
-      <c r="R36" s="162"/>
+      <c r="A36" s="172"/>
+      <c r="B36" s="173"/>
+      <c r="C36" s="173"/>
+      <c r="D36" s="173"/>
+      <c r="E36" s="173"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="173"/>
+      <c r="H36" s="173"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="173"/>
+      <c r="K36" s="173"/>
+      <c r="L36" s="173"/>
+      <c r="M36" s="173"/>
+      <c r="N36" s="173"/>
+      <c r="O36" s="173"/>
+      <c r="P36" s="173"/>
+      <c r="Q36" s="173"/>
+      <c r="R36" s="174"/>
       <c r="S36" s="12"/>
     </row>
     <row r="37" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="160"/>
-      <c r="B37" s="161"/>
-      <c r="C37" s="161"/>
-      <c r="D37" s="161"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="161"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="161"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="161"/>
-      <c r="L37" s="161"/>
-      <c r="M37" s="161"/>
-      <c r="N37" s="161"/>
-      <c r="O37" s="161"/>
-      <c r="P37" s="161"/>
-      <c r="Q37" s="161"/>
-      <c r="R37" s="162"/>
+      <c r="A37" s="172"/>
+      <c r="B37" s="173"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="173"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="173"/>
+      <c r="K37" s="173"/>
+      <c r="L37" s="173"/>
+      <c r="M37" s="173"/>
+      <c r="N37" s="173"/>
+      <c r="O37" s="173"/>
+      <c r="P37" s="173"/>
+      <c r="Q37" s="173"/>
+      <c r="R37" s="174"/>
       <c r="S37" s="12"/>
     </row>
     <row r="38" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="160"/>
-      <c r="B38" s="161"/>
-      <c r="C38" s="161"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="161"/>
-      <c r="M38" s="161"/>
-      <c r="N38" s="161"/>
-      <c r="O38" s="161"/>
-      <c r="P38" s="161"/>
-      <c r="Q38" s="161"/>
-      <c r="R38" s="162"/>
+      <c r="A38" s="172"/>
+      <c r="B38" s="173"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="173"/>
+      <c r="K38" s="173"/>
+      <c r="L38" s="173"/>
+      <c r="M38" s="173"/>
+      <c r="N38" s="173"/>
+      <c r="O38" s="173"/>
+      <c r="P38" s="173"/>
+      <c r="Q38" s="173"/>
+      <c r="R38" s="174"/>
       <c r="S38" s="12"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="183" t="s">
+      <c r="A39" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="184"/>
-      <c r="C39" s="184"/>
-      <c r="D39" s="184"/>
-      <c r="E39" s="184"/>
-      <c r="F39" s="184"/>
-      <c r="G39" s="184"/>
-      <c r="H39" s="184"/>
-      <c r="I39" s="184"/>
-      <c r="J39" s="184"/>
-      <c r="K39" s="184"/>
-      <c r="L39" s="184"/>
-      <c r="M39" s="184"/>
-      <c r="N39" s="184"/>
-      <c r="O39" s="184"/>
-      <c r="P39" s="184"/>
-      <c r="Q39" s="184"/>
-      <c r="R39" s="185"/>
+      <c r="B39" s="196"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="196"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="196"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="196"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="196"/>
+      <c r="K39" s="196"/>
+      <c r="L39" s="196"/>
+      <c r="M39" s="196"/>
+      <c r="N39" s="196"/>
+      <c r="O39" s="196"/>
+      <c r="P39" s="196"/>
+      <c r="Q39" s="196"/>
+      <c r="R39" s="197"/>
       <c r="S39" s="12"/>
     </row>
     <row r="40" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="163"/>
+      <c r="A40" s="175"/>
       <c r="B40" s="54" t="s">
         <v>50</v>
       </c>
@@ -8850,8 +8947,8 @@
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="167"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="179"/>
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
       <c r="L40" s="55"/>
@@ -8860,17 +8957,17 @@
       <c r="O40" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="P40" s="170" t="s">
+      <c r="P40" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="Q40" s="171"/>
+      <c r="Q40" s="183"/>
       <c r="R40" s="57" t="s">
         <v>54</v>
       </c>
       <c r="S40" s="12"/>
     </row>
     <row r="41" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="164"/>
+      <c r="A41" s="176"/>
       <c r="B41" s="43" t="s">
         <v>51</v>
       </c>
@@ -8889,8 +8986,8 @@
       <c r="G41" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="168"/>
-      <c r="I41" s="169"/>
+      <c r="H41" s="180"/>
+      <c r="I41" s="181"/>
       <c r="J41" s="44" t="s">
         <v>55</v>
       </c>
@@ -8907,95 +9004,95 @@
         <v>59</v>
       </c>
       <c r="O41" s="45"/>
-      <c r="P41" s="172"/>
-      <c r="Q41" s="173"/>
-      <c r="R41" s="178"/>
+      <c r="P41" s="184"/>
+      <c r="Q41" s="185"/>
+      <c r="R41" s="190"/>
       <c r="S41" s="12"/>
     </row>
     <row r="42" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="164"/>
+      <c r="A42" s="176"/>
       <c r="B42" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="181" t="s">
+      <c r="C42" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="182"/>
+      <c r="D42" s="194"/>
       <c r="E42" s="50"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="181" t="s">
+      <c r="J42" s="193" t="s">
         <v>65</v>
       </c>
-      <c r="K42" s="182"/>
+      <c r="K42" s="194"/>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
       <c r="N42" s="31"/>
       <c r="O42" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="P42" s="174"/>
-      <c r="Q42" s="175"/>
-      <c r="R42" s="179"/>
+      <c r="P42" s="186"/>
+      <c r="Q42" s="187"/>
+      <c r="R42" s="191"/>
       <c r="S42" s="12"/>
     </row>
     <row r="43" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="164"/>
+      <c r="A43" s="176"/>
       <c r="B43" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="181" t="s">
+      <c r="C43" s="193" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="182"/>
+      <c r="D43" s="194"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="52"/>
       <c r="I43" s="53"/>
-      <c r="J43" s="181" t="s">
+      <c r="J43" s="193" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="182"/>
+      <c r="K43" s="194"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
       <c r="O43" s="47"/>
-      <c r="P43" s="176"/>
-      <c r="Q43" s="177"/>
-      <c r="R43" s="180"/>
+      <c r="P43" s="188"/>
+      <c r="Q43" s="189"/>
+      <c r="R43" s="192"/>
     </row>
     <row r="44" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="165"/>
+      <c r="A44" s="177"/>
       <c r="B44" s="58"/>
-      <c r="C44" s="155" t="s">
+      <c r="C44" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="156"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="59"/>
       <c r="F44" s="60"/>
       <c r="G44" s="60"/>
       <c r="H44" s="61"/>
       <c r="I44" s="62"/>
-      <c r="J44" s="155" t="s">
+      <c r="J44" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="K44" s="156"/>
+      <c r="K44" s="168"/>
       <c r="L44" s="59"/>
       <c r="M44" s="59" t="s">
         <v>70</v>
       </c>
       <c r="N44" s="60"/>
-      <c r="O44" s="157" t="s">
+      <c r="O44" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="P44" s="158"/>
-      <c r="Q44" s="157" t="s">
+      <c r="P44" s="170"/>
+      <c r="Q44" s="169" t="s">
         <v>72</v>
       </c>
-      <c r="R44" s="159"/>
+      <c r="R44" s="171"/>
     </row>
     <row r="45" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9118,18 +9215,18 @@
       <c r="J2" s="6"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="123" t="s">
+      <c r="M2" s="138"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="122">
+      <c r="P2" s="133"/>
+      <c r="Q2" s="134">
         <f ca="1">TODAY()</f>
-        <v>43552</v>
-      </c>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
+        <v>43593</v>
+      </c>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
       <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -9145,17 +9242,17 @@
       <c r="J3" s="6"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="123" t="s">
+      <c r="M3" s="138"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="120" t="s">
+      <c r="P3" s="133"/>
+      <c r="Q3" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
       <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9203,11 +9300,11 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="204" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="193"/>
-      <c r="C6" s="193"/>
+      <c r="B6" s="205"/>
+      <c r="C6" s="205"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -9227,11 +9324,11 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="192" t="s">
+      <c r="A7" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
+      <c r="B7" s="205"/>
+      <c r="C7" s="205"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -9251,11 +9348,11 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="192" t="s">
+      <c r="A8" s="204" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="193"/>
-      <c r="C8" s="193"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -9367,20 +9464,20 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="195" t="s">
+      <c r="E13" s="207" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="196"/>
-      <c r="L13" s="196"/>
-      <c r="M13" s="196"/>
-      <c r="N13" s="196"/>
-      <c r="O13" s="196"/>
-      <c r="P13" s="196"/>
+      <c r="F13" s="208"/>
+      <c r="G13" s="208"/>
+      <c r="H13" s="208"/>
+      <c r="I13" s="208"/>
+      <c r="J13" s="208"/>
+      <c r="K13" s="208"/>
+      <c r="L13" s="208"/>
+      <c r="M13" s="208"/>
+      <c r="N13" s="208"/>
+      <c r="O13" s="208"/>
+      <c r="P13" s="208"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -9391,18 +9488,18 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="196"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="196"/>
-      <c r="K14" s="196"/>
-      <c r="L14" s="196"/>
-      <c r="M14" s="196"/>
-      <c r="N14" s="196"/>
-      <c r="O14" s="196"/>
-      <c r="P14" s="196"/>
+      <c r="E14" s="208"/>
+      <c r="F14" s="208"/>
+      <c r="G14" s="208"/>
+      <c r="H14" s="208"/>
+      <c r="I14" s="208"/>
+      <c r="J14" s="208"/>
+      <c r="K14" s="208"/>
+      <c r="L14" s="208"/>
+      <c r="M14" s="208"/>
+      <c r="N14" s="208"/>
+      <c r="O14" s="208"/>
+      <c r="P14" s="208"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -9413,18 +9510,18 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="196"/>
-      <c r="K15" s="196"/>
-      <c r="L15" s="196"/>
-      <c r="M15" s="196"/>
-      <c r="N15" s="196"/>
-      <c r="O15" s="196"/>
-      <c r="P15" s="196"/>
+      <c r="E15" s="208"/>
+      <c r="F15" s="208"/>
+      <c r="G15" s="208"/>
+      <c r="H15" s="208"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="208"/>
+      <c r="K15" s="208"/>
+      <c r="L15" s="208"/>
+      <c r="M15" s="208"/>
+      <c r="N15" s="208"/>
+      <c r="O15" s="208"/>
+      <c r="P15" s="208"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -9436,23 +9533,23 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="129" t="s">
+      <c r="F16" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="139" t="str">
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J13:Q13</f>
         <v>Иванов И.И.</v>
       </c>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="139"/>
-      <c r="P16" s="139"/>
-      <c r="Q16" s="139"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="148"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -9463,23 +9560,23 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="129" t="s">
+      <c r="F17" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="194" t="str">
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="206" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J14:Q14</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K17" s="194"/>
-      <c r="L17" s="194"/>
-      <c r="M17" s="194"/>
-      <c r="N17" s="194"/>
-      <c r="O17" s="194"/>
-      <c r="P17" s="194"/>
-      <c r="Q17" s="194"/>
+      <c r="K17" s="206"/>
+      <c r="L17" s="206"/>
+      <c r="M17" s="206"/>
+      <c r="N17" s="206"/>
+      <c r="O17" s="206"/>
+      <c r="P17" s="206"/>
+      <c r="Q17" s="206"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="4"/>
@@ -9490,23 +9587,23 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="129" t="s">
+      <c r="F18" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="139" t="str">
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J15:Q15</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="139"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="139"/>
-      <c r="P18" s="139"/>
-      <c r="Q18" s="139"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="4"/>
@@ -9517,23 +9614,23 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="129" t="s">
+      <c r="F19" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="194" t="str">
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="206" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J16:Q16</f>
         <v>восьмой</v>
       </c>
-      <c r="K19" s="194"/>
-      <c r="L19" s="194"/>
-      <c r="M19" s="194"/>
-      <c r="N19" s="194"/>
-      <c r="O19" s="194"/>
-      <c r="P19" s="194"/>
-      <c r="Q19" s="194"/>
+      <c r="K19" s="206"/>
+      <c r="L19" s="206"/>
+      <c r="M19" s="206"/>
+      <c r="N19" s="206"/>
+      <c r="O19" s="206"/>
+      <c r="P19" s="206"/>
+      <c r="Q19" s="206"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="4"/>
@@ -9544,23 +9641,23 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="129" t="s">
+      <c r="F20" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="194" t="str">
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="206" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J17:Q17</f>
         <v>кухня</v>
       </c>
-      <c r="K20" s="194"/>
-      <c r="L20" s="194"/>
-      <c r="M20" s="194"/>
-      <c r="N20" s="194"/>
-      <c r="O20" s="194"/>
-      <c r="P20" s="194"/>
-      <c r="Q20" s="194"/>
+      <c r="K20" s="206"/>
+      <c r="L20" s="206"/>
+      <c r="M20" s="206"/>
+      <c r="N20" s="206"/>
+      <c r="O20" s="206"/>
+      <c r="P20" s="206"/>
+      <c r="Q20" s="206"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="4"/>
@@ -9571,23 +9668,23 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="129" t="s">
+      <c r="F21" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="139" t="str">
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J18:Q18</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="139"/>
-      <c r="P21" s="139"/>
-      <c r="Q21" s="139"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="148"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="4"/>
@@ -9598,23 +9695,23 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="129" t="s">
+      <c r="F22" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="194">
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="206">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J19:Q19</f>
         <v>500</v>
       </c>
-      <c r="K22" s="194"/>
-      <c r="L22" s="194"/>
-      <c r="M22" s="194"/>
-      <c r="N22" s="194"/>
-      <c r="O22" s="194"/>
-      <c r="P22" s="194"/>
-      <c r="Q22" s="194"/>
+      <c r="K22" s="206"/>
+      <c r="L22" s="206"/>
+      <c r="M22" s="206"/>
+      <c r="N22" s="206"/>
+      <c r="O22" s="206"/>
+      <c r="P22" s="206"/>
+      <c r="Q22" s="206"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="4"/>
@@ -9625,23 +9722,23 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="129" t="s">
+      <c r="F23" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="194" t="str">
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="206" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J20:Q20</f>
         <v>1-15,16</v>
       </c>
-      <c r="K23" s="194"/>
-      <c r="L23" s="194"/>
-      <c r="M23" s="194"/>
-      <c r="N23" s="194"/>
-      <c r="O23" s="194"/>
-      <c r="P23" s="194"/>
-      <c r="Q23" s="194"/>
+      <c r="K23" s="206"/>
+      <c r="L23" s="206"/>
+      <c r="M23" s="206"/>
+      <c r="N23" s="206"/>
+      <c r="O23" s="206"/>
+      <c r="P23" s="206"/>
+      <c r="Q23" s="206"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="4"/>
@@ -9719,12 +9816,12 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="138" t="s">
+      <c r="G27" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -9737,29 +9834,29 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="142" t="s">
+      <c r="A28" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="133" t="str">
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="145" t="str">
         <f>builder</f>
         <v>_____________________</v>
       </c>
-      <c r="L28" s="133"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="133"/>
-      <c r="O28" s="133" t="s">
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="133"/>
+      <c r="P28" s="145"/>
       <c r="Q28" s="30" t="s">
         <v>3</v>
       </c>
@@ -9768,7 +9865,7 @@
       </c>
       <c r="S28" s="114">
         <f ca="1">TODAY()</f>
-        <v>43552</v>
+        <v>43593</v>
       </c>
       <c r="T28" s="22"/>
     </row>
@@ -9801,12 +9898,12 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="138" t="s">
+      <c r="G30" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="135"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="152"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -9819,28 +9916,28 @@
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="134" t="s">
+      <c r="A31" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="135"/>
-      <c r="K31" s="136" t="s">
+      <c r="B31" s="152"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="136"/>
-      <c r="O31" s="133" t="s">
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="133"/>
+      <c r="P31" s="145"/>
       <c r="Q31" s="30" t="s">
         <v>3</v>
       </c>
@@ -9849,33 +9946,33 @@
       </c>
       <c r="S31" s="114">
         <f ca="1">TODAY()</f>
-        <v>43552</v>
+        <v>43593</v>
       </c>
       <c r="T31" s="22"/>
     </row>
     <row r="32" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="134" t="s">
+      <c r="A32" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="136" t="s">
+      <c r="B32" s="152"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="136"/>
-      <c r="M32" s="136"/>
-      <c r="N32" s="136"/>
-      <c r="O32" s="133" t="s">
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="133"/>
+      <c r="P32" s="145"/>
       <c r="Q32" s="30" t="s">
         <v>3</v>
       </c>
@@ -9884,7 +9981,7 @@
       </c>
       <c r="S32" s="114">
         <f ca="1">TODAY()</f>
-        <v>43552</v>
+        <v>43593</v>
       </c>
       <c r="T32" s="22"/>
     </row>
@@ -9917,12 +10014,12 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="138" t="s">
+      <c r="G34" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="135"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="152"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -9935,28 +10032,28 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="134" t="s">
+      <c r="A35" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="135"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="135"/>
-      <c r="J35" s="135"/>
-      <c r="K35" s="136" t="s">
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="136"/>
-      <c r="M35" s="136"/>
-      <c r="N35" s="136"/>
-      <c r="O35" s="133" t="s">
+      <c r="L35" s="146"/>
+      <c r="M35" s="146"/>
+      <c r="N35" s="146"/>
+      <c r="O35" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="P35" s="133"/>
+      <c r="P35" s="145"/>
       <c r="Q35" s="30" t="s">
         <v>3</v>
       </c>
@@ -9965,7 +10062,7 @@
       </c>
       <c r="S35" s="114">
         <f ca="1">TODAY()</f>
-        <v>43552</v>
+        <v>43593</v>
       </c>
       <c r="T35" s="22"/>
     </row>
@@ -10064,19 +10161,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="199"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="211"/>
     </row>
     <row r="2" spans="1:11" s="69" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="77" t="s">
@@ -10472,48 +10569,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="214" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="203"/>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="204"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="215"/>
+      <c r="R1" s="215"/>
+      <c r="S1" s="216"/>
     </row>
     <row r="2" spans="1:19" s="103" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="217" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="205" t="s">
+      <c r="C2" s="217" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="205" t="s">
+      <c r="D2" s="217" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="205" t="s">
+      <c r="E2" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="217" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="205" t="s">
+      <c r="G2" s="217" t="s">
         <v>77</v>
       </c>
       <c r="H2" s="104" t="s">
@@ -10522,11 +10619,11 @@
       <c r="I2" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="208" t="s">
+      <c r="J2" s="220" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
       <c r="M2" s="104" t="s">
         <v>118</v>
       </c>
@@ -10550,13 +10647,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="93" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="206"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
+      <c r="A3" s="218"/>
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
       <c r="H3" s="99" t="s">
         <v>111</v>
       </c>
@@ -10595,24 +10692,24 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="93" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="206"/>
-      <c r="B4" s="206"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
+      <c r="A4" s="218"/>
+      <c r="B4" s="218"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="218"/>
       <c r="H4" s="99" t="s">
         <v>103</v>
       </c>
       <c r="I4" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="J4" s="200" t="s">
+      <c r="J4" s="212" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="201"/>
-      <c r="L4" s="201"/>
+      <c r="K4" s="213"/>
+      <c r="L4" s="213"/>
       <c r="M4" s="100" t="s">
         <v>100</v>
       </c>
@@ -10636,24 +10733,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="93" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="207"/>
-      <c r="B5" s="207"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
+      <c r="A5" s="219"/>
+      <c r="B5" s="219"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="219"/>
       <c r="H5" s="99" t="s">
         <v>93</v>
       </c>
       <c r="I5" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="200" t="s">
+      <c r="J5" s="212" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="201"/>
-      <c r="L5" s="201"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
       <c r="M5" s="98" t="s">
         <v>90</v>
       </c>
@@ -11347,19 +11444,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="222" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="212"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="224"/>
     </row>
     <row r="2" spans="1:11" s="69" customFormat="1" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="77" t="s">

--- a/dist/files/xls/shablon-alboma-dp.xlsx
+++ b/dist/files/xls/shablon-alboma-dp.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="134">
   <si>
     <t>РАЗРАБОТАЛ</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>ПОЛИРОВКА (есть/нет)</t>
+  </si>
+  <si>
+    <t>3.0</t>
   </si>
 </sst>
 </file>
@@ -1859,6 +1862,15 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1869,12 +1881,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1882,35 +1888,32 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -5559,18 +5562,18 @@
       <c r="J2" s="6"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="135" t="s">
+      <c r="M2" s="139"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="134">
+      <c r="P2" s="136"/>
+      <c r="Q2" s="137">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
-      </c>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
+        <v>43598</v>
+      </c>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
       <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5586,17 +5589,17 @@
       <c r="J3" s="6"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="135" t="s">
+      <c r="M3" s="139"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="132" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="135" t="s">
+        <v>133</v>
+      </c>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
       <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5611,13 +5614,13 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="135" t="s">
+      <c r="L4" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="140"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="141"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
@@ -5635,24 +5638,24 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="135" t="s">
+      <c r="L5" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="141"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -5672,11 +5675,11 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -5696,11 +5699,11 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -5724,18 +5727,18 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="147" t="s">
+      <c r="E9" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="140"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="141"/>
+      <c r="N9" s="141"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -5748,16 +5751,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="140"/>
-      <c r="M10" s="140"/>
-      <c r="N10" s="140"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
       <c r="O10" s="24"/>
       <c r="P10" s="26"/>
       <c r="Q10" s="5"/>
@@ -5770,16 +5773,16 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="140"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="141"/>
       <c r="O11" s="24"/>
       <c r="P11" s="26"/>
       <c r="Q11" s="5"/>
@@ -5792,16 +5795,16 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="141"/>
+      <c r="N12" s="141"/>
       <c r="O12" s="24"/>
       <c r="P12" s="26"/>
       <c r="Q12" s="5"/>
@@ -5815,22 +5818,22 @@
       <c r="C13" s="110"/>
       <c r="D13" s="110"/>
       <c r="E13" s="111"/>
-      <c r="F13" s="143" t="s">
+      <c r="F13" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="148" t="s">
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="148"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="148"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="148"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="145"/>
       <c r="R13" s="110"/>
       <c r="S13" s="110"/>
       <c r="T13" s="112"/>
@@ -5841,22 +5844,22 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="141" t="s">
+      <c r="F14" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="132" t="s">
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="132"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="135"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="4"/>
@@ -5867,22 +5870,22 @@
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
       <c r="E15" s="117"/>
-      <c r="F15" s="143" t="s">
+      <c r="F15" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="148" t="s">
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="148"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="148"/>
-      <c r="N15" s="148"/>
-      <c r="O15" s="148"/>
-      <c r="P15" s="148"/>
-      <c r="Q15" s="148"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="145"/>
       <c r="R15" s="116"/>
       <c r="S15" s="116"/>
       <c r="T15" s="118"/>
@@ -5893,22 +5896,22 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="141" t="s">
+      <c r="F16" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="132" t="s">
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="132"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -5919,22 +5922,22 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="141" t="s">
+      <c r="F17" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="132" t="s">
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="150"/>
-      <c r="L17" s="150"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
-      <c r="O17" s="150"/>
-      <c r="P17" s="150"/>
-      <c r="Q17" s="150"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="147"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="4"/>
@@ -5945,22 +5948,22 @@
       <c r="C18" s="110"/>
       <c r="D18" s="110"/>
       <c r="E18" s="111"/>
-      <c r="F18" s="143" t="s">
+      <c r="F18" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="148" t="s">
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="149"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="149"/>
-      <c r="N18" s="149"/>
-      <c r="O18" s="149"/>
-      <c r="P18" s="149"/>
-      <c r="Q18" s="149"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="146"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="146"/>
+      <c r="Q18" s="146"/>
       <c r="R18" s="110"/>
       <c r="S18" s="110"/>
       <c r="T18" s="112"/>
@@ -5971,22 +5974,22 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="141" t="s">
+      <c r="F19" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="132">
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="135">
         <v>500</v>
       </c>
-      <c r="K19" s="132"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="132"/>
-      <c r="Q19" s="132"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="135"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="4"/>
@@ -5997,22 +6000,22 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="141" t="s">
+      <c r="F20" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="132" t="s">
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="132"/>
-      <c r="Q20" s="132"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="135"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="4"/>
@@ -6098,16 +6101,16 @@
       <c r="H24" s="152"/>
       <c r="I24" s="152"/>
       <c r="J24" s="152"/>
-      <c r="K24" s="145" t="s">
+      <c r="K24" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="145"/>
-      <c r="M24" s="145"/>
-      <c r="N24" s="145"/>
-      <c r="O24" s="145" t="s">
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="145"/>
+      <c r="P24" s="132"/>
       <c r="Q24" s="21" t="s">
         <v>3</v>
       </c>
@@ -6116,7 +6119,7 @@
       </c>
       <c r="S24" s="114">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="T24" s="22"/>
     </row>
@@ -6179,16 +6182,16 @@
       <c r="H27" s="152"/>
       <c r="I27" s="152"/>
       <c r="J27" s="152"/>
-      <c r="K27" s="146" t="s">
+      <c r="K27" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="146"/>
-      <c r="M27" s="146"/>
-      <c r="N27" s="146"/>
-      <c r="O27" s="145" t="s">
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
+      <c r="N27" s="150"/>
+      <c r="O27" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="145"/>
+      <c r="P27" s="132"/>
       <c r="Q27" s="21" t="s">
         <v>3</v>
       </c>
@@ -6197,7 +6200,7 @@
       </c>
       <c r="S27" s="114">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="T27" s="22"/>
     </row>
@@ -6214,16 +6217,16 @@
       <c r="H28" s="152"/>
       <c r="I28" s="152"/>
       <c r="J28" s="152"/>
-      <c r="K28" s="146" t="s">
+      <c r="K28" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="146"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="146"/>
-      <c r="O28" s="145" t="s">
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="145"/>
+      <c r="P28" s="132"/>
       <c r="Q28" s="21" t="s">
         <v>3</v>
       </c>
@@ -6232,7 +6235,7 @@
       </c>
       <c r="S28" s="114">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="T28" s="22"/>
     </row>
@@ -6303,16 +6306,16 @@
       </c>
       <c r="I31" s="121"/>
       <c r="J31" s="121"/>
-      <c r="K31" s="146" t="s">
+      <c r="K31" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="145" t="s">
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="145"/>
+      <c r="P31" s="132"/>
       <c r="Q31" s="25" t="s">
         <v>3</v>
       </c>
@@ -6321,7 +6324,7 @@
       </c>
       <c r="S31" s="114">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="T31" s="22"/>
     </row>
@@ -6384,16 +6387,16 @@
       <c r="J34" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="K34" s="146" t="s">
+      <c r="K34" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="L34" s="146"/>
-      <c r="M34" s="146"/>
-      <c r="N34" s="146"/>
-      <c r="O34" s="145" t="s">
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
+      <c r="N34" s="150"/>
+      <c r="O34" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="P34" s="145"/>
+      <c r="P34" s="132"/>
       <c r="Q34" s="21" t="s">
         <v>3</v>
       </c>
@@ -6402,7 +6405,7 @@
       </c>
       <c r="S34" s="114">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="T34" s="22"/>
     </row>
@@ -6430,6 +6433,8 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="F18:I18"/>
     <mergeCell ref="K34:N34"/>
     <mergeCell ref="J20:Q20"/>
     <mergeCell ref="G23:J23"/>
@@ -6445,22 +6450,16 @@
     <mergeCell ref="A28:J28"/>
     <mergeCell ref="K28:N28"/>
     <mergeCell ref="K31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="E9:N12"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
     <mergeCell ref="J15:Q15"/>
     <mergeCell ref="J14:Q14"/>
     <mergeCell ref="J18:Q18"/>
     <mergeCell ref="J16:Q16"/>
     <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
@@ -6473,6 +6472,10 @@
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="L5:P5"/>
+    <mergeCell ref="E9:N12"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J13:Q13"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:G30"/>
@@ -7017,7 +7020,7 @@
     <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Y57" s="41">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
     </row>
     <row r="58" spans="2:25" ht="23.25" x14ac:dyDescent="0.25">
@@ -9215,18 +9218,18 @@
       <c r="J2" s="6"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="135" t="s">
+      <c r="M2" s="139"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="134">
+      <c r="P2" s="136"/>
+      <c r="Q2" s="137">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
-      </c>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
+        <v>43598</v>
+      </c>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
       <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -9242,17 +9245,17 @@
       <c r="J3" s="6"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="135" t="s">
+      <c r="M3" s="139"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="132" t="s">
+      <c r="P3" s="136"/>
+      <c r="Q3" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
       <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9533,23 +9536,23 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="141" t="s">
+      <c r="F16" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="148" t="str">
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="145" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J13:Q13</f>
         <v>Иванов И.И.</v>
       </c>
-      <c r="K16" s="148"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="148"/>
-      <c r="N16" s="148"/>
-      <c r="O16" s="148"/>
-      <c r="P16" s="148"/>
-      <c r="Q16" s="148"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="145"/>
+      <c r="M16" s="145"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="145"/>
+      <c r="P16" s="145"/>
+      <c r="Q16" s="145"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -9560,12 +9563,12 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="141" t="s">
+      <c r="F17" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
       <c r="J17" s="206" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J14:Q14</f>
         <v>Петров П.П.</v>
@@ -9587,23 +9590,23 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="141" t="s">
+      <c r="F18" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="148" t="str">
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="145" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J15:Q15</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="148"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="148"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="145"/>
+      <c r="Q18" s="145"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="4"/>
@@ -9614,12 +9617,12 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="141" t="s">
+      <c r="F19" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
       <c r="J19" s="206" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J16:Q16</f>
         <v>восьмой</v>
@@ -9641,12 +9644,12 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="141" t="s">
+      <c r="F20" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
       <c r="J20" s="206" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J17:Q17</f>
         <v>кухня</v>
@@ -9668,23 +9671,23 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="141" t="s">
+      <c r="F21" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="148" t="str">
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="145" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J18:Q18</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="148"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148"/>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="148"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="145"/>
+      <c r="P21" s="145"/>
+      <c r="Q21" s="145"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="4"/>
@@ -9695,12 +9698,12 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="141" t="s">
+      <c r="F22" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
       <c r="J22" s="206">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J19:Q19</f>
         <v>500</v>
@@ -9722,12 +9725,12 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="141" t="s">
+      <c r="F23" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
       <c r="J23" s="206" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J20:Q20</f>
         <v>1-15,16</v>
@@ -9846,17 +9849,17 @@
       <c r="H28" s="152"/>
       <c r="I28" s="152"/>
       <c r="J28" s="152"/>
-      <c r="K28" s="145" t="str">
+      <c r="K28" s="132" t="str">
         <f>builder</f>
         <v>_____________________</v>
       </c>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145" t="s">
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="145"/>
+      <c r="P28" s="132"/>
       <c r="Q28" s="30" t="s">
         <v>3</v>
       </c>
@@ -9865,7 +9868,7 @@
       </c>
       <c r="S28" s="114">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="T28" s="22"/>
     </row>
@@ -9928,16 +9931,16 @@
       <c r="H31" s="152"/>
       <c r="I31" s="152"/>
       <c r="J31" s="152"/>
-      <c r="K31" s="146" t="s">
+      <c r="K31" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="145" t="s">
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="145"/>
+      <c r="P31" s="132"/>
       <c r="Q31" s="30" t="s">
         <v>3</v>
       </c>
@@ -9946,7 +9949,7 @@
       </c>
       <c r="S31" s="114">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="T31" s="22"/>
     </row>
@@ -9963,16 +9966,16 @@
       <c r="H32" s="152"/>
       <c r="I32" s="152"/>
       <c r="J32" s="152"/>
-      <c r="K32" s="146" t="s">
+      <c r="K32" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="145" t="s">
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
+      <c r="N32" s="150"/>
+      <c r="O32" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="145"/>
+      <c r="P32" s="132"/>
       <c r="Q32" s="30" t="s">
         <v>3</v>
       </c>
@@ -9981,7 +9984,7 @@
       </c>
       <c r="S32" s="114">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="T32" s="22"/>
     </row>
@@ -10044,16 +10047,16 @@
       <c r="H35" s="152"/>
       <c r="I35" s="152"/>
       <c r="J35" s="152"/>
-      <c r="K35" s="146" t="s">
+      <c r="K35" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="146"/>
-      <c r="M35" s="146"/>
-      <c r="N35" s="146"/>
-      <c r="O35" s="145" t="s">
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
+      <c r="N35" s="150"/>
+      <c r="O35" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="P35" s="145"/>
+      <c r="P35" s="132"/>
       <c r="Q35" s="30" t="s">
         <v>3</v>
       </c>
@@ -10062,7 +10065,7 @@
       </c>
       <c r="S35" s="114">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="T35" s="22"/>
     </row>

--- a/dist/files/xls/shablon-alboma-dp.xlsx
+++ b/dist/files/xls/shablon-alboma-dp.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sshishenko\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="14655" tabRatio="898"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28335" windowHeight="14655" tabRatio="896"/>
   </bookViews>
   <sheets>
     <sheet name="ТИТУЛЬНЫЙ ЛИСТ ДП" sheetId="11" r:id="rId1"/>
@@ -20,6 +15,8 @@
     <sheet name="ВЕДОМОСТЬ ФУРНИТУРЫ" sheetId="18" r:id="rId6"/>
     <sheet name="ВЕДОМОСТЬ СТЕКОЛ И ЗЕРКАЛ" sheetId="19" r:id="rId7"/>
     <sheet name="ВЕДОМОСТЬ МАТЕРИАЛОВ" sheetId="20" r:id="rId8"/>
+    <sheet name="ТЗ для проектировщика" sheetId="22" r:id="rId9"/>
+    <sheet name="ТИТУЛЬНЫЙ ЛИСТ ТЗ" sheetId="21" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_FilterDatabase" localSheetId="6" hidden="1">'ВЕДОМОСТЬ СТЕКОЛ И ЗЕРКАЛ'!#REF!</definedName>
@@ -32,8 +29,10 @@
     <definedName name="complect">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$J$18</definedName>
     <definedName name="floor">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$J$16</definedName>
     <definedName name="order">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$J$19</definedName>
+    <definedName name="Print_Area" localSheetId="8">'ТЗ для проектировщика'!$A$1:$T$36</definedName>
     <definedName name="Print_Area" localSheetId="4">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$36</definedName>
     <definedName name="Print_Area" localSheetId="0">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$A$1:$T$35</definedName>
+    <definedName name="Print_Area" localSheetId="9">'ТИТУЛЬНЫЙ ЛИСТ ТЗ'!$A$1:$T$36</definedName>
     <definedName name="product">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$J$20</definedName>
     <definedName name="room">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$J$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'ВЕДОМОСТЬ МАТЕРИАЛОВ'!$A$1:$K$27</definedName>
@@ -42,10 +41,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Обмерный план'!$A$1:$R$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Ситуационный план'!$A$1:$R$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Состав проекта'!$A$1:$V$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'ТЗ для проектировщика'!$A$1:$T$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$A$1:$T$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'ТИТУЛЬНЫЙ ЛИСТ ТЗ'!$A$1:$T$36</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="140">
   <si>
     <t>РАЗРАБОТАЛ</t>
   </si>
@@ -462,11 +463,31 @@
   <si>
     <t>3.0</t>
   </si>
+  <si>
+    <t>20___</t>
+  </si>
+  <si>
+    <t>ТЕХНИЧЕСКОЕ ЗАДАНИЕ
+ДЛЯ СТРОИТЕЛЕЙ ЗАКАЗЧИКА</t>
+  </si>
+  <si>
+    <t>КОПИЮ ТЗ ПОЛУЧИЛ</t>
+  </si>
+  <si>
+    <t>КОПИЮ ТЗ ЗАКАЗЧИКУ ПЕРЕДАЛ</t>
+  </si>
+  <si>
+    <t>проектировщик</t>
+  </si>
+  <si>
+    <t>ТЕХНИЧЕСКОЕ ЗАДАНИЕ
+для проектировщика</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
@@ -1509,7 +1530,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1850,118 +1871,179 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1978,15 +2060,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2046,33 +2119,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2138,6 +2184,20 @@
     <xf numFmtId="0" fontId="50" fillId="3" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -2231,8 +2291,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="333375" y="337456"/>
-          <a:ext cx="16512268" cy="12144829"/>
+          <a:off x="339852" y="330707"/>
+          <a:ext cx="16925544" cy="11840083"/>
           <a:chOff x="532" y="527"/>
           <a:chExt cx="22751" cy="15771"/>
         </a:xfrm>
@@ -5244,6 +5304,94 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>157843</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>132806</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2740689" cy="1321397"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="157843" y="332831"/>
+          <a:ext cx="2740689" cy="1321397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>157843</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>132806</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2739008" cy="1335706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="157843" y="132806"/>
+          <a:ext cx="2739008" cy="1335706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -5499,7 +5647,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5509,7 +5657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="K24" sqref="K24:N24"/>
     </sheetView>
   </sheetViews>
@@ -5562,18 +5710,18 @@
       <c r="J2" s="6"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="138" t="s">
+      <c r="M2" s="165"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="137">
+      <c r="P2" s="157"/>
+      <c r="Q2" s="163">
         <f ca="1">TODAY()</f>
-        <v>43598</v>
-      </c>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
+        <v>43628</v>
+      </c>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
       <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5589,17 +5737,17 @@
       <c r="J3" s="6"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="138" t="s">
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="135" t="s">
+      <c r="P3" s="157"/>
+      <c r="Q3" s="142" t="s">
         <v>133</v>
       </c>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="157"/>
       <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5614,13 +5762,13 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="138" t="s">
+      <c r="L4" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
@@ -5638,24 +5786,24 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="138" t="s">
+      <c r="L5" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="141"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="159"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -5675,11 +5823,11 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="156"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -5699,11 +5847,11 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -5727,18 +5875,18 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -5751,16 +5899,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="159"/>
       <c r="O10" s="24"/>
       <c r="P10" s="26"/>
       <c r="Q10" s="5"/>
@@ -5773,16 +5921,16 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="141"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
       <c r="O11" s="24"/>
       <c r="P11" s="26"/>
       <c r="Q11" s="5"/>
@@ -5795,16 +5943,16 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
       <c r="O12" s="24"/>
       <c r="P12" s="26"/>
       <c r="Q12" s="5"/>
@@ -5818,22 +5966,22 @@
       <c r="C13" s="110"/>
       <c r="D13" s="110"/>
       <c r="E13" s="111"/>
-      <c r="F13" s="148" t="s">
+      <c r="F13" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="145" t="s">
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="145"/>
-      <c r="Q13" s="145"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
       <c r="R13" s="110"/>
       <c r="S13" s="110"/>
       <c r="T13" s="112"/>
@@ -5844,22 +5992,22 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="143" t="s">
+      <c r="F14" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="135" t="s">
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="135"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="142"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="4"/>
@@ -5870,22 +6018,22 @@
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
       <c r="E15" s="117"/>
-      <c r="F15" s="148" t="s">
+      <c r="F15" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="145" t="s">
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="145"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
       <c r="R15" s="116"/>
       <c r="S15" s="116"/>
       <c r="T15" s="118"/>
@@ -5896,22 +6044,22 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="143" t="s">
+      <c r="F16" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="135" t="s">
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="135"/>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="135"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="142"/>
+      <c r="Q16" s="142"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -5922,22 +6070,22 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="143" t="s">
+      <c r="F17" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="135" t="s">
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="147"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="147"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="150"/>
+      <c r="Q17" s="150"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="4"/>
@@ -5948,22 +6096,22 @@
       <c r="C18" s="110"/>
       <c r="D18" s="110"/>
       <c r="E18" s="111"/>
-      <c r="F18" s="148" t="s">
+      <c r="F18" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="145" t="s">
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="149"/>
+      <c r="Q18" s="149"/>
       <c r="R18" s="110"/>
       <c r="S18" s="110"/>
       <c r="T18" s="112"/>
@@ -5974,22 +6122,22 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="143" t="s">
+      <c r="F19" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="135">
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="142">
         <v>500</v>
       </c>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="135"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="142"/>
+      <c r="Q19" s="142"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="4"/>
@@ -6000,22 +6148,22 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="143" t="s">
+      <c r="F20" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="135" t="s">
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="135"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="142"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="4"/>
@@ -6071,12 +6219,12 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="151" t="s">
+      <c r="G23" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -6089,28 +6237,28 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="153" t="s">
+      <c r="A24" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="152"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="132" t="s">
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="132" t="s">
+      <c r="L24" s="146"/>
+      <c r="M24" s="146"/>
+      <c r="N24" s="146"/>
+      <c r="O24" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="132"/>
+      <c r="P24" s="146"/>
       <c r="Q24" s="21" t="s">
         <v>3</v>
       </c>
@@ -6119,7 +6267,7 @@
       </c>
       <c r="S24" s="114">
         <f ca="1">TODAY()</f>
-        <v>43598</v>
+        <v>43628</v>
       </c>
       <c r="T24" s="22"/>
     </row>
@@ -6152,12 +6300,12 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="151" t="s">
+      <c r="G26" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -6170,28 +6318,28 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="154" t="s">
+      <c r="A27" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="152"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="150" t="s">
+      <c r="B27" s="144"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
-      <c r="N27" s="150"/>
-      <c r="O27" s="132" t="s">
+      <c r="L27" s="141"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="141"/>
+      <c r="O27" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="132"/>
+      <c r="P27" s="146"/>
       <c r="Q27" s="21" t="s">
         <v>3</v>
       </c>
@@ -6200,33 +6348,33 @@
       </c>
       <c r="S27" s="114">
         <f ca="1">TODAY()</f>
-        <v>43598</v>
+        <v>43628</v>
       </c>
       <c r="T27" s="22"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="154" t="s">
+      <c r="A28" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="152"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="150" t="s">
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="132" t="s">
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="132"/>
+      <c r="P28" s="146"/>
       <c r="Q28" s="21" t="s">
         <v>3</v>
       </c>
@@ -6235,7 +6383,7 @@
       </c>
       <c r="S28" s="114">
         <f ca="1">TODAY()</f>
-        <v>43598</v>
+        <v>43628</v>
       </c>
       <c r="T28" s="22"/>
     </row>
@@ -6265,18 +6413,18 @@
       <c r="A30" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="130" t="s">
+      <c r="B30" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130" t="s">
+      <c r="C30" s="160"/>
+      <c r="D30" s="160" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="130"/>
-      <c r="F30" s="131" t="s">
+      <c r="E30" s="160"/>
+      <c r="F30" s="161" t="s">
         <v>132</v>
       </c>
-      <c r="G30" s="131"/>
+      <c r="G30" s="161"/>
       <c r="H30" s="121"/>
       <c r="I30" s="121"/>
       <c r="J30" s="122" t="s">
@@ -6295,27 +6443,27 @@
     </row>
     <row r="31" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="124"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="162"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
       <c r="H31" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I31" s="121"/>
       <c r="J31" s="121"/>
-      <c r="K31" s="150" t="s">
+      <c r="K31" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
-      <c r="N31" s="150"/>
-      <c r="O31" s="132" t="s">
+      <c r="L31" s="141"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="132"/>
+      <c r="P31" s="146"/>
       <c r="Q31" s="25" t="s">
         <v>3</v>
       </c>
@@ -6324,18 +6472,18 @@
       </c>
       <c r="S31" s="114">
         <f ca="1">TODAY()</f>
-        <v>43598</v>
+        <v>43628</v>
       </c>
       <c r="T31" s="22"/>
     </row>
     <row r="32" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="125"/>
-      <c r="B32" s="129"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="129"/>
+      <c r="B32" s="167"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -6352,12 +6500,12 @@
     </row>
     <row r="33" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="125"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="129"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
       <c r="H33" s="121"/>
       <c r="I33" s="121"/>
       <c r="J33" s="122" t="s">
@@ -6376,27 +6524,27 @@
     </row>
     <row r="34" spans="1:20" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="126"/>
-      <c r="B34" s="128"/>
-      <c r="C34" s="128"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="162"/>
+      <c r="G34" s="162"/>
       <c r="H34" s="121"/>
       <c r="I34" s="121"/>
       <c r="J34" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="K34" s="150" t="s">
+      <c r="K34" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
-      <c r="N34" s="150"/>
-      <c r="O34" s="132" t="s">
+      <c r="L34" s="141"/>
+      <c r="M34" s="141"/>
+      <c r="N34" s="141"/>
+      <c r="O34" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P34" s="132"/>
+      <c r="P34" s="146"/>
       <c r="Q34" s="21" t="s">
         <v>3</v>
       </c>
@@ -6405,7 +6553,7 @@
       </c>
       <c r="S34" s="114">
         <f ca="1">TODAY()</f>
-        <v>43598</v>
+        <v>43628</v>
       </c>
       <c r="T34" s="22"/>
     </row>
@@ -6433,8 +6581,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="L5:P5"/>
     <mergeCell ref="O31:P31"/>
     <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="E9:N12"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
     <mergeCell ref="K34:N34"/>
     <mergeCell ref="J20:Q20"/>
     <mergeCell ref="G23:J23"/>
@@ -6450,47 +6638,7 @@
     <mergeCell ref="A28:J28"/>
     <mergeCell ref="K28:N28"/>
     <mergeCell ref="K31:N31"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J17:Q17"/>
     <mergeCell ref="O28:P28"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="E9:N12"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -6503,6 +6651,1029 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T36"/>
+  <sheetViews>
+    <sheetView showWhiteSpace="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25:N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="9" width="7.625" style="1" customWidth="1"/>
+    <col min="10" max="15" width="8.75" style="1"/>
+    <col min="16" max="16" width="10" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" style="1" customWidth="1"/>
+    <col min="18" max="19" width="8.75" style="1"/>
+    <col min="20" max="20" width="2.625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="138"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="239" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="135"/>
+    </row>
+    <row r="2" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="132" t="s">
+        <v>134</v>
+      </c>
+      <c r="T2" s="22"/>
+    </row>
+    <row r="3" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="241" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="147" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="146"/>
+      <c r="Q5" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="132" t="s">
+        <v>134</v>
+      </c>
+      <c r="T5" s="22"/>
+    </row>
+    <row r="6" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="155" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="242"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="155" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="242"/>
+      <c r="C7" s="242"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="155" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="242"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="238" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="243"/>
+      <c r="G9" s="243"/>
+      <c r="H9" s="243"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="243"/>
+      <c r="K9" s="243"/>
+      <c r="L9" s="243"/>
+      <c r="M9" s="243"/>
+      <c r="N9" s="243"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="243"/>
+      <c r="H10" s="243"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="243"/>
+      <c r="K10" s="243"/>
+      <c r="L10" s="243"/>
+      <c r="M10" s="243"/>
+      <c r="N10" s="243"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="131"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="243"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="243"/>
+      <c r="H11" s="243"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="243"/>
+      <c r="K11" s="243"/>
+      <c r="L11" s="243"/>
+      <c r="M11" s="243"/>
+      <c r="N11" s="243"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="243"/>
+      <c r="F12" s="243"/>
+      <c r="G12" s="243"/>
+      <c r="H12" s="243"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="243"/>
+      <c r="K12" s="243"/>
+      <c r="L12" s="243"/>
+      <c r="M12" s="243"/>
+      <c r="N12" s="243"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="131"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" ht="8.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="133"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="153" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="148" t="str">
+        <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J13:Q13</f>
+        <v>Иванов И.И.</v>
+      </c>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="148"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="148" t="str">
+        <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J14:Q14</f>
+        <v>Петров П.П.</v>
+      </c>
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="153" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="148" t="str">
+        <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J15:Q15</f>
+        <v>г. Москва, ул. Нарвская, д.2</v>
+      </c>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="153" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="148" t="str">
+        <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J16:Q16</f>
+        <v>восьмой</v>
+      </c>
+      <c r="K17" s="148"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="148"/>
+      <c r="Q17" s="148"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="148" t="str">
+        <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J17:Q17</f>
+        <v>кухня</v>
+      </c>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="153" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="148" t="str">
+        <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J18:Q18</f>
+        <v>гарнитур кухонный, дверной блок</v>
+      </c>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="153" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="148">
+        <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J19:Q19</f>
+        <v>500</v>
+      </c>
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="148"/>
+      <c r="P20" s="148"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="153" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="148" t="str">
+        <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J20:Q20</f>
+        <v>1-15,16</v>
+      </c>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="129"/>
+      <c r="P22" s="129"/>
+      <c r="Q22" s="129"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="146" t="str">
+        <f>builder</f>
+        <v>_____________________</v>
+      </c>
+      <c r="L25" s="146"/>
+      <c r="M25" s="146"/>
+      <c r="N25" s="146"/>
+      <c r="O25" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" s="146"/>
+      <c r="Q25" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="R25" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="S25" s="114">
+        <f ca="1">TODAY()</f>
+        <v>43628</v>
+      </c>
+      <c r="T25" s="22"/>
+    </row>
+    <row r="26" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="143" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" s="146"/>
+      <c r="Q28" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="R28" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="S28" s="114">
+        <f ca="1">TODAY()</f>
+        <v>43628</v>
+      </c>
+      <c r="T28" s="22"/>
+    </row>
+    <row r="29" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="146"/>
+      <c r="Q29" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" s="114">
+        <f ca="1">TODAY()</f>
+        <v>43628</v>
+      </c>
+      <c r="T29" s="22"/>
+    </row>
+    <row r="30" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="143" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="147" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="141"/>
+      <c r="O32" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="146"/>
+      <c r="Q32" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="114">
+        <f ca="1">TODAY()</f>
+        <v>43628</v>
+      </c>
+      <c r="T32" s="22"/>
+    </row>
+    <row r="33" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="144"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="147" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="141"/>
+      <c r="M35" s="141"/>
+      <c r="N35" s="141"/>
+      <c r="O35" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="146"/>
+      <c r="Q35" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="114">
+        <f ca="1">TODAY()</f>
+        <v>43628</v>
+      </c>
+      <c r="T35" s="22"/>
+    </row>
+    <row r="36" spans="1:20" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="E9:N12"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="K5:N5"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="8" scale="92" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -6510,7 +7681,7 @@
   </sheetPr>
   <dimension ref="A10:Y58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:V10"/>
     </sheetView>
   </sheetViews>
@@ -6529,40 +7700,40 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="158"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="158"/>
-      <c r="R10" s="158"/>
-      <c r="S10" s="158"/>
-      <c r="T10" s="158"/>
-      <c r="U10" s="158"/>
-      <c r="V10" s="158"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="168"/>
+      <c r="R10" s="168"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="168"/>
+      <c r="U10" s="168"/>
+      <c r="V10" s="168"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G12" s="39"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
     </row>
@@ -6570,15 +7741,15 @@
       <c r="G13" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="160" t="s">
+      <c r="H13" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="161"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="162"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="171"/>
+      <c r="N13" s="172"/>
       <c r="O13" s="34" t="s">
         <v>39</v>
       </c>
@@ -6590,15 +7761,15 @@
       <c r="G14" s="34">
         <v>2</v>
       </c>
-      <c r="H14" s="163" t="s">
+      <c r="H14" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
-      <c r="L14" s="164"/>
-      <c r="M14" s="164"/>
-      <c r="N14" s="165"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
+      <c r="M14" s="174"/>
+      <c r="N14" s="175"/>
       <c r="O14" s="34" t="s">
         <v>41</v>
       </c>
@@ -6608,15 +7779,15 @@
       <c r="G15" s="34">
         <v>3</v>
       </c>
-      <c r="H15" s="163" t="s">
+      <c r="H15" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="165"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="174"/>
+      <c r="M15" s="174"/>
+      <c r="N15" s="175"/>
       <c r="O15" s="34" t="s">
         <v>36</v>
       </c>
@@ -6628,15 +7799,15 @@
       <c r="G16" s="34">
         <v>4</v>
       </c>
-      <c r="H16" s="163" t="s">
+      <c r="H16" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="165"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="174"/>
+      <c r="N16" s="175"/>
       <c r="O16" s="34" t="s">
         <v>43</v>
       </c>
@@ -6646,15 +7817,15 @@
       <c r="G17" s="34">
         <v>5</v>
       </c>
-      <c r="H17" s="163" t="s">
+      <c r="H17" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
-      <c r="L17" s="164"/>
-      <c r="M17" s="164"/>
-      <c r="N17" s="165"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="174"/>
+      <c r="L17" s="174"/>
+      <c r="M17" s="174"/>
+      <c r="N17" s="175"/>
       <c r="O17" s="34" t="s">
         <v>43</v>
       </c>
@@ -6664,15 +7835,15 @@
       <c r="G18" s="34">
         <v>6</v>
       </c>
-      <c r="H18" s="163" t="s">
+      <c r="H18" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="164"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="165"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="175"/>
       <c r="O18" s="34" t="s">
         <v>43</v>
       </c>
@@ -6682,15 +7853,15 @@
       <c r="G19" s="34">
         <v>7</v>
       </c>
-      <c r="H19" s="163" t="s">
+      <c r="H19" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="164"/>
-      <c r="J19" s="164"/>
-      <c r="K19" s="164"/>
-      <c r="L19" s="164"/>
-      <c r="M19" s="164"/>
-      <c r="N19" s="165"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="174"/>
+      <c r="L19" s="174"/>
+      <c r="M19" s="174"/>
+      <c r="N19" s="175"/>
       <c r="O19" s="34" t="s">
         <v>43</v>
       </c>
@@ -6700,15 +7871,15 @@
       <c r="G20" s="34">
         <v>8</v>
       </c>
-      <c r="H20" s="163" t="s">
+      <c r="H20" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="164"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="164"/>
-      <c r="L20" s="164"/>
-      <c r="M20" s="164"/>
-      <c r="N20" s="165"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="174"/>
+      <c r="L20" s="174"/>
+      <c r="M20" s="174"/>
+      <c r="N20" s="175"/>
       <c r="O20" s="34" t="s">
         <v>43</v>
       </c>
@@ -6716,301 +7887,301 @@
     </row>
     <row r="21" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G21" s="39"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="166"/>
-      <c r="N21" s="166"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
     </row>
     <row r="22" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G22" s="33"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="155"/>
+      <c r="H22" s="176"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="176"/>
+      <c r="K22" s="176"/>
+      <c r="L22" s="176"/>
+      <c r="M22" s="176"/>
+      <c r="N22" s="176"/>
       <c r="O22" s="33"/>
       <c r="P22" s="36"/>
     </row>
     <row r="23" spans="7:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G23" s="33"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="155"/>
+      <c r="H23" s="176"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="176"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="176"/>
+      <c r="M23" s="176"/>
+      <c r="N23" s="176"/>
       <c r="O23" s="33"/>
       <c r="P23" s="37"/>
     </row>
     <row r="24" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G24" s="33"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="155"/>
-      <c r="M24" s="155"/>
-      <c r="N24" s="155"/>
+      <c r="H24" s="176"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="176"/>
+      <c r="K24" s="176"/>
+      <c r="L24" s="176"/>
+      <c r="M24" s="176"/>
+      <c r="N24" s="176"/>
       <c r="O24" s="33"/>
       <c r="P24" s="36"/>
     </row>
     <row r="25" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25" s="33"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="155"/>
+      <c r="H25" s="176"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="176"/>
+      <c r="K25" s="176"/>
+      <c r="L25" s="176"/>
+      <c r="M25" s="176"/>
+      <c r="N25" s="176"/>
       <c r="O25" s="33"/>
       <c r="P25" s="36"/>
     </row>
     <row r="26" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G26" s="33"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
+      <c r="H26" s="176"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="176"/>
+      <c r="N26" s="176"/>
       <c r="O26" s="33"/>
       <c r="P26" s="36"/>
     </row>
     <row r="27" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G27" s="33"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="155"/>
+      <c r="H27" s="176"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="176"/>
+      <c r="K27" s="176"/>
+      <c r="L27" s="176"/>
+      <c r="M27" s="176"/>
+      <c r="N27" s="176"/>
       <c r="O27" s="33"/>
       <c r="P27" s="36"/>
     </row>
     <row r="28" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G28" s="33"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="155"/>
+      <c r="H28" s="176"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="176"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="176"/>
+      <c r="N28" s="176"/>
       <c r="O28" s="33"/>
       <c r="P28" s="36"/>
     </row>
     <row r="29" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G29" s="33"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="155"/>
+      <c r="H29" s="176"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="176"/>
+      <c r="M29" s="176"/>
+      <c r="N29" s="176"/>
       <c r="O29" s="33"/>
       <c r="P29" s="36"/>
     </row>
     <row r="30" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G30" s="33"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="155"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="155"/>
-      <c r="M30" s="155"/>
-      <c r="N30" s="155"/>
+      <c r="H30" s="176"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="176"/>
+      <c r="L30" s="176"/>
+      <c r="M30" s="176"/>
+      <c r="N30" s="176"/>
       <c r="O30" s="33"/>
       <c r="P30" s="36"/>
     </row>
     <row r="31" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G31" s="33"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="155"/>
-      <c r="N31" s="155"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="176"/>
+      <c r="K31" s="176"/>
+      <c r="L31" s="176"/>
+      <c r="M31" s="176"/>
+      <c r="N31" s="176"/>
       <c r="O31" s="33"/>
       <c r="P31" s="36"/>
     </row>
     <row r="32" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G32" s="33"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="155"/>
-      <c r="M32" s="155"/>
-      <c r="N32" s="155"/>
+      <c r="H32" s="176"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="176"/>
+      <c r="K32" s="176"/>
+      <c r="L32" s="176"/>
+      <c r="M32" s="176"/>
+      <c r="N32" s="176"/>
       <c r="O32" s="33"/>
       <c r="P32" s="36"/>
     </row>
     <row r="33" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G33" s="33"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="155"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="155"/>
-      <c r="M33" s="155"/>
-      <c r="N33" s="155"/>
+      <c r="H33" s="176"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="176"/>
+      <c r="L33" s="176"/>
+      <c r="M33" s="176"/>
+      <c r="N33" s="176"/>
       <c r="O33" s="33"/>
       <c r="P33" s="36"/>
     </row>
     <row r="34" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G34" s="33"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="155"/>
-      <c r="M34" s="155"/>
-      <c r="N34" s="155"/>
+      <c r="H34" s="176"/>
+      <c r="I34" s="176"/>
+      <c r="J34" s="176"/>
+      <c r="K34" s="176"/>
+      <c r="L34" s="176"/>
+      <c r="M34" s="176"/>
+      <c r="N34" s="176"/>
       <c r="O34" s="33"/>
       <c r="P34" s="36"/>
     </row>
     <row r="35" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G35" s="33"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="155"/>
-      <c r="K35" s="155"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="155"/>
-      <c r="N35" s="155"/>
+      <c r="H35" s="176"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="176"/>
+      <c r="K35" s="176"/>
+      <c r="L35" s="176"/>
+      <c r="M35" s="176"/>
+      <c r="N35" s="176"/>
       <c r="O35" s="33"/>
       <c r="P35" s="36"/>
     </row>
     <row r="36" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G36" s="33"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="155"/>
-      <c r="J36" s="155"/>
-      <c r="K36" s="155"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="155"/>
-      <c r="N36" s="155"/>
+      <c r="H36" s="176"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="176"/>
+      <c r="K36" s="176"/>
+      <c r="L36" s="176"/>
+      <c r="M36" s="176"/>
+      <c r="N36" s="176"/>
       <c r="O36" s="33"/>
       <c r="P36" s="36"/>
     </row>
     <row r="37" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G37" s="33"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="155"/>
-      <c r="K37" s="155"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="155"/>
+      <c r="H37" s="176"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="176"/>
+      <c r="K37" s="176"/>
+      <c r="L37" s="176"/>
+      <c r="M37" s="176"/>
+      <c r="N37" s="176"/>
       <c r="O37" s="33"/>
       <c r="P37" s="36"/>
     </row>
     <row r="38" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G38" s="33"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="155"/>
-      <c r="K38" s="155"/>
-      <c r="L38" s="155"/>
-      <c r="M38" s="155"/>
-      <c r="N38" s="155"/>
+      <c r="H38" s="176"/>
+      <c r="I38" s="176"/>
+      <c r="J38" s="176"/>
+      <c r="K38" s="176"/>
+      <c r="L38" s="176"/>
+      <c r="M38" s="176"/>
+      <c r="N38" s="176"/>
       <c r="O38" s="33"/>
       <c r="P38" s="36"/>
     </row>
     <row r="39" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G39" s="33"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="155"/>
-      <c r="K39" s="155"/>
-      <c r="L39" s="155"/>
-      <c r="M39" s="155"/>
-      <c r="N39" s="155"/>
+      <c r="H39" s="176"/>
+      <c r="I39" s="176"/>
+      <c r="J39" s="176"/>
+      <c r="K39" s="176"/>
+      <c r="L39" s="176"/>
+      <c r="M39" s="176"/>
+      <c r="N39" s="176"/>
       <c r="O39" s="33"/>
       <c r="P39" s="36"/>
     </row>
     <row r="40" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G40" s="33"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="155"/>
-      <c r="K40" s="155"/>
-      <c r="L40" s="155"/>
-      <c r="M40" s="155"/>
-      <c r="N40" s="155"/>
+      <c r="H40" s="176"/>
+      <c r="I40" s="176"/>
+      <c r="J40" s="176"/>
+      <c r="K40" s="176"/>
+      <c r="L40" s="176"/>
+      <c r="M40" s="176"/>
+      <c r="N40" s="176"/>
       <c r="O40" s="33"/>
       <c r="P40" s="36"/>
     </row>
     <row r="41" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G41" s="33"/>
-      <c r="H41" s="155"/>
-      <c r="I41" s="155"/>
-      <c r="J41" s="155"/>
-      <c r="K41" s="155"/>
-      <c r="L41" s="155"/>
-      <c r="M41" s="155"/>
-      <c r="N41" s="155"/>
+      <c r="H41" s="176"/>
+      <c r="I41" s="176"/>
+      <c r="J41" s="176"/>
+      <c r="K41" s="176"/>
+      <c r="L41" s="176"/>
+      <c r="M41" s="176"/>
+      <c r="N41" s="176"/>
       <c r="O41" s="33"/>
       <c r="P41" s="36"/>
     </row>
     <row r="42" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G42" s="33"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="155"/>
-      <c r="L42" s="155"/>
-      <c r="M42" s="155"/>
-      <c r="N42" s="155"/>
+      <c r="H42" s="176"/>
+      <c r="I42" s="176"/>
+      <c r="J42" s="176"/>
+      <c r="K42" s="176"/>
+      <c r="L42" s="176"/>
+      <c r="M42" s="176"/>
+      <c r="N42" s="176"/>
       <c r="O42" s="33"/>
       <c r="P42" s="36"/>
     </row>
     <row r="43" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G43" s="33"/>
-      <c r="H43" s="155"/>
-      <c r="I43" s="155"/>
-      <c r="J43" s="155"/>
-      <c r="K43" s="155"/>
-      <c r="L43" s="155"/>
-      <c r="M43" s="155"/>
-      <c r="N43" s="155"/>
+      <c r="H43" s="176"/>
+      <c r="I43" s="176"/>
+      <c r="J43" s="176"/>
+      <c r="K43" s="176"/>
+      <c r="L43" s="176"/>
+      <c r="M43" s="176"/>
+      <c r="N43" s="176"/>
       <c r="O43" s="33"/>
       <c r="P43" s="36"/>
     </row>
     <row r="44" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G44" s="33"/>
-      <c r="H44" s="155"/>
-      <c r="I44" s="155"/>
-      <c r="J44" s="155"/>
-      <c r="K44" s="155"/>
-      <c r="L44" s="155"/>
-      <c r="M44" s="155"/>
-      <c r="N44" s="155"/>
+      <c r="H44" s="176"/>
+      <c r="I44" s="176"/>
+      <c r="J44" s="176"/>
+      <c r="K44" s="176"/>
+      <c r="L44" s="176"/>
+      <c r="M44" s="176"/>
+      <c r="N44" s="176"/>
       <c r="O44" s="33"/>
       <c r="P44" s="36"/>
     </row>
     <row r="45" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G45" s="33"/>
-      <c r="H45" s="155"/>
-      <c r="I45" s="155"/>
-      <c r="J45" s="155"/>
-      <c r="K45" s="155"/>
-      <c r="L45" s="155"/>
-      <c r="M45" s="155"/>
-      <c r="N45" s="155"/>
+      <c r="H45" s="176"/>
+      <c r="I45" s="176"/>
+      <c r="J45" s="176"/>
+      <c r="K45" s="176"/>
+      <c r="L45" s="176"/>
+      <c r="M45" s="176"/>
+      <c r="N45" s="176"/>
       <c r="O45" s="33"/>
       <c r="P45" s="36"/>
     </row>
@@ -7020,56 +8191,36 @@
     <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Y57" s="41">
         <f ca="1">TODAY()</f>
-        <v>43598</v>
+        <v>43628</v>
       </c>
     </row>
     <row r="58" spans="2:25" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B58" s="156" t="str">
+      <c r="B58" s="178" t="str">
         <f ca="1">"Москва " &amp; YEAR(Y57)</f>
         <v>Москва 2019</v>
       </c>
-      <c r="C58" s="157"/>
-      <c r="D58" s="157"/>
-      <c r="E58" s="157"/>
-      <c r="F58" s="157"/>
-      <c r="G58" s="157"/>
-      <c r="H58" s="157"/>
-      <c r="I58" s="157"/>
-      <c r="J58" s="157"/>
-      <c r="K58" s="157"/>
-      <c r="L58" s="157"/>
-      <c r="M58" s="157"/>
-      <c r="N58" s="157"/>
-      <c r="O58" s="157"/>
-      <c r="P58" s="157"/>
-      <c r="Q58" s="157"/>
-      <c r="R58" s="157"/>
-      <c r="S58" s="157"/>
-      <c r="T58" s="157"/>
-      <c r="U58" s="157"/>
+      <c r="C58" s="179"/>
+      <c r="D58" s="179"/>
+      <c r="E58" s="179"/>
+      <c r="F58" s="179"/>
+      <c r="G58" s="179"/>
+      <c r="H58" s="179"/>
+      <c r="I58" s="179"/>
+      <c r="J58" s="179"/>
+      <c r="K58" s="179"/>
+      <c r="L58" s="179"/>
+      <c r="M58" s="179"/>
+      <c r="N58" s="179"/>
+      <c r="O58" s="179"/>
+      <c r="P58" s="179"/>
+      <c r="Q58" s="179"/>
+      <c r="R58" s="179"/>
+      <c r="S58" s="179"/>
+      <c r="T58" s="179"/>
+      <c r="U58" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A10:V10"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H25:N25"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="H35:N35"/>
-    <mergeCell ref="H36:N36"/>
     <mergeCell ref="H26:N26"/>
     <mergeCell ref="H27:N27"/>
     <mergeCell ref="H28:N28"/>
@@ -7086,6 +8237,26 @@
     <mergeCell ref="H39:N39"/>
     <mergeCell ref="H40:N40"/>
     <mergeCell ref="H31:N31"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="H35:N35"/>
+    <mergeCell ref="H36:N36"/>
+    <mergeCell ref="A10:V10"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H16:N16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -7114,799 +8285,799 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="198"/>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="200"/>
+      <c r="A1" s="183"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="185"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="188"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="172"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="174"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="181"/>
+      <c r="R3" s="182"/>
     </row>
     <row r="4" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="172"/>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="173"/>
-      <c r="N4" s="173"/>
-      <c r="O4" s="173"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="173"/>
-      <c r="R4" s="174"/>
+      <c r="A4" s="180"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="181"/>
+      <c r="M4" s="181"/>
+      <c r="N4" s="181"/>
+      <c r="O4" s="181"/>
+      <c r="P4" s="181"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="182"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="172"/>
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="174"/>
+      <c r="A5" s="180"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="182"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="172"/>
-      <c r="B6" s="173"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="173"/>
-      <c r="M6" s="173"/>
-      <c r="N6" s="173"/>
-      <c r="O6" s="173"/>
-      <c r="P6" s="173"/>
-      <c r="Q6" s="173"/>
-      <c r="R6" s="174"/>
+      <c r="A6" s="180"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="181"/>
+      <c r="P6" s="181"/>
+      <c r="Q6" s="181"/>
+      <c r="R6" s="182"/>
     </row>
     <row r="7" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="172"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="174"/>
+      <c r="A7" s="180"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="181"/>
+      <c r="L7" s="181"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="181"/>
+      <c r="P7" s="181"/>
+      <c r="Q7" s="181"/>
+      <c r="R7" s="182"/>
     </row>
     <row r="8" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="172"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="173"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="174"/>
+      <c r="A8" s="180"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="181"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181"/>
+      <c r="P8" s="181"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="182"/>
     </row>
     <row r="9" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="172"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="173"/>
-      <c r="L9" s="173"/>
-      <c r="M9" s="173"/>
-      <c r="N9" s="173"/>
-      <c r="O9" s="173"/>
-      <c r="P9" s="173"/>
-      <c r="Q9" s="173"/>
-      <c r="R9" s="174"/>
+      <c r="A9" s="180"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="181"/>
+      <c r="R9" s="182"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="172"/>
-      <c r="B10" s="173"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="173"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="173"/>
-      <c r="L10" s="173"/>
-      <c r="M10" s="173"/>
-      <c r="N10" s="173"/>
-      <c r="O10" s="173"/>
-      <c r="P10" s="173"/>
-      <c r="Q10" s="173"/>
-      <c r="R10" s="174"/>
+      <c r="A10" s="180"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="181"/>
+      <c r="R10" s="182"/>
     </row>
     <row r="11" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="172"/>
-      <c r="B11" s="173"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="173"/>
-      <c r="K11" s="173"/>
-      <c r="L11" s="173"/>
-      <c r="M11" s="173"/>
-      <c r="N11" s="173"/>
-      <c r="O11" s="173"/>
-      <c r="P11" s="173"/>
-      <c r="Q11" s="173"/>
-      <c r="R11" s="174"/>
+      <c r="A11" s="180"/>
+      <c r="B11" s="181"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="181"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="181"/>
+      <c r="M11" s="181"/>
+      <c r="N11" s="181"/>
+      <c r="O11" s="181"/>
+      <c r="P11" s="181"/>
+      <c r="Q11" s="181"/>
+      <c r="R11" s="182"/>
     </row>
     <row r="12" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="172"/>
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="173"/>
-      <c r="P12" s="173"/>
-      <c r="Q12" s="173"/>
-      <c r="R12" s="174"/>
+      <c r="A12" s="180"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="181"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="181"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="181"/>
+      <c r="O12" s="181"/>
+      <c r="P12" s="181"/>
+      <c r="Q12" s="181"/>
+      <c r="R12" s="182"/>
     </row>
     <row r="13" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="172"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="173"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="174"/>
+      <c r="A13" s="180"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="181"/>
+      <c r="M13" s="181"/>
+      <c r="N13" s="181"/>
+      <c r="O13" s="181"/>
+      <c r="P13" s="181"/>
+      <c r="Q13" s="181"/>
+      <c r="R13" s="182"/>
     </row>
     <row r="14" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="172"/>
-      <c r="B14" s="173"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="173"/>
-      <c r="M14" s="173"/>
-      <c r="N14" s="173"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="174"/>
+      <c r="A14" s="180"/>
+      <c r="B14" s="181"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="181"/>
+      <c r="K14" s="181"/>
+      <c r="L14" s="181"/>
+      <c r="M14" s="181"/>
+      <c r="N14" s="181"/>
+      <c r="O14" s="181"/>
+      <c r="P14" s="181"/>
+      <c r="Q14" s="181"/>
+      <c r="R14" s="182"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="172"/>
-      <c r="B15" s="173"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="173"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="173"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="174"/>
+      <c r="A15" s="180"/>
+      <c r="B15" s="181"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="181"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="181"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="181"/>
+      <c r="O15" s="181"/>
+      <c r="P15" s="181"/>
+      <c r="Q15" s="181"/>
+      <c r="R15" s="182"/>
     </row>
     <row r="16" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="172"/>
-      <c r="B16" s="173"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
-      <c r="L16" s="173"/>
-      <c r="M16" s="173"/>
-      <c r="N16" s="173"/>
-      <c r="O16" s="173"/>
-      <c r="P16" s="173"/>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="174"/>
+      <c r="A16" s="180"/>
+      <c r="B16" s="181"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="181"/>
+      <c r="L16" s="181"/>
+      <c r="M16" s="181"/>
+      <c r="N16" s="181"/>
+      <c r="O16" s="181"/>
+      <c r="P16" s="181"/>
+      <c r="Q16" s="181"/>
+      <c r="R16" s="182"/>
     </row>
     <row r="17" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="172"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="173"/>
-      <c r="L17" s="173"/>
-      <c r="M17" s="173"/>
-      <c r="N17" s="173"/>
-      <c r="O17" s="173"/>
-      <c r="P17" s="173"/>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="174"/>
+      <c r="A17" s="180"/>
+      <c r="B17" s="181"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="181"/>
+      <c r="K17" s="181"/>
+      <c r="L17" s="181"/>
+      <c r="M17" s="181"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="181"/>
+      <c r="P17" s="181"/>
+      <c r="Q17" s="181"/>
+      <c r="R17" s="182"/>
     </row>
     <row r="18" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="172"/>
-      <c r="B18" s="173"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="173"/>
-      <c r="K18" s="173"/>
-      <c r="L18" s="173"/>
-      <c r="M18" s="173"/>
-      <c r="N18" s="173"/>
-      <c r="O18" s="173"/>
-      <c r="P18" s="173"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="174"/>
+      <c r="A18" s="180"/>
+      <c r="B18" s="181"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="181"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="181"/>
+      <c r="Q18" s="181"/>
+      <c r="R18" s="182"/>
     </row>
     <row r="19" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="172"/>
-      <c r="B19" s="173"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="173"/>
-      <c r="K19" s="173"/>
-      <c r="L19" s="173"/>
-      <c r="M19" s="173"/>
-      <c r="N19" s="173"/>
-      <c r="O19" s="173"/>
-      <c r="P19" s="173"/>
-      <c r="Q19" s="173"/>
-      <c r="R19" s="174"/>
+      <c r="A19" s="180"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="181"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="181"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="181"/>
+      <c r="P19" s="181"/>
+      <c r="Q19" s="181"/>
+      <c r="R19" s="182"/>
     </row>
     <row r="20" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="172"/>
-      <c r="B20" s="173"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="173"/>
-      <c r="K20" s="173"/>
-      <c r="L20" s="173"/>
-      <c r="M20" s="173"/>
-      <c r="N20" s="173"/>
-      <c r="O20" s="173"/>
-      <c r="P20" s="173"/>
-      <c r="Q20" s="173"/>
-      <c r="R20" s="174"/>
+      <c r="A20" s="180"/>
+      <c r="B20" s="181"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="181"/>
+      <c r="K20" s="181"/>
+      <c r="L20" s="181"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="181"/>
+      <c r="P20" s="181"/>
+      <c r="Q20" s="181"/>
+      <c r="R20" s="182"/>
     </row>
     <row r="21" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="172"/>
-      <c r="B21" s="173"/>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="173"/>
-      <c r="K21" s="173"/>
-      <c r="L21" s="173"/>
-      <c r="M21" s="173"/>
-      <c r="N21" s="173"/>
-      <c r="O21" s="173"/>
-      <c r="P21" s="173"/>
-      <c r="Q21" s="173"/>
-      <c r="R21" s="174"/>
+      <c r="A21" s="180"/>
+      <c r="B21" s="181"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="181"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="181"/>
+      <c r="M21" s="181"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="181"/>
+      <c r="P21" s="181"/>
+      <c r="Q21" s="181"/>
+      <c r="R21" s="182"/>
     </row>
     <row r="22" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="172"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="173"/>
-      <c r="K22" s="173"/>
-      <c r="L22" s="173"/>
-      <c r="M22" s="173"/>
-      <c r="N22" s="173"/>
-      <c r="O22" s="173"/>
-      <c r="P22" s="173"/>
-      <c r="Q22" s="173"/>
-      <c r="R22" s="174"/>
+      <c r="A22" s="180"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="181"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="182"/>
     </row>
     <row r="23" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="172"/>
-      <c r="B23" s="173"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="173"/>
-      <c r="L23" s="173"/>
-      <c r="M23" s="173"/>
-      <c r="N23" s="173"/>
-      <c r="O23" s="173"/>
-      <c r="P23" s="173"/>
-      <c r="Q23" s="173"/>
-      <c r="R23" s="174"/>
+      <c r="A23" s="180"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="182"/>
     </row>
     <row r="24" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="172"/>
-      <c r="B24" s="173"/>
-      <c r="C24" s="173"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="173"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="173"/>
-      <c r="N24" s="173"/>
-      <c r="O24" s="173"/>
-      <c r="P24" s="173"/>
-      <c r="Q24" s="173"/>
-      <c r="R24" s="174"/>
+      <c r="A24" s="180"/>
+      <c r="B24" s="181"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="181"/>
+      <c r="K24" s="181"/>
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="181"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="181"/>
+      <c r="R24" s="182"/>
     </row>
     <row r="25" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="172"/>
-      <c r="B25" s="173"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="173"/>
-      <c r="K25" s="173"/>
-      <c r="L25" s="173"/>
-      <c r="M25" s="173"/>
-      <c r="N25" s="173"/>
-      <c r="O25" s="173"/>
-      <c r="P25" s="173"/>
-      <c r="Q25" s="173"/>
-      <c r="R25" s="174"/>
+      <c r="A25" s="180"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="181"/>
+      <c r="N25" s="181"/>
+      <c r="O25" s="181"/>
+      <c r="P25" s="181"/>
+      <c r="Q25" s="181"/>
+      <c r="R25" s="182"/>
     </row>
     <row r="26" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="172"/>
-      <c r="B26" s="173"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="173"/>
-      <c r="K26" s="173"/>
-      <c r="L26" s="173"/>
-      <c r="M26" s="173"/>
-      <c r="N26" s="173"/>
-      <c r="O26" s="173"/>
-      <c r="P26" s="173"/>
-      <c r="Q26" s="173"/>
-      <c r="R26" s="174"/>
+      <c r="A26" s="180"/>
+      <c r="B26" s="181"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="181"/>
+      <c r="K26" s="181"/>
+      <c r="L26" s="181"/>
+      <c r="M26" s="181"/>
+      <c r="N26" s="181"/>
+      <c r="O26" s="181"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="181"/>
+      <c r="R26" s="182"/>
     </row>
     <row r="27" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="172"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="173"/>
-      <c r="K27" s="173"/>
-      <c r="L27" s="173"/>
-      <c r="M27" s="173"/>
-      <c r="N27" s="173"/>
-      <c r="O27" s="173"/>
-      <c r="P27" s="173"/>
-      <c r="Q27" s="173"/>
-      <c r="R27" s="174"/>
+      <c r="A27" s="180"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="181"/>
+      <c r="M27" s="181"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="182"/>
     </row>
     <row r="28" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="172"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="173"/>
-      <c r="L28" s="173"/>
-      <c r="M28" s="173"/>
-      <c r="N28" s="173"/>
-      <c r="O28" s="173"/>
-      <c r="P28" s="173"/>
-      <c r="Q28" s="173"/>
-      <c r="R28" s="174"/>
+      <c r="A28" s="180"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="181"/>
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="181"/>
+      <c r="R28" s="182"/>
     </row>
     <row r="29" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="172"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="173"/>
-      <c r="K29" s="173"/>
-      <c r="L29" s="173"/>
-      <c r="M29" s="173"/>
-      <c r="N29" s="173"/>
-      <c r="O29" s="173"/>
-      <c r="P29" s="173"/>
-      <c r="Q29" s="173"/>
-      <c r="R29" s="174"/>
+      <c r="A29" s="180"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="181"/>
+      <c r="R29" s="182"/>
     </row>
     <row r="30" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="172"/>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="173"/>
-      <c r="K30" s="173"/>
-      <c r="L30" s="173"/>
-      <c r="M30" s="173"/>
-      <c r="N30" s="173"/>
-      <c r="O30" s="173"/>
-      <c r="P30" s="173"/>
-      <c r="Q30" s="173"/>
-      <c r="R30" s="174"/>
+      <c r="A30" s="180"/>
+      <c r="B30" s="181"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="181"/>
+      <c r="K30" s="181"/>
+      <c r="L30" s="181"/>
+      <c r="M30" s="181"/>
+      <c r="N30" s="181"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="181"/>
+      <c r="R30" s="182"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="172"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="173"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="173"/>
-      <c r="K31" s="173"/>
-      <c r="L31" s="173"/>
-      <c r="M31" s="173"/>
-      <c r="N31" s="173"/>
-      <c r="O31" s="173"/>
-      <c r="P31" s="173"/>
-      <c r="Q31" s="173"/>
-      <c r="R31" s="174"/>
+      <c r="A31" s="180"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="181"/>
+      <c r="K31" s="181"/>
+      <c r="L31" s="181"/>
+      <c r="M31" s="181"/>
+      <c r="N31" s="181"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="181"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="182"/>
     </row>
     <row r="32" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="172"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="173"/>
-      <c r="K32" s="173"/>
-      <c r="L32" s="173"/>
-      <c r="M32" s="173"/>
-      <c r="N32" s="173"/>
-      <c r="O32" s="173"/>
-      <c r="P32" s="173"/>
-      <c r="Q32" s="173"/>
-      <c r="R32" s="174"/>
+      <c r="A32" s="180"/>
+      <c r="B32" s="181"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="181"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="181"/>
+      <c r="K32" s="181"/>
+      <c r="L32" s="181"/>
+      <c r="M32" s="181"/>
+      <c r="N32" s="181"/>
+      <c r="O32" s="181"/>
+      <c r="P32" s="181"/>
+      <c r="Q32" s="181"/>
+      <c r="R32" s="182"/>
       <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="172"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="173"/>
-      <c r="K33" s="173"/>
-      <c r="L33" s="173"/>
-      <c r="M33" s="173"/>
-      <c r="N33" s="173"/>
-      <c r="O33" s="173"/>
-      <c r="P33" s="173"/>
-      <c r="Q33" s="173"/>
-      <c r="R33" s="174"/>
+      <c r="A33" s="180"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="181"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="181"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="182"/>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="172"/>
-      <c r="B34" s="173"/>
-      <c r="C34" s="173"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="173"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="173"/>
-      <c r="K34" s="173"/>
-      <c r="L34" s="173"/>
-      <c r="M34" s="173"/>
-      <c r="N34" s="173"/>
-      <c r="O34" s="173"/>
-      <c r="P34" s="173"/>
-      <c r="Q34" s="173"/>
-      <c r="R34" s="174"/>
+      <c r="A34" s="180"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="181"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="181"/>
+      <c r="K34" s="181"/>
+      <c r="L34" s="181"/>
+      <c r="M34" s="181"/>
+      <c r="N34" s="181"/>
+      <c r="O34" s="181"/>
+      <c r="P34" s="181"/>
+      <c r="Q34" s="181"/>
+      <c r="R34" s="182"/>
       <c r="S34" s="12"/>
     </row>
     <row r="35" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="172"/>
-      <c r="B35" s="173"/>
-      <c r="C35" s="173"/>
-      <c r="D35" s="173"/>
-      <c r="E35" s="173"/>
-      <c r="F35" s="173"/>
-      <c r="G35" s="173"/>
-      <c r="H35" s="173"/>
-      <c r="I35" s="173"/>
-      <c r="J35" s="173"/>
-      <c r="K35" s="173"/>
-      <c r="L35" s="173"/>
-      <c r="M35" s="173"/>
-      <c r="N35" s="173"/>
-      <c r="O35" s="173"/>
-      <c r="P35" s="173"/>
-      <c r="Q35" s="173"/>
-      <c r="R35" s="174"/>
+      <c r="A35" s="180"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="181"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="181"/>
+      <c r="K35" s="181"/>
+      <c r="L35" s="181"/>
+      <c r="M35" s="181"/>
+      <c r="N35" s="181"/>
+      <c r="O35" s="181"/>
+      <c r="P35" s="181"/>
+      <c r="Q35" s="181"/>
+      <c r="R35" s="182"/>
       <c r="S35" s="12"/>
     </row>
     <row r="36" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="172"/>
-      <c r="B36" s="173"/>
-      <c r="C36" s="173"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="173"/>
-      <c r="G36" s="173"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="173"/>
-      <c r="J36" s="173"/>
-      <c r="K36" s="173"/>
-      <c r="L36" s="173"/>
-      <c r="M36" s="173"/>
-      <c r="N36" s="173"/>
-      <c r="O36" s="173"/>
-      <c r="P36" s="173"/>
-      <c r="Q36" s="173"/>
-      <c r="R36" s="174"/>
+      <c r="A36" s="180"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="181"/>
+      <c r="F36" s="181"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="181"/>
+      <c r="I36" s="181"/>
+      <c r="J36" s="181"/>
+      <c r="K36" s="181"/>
+      <c r="L36" s="181"/>
+      <c r="M36" s="181"/>
+      <c r="N36" s="181"/>
+      <c r="O36" s="181"/>
+      <c r="P36" s="181"/>
+      <c r="Q36" s="181"/>
+      <c r="R36" s="182"/>
       <c r="S36" s="12"/>
     </row>
     <row r="37" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="172"/>
-      <c r="B37" s="173"/>
-      <c r="C37" s="173"/>
-      <c r="D37" s="173"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="173"/>
-      <c r="G37" s="173"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="173"/>
-      <c r="J37" s="173"/>
-      <c r="K37" s="173"/>
-      <c r="L37" s="173"/>
-      <c r="M37" s="173"/>
-      <c r="N37" s="173"/>
-      <c r="O37" s="173"/>
-      <c r="P37" s="173"/>
-      <c r="Q37" s="173"/>
-      <c r="R37" s="174"/>
+      <c r="A37" s="180"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
+      <c r="E37" s="181"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="181"/>
+      <c r="I37" s="181"/>
+      <c r="J37" s="181"/>
+      <c r="K37" s="181"/>
+      <c r="L37" s="181"/>
+      <c r="M37" s="181"/>
+      <c r="N37" s="181"/>
+      <c r="O37" s="181"/>
+      <c r="P37" s="181"/>
+      <c r="Q37" s="181"/>
+      <c r="R37" s="182"/>
       <c r="S37" s="12"/>
     </row>
     <row r="38" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="172"/>
-      <c r="B38" s="173"/>
-      <c r="C38" s="173"/>
-      <c r="D38" s="173"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="173"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="173"/>
-      <c r="J38" s="173"/>
-      <c r="K38" s="173"/>
-      <c r="L38" s="173"/>
-      <c r="M38" s="173"/>
-      <c r="N38" s="173"/>
-      <c r="O38" s="173"/>
-      <c r="P38" s="173"/>
-      <c r="Q38" s="173"/>
-      <c r="R38" s="174"/>
+      <c r="A38" s="180"/>
+      <c r="B38" s="181"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="181"/>
+      <c r="H38" s="181"/>
+      <c r="I38" s="181"/>
+      <c r="J38" s="181"/>
+      <c r="K38" s="181"/>
+      <c r="L38" s="181"/>
+      <c r="M38" s="181"/>
+      <c r="N38" s="181"/>
+      <c r="O38" s="181"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="181"/>
+      <c r="R38" s="182"/>
       <c r="S38" s="12"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="195" t="s">
+      <c r="A39" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="196"/>
-      <c r="C39" s="196"/>
-      <c r="D39" s="196"/>
-      <c r="E39" s="196"/>
-      <c r="F39" s="196"/>
-      <c r="G39" s="196"/>
-      <c r="H39" s="196"/>
-      <c r="I39" s="196"/>
-      <c r="J39" s="196"/>
-      <c r="K39" s="196"/>
-      <c r="L39" s="196"/>
-      <c r="M39" s="196"/>
-      <c r="N39" s="196"/>
-      <c r="O39" s="196"/>
-      <c r="P39" s="196"/>
-      <c r="Q39" s="196"/>
-      <c r="R39" s="197"/>
+      <c r="B39" s="190"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="190"/>
+      <c r="G39" s="190"/>
+      <c r="H39" s="190"/>
+      <c r="I39" s="190"/>
+      <c r="J39" s="190"/>
+      <c r="K39" s="190"/>
+      <c r="L39" s="190"/>
+      <c r="M39" s="190"/>
+      <c r="N39" s="190"/>
+      <c r="O39" s="190"/>
+      <c r="P39" s="190"/>
+      <c r="Q39" s="190"/>
+      <c r="R39" s="191"/>
       <c r="S39" s="12"/>
     </row>
     <row r="40" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="175"/>
+      <c r="A40" s="197"/>
       <c r="B40" s="54" t="s">
         <v>50</v>
       </c>
@@ -7915,8 +9086,8 @@
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
-      <c r="H40" s="178"/>
-      <c r="I40" s="179"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="201"/>
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
       <c r="L40" s="55"/>
@@ -7925,17 +9096,17 @@
       <c r="O40" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="P40" s="182" t="s">
+      <c r="P40" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="Q40" s="183"/>
+      <c r="Q40" s="205"/>
       <c r="R40" s="57" t="s">
         <v>54</v>
       </c>
       <c r="S40" s="12"/>
     </row>
     <row r="41" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="176"/>
+      <c r="A41" s="198"/>
       <c r="B41" s="43" t="s">
         <v>51</v>
       </c>
@@ -7954,8 +9125,8 @@
       <c r="G41" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="180"/>
-      <c r="I41" s="181"/>
+      <c r="H41" s="202"/>
+      <c r="I41" s="203"/>
       <c r="J41" s="44" t="s">
         <v>55</v>
       </c>
@@ -7972,136 +9143,100 @@
         <v>59</v>
       </c>
       <c r="O41" s="45"/>
-      <c r="P41" s="184"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="190"/>
+      <c r="P41" s="206"/>
+      <c r="Q41" s="207"/>
+      <c r="R41" s="212"/>
       <c r="S41" s="12"/>
     </row>
     <row r="42" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="176"/>
+      <c r="A42" s="198"/>
       <c r="B42" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="193" t="s">
+      <c r="C42" s="215" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="194"/>
+      <c r="D42" s="216"/>
       <c r="E42" s="50"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="193" t="s">
+      <c r="J42" s="215" t="s">
         <v>65</v>
       </c>
-      <c r="K42" s="194"/>
+      <c r="K42" s="216"/>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
       <c r="N42" s="31"/>
       <c r="O42" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="P42" s="186"/>
-      <c r="Q42" s="187"/>
-      <c r="R42" s="191"/>
+      <c r="P42" s="208"/>
+      <c r="Q42" s="209"/>
+      <c r="R42" s="213"/>
       <c r="S42" s="12"/>
     </row>
     <row r="43" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="176"/>
+      <c r="A43" s="198"/>
       <c r="B43" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="193" t="s">
+      <c r="C43" s="215" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="194"/>
+      <c r="D43" s="216"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="52"/>
       <c r="I43" s="53"/>
-      <c r="J43" s="193" t="s">
+      <c r="J43" s="215" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="194"/>
+      <c r="K43" s="216"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
       <c r="O43" s="47"/>
-      <c r="P43" s="188"/>
-      <c r="Q43" s="189"/>
-      <c r="R43" s="192"/>
+      <c r="P43" s="210"/>
+      <c r="Q43" s="211"/>
+      <c r="R43" s="214"/>
     </row>
     <row r="44" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="177"/>
+      <c r="A44" s="199"/>
       <c r="B44" s="58"/>
-      <c r="C44" s="167" t="s">
+      <c r="C44" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="168"/>
+      <c r="D44" s="193"/>
       <c r="E44" s="59"/>
       <c r="F44" s="60"/>
       <c r="G44" s="60"/>
       <c r="H44" s="61"/>
       <c r="I44" s="62"/>
-      <c r="J44" s="167" t="s">
+      <c r="J44" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="K44" s="168"/>
+      <c r="K44" s="193"/>
       <c r="L44" s="59"/>
       <c r="M44" s="59" t="s">
         <v>70</v>
       </c>
       <c r="N44" s="60"/>
-      <c r="O44" s="169" t="s">
+      <c r="O44" s="194" t="s">
         <v>71</v>
       </c>
-      <c r="P44" s="170"/>
-      <c r="Q44" s="169" t="s">
+      <c r="P44" s="195"/>
+      <c r="Q44" s="194" t="s">
         <v>72</v>
       </c>
-      <c r="R44" s="171"/>
+      <c r="R44" s="196"/>
     </row>
     <row r="45" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A8:R8"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="A10:R10"/>
-    <mergeCell ref="A11:R11"/>
-    <mergeCell ref="A27:R27"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="A14:R14"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A18:R18"/>
-    <mergeCell ref="A19:R19"/>
-    <mergeCell ref="A20:R20"/>
-    <mergeCell ref="A21:R21"/>
-    <mergeCell ref="A22:R22"/>
-    <mergeCell ref="A23:R23"/>
-    <mergeCell ref="A39:R39"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="A29:R29"/>
-    <mergeCell ref="A30:R30"/>
-    <mergeCell ref="A31:R31"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="A33:R33"/>
-    <mergeCell ref="A34:R34"/>
-    <mergeCell ref="A35:R35"/>
-    <mergeCell ref="A36:R36"/>
-    <mergeCell ref="A37:R37"/>
-    <mergeCell ref="A38:R38"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="O44:P44"/>
     <mergeCell ref="Q44:R44"/>
@@ -8118,6 +9253,42 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A39:R39"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="A29:R29"/>
+    <mergeCell ref="A30:R30"/>
+    <mergeCell ref="A31:R31"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="A33:R33"/>
+    <mergeCell ref="A34:R34"/>
+    <mergeCell ref="A35:R35"/>
+    <mergeCell ref="A36:R36"/>
+    <mergeCell ref="A37:R37"/>
+    <mergeCell ref="A38:R38"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:R14"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="A20:R20"/>
+    <mergeCell ref="A21:R21"/>
+    <mergeCell ref="A22:R22"/>
+    <mergeCell ref="A23:R23"/>
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A11:R11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B43" r:id="rId1" display="http://www.sofia-decor.ru/"/>
@@ -8149,799 +9320,799 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="198"/>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="200"/>
+      <c r="A1" s="183"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="185"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="188"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="172"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="174"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="181"/>
+      <c r="R3" s="182"/>
     </row>
     <row r="4" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="172"/>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="173"/>
-      <c r="N4" s="173"/>
-      <c r="O4" s="173"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="173"/>
-      <c r="R4" s="174"/>
+      <c r="A4" s="180"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="181"/>
+      <c r="M4" s="181"/>
+      <c r="N4" s="181"/>
+      <c r="O4" s="181"/>
+      <c r="P4" s="181"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="182"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="172"/>
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="174"/>
+      <c r="A5" s="180"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="182"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="172"/>
-      <c r="B6" s="173"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="173"/>
-      <c r="M6" s="173"/>
-      <c r="N6" s="173"/>
-      <c r="O6" s="173"/>
-      <c r="P6" s="173"/>
-      <c r="Q6" s="173"/>
-      <c r="R6" s="174"/>
+      <c r="A6" s="180"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="181"/>
+      <c r="P6" s="181"/>
+      <c r="Q6" s="181"/>
+      <c r="R6" s="182"/>
     </row>
     <row r="7" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="172"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="174"/>
+      <c r="A7" s="180"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="181"/>
+      <c r="L7" s="181"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="181"/>
+      <c r="P7" s="181"/>
+      <c r="Q7" s="181"/>
+      <c r="R7" s="182"/>
     </row>
     <row r="8" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="172"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="173"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="174"/>
+      <c r="A8" s="180"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="181"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181"/>
+      <c r="P8" s="181"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="182"/>
     </row>
     <row r="9" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="172"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="173"/>
-      <c r="L9" s="173"/>
-      <c r="M9" s="173"/>
-      <c r="N9" s="173"/>
-      <c r="O9" s="173"/>
-      <c r="P9" s="173"/>
-      <c r="Q9" s="173"/>
-      <c r="R9" s="174"/>
+      <c r="A9" s="180"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="181"/>
+      <c r="R9" s="182"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="172"/>
-      <c r="B10" s="173"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="173"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="173"/>
-      <c r="L10" s="173"/>
-      <c r="M10" s="173"/>
-      <c r="N10" s="173"/>
-      <c r="O10" s="173"/>
-      <c r="P10" s="173"/>
-      <c r="Q10" s="173"/>
-      <c r="R10" s="174"/>
+      <c r="A10" s="180"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="181"/>
+      <c r="R10" s="182"/>
     </row>
     <row r="11" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="172"/>
-      <c r="B11" s="173"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="173"/>
-      <c r="K11" s="173"/>
-      <c r="L11" s="173"/>
-      <c r="M11" s="173"/>
-      <c r="N11" s="173"/>
-      <c r="O11" s="173"/>
-      <c r="P11" s="173"/>
-      <c r="Q11" s="173"/>
-      <c r="R11" s="174"/>
+      <c r="A11" s="180"/>
+      <c r="B11" s="181"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="181"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="181"/>
+      <c r="M11" s="181"/>
+      <c r="N11" s="181"/>
+      <c r="O11" s="181"/>
+      <c r="P11" s="181"/>
+      <c r="Q11" s="181"/>
+      <c r="R11" s="182"/>
     </row>
     <row r="12" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="172"/>
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="173"/>
-      <c r="P12" s="173"/>
-      <c r="Q12" s="173"/>
-      <c r="R12" s="174"/>
+      <c r="A12" s="180"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="181"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="181"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="181"/>
+      <c r="O12" s="181"/>
+      <c r="P12" s="181"/>
+      <c r="Q12" s="181"/>
+      <c r="R12" s="182"/>
     </row>
     <row r="13" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="172"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="173"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="174"/>
+      <c r="A13" s="180"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="181"/>
+      <c r="M13" s="181"/>
+      <c r="N13" s="181"/>
+      <c r="O13" s="181"/>
+      <c r="P13" s="181"/>
+      <c r="Q13" s="181"/>
+      <c r="R13" s="182"/>
     </row>
     <row r="14" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="172"/>
-      <c r="B14" s="173"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="173"/>
-      <c r="M14" s="173"/>
-      <c r="N14" s="173"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="174"/>
+      <c r="A14" s="180"/>
+      <c r="B14" s="181"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="181"/>
+      <c r="K14" s="181"/>
+      <c r="L14" s="181"/>
+      <c r="M14" s="181"/>
+      <c r="N14" s="181"/>
+      <c r="O14" s="181"/>
+      <c r="P14" s="181"/>
+      <c r="Q14" s="181"/>
+      <c r="R14" s="182"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="172"/>
-      <c r="B15" s="173"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="173"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="173"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="174"/>
+      <c r="A15" s="180"/>
+      <c r="B15" s="181"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="181"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="181"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="181"/>
+      <c r="O15" s="181"/>
+      <c r="P15" s="181"/>
+      <c r="Q15" s="181"/>
+      <c r="R15" s="182"/>
     </row>
     <row r="16" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="172"/>
-      <c r="B16" s="173"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
-      <c r="L16" s="173"/>
-      <c r="M16" s="173"/>
-      <c r="N16" s="173"/>
-      <c r="O16" s="173"/>
-      <c r="P16" s="173"/>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="174"/>
+      <c r="A16" s="180"/>
+      <c r="B16" s="181"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="181"/>
+      <c r="L16" s="181"/>
+      <c r="M16" s="181"/>
+      <c r="N16" s="181"/>
+      <c r="O16" s="181"/>
+      <c r="P16" s="181"/>
+      <c r="Q16" s="181"/>
+      <c r="R16" s="182"/>
     </row>
     <row r="17" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="172"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="173"/>
-      <c r="L17" s="173"/>
-      <c r="M17" s="173"/>
-      <c r="N17" s="173"/>
-      <c r="O17" s="173"/>
-      <c r="P17" s="173"/>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="174"/>
+      <c r="A17" s="180"/>
+      <c r="B17" s="181"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="181"/>
+      <c r="K17" s="181"/>
+      <c r="L17" s="181"/>
+      <c r="M17" s="181"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="181"/>
+      <c r="P17" s="181"/>
+      <c r="Q17" s="181"/>
+      <c r="R17" s="182"/>
     </row>
     <row r="18" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="172"/>
-      <c r="B18" s="173"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="173"/>
-      <c r="K18" s="173"/>
-      <c r="L18" s="173"/>
-      <c r="M18" s="173"/>
-      <c r="N18" s="173"/>
-      <c r="O18" s="173"/>
-      <c r="P18" s="173"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="174"/>
+      <c r="A18" s="180"/>
+      <c r="B18" s="181"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="181"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="181"/>
+      <c r="Q18" s="181"/>
+      <c r="R18" s="182"/>
     </row>
     <row r="19" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="172"/>
-      <c r="B19" s="173"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="173"/>
-      <c r="K19" s="173"/>
-      <c r="L19" s="173"/>
-      <c r="M19" s="173"/>
-      <c r="N19" s="173"/>
-      <c r="O19" s="173"/>
-      <c r="P19" s="173"/>
-      <c r="Q19" s="173"/>
-      <c r="R19" s="174"/>
+      <c r="A19" s="180"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="181"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="181"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="181"/>
+      <c r="P19" s="181"/>
+      <c r="Q19" s="181"/>
+      <c r="R19" s="182"/>
     </row>
     <row r="20" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="172"/>
-      <c r="B20" s="173"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="173"/>
-      <c r="K20" s="173"/>
-      <c r="L20" s="173"/>
-      <c r="M20" s="173"/>
-      <c r="N20" s="173"/>
-      <c r="O20" s="173"/>
-      <c r="P20" s="173"/>
-      <c r="Q20" s="173"/>
-      <c r="R20" s="174"/>
+      <c r="A20" s="180"/>
+      <c r="B20" s="181"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="181"/>
+      <c r="K20" s="181"/>
+      <c r="L20" s="181"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="181"/>
+      <c r="P20" s="181"/>
+      <c r="Q20" s="181"/>
+      <c r="R20" s="182"/>
     </row>
     <row r="21" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="172"/>
-      <c r="B21" s="173"/>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="173"/>
-      <c r="K21" s="173"/>
-      <c r="L21" s="173"/>
-      <c r="M21" s="173"/>
-      <c r="N21" s="173"/>
-      <c r="O21" s="173"/>
-      <c r="P21" s="173"/>
-      <c r="Q21" s="173"/>
-      <c r="R21" s="174"/>
+      <c r="A21" s="180"/>
+      <c r="B21" s="181"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="181"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="181"/>
+      <c r="M21" s="181"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="181"/>
+      <c r="P21" s="181"/>
+      <c r="Q21" s="181"/>
+      <c r="R21" s="182"/>
     </row>
     <row r="22" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="172"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="173"/>
-      <c r="K22" s="173"/>
-      <c r="L22" s="173"/>
-      <c r="M22" s="173"/>
-      <c r="N22" s="173"/>
-      <c r="O22" s="173"/>
-      <c r="P22" s="173"/>
-      <c r="Q22" s="173"/>
-      <c r="R22" s="174"/>
+      <c r="A22" s="180"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="181"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="182"/>
     </row>
     <row r="23" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="172"/>
-      <c r="B23" s="173"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="173"/>
-      <c r="L23" s="173"/>
-      <c r="M23" s="173"/>
-      <c r="N23" s="173"/>
-      <c r="O23" s="173"/>
-      <c r="P23" s="173"/>
-      <c r="Q23" s="173"/>
-      <c r="R23" s="174"/>
+      <c r="A23" s="180"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="182"/>
     </row>
     <row r="24" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="172"/>
-      <c r="B24" s="173"/>
-      <c r="C24" s="173"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="173"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="173"/>
-      <c r="N24" s="173"/>
-      <c r="O24" s="173"/>
-      <c r="P24" s="173"/>
-      <c r="Q24" s="173"/>
-      <c r="R24" s="174"/>
+      <c r="A24" s="180"/>
+      <c r="B24" s="181"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="181"/>
+      <c r="K24" s="181"/>
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="181"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="181"/>
+      <c r="R24" s="182"/>
     </row>
     <row r="25" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="172"/>
-      <c r="B25" s="173"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="173"/>
-      <c r="K25" s="173"/>
-      <c r="L25" s="173"/>
-      <c r="M25" s="173"/>
-      <c r="N25" s="173"/>
-      <c r="O25" s="173"/>
-      <c r="P25" s="173"/>
-      <c r="Q25" s="173"/>
-      <c r="R25" s="174"/>
+      <c r="A25" s="180"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="181"/>
+      <c r="N25" s="181"/>
+      <c r="O25" s="181"/>
+      <c r="P25" s="181"/>
+      <c r="Q25" s="181"/>
+      <c r="R25" s="182"/>
     </row>
     <row r="26" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="172"/>
-      <c r="B26" s="173"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="173"/>
-      <c r="K26" s="173"/>
-      <c r="L26" s="173"/>
-      <c r="M26" s="173"/>
-      <c r="N26" s="173"/>
-      <c r="O26" s="173"/>
-      <c r="P26" s="173"/>
-      <c r="Q26" s="173"/>
-      <c r="R26" s="174"/>
+      <c r="A26" s="180"/>
+      <c r="B26" s="181"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="181"/>
+      <c r="K26" s="181"/>
+      <c r="L26" s="181"/>
+      <c r="M26" s="181"/>
+      <c r="N26" s="181"/>
+      <c r="O26" s="181"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="181"/>
+      <c r="R26" s="182"/>
     </row>
     <row r="27" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="172"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="173"/>
-      <c r="K27" s="173"/>
-      <c r="L27" s="173"/>
-      <c r="M27" s="173"/>
-      <c r="N27" s="173"/>
-      <c r="O27" s="173"/>
-      <c r="P27" s="173"/>
-      <c r="Q27" s="173"/>
-      <c r="R27" s="174"/>
+      <c r="A27" s="180"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="181"/>
+      <c r="M27" s="181"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="182"/>
     </row>
     <row r="28" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="172"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="173"/>
-      <c r="L28" s="173"/>
-      <c r="M28" s="173"/>
-      <c r="N28" s="173"/>
-      <c r="O28" s="173"/>
-      <c r="P28" s="173"/>
-      <c r="Q28" s="173"/>
-      <c r="R28" s="174"/>
+      <c r="A28" s="180"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="181"/>
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="181"/>
+      <c r="R28" s="182"/>
     </row>
     <row r="29" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="172"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="173"/>
-      <c r="K29" s="173"/>
-      <c r="L29" s="173"/>
-      <c r="M29" s="173"/>
-      <c r="N29" s="173"/>
-      <c r="O29" s="173"/>
-      <c r="P29" s="173"/>
-      <c r="Q29" s="173"/>
-      <c r="R29" s="174"/>
+      <c r="A29" s="180"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="181"/>
+      <c r="R29" s="182"/>
     </row>
     <row r="30" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="172"/>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="173"/>
-      <c r="K30" s="173"/>
-      <c r="L30" s="173"/>
-      <c r="M30" s="173"/>
-      <c r="N30" s="173"/>
-      <c r="O30" s="173"/>
-      <c r="P30" s="173"/>
-      <c r="Q30" s="173"/>
-      <c r="R30" s="174"/>
+      <c r="A30" s="180"/>
+      <c r="B30" s="181"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="181"/>
+      <c r="K30" s="181"/>
+      <c r="L30" s="181"/>
+      <c r="M30" s="181"/>
+      <c r="N30" s="181"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="181"/>
+      <c r="R30" s="182"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="172"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="173"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="173"/>
-      <c r="K31" s="173"/>
-      <c r="L31" s="173"/>
-      <c r="M31" s="173"/>
-      <c r="N31" s="173"/>
-      <c r="O31" s="173"/>
-      <c r="P31" s="173"/>
-      <c r="Q31" s="173"/>
-      <c r="R31" s="174"/>
+      <c r="A31" s="180"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="181"/>
+      <c r="K31" s="181"/>
+      <c r="L31" s="181"/>
+      <c r="M31" s="181"/>
+      <c r="N31" s="181"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="181"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="182"/>
     </row>
     <row r="32" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="172"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="173"/>
-      <c r="K32" s="173"/>
-      <c r="L32" s="173"/>
-      <c r="M32" s="173"/>
-      <c r="N32" s="173"/>
-      <c r="O32" s="173"/>
-      <c r="P32" s="173"/>
-      <c r="Q32" s="173"/>
-      <c r="R32" s="174"/>
+      <c r="A32" s="180"/>
+      <c r="B32" s="181"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="181"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="181"/>
+      <c r="K32" s="181"/>
+      <c r="L32" s="181"/>
+      <c r="M32" s="181"/>
+      <c r="N32" s="181"/>
+      <c r="O32" s="181"/>
+      <c r="P32" s="181"/>
+      <c r="Q32" s="181"/>
+      <c r="R32" s="182"/>
       <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="172"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="173"/>
-      <c r="K33" s="173"/>
-      <c r="L33" s="173"/>
-      <c r="M33" s="173"/>
-      <c r="N33" s="173"/>
-      <c r="O33" s="173"/>
-      <c r="P33" s="173"/>
-      <c r="Q33" s="173"/>
-      <c r="R33" s="174"/>
+      <c r="A33" s="180"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="181"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="181"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="182"/>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="172"/>
-      <c r="B34" s="173"/>
-      <c r="C34" s="173"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="173"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="173"/>
-      <c r="K34" s="173"/>
-      <c r="L34" s="173"/>
-      <c r="M34" s="173"/>
-      <c r="N34" s="173"/>
-      <c r="O34" s="173"/>
-      <c r="P34" s="173"/>
-      <c r="Q34" s="173"/>
-      <c r="R34" s="174"/>
+      <c r="A34" s="180"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="181"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="181"/>
+      <c r="K34" s="181"/>
+      <c r="L34" s="181"/>
+      <c r="M34" s="181"/>
+      <c r="N34" s="181"/>
+      <c r="O34" s="181"/>
+      <c r="P34" s="181"/>
+      <c r="Q34" s="181"/>
+      <c r="R34" s="182"/>
       <c r="S34" s="12"/>
     </row>
     <row r="35" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="172"/>
-      <c r="B35" s="173"/>
-      <c r="C35" s="173"/>
-      <c r="D35" s="173"/>
-      <c r="E35" s="173"/>
-      <c r="F35" s="173"/>
-      <c r="G35" s="173"/>
-      <c r="H35" s="173"/>
-      <c r="I35" s="173"/>
-      <c r="J35" s="173"/>
-      <c r="K35" s="173"/>
-      <c r="L35" s="173"/>
-      <c r="M35" s="173"/>
-      <c r="N35" s="173"/>
-      <c r="O35" s="173"/>
-      <c r="P35" s="173"/>
-      <c r="Q35" s="173"/>
-      <c r="R35" s="174"/>
+      <c r="A35" s="180"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="181"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="181"/>
+      <c r="K35" s="181"/>
+      <c r="L35" s="181"/>
+      <c r="M35" s="181"/>
+      <c r="N35" s="181"/>
+      <c r="O35" s="181"/>
+      <c r="P35" s="181"/>
+      <c r="Q35" s="181"/>
+      <c r="R35" s="182"/>
       <c r="S35" s="12"/>
     </row>
     <row r="36" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="172"/>
-      <c r="B36" s="173"/>
-      <c r="C36" s="173"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="173"/>
-      <c r="G36" s="173"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="173"/>
-      <c r="J36" s="173"/>
-      <c r="K36" s="173"/>
-      <c r="L36" s="173"/>
-      <c r="M36" s="173"/>
-      <c r="N36" s="173"/>
-      <c r="O36" s="173"/>
-      <c r="P36" s="173"/>
-      <c r="Q36" s="173"/>
-      <c r="R36" s="174"/>
+      <c r="A36" s="180"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="181"/>
+      <c r="F36" s="181"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="181"/>
+      <c r="I36" s="181"/>
+      <c r="J36" s="181"/>
+      <c r="K36" s="181"/>
+      <c r="L36" s="181"/>
+      <c r="M36" s="181"/>
+      <c r="N36" s="181"/>
+      <c r="O36" s="181"/>
+      <c r="P36" s="181"/>
+      <c r="Q36" s="181"/>
+      <c r="R36" s="182"/>
       <c r="S36" s="12"/>
     </row>
     <row r="37" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="172"/>
-      <c r="B37" s="173"/>
-      <c r="C37" s="173"/>
-      <c r="D37" s="173"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="173"/>
-      <c r="G37" s="173"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="173"/>
-      <c r="J37" s="173"/>
-      <c r="K37" s="173"/>
-      <c r="L37" s="173"/>
-      <c r="M37" s="173"/>
-      <c r="N37" s="173"/>
-      <c r="O37" s="173"/>
-      <c r="P37" s="173"/>
-      <c r="Q37" s="173"/>
-      <c r="R37" s="174"/>
+      <c r="A37" s="180"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
+      <c r="E37" s="181"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="181"/>
+      <c r="I37" s="181"/>
+      <c r="J37" s="181"/>
+      <c r="K37" s="181"/>
+      <c r="L37" s="181"/>
+      <c r="M37" s="181"/>
+      <c r="N37" s="181"/>
+      <c r="O37" s="181"/>
+      <c r="P37" s="181"/>
+      <c r="Q37" s="181"/>
+      <c r="R37" s="182"/>
       <c r="S37" s="12"/>
     </row>
     <row r="38" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="172"/>
-      <c r="B38" s="173"/>
-      <c r="C38" s="173"/>
-      <c r="D38" s="173"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="173"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="173"/>
-      <c r="J38" s="173"/>
-      <c r="K38" s="173"/>
-      <c r="L38" s="173"/>
-      <c r="M38" s="173"/>
-      <c r="N38" s="173"/>
-      <c r="O38" s="173"/>
-      <c r="P38" s="173"/>
-      <c r="Q38" s="173"/>
-      <c r="R38" s="174"/>
+      <c r="A38" s="180"/>
+      <c r="B38" s="181"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="181"/>
+      <c r="H38" s="181"/>
+      <c r="I38" s="181"/>
+      <c r="J38" s="181"/>
+      <c r="K38" s="181"/>
+      <c r="L38" s="181"/>
+      <c r="M38" s="181"/>
+      <c r="N38" s="181"/>
+      <c r="O38" s="181"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="181"/>
+      <c r="R38" s="182"/>
       <c r="S38" s="12"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="195" t="s">
+      <c r="A39" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="196"/>
-      <c r="C39" s="196"/>
-      <c r="D39" s="196"/>
-      <c r="E39" s="196"/>
-      <c r="F39" s="196"/>
-      <c r="G39" s="196"/>
-      <c r="H39" s="196"/>
-      <c r="I39" s="196"/>
-      <c r="J39" s="196"/>
-      <c r="K39" s="196"/>
-      <c r="L39" s="196"/>
-      <c r="M39" s="196"/>
-      <c r="N39" s="196"/>
-      <c r="O39" s="196"/>
-      <c r="P39" s="196"/>
-      <c r="Q39" s="196"/>
-      <c r="R39" s="197"/>
+      <c r="B39" s="190"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="190"/>
+      <c r="G39" s="190"/>
+      <c r="H39" s="190"/>
+      <c r="I39" s="190"/>
+      <c r="J39" s="190"/>
+      <c r="K39" s="190"/>
+      <c r="L39" s="190"/>
+      <c r="M39" s="190"/>
+      <c r="N39" s="190"/>
+      <c r="O39" s="190"/>
+      <c r="P39" s="190"/>
+      <c r="Q39" s="190"/>
+      <c r="R39" s="191"/>
       <c r="S39" s="12"/>
     </row>
     <row r="40" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="175"/>
+      <c r="A40" s="197"/>
       <c r="B40" s="54" t="s">
         <v>50</v>
       </c>
@@ -8950,8 +10121,8 @@
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
-      <c r="H40" s="178"/>
-      <c r="I40" s="179"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="201"/>
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
       <c r="L40" s="55"/>
@@ -8960,17 +10131,17 @@
       <c r="O40" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="P40" s="182" t="s">
+      <c r="P40" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="Q40" s="183"/>
+      <c r="Q40" s="205"/>
       <c r="R40" s="57" t="s">
         <v>54</v>
       </c>
       <c r="S40" s="12"/>
     </row>
     <row r="41" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="176"/>
+      <c r="A41" s="198"/>
       <c r="B41" s="43" t="s">
         <v>51</v>
       </c>
@@ -8989,8 +10160,8 @@
       <c r="G41" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="180"/>
-      <c r="I41" s="181"/>
+      <c r="H41" s="202"/>
+      <c r="I41" s="203"/>
       <c r="J41" s="44" t="s">
         <v>55</v>
       </c>
@@ -9007,136 +10178,100 @@
         <v>59</v>
       </c>
       <c r="O41" s="45"/>
-      <c r="P41" s="184"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="190"/>
+      <c r="P41" s="206"/>
+      <c r="Q41" s="207"/>
+      <c r="R41" s="212"/>
       <c r="S41" s="12"/>
     </row>
     <row r="42" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="176"/>
+      <c r="A42" s="198"/>
       <c r="B42" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="193" t="s">
+      <c r="C42" s="215" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="194"/>
+      <c r="D42" s="216"/>
       <c r="E42" s="50"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="193" t="s">
+      <c r="J42" s="215" t="s">
         <v>65</v>
       </c>
-      <c r="K42" s="194"/>
+      <c r="K42" s="216"/>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
       <c r="N42" s="31"/>
       <c r="O42" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="P42" s="186"/>
-      <c r="Q42" s="187"/>
-      <c r="R42" s="191"/>
+      <c r="P42" s="208"/>
+      <c r="Q42" s="209"/>
+      <c r="R42" s="213"/>
       <c r="S42" s="12"/>
     </row>
     <row r="43" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="176"/>
+      <c r="A43" s="198"/>
       <c r="B43" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="193" t="s">
+      <c r="C43" s="215" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="194"/>
+      <c r="D43" s="216"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="52"/>
       <c r="I43" s="53"/>
-      <c r="J43" s="193" t="s">
+      <c r="J43" s="215" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="194"/>
+      <c r="K43" s="216"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
       <c r="O43" s="47"/>
-      <c r="P43" s="188"/>
-      <c r="Q43" s="189"/>
-      <c r="R43" s="192"/>
+      <c r="P43" s="210"/>
+      <c r="Q43" s="211"/>
+      <c r="R43" s="214"/>
     </row>
     <row r="44" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="177"/>
+      <c r="A44" s="199"/>
       <c r="B44" s="58"/>
-      <c r="C44" s="167" t="s">
+      <c r="C44" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="168"/>
+      <c r="D44" s="193"/>
       <c r="E44" s="59"/>
       <c r="F44" s="60"/>
       <c r="G44" s="60"/>
       <c r="H44" s="61"/>
       <c r="I44" s="62"/>
-      <c r="J44" s="167" t="s">
+      <c r="J44" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="K44" s="168"/>
+      <c r="K44" s="193"/>
       <c r="L44" s="59"/>
       <c r="M44" s="59" t="s">
         <v>70</v>
       </c>
       <c r="N44" s="60"/>
-      <c r="O44" s="169" t="s">
+      <c r="O44" s="194" t="s">
         <v>71</v>
       </c>
-      <c r="P44" s="170"/>
-      <c r="Q44" s="169" t="s">
+      <c r="P44" s="195"/>
+      <c r="Q44" s="194" t="s">
         <v>72</v>
       </c>
-      <c r="R44" s="171"/>
+      <c r="R44" s="196"/>
     </row>
     <row r="45" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A8:R8"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="A10:R10"/>
-    <mergeCell ref="A11:R11"/>
-    <mergeCell ref="A24:R24"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="A14:R14"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A18:R18"/>
-    <mergeCell ref="A19:R19"/>
-    <mergeCell ref="A20:R20"/>
-    <mergeCell ref="A21:R21"/>
-    <mergeCell ref="A22:R22"/>
-    <mergeCell ref="A23:R23"/>
-    <mergeCell ref="A36:R36"/>
-    <mergeCell ref="A25:R25"/>
-    <mergeCell ref="A26:R26"/>
-    <mergeCell ref="A27:R27"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="A29:R29"/>
-    <mergeCell ref="A30:R30"/>
-    <mergeCell ref="A31:R31"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="A33:R33"/>
-    <mergeCell ref="A34:R34"/>
-    <mergeCell ref="A35:R35"/>
     <mergeCell ref="Q44:R44"/>
     <mergeCell ref="A37:R37"/>
     <mergeCell ref="A38:R38"/>
@@ -9153,6 +10288,42 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="O44:P44"/>
+    <mergeCell ref="A36:R36"/>
+    <mergeCell ref="A25:R25"/>
+    <mergeCell ref="A26:R26"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="A29:R29"/>
+    <mergeCell ref="A30:R30"/>
+    <mergeCell ref="A31:R31"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="A33:R33"/>
+    <mergeCell ref="A34:R34"/>
+    <mergeCell ref="A35:R35"/>
+    <mergeCell ref="A24:R24"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:R14"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="A20:R20"/>
+    <mergeCell ref="A21:R21"/>
+    <mergeCell ref="A22:R22"/>
+    <mergeCell ref="A23:R23"/>
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A11:R11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B43" r:id="rId1" display="http://www.sofia-decor.ru/"/>
@@ -9218,18 +10389,18 @@
       <c r="J2" s="6"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="138" t="s">
+      <c r="M2" s="165"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="137">
+      <c r="P2" s="157"/>
+      <c r="Q2" s="163">
         <f ca="1">TODAY()</f>
-        <v>43598</v>
-      </c>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
+        <v>43628</v>
+      </c>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
       <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -9245,17 +10416,17 @@
       <c r="J3" s="6"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="138" t="s">
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="135" t="s">
+      <c r="P3" s="157"/>
+      <c r="Q3" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="157"/>
       <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9303,11 +10474,11 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="217" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="205"/>
-      <c r="C6" s="205"/>
+      <c r="B6" s="218"/>
+      <c r="C6" s="218"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -9327,11 +10498,11 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="204" t="s">
+      <c r="A7" s="217" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="205"/>
-      <c r="C7" s="205"/>
+      <c r="B7" s="218"/>
+      <c r="C7" s="218"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -9351,11 +10522,11 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="204" t="s">
+      <c r="A8" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="205"/>
-      <c r="C8" s="205"/>
+      <c r="B8" s="218"/>
+      <c r="C8" s="218"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -9467,20 +10638,20 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="207" t="s">
+      <c r="E13" s="220" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="208"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="208"/>
-      <c r="K13" s="208"/>
-      <c r="L13" s="208"/>
-      <c r="M13" s="208"/>
-      <c r="N13" s="208"/>
-      <c r="O13" s="208"/>
-      <c r="P13" s="208"/>
+      <c r="F13" s="221"/>
+      <c r="G13" s="221"/>
+      <c r="H13" s="221"/>
+      <c r="I13" s="221"/>
+      <c r="J13" s="221"/>
+      <c r="K13" s="221"/>
+      <c r="L13" s="221"/>
+      <c r="M13" s="221"/>
+      <c r="N13" s="221"/>
+      <c r="O13" s="221"/>
+      <c r="P13" s="221"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -9491,18 +10662,18 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="208"/>
-      <c r="F14" s="208"/>
-      <c r="G14" s="208"/>
-      <c r="H14" s="208"/>
-      <c r="I14" s="208"/>
-      <c r="J14" s="208"/>
-      <c r="K14" s="208"/>
-      <c r="L14" s="208"/>
-      <c r="M14" s="208"/>
-      <c r="N14" s="208"/>
-      <c r="O14" s="208"/>
-      <c r="P14" s="208"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="221"/>
+      <c r="G14" s="221"/>
+      <c r="H14" s="221"/>
+      <c r="I14" s="221"/>
+      <c r="J14" s="221"/>
+      <c r="K14" s="221"/>
+      <c r="L14" s="221"/>
+      <c r="M14" s="221"/>
+      <c r="N14" s="221"/>
+      <c r="O14" s="221"/>
+      <c r="P14" s="221"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -9513,18 +10684,18 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="208"/>
-      <c r="F15" s="208"/>
-      <c r="G15" s="208"/>
-      <c r="H15" s="208"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="208"/>
-      <c r="K15" s="208"/>
-      <c r="L15" s="208"/>
-      <c r="M15" s="208"/>
-      <c r="N15" s="208"/>
-      <c r="O15" s="208"/>
-      <c r="P15" s="208"/>
+      <c r="E15" s="221"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="221"/>
+      <c r="J15" s="221"/>
+      <c r="K15" s="221"/>
+      <c r="L15" s="221"/>
+      <c r="M15" s="221"/>
+      <c r="N15" s="221"/>
+      <c r="O15" s="221"/>
+      <c r="P15" s="221"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -9536,23 +10707,23 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="143" t="s">
+      <c r="F16" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="145" t="str">
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J13:Q13</f>
         <v>Иванов И.И.</v>
       </c>
-      <c r="K16" s="145"/>
-      <c r="L16" s="145"/>
-      <c r="M16" s="145"/>
-      <c r="N16" s="145"/>
-      <c r="O16" s="145"/>
-      <c r="P16" s="145"/>
-      <c r="Q16" s="145"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="148"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -9563,23 +10734,23 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="143" t="s">
+      <c r="F17" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="206" t="str">
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="219" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J14:Q14</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K17" s="206"/>
-      <c r="L17" s="206"/>
-      <c r="M17" s="206"/>
-      <c r="N17" s="206"/>
-      <c r="O17" s="206"/>
-      <c r="P17" s="206"/>
-      <c r="Q17" s="206"/>
+      <c r="K17" s="219"/>
+      <c r="L17" s="219"/>
+      <c r="M17" s="219"/>
+      <c r="N17" s="219"/>
+      <c r="O17" s="219"/>
+      <c r="P17" s="219"/>
+      <c r="Q17" s="219"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="4"/>
@@ -9590,23 +10761,23 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="143" t="s">
+      <c r="F18" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="145" t="str">
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J15:Q15</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="145"/>
-      <c r="O18" s="145"/>
-      <c r="P18" s="145"/>
-      <c r="Q18" s="145"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="4"/>
@@ -9617,23 +10788,23 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="143" t="s">
+      <c r="F19" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="206" t="str">
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="219" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J16:Q16</f>
         <v>восьмой</v>
       </c>
-      <c r="K19" s="206"/>
-      <c r="L19" s="206"/>
-      <c r="M19" s="206"/>
-      <c r="N19" s="206"/>
-      <c r="O19" s="206"/>
-      <c r="P19" s="206"/>
-      <c r="Q19" s="206"/>
+      <c r="K19" s="219"/>
+      <c r="L19" s="219"/>
+      <c r="M19" s="219"/>
+      <c r="N19" s="219"/>
+      <c r="O19" s="219"/>
+      <c r="P19" s="219"/>
+      <c r="Q19" s="219"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="4"/>
@@ -9644,23 +10815,23 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="143" t="s">
+      <c r="F20" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="206" t="str">
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="219" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J17:Q17</f>
         <v>кухня</v>
       </c>
-      <c r="K20" s="206"/>
-      <c r="L20" s="206"/>
-      <c r="M20" s="206"/>
-      <c r="N20" s="206"/>
-      <c r="O20" s="206"/>
-      <c r="P20" s="206"/>
-      <c r="Q20" s="206"/>
+      <c r="K20" s="219"/>
+      <c r="L20" s="219"/>
+      <c r="M20" s="219"/>
+      <c r="N20" s="219"/>
+      <c r="O20" s="219"/>
+      <c r="P20" s="219"/>
+      <c r="Q20" s="219"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="4"/>
@@ -9671,23 +10842,23 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="143" t="s">
+      <c r="F21" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="145" t="str">
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J18:Q18</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="145"/>
-      <c r="L21" s="145"/>
-      <c r="M21" s="145"/>
-      <c r="N21" s="145"/>
-      <c r="O21" s="145"/>
-      <c r="P21" s="145"/>
-      <c r="Q21" s="145"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="148"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="4"/>
@@ -9698,23 +10869,23 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="143" t="s">
+      <c r="F22" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="206">
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="219">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J19:Q19</f>
         <v>500</v>
       </c>
-      <c r="K22" s="206"/>
-      <c r="L22" s="206"/>
-      <c r="M22" s="206"/>
-      <c r="N22" s="206"/>
-      <c r="O22" s="206"/>
-      <c r="P22" s="206"/>
-      <c r="Q22" s="206"/>
+      <c r="K22" s="219"/>
+      <c r="L22" s="219"/>
+      <c r="M22" s="219"/>
+      <c r="N22" s="219"/>
+      <c r="O22" s="219"/>
+      <c r="P22" s="219"/>
+      <c r="Q22" s="219"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="4"/>
@@ -9725,23 +10896,23 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="143" t="s">
+      <c r="F23" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="206" t="str">
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="219" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J20:Q20</f>
         <v>1-15,16</v>
       </c>
-      <c r="K23" s="206"/>
-      <c r="L23" s="206"/>
-      <c r="M23" s="206"/>
-      <c r="N23" s="206"/>
-      <c r="O23" s="206"/>
-      <c r="P23" s="206"/>
-      <c r="Q23" s="206"/>
+      <c r="K23" s="219"/>
+      <c r="L23" s="219"/>
+      <c r="M23" s="219"/>
+      <c r="N23" s="219"/>
+      <c r="O23" s="219"/>
+      <c r="P23" s="219"/>
+      <c r="Q23" s="219"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="4"/>
@@ -9819,12 +10990,12 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="151" t="s">
+      <c r="G27" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="152"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -9837,29 +11008,29 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="153" t="s">
+      <c r="A28" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="152"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="132" t="str">
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="146" t="str">
         <f>builder</f>
         <v>_____________________</v>
       </c>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132" t="s">
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="132"/>
+      <c r="P28" s="146"/>
       <c r="Q28" s="30" t="s">
         <v>3</v>
       </c>
@@ -9868,7 +11039,7 @@
       </c>
       <c r="S28" s="114">
         <f ca="1">TODAY()</f>
-        <v>43598</v>
+        <v>43628</v>
       </c>
       <c r="T28" s="22"/>
     </row>
@@ -9901,12 +11072,12 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="151" t="s">
+      <c r="G30" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="152"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -9919,28 +11090,28 @@
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="154" t="s">
+      <c r="A31" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="152"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="152"/>
-      <c r="K31" s="150" t="s">
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
-      <c r="N31" s="150"/>
-      <c r="O31" s="132" t="s">
+      <c r="L31" s="141"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="132"/>
+      <c r="P31" s="146"/>
       <c r="Q31" s="30" t="s">
         <v>3</v>
       </c>
@@ -9949,33 +11120,33 @@
       </c>
       <c r="S31" s="114">
         <f ca="1">TODAY()</f>
-        <v>43598</v>
+        <v>43628</v>
       </c>
       <c r="T31" s="22"/>
     </row>
     <row r="32" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="154" t="s">
+      <c r="A32" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="152"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="152"/>
-      <c r="K32" s="150" t="s">
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
-      <c r="N32" s="150"/>
-      <c r="O32" s="132" t="s">
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="141"/>
+      <c r="O32" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="132"/>
+      <c r="P32" s="146"/>
       <c r="Q32" s="30" t="s">
         <v>3</v>
       </c>
@@ -9984,7 +11155,7 @@
       </c>
       <c r="S32" s="114">
         <f ca="1">TODAY()</f>
-        <v>43598</v>
+        <v>43628</v>
       </c>
       <c r="T32" s="22"/>
     </row>
@@ -10017,12 +11188,12 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="151" t="s">
+      <c r="G34" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="152"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="152"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="144"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -10035,28 +11206,28 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="154" t="s">
+      <c r="A35" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="150" t="s">
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
-      <c r="N35" s="150"/>
-      <c r="O35" s="132" t="s">
+      <c r="L35" s="141"/>
+      <c r="M35" s="141"/>
+      <c r="N35" s="141"/>
+      <c r="O35" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P35" s="132"/>
+      <c r="P35" s="146"/>
       <c r="Q35" s="30" t="s">
         <v>3</v>
       </c>
@@ -10065,7 +11236,7 @@
       </c>
       <c r="S35" s="114">
         <f ca="1">TODAY()</f>
-        <v>43598</v>
+        <v>43628</v>
       </c>
       <c r="T35" s="22"/>
     </row>
@@ -10093,21 +11264,21 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="E13:P15"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="G34:J34"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="J19:Q19"/>
@@ -10119,21 +11290,21 @@
     <mergeCell ref="J17:Q17"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="E13:P15"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -10164,19 +11335,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="222" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="211"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="224"/>
     </row>
     <row r="2" spans="1:11" s="69" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="77" t="s">
@@ -10557,7 +11728,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:S1"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10572,48 +11743,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="227" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="216"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="228"/>
+      <c r="S1" s="229"/>
     </row>
     <row r="2" spans="1:19" s="103" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="230" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="230" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="217" t="s">
+      <c r="C2" s="230" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="230" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="217" t="s">
+      <c r="E2" s="230" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="217" t="s">
+      <c r="F2" s="230" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="217" t="s">
+      <c r="G2" s="230" t="s">
         <v>77</v>
       </c>
       <c r="H2" s="104" t="s">
@@ -10622,11 +11793,11 @@
       <c r="I2" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="220" t="s">
+      <c r="J2" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
       <c r="M2" s="104" t="s">
         <v>118</v>
       </c>
@@ -10650,13 +11821,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="93" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="218"/>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
+      <c r="A3" s="231"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
       <c r="H3" s="99" t="s">
         <v>111</v>
       </c>
@@ -10695,24 +11866,24 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="93" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="218"/>
-      <c r="B4" s="218"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="218"/>
+      <c r="A4" s="231"/>
+      <c r="B4" s="231"/>
+      <c r="C4" s="231"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="231"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="231"/>
       <c r="H4" s="99" t="s">
         <v>103</v>
       </c>
       <c r="I4" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="J4" s="212" t="s">
+      <c r="J4" s="225" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
+      <c r="K4" s="226"/>
+      <c r="L4" s="226"/>
       <c r="M4" s="100" t="s">
         <v>100</v>
       </c>
@@ -10736,24 +11907,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="93" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="219"/>
-      <c r="B5" s="219"/>
-      <c r="C5" s="219"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
+      <c r="A5" s="232"/>
+      <c r="B5" s="232"/>
+      <c r="C5" s="232"/>
+      <c r="D5" s="232"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="232"/>
+      <c r="G5" s="232"/>
       <c r="H5" s="99" t="s">
         <v>93</v>
       </c>
       <c r="I5" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="212" t="s">
+      <c r="J5" s="225" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="213"/>
-      <c r="L5" s="213"/>
+      <c r="K5" s="226"/>
+      <c r="L5" s="226"/>
       <c r="M5" s="98" t="s">
         <v>90</v>
       </c>
@@ -11431,7 +12602,7 @@
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:K1"/>
+      <selection pane="bottomLeft" activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11447,19 +12618,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="235" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="224"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="237"/>
     </row>
     <row r="2" spans="1:11" s="69" customFormat="1" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="77" t="s">
@@ -11832,4 +13003,988 @@
     <oddHeader>&amp;C&amp;"ISOCPEUR,полужирный курсив"&amp;22время создания: &amp;T   дата создания: &amp;D   лист: &amp;P   листов: &amp;N</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T36"/>
+  <sheetViews>
+    <sheetView showWhiteSpace="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26:N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="6" max="9" width="7.625" style="1" customWidth="1"/>
+    <col min="10" max="15" width="8.75" style="1"/>
+    <col min="16" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="2.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="16"/>
+    </row>
+    <row r="2" spans="1:20" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="139"/>
+    </row>
+    <row r="3" spans="1:20" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="139"/>
+    </row>
+    <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="164" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="163">
+        <f ca="1">TODAY()</f>
+        <v>43628</v>
+      </c>
+      <c r="R4" s="157"/>
+      <c r="S4" s="157"/>
+      <c r="T4" s="29"/>
+    </row>
+    <row r="5" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="157"/>
+      <c r="S5" s="157"/>
+      <c r="T5" s="28"/>
+    </row>
+    <row r="6" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="155" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="155" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="156"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="155" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="156"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="238" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="131"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="131"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="153" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="148" t="str">
+        <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J13:Q13</f>
+        <v>Иванов И.И.</v>
+      </c>
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="148" t="str">
+        <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J14:Q14</f>
+        <v>Петров П.П.</v>
+      </c>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="153" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="148" t="str">
+        <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J15:Q15</f>
+        <v>г. Москва, ул. Нарвская, д.2</v>
+      </c>
+      <c r="K17" s="148"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="148"/>
+      <c r="Q17" s="148"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="153" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="148" t="str">
+        <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J16:Q16</f>
+        <v>восьмой</v>
+      </c>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="148" t="str">
+        <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J17:Q17</f>
+        <v>кухня</v>
+      </c>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="153" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="148" t="str">
+        <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J18:Q18</f>
+        <v>гарнитур кухонный, дверной блок</v>
+      </c>
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="148"/>
+      <c r="P20" s="148"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="153" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="148">
+        <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J19:Q19</f>
+        <v>500</v>
+      </c>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="153" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="148" t="str">
+        <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J20:Q20</f>
+        <v>1-15,16</v>
+      </c>
+      <c r="K22" s="148"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="148"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="148"/>
+      <c r="Q22" s="148"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="146" t="str">
+        <f>builder</f>
+        <v>_____________________</v>
+      </c>
+      <c r="L26" s="146"/>
+      <c r="M26" s="146"/>
+      <c r="N26" s="146"/>
+      <c r="O26" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="146"/>
+      <c r="Q26" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="114">
+        <f ca="1">TODAY()</f>
+        <v>43628</v>
+      </c>
+      <c r="T26" s="22"/>
+    </row>
+    <row r="27" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="143" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="146"/>
+      <c r="Q29" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" s="114">
+        <f ca="1">TODAY()</f>
+        <v>43628</v>
+      </c>
+      <c r="T29" s="22"/>
+    </row>
+    <row r="30" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="143" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="147" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="141"/>
+      <c r="O32" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="146"/>
+      <c r="Q32" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="114">
+        <f ca="1">TODAY()</f>
+        <v>43628</v>
+      </c>
+      <c r="T32" s="22"/>
+    </row>
+    <row r="33" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="144"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="141"/>
+      <c r="M35" s="141"/>
+      <c r="N35" s="141"/>
+      <c r="O35" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="146"/>
+      <c r="Q35" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="114">
+        <f ca="1">TODAY()</f>
+        <v>43628</v>
+      </c>
+      <c r="T35" s="22"/>
+    </row>
+    <row r="36" spans="1:20" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="E11:N14"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="M5:N5"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="8" scale="91" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/dist/files/xls/shablon-alboma-dp.xlsx
+++ b/dist/files/xls/shablon-alboma-dp.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OPEN_SERVER\OSPanel\domains\localhost\www\dist\files\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="28335" windowHeight="14655" tabRatio="896"/>
   </bookViews>
@@ -46,7 +51,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$A$1:$T$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'ТИТУЛЬНЫЙ ЛИСТ ТЗ'!$A$1:$T$36</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -487,7 +492,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
@@ -1896,12 +1901,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1911,67 +1975,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1997,17 +2011,23 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2018,6 +2038,75 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2035,90 +2124,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2187,6 +2192,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2197,7 +2203,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -2291,8 +2296,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="339852" y="330707"/>
-          <a:ext cx="16925544" cy="11840083"/>
+          <a:off x="333375" y="341167"/>
+          <a:ext cx="16707716" cy="12324196"/>
           <a:chOff x="532" y="527"/>
           <a:chExt cx="22751" cy="15771"/>
         </a:xfrm>
@@ -5647,7 +5652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5657,7 +5662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="K24" sqref="K24:N24"/>
     </sheetView>
   </sheetViews>
@@ -5710,18 +5715,18 @@
       <c r="J2" s="6"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="164" t="s">
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="163">
+      <c r="P2" s="144"/>
+      <c r="Q2" s="143">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
-      </c>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
+        <v>43629</v>
+      </c>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
       <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5737,17 +5742,17 @@
       <c r="J3" s="6"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="164" t="s">
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="142" t="s">
+      <c r="P3" s="144"/>
+      <c r="Q3" s="154" t="s">
         <v>133</v>
       </c>
-      <c r="R3" s="157"/>
-      <c r="S3" s="157"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="144"/>
       <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5762,13 +5767,13 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="164" t="s">
+      <c r="L4" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
@@ -5786,24 +5791,24 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="164" t="s">
+      <c r="L5" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -5823,11 +5828,11 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="155" t="s">
+      <c r="A7" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="147"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -5847,11 +5852,11 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="155" t="s">
+      <c r="A8" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -5875,18 +5880,18 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="158" t="s">
+      <c r="E9" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="159"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -5899,16 +5904,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="159"/>
-      <c r="K10" s="159"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="159"/>
-      <c r="N10" s="159"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="150"/>
       <c r="O10" s="24"/>
       <c r="P10" s="26"/>
       <c r="Q10" s="5"/>
@@ -5921,16 +5926,16 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="159"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="159"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
       <c r="O11" s="24"/>
       <c r="P11" s="26"/>
       <c r="Q11" s="5"/>
@@ -5943,16 +5948,16 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
       <c r="O12" s="24"/>
       <c r="P12" s="26"/>
       <c r="Q12" s="5"/>
@@ -5966,22 +5971,22 @@
       <c r="C13" s="110"/>
       <c r="D13" s="110"/>
       <c r="E13" s="111"/>
-      <c r="F13" s="151" t="s">
+      <c r="F13" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="148" t="s">
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="148"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="148"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="148"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="158"/>
       <c r="R13" s="110"/>
       <c r="S13" s="110"/>
       <c r="T13" s="112"/>
@@ -5992,22 +5997,22 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="153" t="s">
+      <c r="F14" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="142" t="s">
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="142"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="142"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="154"/>
+      <c r="O14" s="154"/>
+      <c r="P14" s="154"/>
+      <c r="Q14" s="154"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="4"/>
@@ -6018,22 +6023,22 @@
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
       <c r="E15" s="117"/>
-      <c r="F15" s="151" t="s">
+      <c r="F15" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="148" t="s">
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="148"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="148"/>
-      <c r="N15" s="148"/>
-      <c r="O15" s="148"/>
-      <c r="P15" s="148"/>
-      <c r="Q15" s="148"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="158"/>
+      <c r="M15" s="158"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="158"/>
+      <c r="P15" s="158"/>
+      <c r="Q15" s="158"/>
       <c r="R15" s="116"/>
       <c r="S15" s="116"/>
       <c r="T15" s="118"/>
@@ -6044,22 +6049,22 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="153" t="s">
+      <c r="F16" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="142" t="s">
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="142"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="142"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="154"/>
+      <c r="O16" s="154"/>
+      <c r="P16" s="154"/>
+      <c r="Q16" s="154"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -6070,22 +6075,22 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="153" t="s">
+      <c r="F17" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="142" t="s">
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="150"/>
-      <c r="L17" s="150"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
-      <c r="O17" s="150"/>
-      <c r="P17" s="150"/>
-      <c r="Q17" s="150"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="162"/>
+      <c r="Q17" s="162"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="4"/>
@@ -6096,22 +6101,22 @@
       <c r="C18" s="110"/>
       <c r="D18" s="110"/>
       <c r="E18" s="111"/>
-      <c r="F18" s="151" t="s">
+      <c r="F18" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="148" t="s">
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="149"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="149"/>
-      <c r="N18" s="149"/>
-      <c r="O18" s="149"/>
-      <c r="P18" s="149"/>
-      <c r="Q18" s="149"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
       <c r="R18" s="110"/>
       <c r="S18" s="110"/>
       <c r="T18" s="112"/>
@@ -6122,22 +6127,22 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="153" t="s">
+      <c r="F19" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="142">
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="154">
         <v>500</v>
       </c>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="142"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="154"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="4"/>
@@ -6148,22 +6153,22 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="153" t="s">
+      <c r="F20" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="142" t="s">
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="142"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="154"/>
+      <c r="O20" s="154"/>
+      <c r="P20" s="154"/>
+      <c r="Q20" s="154"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="4"/>
@@ -6219,12 +6224,12 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="143" t="s">
+      <c r="G23" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="144"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="144"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -6237,28 +6242,28 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="145" t="s">
+      <c r="A24" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="146" t="s">
+      <c r="B24" s="165"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="146"/>
-      <c r="M24" s="146"/>
-      <c r="N24" s="146"/>
-      <c r="O24" s="146" t="s">
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="146"/>
+      <c r="P24" s="151"/>
       <c r="Q24" s="21" t="s">
         <v>3</v>
       </c>
@@ -6267,7 +6272,7 @@
       </c>
       <c r="S24" s="114">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="T24" s="22"/>
     </row>
@@ -6300,12 +6305,12 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="143" t="s">
+      <c r="G26" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -6318,28 +6323,28 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="147" t="s">
+      <c r="A27" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="144"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="141" t="s">
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="146" t="s">
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="146"/>
+      <c r="P27" s="151"/>
       <c r="Q27" s="21" t="s">
         <v>3</v>
       </c>
@@ -6348,33 +6353,33 @@
       </c>
       <c r="S27" s="114">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="T27" s="22"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="141" t="s">
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="146" t="s">
+      <c r="L28" s="163"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="163"/>
+      <c r="O28" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="146"/>
+      <c r="P28" s="151"/>
       <c r="Q28" s="21" t="s">
         <v>3</v>
       </c>
@@ -6383,7 +6388,7 @@
       </c>
       <c r="S28" s="114">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="T28" s="22"/>
     </row>
@@ -6413,18 +6418,18 @@
       <c r="A30" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="160" t="s">
+      <c r="B30" s="159" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160" t="s">
+      <c r="C30" s="159"/>
+      <c r="D30" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="160"/>
-      <c r="F30" s="161" t="s">
+      <c r="E30" s="159"/>
+      <c r="F30" s="160" t="s">
         <v>132</v>
       </c>
-      <c r="G30" s="161"/>
+      <c r="G30" s="160"/>
       <c r="H30" s="121"/>
       <c r="I30" s="121"/>
       <c r="J30" s="122" t="s">
@@ -6443,27 +6448,27 @@
     </row>
     <row r="31" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="124"/>
-      <c r="B31" s="162"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="162"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="162"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
       <c r="H31" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I31" s="121"/>
       <c r="J31" s="121"/>
-      <c r="K31" s="141" t="s">
+      <c r="K31" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="146" t="s">
+      <c r="L31" s="163"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="163"/>
+      <c r="O31" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="146"/>
+      <c r="P31" s="151"/>
       <c r="Q31" s="25" t="s">
         <v>3</v>
       </c>
@@ -6472,18 +6477,18 @@
       </c>
       <c r="S31" s="114">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="T31" s="22"/>
     </row>
     <row r="32" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="125"/>
-      <c r="B32" s="167"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -6500,12 +6505,12 @@
     </row>
     <row r="33" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="125"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="167"/>
+      <c r="B33" s="142"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
       <c r="H33" s="121"/>
       <c r="I33" s="121"/>
       <c r="J33" s="122" t="s">
@@ -6524,27 +6529,27 @@
     </row>
     <row r="34" spans="1:20" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="126"/>
-      <c r="B34" s="162"/>
-      <c r="C34" s="162"/>
-      <c r="D34" s="162"/>
-      <c r="E34" s="162"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="162"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
       <c r="H34" s="121"/>
       <c r="I34" s="121"/>
       <c r="J34" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="K34" s="141" t="s">
+      <c r="K34" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="L34" s="141"/>
-      <c r="M34" s="141"/>
-      <c r="N34" s="141"/>
-      <c r="O34" s="146" t="s">
+      <c r="L34" s="163"/>
+      <c r="M34" s="163"/>
+      <c r="N34" s="163"/>
+      <c r="O34" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P34" s="146"/>
+      <c r="P34" s="151"/>
       <c r="Q34" s="21" t="s">
         <v>3</v>
       </c>
@@ -6553,7 +6558,7 @@
       </c>
       <c r="S34" s="114">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="T34" s="22"/>
     </row>
@@ -6581,23 +6586,31 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
     <mergeCell ref="O31:P31"/>
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="A7:C7"/>
@@ -6614,31 +6627,23 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -6655,7 +6660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A5" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="K25" sqref="K25:N25"/>
     </sheetView>
   </sheetViews>
@@ -6665,12 +6670,13 @@
     <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
     <col min="6" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="15" width="8.75" style="1"/>
     <col min="16" max="16" width="10" style="1" customWidth="1"/>
     <col min="17" max="17" width="10.25" style="1" customWidth="1"/>
-    <col min="18" max="19" width="8.75" style="1"/>
+    <col min="18" max="18" width="8.75" style="1"/>
+    <col min="19" max="19" width="11.375" style="1" customWidth="1"/>
     <col min="20" max="20" width="2.625" style="1" customWidth="1"/>
     <col min="21" max="16384" width="8.75" style="1"/>
   </cols>
@@ -6680,14 +6686,14 @@
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
-      <c r="E1" s="239" t="s">
+      <c r="E1" s="240" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
       <c r="K1" s="137"/>
       <c r="L1" s="137"/>
       <c r="M1" s="137"/>
@@ -6700,28 +6706,28 @@
       <c r="T1" s="135"/>
     </row>
     <row r="2" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="141" t="s">
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="146" t="s">
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="146"/>
+      <c r="P2" s="151"/>
       <c r="Q2" s="128" t="s">
         <v>3</v>
       </c>
@@ -6760,14 +6766,14 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="241" t="s">
+      <c r="E4" s="242" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -6780,28 +6786,28 @@
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="141" t="s">
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="146" t="s">
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="146"/>
+      <c r="P5" s="151"/>
       <c r="Q5" s="128" t="s">
         <v>3</v>
       </c>
@@ -6814,11 +6820,11 @@
       <c r="T5" s="22"/>
     </row>
     <row r="6" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="242"/>
-      <c r="C6" s="242"/>
+      <c r="B6" s="243"/>
+      <c r="C6" s="243"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -6838,11 +6844,11 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="155" t="s">
+      <c r="A7" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="242"/>
-      <c r="C7" s="242"/>
+      <c r="B7" s="243"/>
+      <c r="C7" s="243"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -6862,11 +6868,11 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="155" t="s">
+      <c r="A8" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="242"/>
-      <c r="C8" s="242"/>
+      <c r="B8" s="243"/>
+      <c r="C8" s="243"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -6893,15 +6899,15 @@
       <c r="E9" s="238" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="243"/>
-      <c r="G9" s="243"/>
-      <c r="H9" s="243"/>
-      <c r="I9" s="243"/>
-      <c r="J9" s="243"/>
-      <c r="K9" s="243"/>
-      <c r="L9" s="243"/>
-      <c r="M9" s="243"/>
-      <c r="N9" s="243"/>
+      <c r="F9" s="239"/>
+      <c r="G9" s="239"/>
+      <c r="H9" s="239"/>
+      <c r="I9" s="239"/>
+      <c r="J9" s="239"/>
+      <c r="K9" s="239"/>
+      <c r="L9" s="239"/>
+      <c r="M9" s="239"/>
+      <c r="N9" s="239"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -6914,16 +6920,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
-      <c r="G10" s="243"/>
-      <c r="H10" s="243"/>
-      <c r="I10" s="243"/>
-      <c r="J10" s="243"/>
-      <c r="K10" s="243"/>
-      <c r="L10" s="243"/>
-      <c r="M10" s="243"/>
-      <c r="N10" s="243"/>
+      <c r="E10" s="239"/>
+      <c r="F10" s="239"/>
+      <c r="G10" s="239"/>
+      <c r="H10" s="239"/>
+      <c r="I10" s="239"/>
+      <c r="J10" s="239"/>
+      <c r="K10" s="239"/>
+      <c r="L10" s="239"/>
+      <c r="M10" s="239"/>
+      <c r="N10" s="239"/>
       <c r="O10" s="133"/>
       <c r="P10" s="131"/>
       <c r="Q10" s="5"/>
@@ -6936,16 +6942,16 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="243"/>
-      <c r="F11" s="243"/>
-      <c r="G11" s="243"/>
-      <c r="H11" s="243"/>
-      <c r="I11" s="243"/>
-      <c r="J11" s="243"/>
-      <c r="K11" s="243"/>
-      <c r="L11" s="243"/>
-      <c r="M11" s="243"/>
-      <c r="N11" s="243"/>
+      <c r="E11" s="239"/>
+      <c r="F11" s="239"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="239"/>
+      <c r="I11" s="239"/>
+      <c r="J11" s="239"/>
+      <c r="K11" s="239"/>
+      <c r="L11" s="239"/>
+      <c r="M11" s="239"/>
+      <c r="N11" s="239"/>
       <c r="O11" s="133"/>
       <c r="P11" s="131"/>
       <c r="Q11" s="5"/>
@@ -6958,16 +6964,16 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="243"/>
-      <c r="F12" s="243"/>
-      <c r="G12" s="243"/>
-      <c r="H12" s="243"/>
-      <c r="I12" s="243"/>
-      <c r="J12" s="243"/>
-      <c r="K12" s="243"/>
-      <c r="L12" s="243"/>
-      <c r="M12" s="243"/>
-      <c r="N12" s="243"/>
+      <c r="E12" s="239"/>
+      <c r="F12" s="239"/>
+      <c r="G12" s="239"/>
+      <c r="H12" s="239"/>
+      <c r="I12" s="239"/>
+      <c r="J12" s="239"/>
+      <c r="K12" s="239"/>
+      <c r="L12" s="239"/>
+      <c r="M12" s="239"/>
+      <c r="N12" s="239"/>
       <c r="O12" s="133"/>
       <c r="P12" s="131"/>
       <c r="Q12" s="5"/>
@@ -7003,23 +7009,23 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="153" t="s">
+      <c r="F14" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="148" t="str">
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="158" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J13:Q13</f>
         <v>Иванов И.И.</v>
       </c>
-      <c r="K14" s="148"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="148"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="158"/>
+      <c r="Q14" s="158"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="4"/>
@@ -7030,23 +7036,23 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="153" t="s">
+      <c r="F15" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="148" t="str">
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="158" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J14:Q14</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K15" s="148"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="148"/>
-      <c r="N15" s="148"/>
-      <c r="O15" s="148"/>
-      <c r="P15" s="148"/>
-      <c r="Q15" s="148"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="158"/>
+      <c r="M15" s="158"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="158"/>
+      <c r="P15" s="158"/>
+      <c r="Q15" s="158"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="4"/>
@@ -7057,23 +7063,23 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="153" t="s">
+      <c r="F16" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="148" t="str">
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="158" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J15:Q15</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K16" s="148"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="148"/>
-      <c r="N16" s="148"/>
-      <c r="O16" s="148"/>
-      <c r="P16" s="148"/>
-      <c r="Q16" s="148"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="158"/>
+      <c r="P16" s="158"/>
+      <c r="Q16" s="158"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -7084,23 +7090,23 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="153" t="s">
+      <c r="F17" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="148" t="str">
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="158" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J16:Q16</f>
         <v>восьмой</v>
       </c>
-      <c r="K17" s="148"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="148"/>
-      <c r="N17" s="148"/>
-      <c r="O17" s="148"/>
-      <c r="P17" s="148"/>
-      <c r="Q17" s="148"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="158"/>
+      <c r="M17" s="158"/>
+      <c r="N17" s="158"/>
+      <c r="O17" s="158"/>
+      <c r="P17" s="158"/>
+      <c r="Q17" s="158"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="4"/>
@@ -7111,23 +7117,23 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="153" t="s">
+      <c r="F18" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="148" t="str">
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="158" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J17:Q17</f>
         <v>кухня</v>
       </c>
-      <c r="K18" s="148"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="148"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="158"/>
+      <c r="M18" s="158"/>
+      <c r="N18" s="158"/>
+      <c r="O18" s="158"/>
+      <c r="P18" s="158"/>
+      <c r="Q18" s="158"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="4"/>
@@ -7138,23 +7144,23 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="153" t="s">
+      <c r="F19" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="148" t="str">
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="158" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J18:Q18</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K19" s="148"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="148"/>
-      <c r="P19" s="148"/>
-      <c r="Q19" s="148"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="158"/>
+      <c r="P19" s="158"/>
+      <c r="Q19" s="158"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="4"/>
@@ -7165,23 +7171,23 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="153" t="s">
+      <c r="F20" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="148">
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="158">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J19:Q19</f>
         <v>500</v>
       </c>
-      <c r="K20" s="148"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="148"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="148"/>
-      <c r="P20" s="148"/>
-      <c r="Q20" s="148"/>
+      <c r="K20" s="158"/>
+      <c r="L20" s="158"/>
+      <c r="M20" s="158"/>
+      <c r="N20" s="158"/>
+      <c r="O20" s="158"/>
+      <c r="P20" s="158"/>
+      <c r="Q20" s="158"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="4"/>
@@ -7192,23 +7198,23 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="153" t="s">
+      <c r="F21" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="148" t="str">
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="158" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J20:Q20</f>
         <v>1-15,16</v>
       </c>
-      <c r="K21" s="148"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148"/>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="148"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="158"/>
+      <c r="M21" s="158"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="158"/>
+      <c r="P21" s="158"/>
+      <c r="Q21" s="158"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="4"/>
@@ -7264,12 +7270,12 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="143" t="s">
+      <c r="G24" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -7282,29 +7288,29 @@
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="145" t="s">
+      <c r="A25" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="146" t="str">
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="151" t="str">
         <f>builder</f>
         <v>_____________________</v>
       </c>
-      <c r="L25" s="146"/>
-      <c r="M25" s="146"/>
-      <c r="N25" s="146"/>
-      <c r="O25" s="146" t="s">
+      <c r="L25" s="151"/>
+      <c r="M25" s="151"/>
+      <c r="N25" s="151"/>
+      <c r="O25" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P25" s="146"/>
+      <c r="P25" s="151"/>
       <c r="Q25" s="140" t="s">
         <v>3</v>
       </c>
@@ -7313,7 +7319,7 @@
       </c>
       <c r="S25" s="114">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="T25" s="22"/>
     </row>
@@ -7346,12 +7352,12 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="143" t="s">
+      <c r="G27" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -7364,28 +7370,28 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="141" t="s">
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="146" t="s">
+      <c r="L28" s="163"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="163"/>
+      <c r="O28" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="146"/>
+      <c r="P28" s="151"/>
       <c r="Q28" s="140" t="s">
         <v>3</v>
       </c>
@@ -7394,33 +7400,33 @@
       </c>
       <c r="S28" s="114">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="T28" s="22"/>
     </row>
     <row r="29" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="147" t="s">
+      <c r="A29" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="141" t="s">
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="146" t="s">
+      <c r="L29" s="163"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="163"/>
+      <c r="O29" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="146"/>
+      <c r="P29" s="151"/>
       <c r="Q29" s="140" t="s">
         <v>3</v>
       </c>
@@ -7429,7 +7435,7 @@
       </c>
       <c r="S29" s="114">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="T29" s="22"/>
     </row>
@@ -7462,12 +7468,12 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="143" t="s">
+      <c r="G31" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="144"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -7480,28 +7486,28 @@
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="141" t="s">
+      <c r="B32" s="165"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="146" t="s">
+      <c r="L32" s="163"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="146"/>
+      <c r="P32" s="151"/>
       <c r="Q32" s="140" t="s">
         <v>3</v>
       </c>
@@ -7510,7 +7516,7 @@
       </c>
       <c r="S32" s="114">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="T32" s="22"/>
     </row>
@@ -7543,12 +7549,12 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="143" t="s">
+      <c r="G34" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="144"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -7561,28 +7567,28 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="147" t="s">
+      <c r="A35" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="141" t="s">
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="141"/>
-      <c r="M35" s="141"/>
-      <c r="N35" s="141"/>
-      <c r="O35" s="146" t="s">
+      <c r="L35" s="163"/>
+      <c r="M35" s="163"/>
+      <c r="N35" s="163"/>
+      <c r="O35" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P35" s="146"/>
+      <c r="P35" s="151"/>
       <c r="Q35" s="140" t="s">
         <v>3</v>
       </c>
@@ -7591,7 +7597,7 @@
       </c>
       <c r="S35" s="114">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="T35" s="22"/>
     </row>
@@ -7619,17 +7625,26 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="E9:N12"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="J16:Q16"/>
     <mergeCell ref="K28:N28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="F14:I14"/>
@@ -7646,26 +7661,17 @@
     <mergeCell ref="A25:J25"/>
     <mergeCell ref="K25:N25"/>
     <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="E9:N12"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:P32"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -7700,40 +7706,40 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="168" t="s">
+      <c r="A10" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="168"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="168"/>
-      <c r="O10" s="168"/>
-      <c r="P10" s="168"/>
-      <c r="Q10" s="168"/>
-      <c r="R10" s="168"/>
-      <c r="S10" s="168"/>
-      <c r="T10" s="168"/>
-      <c r="U10" s="168"/>
-      <c r="V10" s="168"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="171"/>
+      <c r="O10" s="171"/>
+      <c r="P10" s="171"/>
+      <c r="Q10" s="171"/>
+      <c r="R10" s="171"/>
+      <c r="S10" s="171"/>
+      <c r="T10" s="171"/>
+      <c r="U10" s="171"/>
+      <c r="V10" s="171"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G12" s="39"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="169"/>
-      <c r="L12" s="169"/>
-      <c r="M12" s="169"/>
-      <c r="N12" s="169"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="172"/>
+      <c r="N12" s="172"/>
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
     </row>
@@ -7741,15 +7747,15 @@
       <c r="G13" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="170" t="s">
+      <c r="H13" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="171"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="171"/>
-      <c r="M13" s="171"/>
-      <c r="N13" s="172"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="174"/>
+      <c r="M13" s="174"/>
+      <c r="N13" s="175"/>
       <c r="O13" s="34" t="s">
         <v>39</v>
       </c>
@@ -7761,15 +7767,15 @@
       <c r="G14" s="34">
         <v>2</v>
       </c>
-      <c r="H14" s="173" t="s">
+      <c r="H14" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="174"/>
-      <c r="J14" s="174"/>
-      <c r="K14" s="174"/>
-      <c r="L14" s="174"/>
-      <c r="M14" s="174"/>
-      <c r="N14" s="175"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="178"/>
       <c r="O14" s="34" t="s">
         <v>41</v>
       </c>
@@ -7779,15 +7785,15 @@
       <c r="G15" s="34">
         <v>3</v>
       </c>
-      <c r="H15" s="173" t="s">
+      <c r="H15" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="174"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="174"/>
-      <c r="L15" s="174"/>
-      <c r="M15" s="174"/>
-      <c r="N15" s="175"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="178"/>
       <c r="O15" s="34" t="s">
         <v>36</v>
       </c>
@@ -7799,15 +7805,15 @@
       <c r="G16" s="34">
         <v>4</v>
       </c>
-      <c r="H16" s="173" t="s">
+      <c r="H16" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="174"/>
-      <c r="J16" s="174"/>
-      <c r="K16" s="174"/>
-      <c r="L16" s="174"/>
-      <c r="M16" s="174"/>
-      <c r="N16" s="175"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="178"/>
       <c r="O16" s="34" t="s">
         <v>43</v>
       </c>
@@ -7817,15 +7823,15 @@
       <c r="G17" s="34">
         <v>5</v>
       </c>
-      <c r="H17" s="173" t="s">
+      <c r="H17" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="174"/>
-      <c r="J17" s="174"/>
-      <c r="K17" s="174"/>
-      <c r="L17" s="174"/>
-      <c r="M17" s="174"/>
-      <c r="N17" s="175"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="178"/>
       <c r="O17" s="34" t="s">
         <v>43</v>
       </c>
@@ -7835,15 +7841,15 @@
       <c r="G18" s="34">
         <v>6</v>
       </c>
-      <c r="H18" s="173" t="s">
+      <c r="H18" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
-      <c r="L18" s="174"/>
-      <c r="M18" s="174"/>
-      <c r="N18" s="175"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="178"/>
       <c r="O18" s="34" t="s">
         <v>43</v>
       </c>
@@ -7853,15 +7859,15 @@
       <c r="G19" s="34">
         <v>7</v>
       </c>
-      <c r="H19" s="173" t="s">
+      <c r="H19" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="174"/>
-      <c r="J19" s="174"/>
-      <c r="K19" s="174"/>
-      <c r="L19" s="174"/>
-      <c r="M19" s="174"/>
-      <c r="N19" s="175"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="177"/>
+      <c r="L19" s="177"/>
+      <c r="M19" s="177"/>
+      <c r="N19" s="178"/>
       <c r="O19" s="34" t="s">
         <v>43</v>
       </c>
@@ -7871,15 +7877,15 @@
       <c r="G20" s="34">
         <v>8</v>
       </c>
-      <c r="H20" s="173" t="s">
+      <c r="H20" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="174"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="174"/>
-      <c r="L20" s="174"/>
-      <c r="M20" s="174"/>
-      <c r="N20" s="175"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="178"/>
       <c r="O20" s="34" t="s">
         <v>43</v>
       </c>
@@ -7887,301 +7893,301 @@
     </row>
     <row r="21" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G21" s="39"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="177"/>
-      <c r="K21" s="177"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="177"/>
-      <c r="N21" s="177"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="179"/>
+      <c r="M21" s="179"/>
+      <c r="N21" s="179"/>
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
     </row>
     <row r="22" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G22" s="33"/>
-      <c r="H22" s="176"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="176"/>
-      <c r="K22" s="176"/>
-      <c r="L22" s="176"/>
-      <c r="M22" s="176"/>
-      <c r="N22" s="176"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="168"/>
+      <c r="K22" s="168"/>
+      <c r="L22" s="168"/>
+      <c r="M22" s="168"/>
+      <c r="N22" s="168"/>
       <c r="O22" s="33"/>
       <c r="P22" s="36"/>
     </row>
     <row r="23" spans="7:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G23" s="33"/>
-      <c r="H23" s="176"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="176"/>
-      <c r="K23" s="176"/>
-      <c r="L23" s="176"/>
-      <c r="M23" s="176"/>
-      <c r="N23" s="176"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="168"/>
+      <c r="L23" s="168"/>
+      <c r="M23" s="168"/>
+      <c r="N23" s="168"/>
       <c r="O23" s="33"/>
       <c r="P23" s="37"/>
     </row>
     <row r="24" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G24" s="33"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="176"/>
-      <c r="K24" s="176"/>
-      <c r="L24" s="176"/>
-      <c r="M24" s="176"/>
-      <c r="N24" s="176"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="168"/>
+      <c r="K24" s="168"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="168"/>
+      <c r="N24" s="168"/>
       <c r="O24" s="33"/>
       <c r="P24" s="36"/>
     </row>
     <row r="25" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25" s="33"/>
-      <c r="H25" s="176"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="176"/>
-      <c r="K25" s="176"/>
-      <c r="L25" s="176"/>
-      <c r="M25" s="176"/>
-      <c r="N25" s="176"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="168"/>
+      <c r="J25" s="168"/>
+      <c r="K25" s="168"/>
+      <c r="L25" s="168"/>
+      <c r="M25" s="168"/>
+      <c r="N25" s="168"/>
       <c r="O25" s="33"/>
       <c r="P25" s="36"/>
     </row>
     <row r="26" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G26" s="33"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="176"/>
-      <c r="K26" s="176"/>
-      <c r="L26" s="176"/>
-      <c r="M26" s="176"/>
-      <c r="N26" s="176"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="168"/>
+      <c r="K26" s="168"/>
+      <c r="L26" s="168"/>
+      <c r="M26" s="168"/>
+      <c r="N26" s="168"/>
       <c r="O26" s="33"/>
       <c r="P26" s="36"/>
     </row>
     <row r="27" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G27" s="33"/>
-      <c r="H27" s="176"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="176"/>
-      <c r="K27" s="176"/>
-      <c r="L27" s="176"/>
-      <c r="M27" s="176"/>
-      <c r="N27" s="176"/>
+      <c r="H27" s="168"/>
+      <c r="I27" s="168"/>
+      <c r="J27" s="168"/>
+      <c r="K27" s="168"/>
+      <c r="L27" s="168"/>
+      <c r="M27" s="168"/>
+      <c r="N27" s="168"/>
       <c r="O27" s="33"/>
       <c r="P27" s="36"/>
     </row>
     <row r="28" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G28" s="33"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="176"/>
-      <c r="K28" s="176"/>
-      <c r="L28" s="176"/>
-      <c r="M28" s="176"/>
-      <c r="N28" s="176"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="168"/>
+      <c r="J28" s="168"/>
+      <c r="K28" s="168"/>
+      <c r="L28" s="168"/>
+      <c r="M28" s="168"/>
+      <c r="N28" s="168"/>
       <c r="O28" s="33"/>
       <c r="P28" s="36"/>
     </row>
     <row r="29" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G29" s="33"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="176"/>
-      <c r="K29" s="176"/>
-      <c r="L29" s="176"/>
-      <c r="M29" s="176"/>
-      <c r="N29" s="176"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="168"/>
+      <c r="K29" s="168"/>
+      <c r="L29" s="168"/>
+      <c r="M29" s="168"/>
+      <c r="N29" s="168"/>
       <c r="O29" s="33"/>
       <c r="P29" s="36"/>
     </row>
     <row r="30" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G30" s="33"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="176"/>
-      <c r="L30" s="176"/>
-      <c r="M30" s="176"/>
-      <c r="N30" s="176"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="168"/>
+      <c r="K30" s="168"/>
+      <c r="L30" s="168"/>
+      <c r="M30" s="168"/>
+      <c r="N30" s="168"/>
       <c r="O30" s="33"/>
       <c r="P30" s="36"/>
     </row>
     <row r="31" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G31" s="33"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="176"/>
-      <c r="K31" s="176"/>
-      <c r="L31" s="176"/>
-      <c r="M31" s="176"/>
-      <c r="N31" s="176"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="168"/>
+      <c r="K31" s="168"/>
+      <c r="L31" s="168"/>
+      <c r="M31" s="168"/>
+      <c r="N31" s="168"/>
       <c r="O31" s="33"/>
       <c r="P31" s="36"/>
     </row>
     <row r="32" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G32" s="33"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="176"/>
-      <c r="M32" s="176"/>
-      <c r="N32" s="176"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="168"/>
+      <c r="K32" s="168"/>
+      <c r="L32" s="168"/>
+      <c r="M32" s="168"/>
+      <c r="N32" s="168"/>
       <c r="O32" s="33"/>
       <c r="P32" s="36"/>
     </row>
     <row r="33" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G33" s="33"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="176"/>
-      <c r="K33" s="176"/>
-      <c r="L33" s="176"/>
-      <c r="M33" s="176"/>
-      <c r="N33" s="176"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="168"/>
+      <c r="J33" s="168"/>
+      <c r="K33" s="168"/>
+      <c r="L33" s="168"/>
+      <c r="M33" s="168"/>
+      <c r="N33" s="168"/>
       <c r="O33" s="33"/>
       <c r="P33" s="36"/>
     </row>
     <row r="34" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G34" s="33"/>
-      <c r="H34" s="176"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="176"/>
-      <c r="K34" s="176"/>
-      <c r="L34" s="176"/>
-      <c r="M34" s="176"/>
-      <c r="N34" s="176"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="168"/>
+      <c r="J34" s="168"/>
+      <c r="K34" s="168"/>
+      <c r="L34" s="168"/>
+      <c r="M34" s="168"/>
+      <c r="N34" s="168"/>
       <c r="O34" s="33"/>
       <c r="P34" s="36"/>
     </row>
     <row r="35" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G35" s="33"/>
-      <c r="H35" s="176"/>
-      <c r="I35" s="176"/>
-      <c r="J35" s="176"/>
-      <c r="K35" s="176"/>
-      <c r="L35" s="176"/>
-      <c r="M35" s="176"/>
-      <c r="N35" s="176"/>
+      <c r="H35" s="168"/>
+      <c r="I35" s="168"/>
+      <c r="J35" s="168"/>
+      <c r="K35" s="168"/>
+      <c r="L35" s="168"/>
+      <c r="M35" s="168"/>
+      <c r="N35" s="168"/>
       <c r="O35" s="33"/>
       <c r="P35" s="36"/>
     </row>
     <row r="36" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G36" s="33"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="176"/>
-      <c r="K36" s="176"/>
-      <c r="L36" s="176"/>
-      <c r="M36" s="176"/>
-      <c r="N36" s="176"/>
+      <c r="H36" s="168"/>
+      <c r="I36" s="168"/>
+      <c r="J36" s="168"/>
+      <c r="K36" s="168"/>
+      <c r="L36" s="168"/>
+      <c r="M36" s="168"/>
+      <c r="N36" s="168"/>
       <c r="O36" s="33"/>
       <c r="P36" s="36"/>
     </row>
     <row r="37" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G37" s="33"/>
-      <c r="H37" s="176"/>
-      <c r="I37" s="176"/>
-      <c r="J37" s="176"/>
-      <c r="K37" s="176"/>
-      <c r="L37" s="176"/>
-      <c r="M37" s="176"/>
-      <c r="N37" s="176"/>
+      <c r="H37" s="168"/>
+      <c r="I37" s="168"/>
+      <c r="J37" s="168"/>
+      <c r="K37" s="168"/>
+      <c r="L37" s="168"/>
+      <c r="M37" s="168"/>
+      <c r="N37" s="168"/>
       <c r="O37" s="33"/>
       <c r="P37" s="36"/>
     </row>
     <row r="38" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G38" s="33"/>
-      <c r="H38" s="176"/>
-      <c r="I38" s="176"/>
-      <c r="J38" s="176"/>
-      <c r="K38" s="176"/>
-      <c r="L38" s="176"/>
-      <c r="M38" s="176"/>
-      <c r="N38" s="176"/>
+      <c r="H38" s="168"/>
+      <c r="I38" s="168"/>
+      <c r="J38" s="168"/>
+      <c r="K38" s="168"/>
+      <c r="L38" s="168"/>
+      <c r="M38" s="168"/>
+      <c r="N38" s="168"/>
       <c r="O38" s="33"/>
       <c r="P38" s="36"/>
     </row>
     <row r="39" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G39" s="33"/>
-      <c r="H39" s="176"/>
-      <c r="I39" s="176"/>
-      <c r="J39" s="176"/>
-      <c r="K39" s="176"/>
-      <c r="L39" s="176"/>
-      <c r="M39" s="176"/>
-      <c r="N39" s="176"/>
+      <c r="H39" s="168"/>
+      <c r="I39" s="168"/>
+      <c r="J39" s="168"/>
+      <c r="K39" s="168"/>
+      <c r="L39" s="168"/>
+      <c r="M39" s="168"/>
+      <c r="N39" s="168"/>
       <c r="O39" s="33"/>
       <c r="P39" s="36"/>
     </row>
     <row r="40" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G40" s="33"/>
-      <c r="H40" s="176"/>
-      <c r="I40" s="176"/>
-      <c r="J40" s="176"/>
-      <c r="K40" s="176"/>
-      <c r="L40" s="176"/>
-      <c r="M40" s="176"/>
-      <c r="N40" s="176"/>
+      <c r="H40" s="168"/>
+      <c r="I40" s="168"/>
+      <c r="J40" s="168"/>
+      <c r="K40" s="168"/>
+      <c r="L40" s="168"/>
+      <c r="M40" s="168"/>
+      <c r="N40" s="168"/>
       <c r="O40" s="33"/>
       <c r="P40" s="36"/>
     </row>
     <row r="41" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G41" s="33"/>
-      <c r="H41" s="176"/>
-      <c r="I41" s="176"/>
-      <c r="J41" s="176"/>
-      <c r="K41" s="176"/>
-      <c r="L41" s="176"/>
-      <c r="M41" s="176"/>
-      <c r="N41" s="176"/>
+      <c r="H41" s="168"/>
+      <c r="I41" s="168"/>
+      <c r="J41" s="168"/>
+      <c r="K41" s="168"/>
+      <c r="L41" s="168"/>
+      <c r="M41" s="168"/>
+      <c r="N41" s="168"/>
       <c r="O41" s="33"/>
       <c r="P41" s="36"/>
     </row>
     <row r="42" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G42" s="33"/>
-      <c r="H42" s="176"/>
-      <c r="I42" s="176"/>
-      <c r="J42" s="176"/>
-      <c r="K42" s="176"/>
-      <c r="L42" s="176"/>
-      <c r="M42" s="176"/>
-      <c r="N42" s="176"/>
+      <c r="H42" s="168"/>
+      <c r="I42" s="168"/>
+      <c r="J42" s="168"/>
+      <c r="K42" s="168"/>
+      <c r="L42" s="168"/>
+      <c r="M42" s="168"/>
+      <c r="N42" s="168"/>
       <c r="O42" s="33"/>
       <c r="P42" s="36"/>
     </row>
     <row r="43" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G43" s="33"/>
-      <c r="H43" s="176"/>
-      <c r="I43" s="176"/>
-      <c r="J43" s="176"/>
-      <c r="K43" s="176"/>
-      <c r="L43" s="176"/>
-      <c r="M43" s="176"/>
-      <c r="N43" s="176"/>
+      <c r="H43" s="168"/>
+      <c r="I43" s="168"/>
+      <c r="J43" s="168"/>
+      <c r="K43" s="168"/>
+      <c r="L43" s="168"/>
+      <c r="M43" s="168"/>
+      <c r="N43" s="168"/>
       <c r="O43" s="33"/>
       <c r="P43" s="36"/>
     </row>
     <row r="44" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G44" s="33"/>
-      <c r="H44" s="176"/>
-      <c r="I44" s="176"/>
-      <c r="J44" s="176"/>
-      <c r="K44" s="176"/>
-      <c r="L44" s="176"/>
-      <c r="M44" s="176"/>
-      <c r="N44" s="176"/>
+      <c r="H44" s="168"/>
+      <c r="I44" s="168"/>
+      <c r="J44" s="168"/>
+      <c r="K44" s="168"/>
+      <c r="L44" s="168"/>
+      <c r="M44" s="168"/>
+      <c r="N44" s="168"/>
       <c r="O44" s="33"/>
       <c r="P44" s="36"/>
     </row>
     <row r="45" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G45" s="33"/>
-      <c r="H45" s="176"/>
-      <c r="I45" s="176"/>
-      <c r="J45" s="176"/>
-      <c r="K45" s="176"/>
-      <c r="L45" s="176"/>
-      <c r="M45" s="176"/>
-      <c r="N45" s="176"/>
+      <c r="H45" s="168"/>
+      <c r="I45" s="168"/>
+      <c r="J45" s="168"/>
+      <c r="K45" s="168"/>
+      <c r="L45" s="168"/>
+      <c r="M45" s="168"/>
+      <c r="N45" s="168"/>
       <c r="O45" s="33"/>
       <c r="P45" s="36"/>
     </row>
@@ -8191,36 +8197,56 @@
     <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Y57" s="41">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
     </row>
     <row r="58" spans="2:25" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B58" s="178" t="str">
+      <c r="B58" s="169" t="str">
         <f ca="1">"Москва " &amp; YEAR(Y57)</f>
         <v>Москва 2019</v>
       </c>
-      <c r="C58" s="179"/>
-      <c r="D58" s="179"/>
-      <c r="E58" s="179"/>
-      <c r="F58" s="179"/>
-      <c r="G58" s="179"/>
-      <c r="H58" s="179"/>
-      <c r="I58" s="179"/>
-      <c r="J58" s="179"/>
-      <c r="K58" s="179"/>
-      <c r="L58" s="179"/>
-      <c r="M58" s="179"/>
-      <c r="N58" s="179"/>
-      <c r="O58" s="179"/>
-      <c r="P58" s="179"/>
-      <c r="Q58" s="179"/>
-      <c r="R58" s="179"/>
-      <c r="S58" s="179"/>
-      <c r="T58" s="179"/>
-      <c r="U58" s="179"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="170"/>
+      <c r="E58" s="170"/>
+      <c r="F58" s="170"/>
+      <c r="G58" s="170"/>
+      <c r="H58" s="170"/>
+      <c r="I58" s="170"/>
+      <c r="J58" s="170"/>
+      <c r="K58" s="170"/>
+      <c r="L58" s="170"/>
+      <c r="M58" s="170"/>
+      <c r="N58" s="170"/>
+      <c r="O58" s="170"/>
+      <c r="P58" s="170"/>
+      <c r="Q58" s="170"/>
+      <c r="R58" s="170"/>
+      <c r="S58" s="170"/>
+      <c r="T58" s="170"/>
+      <c r="U58" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A10:V10"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="H35:N35"/>
+    <mergeCell ref="H36:N36"/>
     <mergeCell ref="H26:N26"/>
     <mergeCell ref="H27:N27"/>
     <mergeCell ref="H28:N28"/>
@@ -8237,26 +8263,6 @@
     <mergeCell ref="H39:N39"/>
     <mergeCell ref="H40:N40"/>
     <mergeCell ref="H31:N31"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="H35:N35"/>
-    <mergeCell ref="H36:N36"/>
-    <mergeCell ref="A10:V10"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H25:N25"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="H16:N16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -8272,7 +8278,7 @@
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:R2"/>
     </sheetView>
   </sheetViews>
@@ -8285,799 +8291,799 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="183"/>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="185"/>
+      <c r="A1" s="211"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="213"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="188"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="216"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="180"/>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="181"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="182"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="187"/>
     </row>
     <row r="4" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="180"/>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="181"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="181"/>
-      <c r="O4" s="181"/>
-      <c r="P4" s="181"/>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="182"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="186"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="186"/>
+      <c r="O4" s="186"/>
+      <c r="P4" s="186"/>
+      <c r="Q4" s="186"/>
+      <c r="R4" s="187"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="180"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="182"/>
+      <c r="A5" s="185"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="186"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="186"/>
+      <c r="N5" s="186"/>
+      <c r="O5" s="186"/>
+      <c r="P5" s="186"/>
+      <c r="Q5" s="186"/>
+      <c r="R5" s="187"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="180"/>
-      <c r="B6" s="181"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="181"/>
-      <c r="K6" s="181"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="181"/>
-      <c r="N6" s="181"/>
-      <c r="O6" s="181"/>
-      <c r="P6" s="181"/>
-      <c r="Q6" s="181"/>
-      <c r="R6" s="182"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="186"/>
+      <c r="N6" s="186"/>
+      <c r="O6" s="186"/>
+      <c r="P6" s="186"/>
+      <c r="Q6" s="186"/>
+      <c r="R6" s="187"/>
     </row>
     <row r="7" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="181"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
-      <c r="K7" s="181"/>
-      <c r="L7" s="181"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="181"/>
-      <c r="O7" s="181"/>
-      <c r="P7" s="181"/>
-      <c r="Q7" s="181"/>
-      <c r="R7" s="182"/>
+      <c r="A7" s="185"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="186"/>
+      <c r="L7" s="186"/>
+      <c r="M7" s="186"/>
+      <c r="N7" s="186"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="186"/>
+      <c r="R7" s="187"/>
     </row>
     <row r="8" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="180"/>
-      <c r="B8" s="181"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="181"/>
-      <c r="L8" s="181"/>
-      <c r="M8" s="181"/>
-      <c r="N8" s="181"/>
-      <c r="O8" s="181"/>
-      <c r="P8" s="181"/>
-      <c r="Q8" s="181"/>
-      <c r="R8" s="182"/>
+      <c r="A8" s="185"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="186"/>
+      <c r="N8" s="186"/>
+      <c r="O8" s="186"/>
+      <c r="P8" s="186"/>
+      <c r="Q8" s="186"/>
+      <c r="R8" s="187"/>
     </row>
     <row r="9" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="180"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="181"/>
-      <c r="M9" s="181"/>
-      <c r="N9" s="181"/>
-      <c r="O9" s="181"/>
-      <c r="P9" s="181"/>
-      <c r="Q9" s="181"/>
-      <c r="R9" s="182"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="186"/>
+      <c r="L9" s="186"/>
+      <c r="M9" s="186"/>
+      <c r="N9" s="186"/>
+      <c r="O9" s="186"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="187"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="180"/>
-      <c r="B10" s="181"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="182"/>
+      <c r="A10" s="185"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="186"/>
+      <c r="L10" s="186"/>
+      <c r="M10" s="186"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="186"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="187"/>
     </row>
     <row r="11" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="180"/>
-      <c r="B11" s="181"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="181"/>
-      <c r="L11" s="181"/>
-      <c r="M11" s="181"/>
-      <c r="N11" s="181"/>
-      <c r="O11" s="181"/>
-      <c r="P11" s="181"/>
-      <c r="Q11" s="181"/>
-      <c r="R11" s="182"/>
+      <c r="A11" s="185"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="186"/>
+      <c r="J11" s="186"/>
+      <c r="K11" s="186"/>
+      <c r="L11" s="186"/>
+      <c r="M11" s="186"/>
+      <c r="N11" s="186"/>
+      <c r="O11" s="186"/>
+      <c r="P11" s="186"/>
+      <c r="Q11" s="186"/>
+      <c r="R11" s="187"/>
     </row>
     <row r="12" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="180"/>
-      <c r="B12" s="181"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="181"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="181"/>
-      <c r="I12" s="181"/>
-      <c r="J12" s="181"/>
-      <c r="K12" s="181"/>
-      <c r="L12" s="181"/>
-      <c r="M12" s="181"/>
-      <c r="N12" s="181"/>
-      <c r="O12" s="181"/>
-      <c r="P12" s="181"/>
-      <c r="Q12" s="181"/>
-      <c r="R12" s="182"/>
+      <c r="A12" s="185"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="186"/>
+      <c r="J12" s="186"/>
+      <c r="K12" s="186"/>
+      <c r="L12" s="186"/>
+      <c r="M12" s="186"/>
+      <c r="N12" s="186"/>
+      <c r="O12" s="186"/>
+      <c r="P12" s="186"/>
+      <c r="Q12" s="186"/>
+      <c r="R12" s="187"/>
     </row>
     <row r="13" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="180"/>
-      <c r="B13" s="181"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="181"/>
-      <c r="L13" s="181"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="181"/>
-      <c r="O13" s="181"/>
-      <c r="P13" s="181"/>
-      <c r="Q13" s="181"/>
-      <c r="R13" s="182"/>
+      <c r="A13" s="185"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="186"/>
+      <c r="L13" s="186"/>
+      <c r="M13" s="186"/>
+      <c r="N13" s="186"/>
+      <c r="O13" s="186"/>
+      <c r="P13" s="186"/>
+      <c r="Q13" s="186"/>
+      <c r="R13" s="187"/>
     </row>
     <row r="14" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="180"/>
-      <c r="B14" s="181"/>
-      <c r="C14" s="181"/>
-      <c r="D14" s="181"/>
-      <c r="E14" s="181"/>
-      <c r="F14" s="181"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="181"/>
-      <c r="L14" s="181"/>
-      <c r="M14" s="181"/>
-      <c r="N14" s="181"/>
-      <c r="O14" s="181"/>
-      <c r="P14" s="181"/>
-      <c r="Q14" s="181"/>
-      <c r="R14" s="182"/>
+      <c r="A14" s="185"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="186"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="186"/>
+      <c r="J14" s="186"/>
+      <c r="K14" s="186"/>
+      <c r="L14" s="186"/>
+      <c r="M14" s="186"/>
+      <c r="N14" s="186"/>
+      <c r="O14" s="186"/>
+      <c r="P14" s="186"/>
+      <c r="Q14" s="186"/>
+      <c r="R14" s="187"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="180"/>
-      <c r="B15" s="181"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="181"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="181"/>
-      <c r="K15" s="181"/>
-      <c r="L15" s="181"/>
-      <c r="M15" s="181"/>
-      <c r="N15" s="181"/>
-      <c r="O15" s="181"/>
-      <c r="P15" s="181"/>
-      <c r="Q15" s="181"/>
-      <c r="R15" s="182"/>
+      <c r="A15" s="185"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="186"/>
+      <c r="K15" s="186"/>
+      <c r="L15" s="186"/>
+      <c r="M15" s="186"/>
+      <c r="N15" s="186"/>
+      <c r="O15" s="186"/>
+      <c r="P15" s="186"/>
+      <c r="Q15" s="186"/>
+      <c r="R15" s="187"/>
     </row>
     <row r="16" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="180"/>
-      <c r="B16" s="181"/>
-      <c r="C16" s="181"/>
-      <c r="D16" s="181"/>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="181"/>
-      <c r="K16" s="181"/>
-      <c r="L16" s="181"/>
-      <c r="M16" s="181"/>
-      <c r="N16" s="181"/>
-      <c r="O16" s="181"/>
-      <c r="P16" s="181"/>
-      <c r="Q16" s="181"/>
-      <c r="R16" s="182"/>
+      <c r="A16" s="185"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="186"/>
+      <c r="L16" s="186"/>
+      <c r="M16" s="186"/>
+      <c r="N16" s="186"/>
+      <c r="O16" s="186"/>
+      <c r="P16" s="186"/>
+      <c r="Q16" s="186"/>
+      <c r="R16" s="187"/>
     </row>
     <row r="17" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="180"/>
-      <c r="B17" s="181"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="181"/>
-      <c r="J17" s="181"/>
-      <c r="K17" s="181"/>
-      <c r="L17" s="181"/>
-      <c r="M17" s="181"/>
-      <c r="N17" s="181"/>
-      <c r="O17" s="181"/>
-      <c r="P17" s="181"/>
-      <c r="Q17" s="181"/>
-      <c r="R17" s="182"/>
+      <c r="A17" s="185"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="186"/>
+      <c r="K17" s="186"/>
+      <c r="L17" s="186"/>
+      <c r="M17" s="186"/>
+      <c r="N17" s="186"/>
+      <c r="O17" s="186"/>
+      <c r="P17" s="186"/>
+      <c r="Q17" s="186"/>
+      <c r="R17" s="187"/>
     </row>
     <row r="18" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="180"/>
-      <c r="B18" s="181"/>
-      <c r="C18" s="181"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="181"/>
-      <c r="F18" s="181"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="181"/>
-      <c r="L18" s="181"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="181"/>
-      <c r="P18" s="181"/>
-      <c r="Q18" s="181"/>
-      <c r="R18" s="182"/>
+      <c r="A18" s="185"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="186"/>
+      <c r="L18" s="186"/>
+      <c r="M18" s="186"/>
+      <c r="N18" s="186"/>
+      <c r="O18" s="186"/>
+      <c r="P18" s="186"/>
+      <c r="Q18" s="186"/>
+      <c r="R18" s="187"/>
     </row>
     <row r="19" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="180"/>
-      <c r="B19" s="181"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="181"/>
-      <c r="J19" s="181"/>
-      <c r="K19" s="181"/>
-      <c r="L19" s="181"/>
-      <c r="M19" s="181"/>
-      <c r="N19" s="181"/>
-      <c r="O19" s="181"/>
-      <c r="P19" s="181"/>
-      <c r="Q19" s="181"/>
-      <c r="R19" s="182"/>
+      <c r="A19" s="185"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="186"/>
+      <c r="K19" s="186"/>
+      <c r="L19" s="186"/>
+      <c r="M19" s="186"/>
+      <c r="N19" s="186"/>
+      <c r="O19" s="186"/>
+      <c r="P19" s="186"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="187"/>
     </row>
     <row r="20" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="180"/>
-      <c r="B20" s="181"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="181"/>
-      <c r="J20" s="181"/>
-      <c r="K20" s="181"/>
-      <c r="L20" s="181"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="181"/>
-      <c r="O20" s="181"/>
-      <c r="P20" s="181"/>
-      <c r="Q20" s="181"/>
-      <c r="R20" s="182"/>
+      <c r="A20" s="185"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="186"/>
+      <c r="L20" s="186"/>
+      <c r="M20" s="186"/>
+      <c r="N20" s="186"/>
+      <c r="O20" s="186"/>
+      <c r="P20" s="186"/>
+      <c r="Q20" s="186"/>
+      <c r="R20" s="187"/>
     </row>
     <row r="21" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="180"/>
-      <c r="B21" s="181"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="181"/>
-      <c r="K21" s="181"/>
-      <c r="L21" s="181"/>
-      <c r="M21" s="181"/>
-      <c r="N21" s="181"/>
-      <c r="O21" s="181"/>
-      <c r="P21" s="181"/>
-      <c r="Q21" s="181"/>
-      <c r="R21" s="182"/>
+      <c r="A21" s="185"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="186"/>
+      <c r="K21" s="186"/>
+      <c r="L21" s="186"/>
+      <c r="M21" s="186"/>
+      <c r="N21" s="186"/>
+      <c r="O21" s="186"/>
+      <c r="P21" s="186"/>
+      <c r="Q21" s="186"/>
+      <c r="R21" s="187"/>
     </row>
     <row r="22" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="180"/>
-      <c r="B22" s="181"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="181"/>
-      <c r="K22" s="181"/>
-      <c r="L22" s="181"/>
-      <c r="M22" s="181"/>
-      <c r="N22" s="181"/>
-      <c r="O22" s="181"/>
-      <c r="P22" s="181"/>
-      <c r="Q22" s="181"/>
-      <c r="R22" s="182"/>
+      <c r="A22" s="185"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="186"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="186"/>
+      <c r="J22" s="186"/>
+      <c r="K22" s="186"/>
+      <c r="L22" s="186"/>
+      <c r="M22" s="186"/>
+      <c r="N22" s="186"/>
+      <c r="O22" s="186"/>
+      <c r="P22" s="186"/>
+      <c r="Q22" s="186"/>
+      <c r="R22" s="187"/>
     </row>
     <row r="23" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="180"/>
-      <c r="B23" s="181"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="181"/>
-      <c r="M23" s="181"/>
-      <c r="N23" s="181"/>
-      <c r="O23" s="181"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="181"/>
-      <c r="R23" s="182"/>
+      <c r="A23" s="185"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="186"/>
+      <c r="K23" s="186"/>
+      <c r="L23" s="186"/>
+      <c r="M23" s="186"/>
+      <c r="N23" s="186"/>
+      <c r="O23" s="186"/>
+      <c r="P23" s="186"/>
+      <c r="Q23" s="186"/>
+      <c r="R23" s="187"/>
     </row>
     <row r="24" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="180"/>
-      <c r="B24" s="181"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="181"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="181"/>
-      <c r="L24" s="181"/>
-      <c r="M24" s="181"/>
-      <c r="N24" s="181"/>
-      <c r="O24" s="181"/>
-      <c r="P24" s="181"/>
-      <c r="Q24" s="181"/>
-      <c r="R24" s="182"/>
+      <c r="A24" s="185"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="186"/>
+      <c r="L24" s="186"/>
+      <c r="M24" s="186"/>
+      <c r="N24" s="186"/>
+      <c r="O24" s="186"/>
+      <c r="P24" s="186"/>
+      <c r="Q24" s="186"/>
+      <c r="R24" s="187"/>
     </row>
     <row r="25" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="180"/>
-      <c r="B25" s="181"/>
-      <c r="C25" s="181"/>
-      <c r="D25" s="181"/>
-      <c r="E25" s="181"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="181"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="181"/>
-      <c r="J25" s="181"/>
-      <c r="K25" s="181"/>
-      <c r="L25" s="181"/>
-      <c r="M25" s="181"/>
-      <c r="N25" s="181"/>
-      <c r="O25" s="181"/>
-      <c r="P25" s="181"/>
-      <c r="Q25" s="181"/>
-      <c r="R25" s="182"/>
+      <c r="A25" s="185"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="186"/>
+      <c r="L25" s="186"/>
+      <c r="M25" s="186"/>
+      <c r="N25" s="186"/>
+      <c r="O25" s="186"/>
+      <c r="P25" s="186"/>
+      <c r="Q25" s="186"/>
+      <c r="R25" s="187"/>
     </row>
     <row r="26" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="180"/>
-      <c r="B26" s="181"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="181"/>
-      <c r="E26" s="181"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="181"/>
-      <c r="L26" s="181"/>
-      <c r="M26" s="181"/>
-      <c r="N26" s="181"/>
-      <c r="O26" s="181"/>
-      <c r="P26" s="181"/>
-      <c r="Q26" s="181"/>
-      <c r="R26" s="182"/>
+      <c r="A26" s="185"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="186"/>
+      <c r="K26" s="186"/>
+      <c r="L26" s="186"/>
+      <c r="M26" s="186"/>
+      <c r="N26" s="186"/>
+      <c r="O26" s="186"/>
+      <c r="P26" s="186"/>
+      <c r="Q26" s="186"/>
+      <c r="R26" s="187"/>
     </row>
     <row r="27" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="180"/>
-      <c r="B27" s="181"/>
-      <c r="C27" s="181"/>
-      <c r="D27" s="181"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="181"/>
-      <c r="L27" s="181"/>
-      <c r="M27" s="181"/>
-      <c r="N27" s="181"/>
-      <c r="O27" s="181"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="181"/>
-      <c r="R27" s="182"/>
+      <c r="A27" s="185"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="186"/>
+      <c r="L27" s="186"/>
+      <c r="M27" s="186"/>
+      <c r="N27" s="186"/>
+      <c r="O27" s="186"/>
+      <c r="P27" s="186"/>
+      <c r="Q27" s="186"/>
+      <c r="R27" s="187"/>
     </row>
     <row r="28" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="180"/>
-      <c r="B28" s="181"/>
-      <c r="C28" s="181"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="181"/>
-      <c r="K28" s="181"/>
-      <c r="L28" s="181"/>
-      <c r="M28" s="181"/>
-      <c r="N28" s="181"/>
-      <c r="O28" s="181"/>
-      <c r="P28" s="181"/>
-      <c r="Q28" s="181"/>
-      <c r="R28" s="182"/>
+      <c r="A28" s="185"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="186"/>
+      <c r="L28" s="186"/>
+      <c r="M28" s="186"/>
+      <c r="N28" s="186"/>
+      <c r="O28" s="186"/>
+      <c r="P28" s="186"/>
+      <c r="Q28" s="186"/>
+      <c r="R28" s="187"/>
     </row>
     <row r="29" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="180"/>
-      <c r="B29" s="181"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="181"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="181"/>
-      <c r="M29" s="181"/>
-      <c r="N29" s="181"/>
-      <c r="O29" s="181"/>
-      <c r="P29" s="181"/>
-      <c r="Q29" s="181"/>
-      <c r="R29" s="182"/>
+      <c r="A29" s="185"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="186"/>
+      <c r="K29" s="186"/>
+      <c r="L29" s="186"/>
+      <c r="M29" s="186"/>
+      <c r="N29" s="186"/>
+      <c r="O29" s="186"/>
+      <c r="P29" s="186"/>
+      <c r="Q29" s="186"/>
+      <c r="R29" s="187"/>
     </row>
     <row r="30" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="180"/>
-      <c r="B30" s="181"/>
-      <c r="C30" s="181"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="181"/>
-      <c r="L30" s="181"/>
-      <c r="M30" s="181"/>
-      <c r="N30" s="181"/>
-      <c r="O30" s="181"/>
-      <c r="P30" s="181"/>
-      <c r="Q30" s="181"/>
-      <c r="R30" s="182"/>
+      <c r="A30" s="185"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="186"/>
+      <c r="L30" s="186"/>
+      <c r="M30" s="186"/>
+      <c r="N30" s="186"/>
+      <c r="O30" s="186"/>
+      <c r="P30" s="186"/>
+      <c r="Q30" s="186"/>
+      <c r="R30" s="187"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="180"/>
-      <c r="B31" s="181"/>
-      <c r="C31" s="181"/>
-      <c r="D31" s="181"/>
-      <c r="E31" s="181"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="181"/>
-      <c r="L31" s="181"/>
-      <c r="M31" s="181"/>
-      <c r="N31" s="181"/>
-      <c r="O31" s="181"/>
-      <c r="P31" s="181"/>
-      <c r="Q31" s="181"/>
-      <c r="R31" s="182"/>
+      <c r="A31" s="185"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="186"/>
+      <c r="K31" s="186"/>
+      <c r="L31" s="186"/>
+      <c r="M31" s="186"/>
+      <c r="N31" s="186"/>
+      <c r="O31" s="186"/>
+      <c r="P31" s="186"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="187"/>
     </row>
     <row r="32" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="180"/>
-      <c r="B32" s="181"/>
-      <c r="C32" s="181"/>
-      <c r="D32" s="181"/>
-      <c r="E32" s="181"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="181"/>
-      <c r="I32" s="181"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="181"/>
-      <c r="L32" s="181"/>
-      <c r="M32" s="181"/>
-      <c r="N32" s="181"/>
-      <c r="O32" s="181"/>
-      <c r="P32" s="181"/>
-      <c r="Q32" s="181"/>
-      <c r="R32" s="182"/>
+      <c r="A32" s="185"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="186"/>
+      <c r="J32" s="186"/>
+      <c r="K32" s="186"/>
+      <c r="L32" s="186"/>
+      <c r="M32" s="186"/>
+      <c r="N32" s="186"/>
+      <c r="O32" s="186"/>
+      <c r="P32" s="186"/>
+      <c r="Q32" s="186"/>
+      <c r="R32" s="187"/>
       <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="180"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="181"/>
-      <c r="E33" s="181"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="181"/>
-      <c r="M33" s="181"/>
-      <c r="N33" s="181"/>
-      <c r="O33" s="181"/>
-      <c r="P33" s="181"/>
-      <c r="Q33" s="181"/>
-      <c r="R33" s="182"/>
+      <c r="A33" s="185"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="186"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="186"/>
+      <c r="K33" s="186"/>
+      <c r="L33" s="186"/>
+      <c r="M33" s="186"/>
+      <c r="N33" s="186"/>
+      <c r="O33" s="186"/>
+      <c r="P33" s="186"/>
+      <c r="Q33" s="186"/>
+      <c r="R33" s="187"/>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="180"/>
-      <c r="B34" s="181"/>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="181"/>
-      <c r="F34" s="181"/>
-      <c r="G34" s="181"/>
-      <c r="H34" s="181"/>
-      <c r="I34" s="181"/>
-      <c r="J34" s="181"/>
-      <c r="K34" s="181"/>
-      <c r="L34" s="181"/>
-      <c r="M34" s="181"/>
-      <c r="N34" s="181"/>
-      <c r="O34" s="181"/>
-      <c r="P34" s="181"/>
-      <c r="Q34" s="181"/>
-      <c r="R34" s="182"/>
+      <c r="A34" s="185"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="186"/>
+      <c r="J34" s="186"/>
+      <c r="K34" s="186"/>
+      <c r="L34" s="186"/>
+      <c r="M34" s="186"/>
+      <c r="N34" s="186"/>
+      <c r="O34" s="186"/>
+      <c r="P34" s="186"/>
+      <c r="Q34" s="186"/>
+      <c r="R34" s="187"/>
       <c r="S34" s="12"/>
     </row>
     <row r="35" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="180"/>
-      <c r="B35" s="181"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="181"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="181"/>
-      <c r="K35" s="181"/>
-      <c r="L35" s="181"/>
-      <c r="M35" s="181"/>
-      <c r="N35" s="181"/>
-      <c r="O35" s="181"/>
-      <c r="P35" s="181"/>
-      <c r="Q35" s="181"/>
-      <c r="R35" s="182"/>
+      <c r="A35" s="185"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="186"/>
+      <c r="K35" s="186"/>
+      <c r="L35" s="186"/>
+      <c r="M35" s="186"/>
+      <c r="N35" s="186"/>
+      <c r="O35" s="186"/>
+      <c r="P35" s="186"/>
+      <c r="Q35" s="186"/>
+      <c r="R35" s="187"/>
       <c r="S35" s="12"/>
     </row>
     <row r="36" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="180"/>
-      <c r="B36" s="181"/>
-      <c r="C36" s="181"/>
-      <c r="D36" s="181"/>
-      <c r="E36" s="181"/>
-      <c r="F36" s="181"/>
-      <c r="G36" s="181"/>
-      <c r="H36" s="181"/>
-      <c r="I36" s="181"/>
-      <c r="J36" s="181"/>
-      <c r="K36" s="181"/>
-      <c r="L36" s="181"/>
-      <c r="M36" s="181"/>
-      <c r="N36" s="181"/>
-      <c r="O36" s="181"/>
-      <c r="P36" s="181"/>
-      <c r="Q36" s="181"/>
-      <c r="R36" s="182"/>
+      <c r="A36" s="185"/>
+      <c r="B36" s="186"/>
+      <c r="C36" s="186"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="186"/>
+      <c r="F36" s="186"/>
+      <c r="G36" s="186"/>
+      <c r="H36" s="186"/>
+      <c r="I36" s="186"/>
+      <c r="J36" s="186"/>
+      <c r="K36" s="186"/>
+      <c r="L36" s="186"/>
+      <c r="M36" s="186"/>
+      <c r="N36" s="186"/>
+      <c r="O36" s="186"/>
+      <c r="P36" s="186"/>
+      <c r="Q36" s="186"/>
+      <c r="R36" s="187"/>
       <c r="S36" s="12"/>
     </row>
     <row r="37" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="180"/>
-      <c r="B37" s="181"/>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
-      <c r="E37" s="181"/>
-      <c r="F37" s="181"/>
-      <c r="G37" s="181"/>
-      <c r="H37" s="181"/>
-      <c r="I37" s="181"/>
-      <c r="J37" s="181"/>
-      <c r="K37" s="181"/>
-      <c r="L37" s="181"/>
-      <c r="M37" s="181"/>
-      <c r="N37" s="181"/>
-      <c r="O37" s="181"/>
-      <c r="P37" s="181"/>
-      <c r="Q37" s="181"/>
-      <c r="R37" s="182"/>
+      <c r="A37" s="185"/>
+      <c r="B37" s="186"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="186"/>
+      <c r="H37" s="186"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="186"/>
+      <c r="K37" s="186"/>
+      <c r="L37" s="186"/>
+      <c r="M37" s="186"/>
+      <c r="N37" s="186"/>
+      <c r="O37" s="186"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="186"/>
+      <c r="R37" s="187"/>
       <c r="S37" s="12"/>
     </row>
     <row r="38" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="180"/>
-      <c r="B38" s="181"/>
-      <c r="C38" s="181"/>
-      <c r="D38" s="181"/>
-      <c r="E38" s="181"/>
-      <c r="F38" s="181"/>
-      <c r="G38" s="181"/>
-      <c r="H38" s="181"/>
-      <c r="I38" s="181"/>
-      <c r="J38" s="181"/>
-      <c r="K38" s="181"/>
-      <c r="L38" s="181"/>
-      <c r="M38" s="181"/>
-      <c r="N38" s="181"/>
-      <c r="O38" s="181"/>
-      <c r="P38" s="181"/>
-      <c r="Q38" s="181"/>
-      <c r="R38" s="182"/>
+      <c r="A38" s="185"/>
+      <c r="B38" s="186"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="186"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="186"/>
+      <c r="K38" s="186"/>
+      <c r="L38" s="186"/>
+      <c r="M38" s="186"/>
+      <c r="N38" s="186"/>
+      <c r="O38" s="186"/>
+      <c r="P38" s="186"/>
+      <c r="Q38" s="186"/>
+      <c r="R38" s="187"/>
       <c r="S38" s="12"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="189" t="s">
+      <c r="A39" s="208" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="190"/>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="190"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="190"/>
-      <c r="J39" s="190"/>
-      <c r="K39" s="190"/>
-      <c r="L39" s="190"/>
-      <c r="M39" s="190"/>
-      <c r="N39" s="190"/>
-      <c r="O39" s="190"/>
-      <c r="P39" s="190"/>
-      <c r="Q39" s="190"/>
-      <c r="R39" s="191"/>
+      <c r="B39" s="209"/>
+      <c r="C39" s="209"/>
+      <c r="D39" s="209"/>
+      <c r="E39" s="209"/>
+      <c r="F39" s="209"/>
+      <c r="G39" s="209"/>
+      <c r="H39" s="209"/>
+      <c r="I39" s="209"/>
+      <c r="J39" s="209"/>
+      <c r="K39" s="209"/>
+      <c r="L39" s="209"/>
+      <c r="M39" s="209"/>
+      <c r="N39" s="209"/>
+      <c r="O39" s="209"/>
+      <c r="P39" s="209"/>
+      <c r="Q39" s="209"/>
+      <c r="R39" s="210"/>
       <c r="S39" s="12"/>
     </row>
     <row r="40" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="197"/>
+      <c r="A40" s="188"/>
       <c r="B40" s="54" t="s">
         <v>50</v>
       </c>
@@ -9086,8 +9092,8 @@
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
-      <c r="H40" s="200"/>
-      <c r="I40" s="201"/>
+      <c r="H40" s="191"/>
+      <c r="I40" s="192"/>
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
       <c r="L40" s="55"/>
@@ -9096,17 +9102,17 @@
       <c r="O40" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="P40" s="204" t="s">
+      <c r="P40" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="Q40" s="205"/>
+      <c r="Q40" s="196"/>
       <c r="R40" s="57" t="s">
         <v>54</v>
       </c>
       <c r="S40" s="12"/>
     </row>
     <row r="41" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="198"/>
+      <c r="A41" s="189"/>
       <c r="B41" s="43" t="s">
         <v>51</v>
       </c>
@@ -9125,8 +9131,8 @@
       <c r="G41" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="202"/>
-      <c r="I41" s="203"/>
+      <c r="H41" s="193"/>
+      <c r="I41" s="194"/>
       <c r="J41" s="44" t="s">
         <v>55</v>
       </c>
@@ -9143,100 +9149,136 @@
         <v>59</v>
       </c>
       <c r="O41" s="45"/>
-      <c r="P41" s="206"/>
-      <c r="Q41" s="207"/>
-      <c r="R41" s="212"/>
+      <c r="P41" s="197"/>
+      <c r="Q41" s="198"/>
+      <c r="R41" s="203"/>
       <c r="S41" s="12"/>
     </row>
     <row r="42" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="198"/>
+      <c r="A42" s="189"/>
       <c r="B42" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="215" t="s">
+      <c r="C42" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="216"/>
+      <c r="D42" s="207"/>
       <c r="E42" s="50"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="215" t="s">
+      <c r="J42" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="K42" s="216"/>
+      <c r="K42" s="207"/>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
       <c r="N42" s="31"/>
       <c r="O42" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="P42" s="208"/>
-      <c r="Q42" s="209"/>
-      <c r="R42" s="213"/>
+      <c r="P42" s="199"/>
+      <c r="Q42" s="200"/>
+      <c r="R42" s="204"/>
       <c r="S42" s="12"/>
     </row>
     <row r="43" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="198"/>
+      <c r="A43" s="189"/>
       <c r="B43" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="215" t="s">
+      <c r="C43" s="206" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="216"/>
+      <c r="D43" s="207"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="52"/>
       <c r="I43" s="53"/>
-      <c r="J43" s="215" t="s">
+      <c r="J43" s="206" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="216"/>
+      <c r="K43" s="207"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
       <c r="O43" s="47"/>
-      <c r="P43" s="210"/>
-      <c r="Q43" s="211"/>
-      <c r="R43" s="214"/>
+      <c r="P43" s="201"/>
+      <c r="Q43" s="202"/>
+      <c r="R43" s="205"/>
     </row>
     <row r="44" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="199"/>
+      <c r="A44" s="190"/>
       <c r="B44" s="58"/>
-      <c r="C44" s="192" t="s">
+      <c r="C44" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="193"/>
+      <c r="D44" s="181"/>
       <c r="E44" s="59"/>
       <c r="F44" s="60"/>
       <c r="G44" s="60"/>
       <c r="H44" s="61"/>
       <c r="I44" s="62"/>
-      <c r="J44" s="192" t="s">
+      <c r="J44" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="K44" s="193"/>
+      <c r="K44" s="181"/>
       <c r="L44" s="59"/>
       <c r="M44" s="59" t="s">
         <v>70</v>
       </c>
       <c r="N44" s="60"/>
-      <c r="O44" s="194" t="s">
+      <c r="O44" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="P44" s="195"/>
-      <c r="Q44" s="194" t="s">
+      <c r="P44" s="183"/>
+      <c r="Q44" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="R44" s="196"/>
+      <c r="R44" s="184"/>
     </row>
     <row r="45" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A11:R11"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:R14"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="A20:R20"/>
+    <mergeCell ref="A21:R21"/>
+    <mergeCell ref="A22:R22"/>
+    <mergeCell ref="A23:R23"/>
+    <mergeCell ref="A39:R39"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="A29:R29"/>
+    <mergeCell ref="A30:R30"/>
+    <mergeCell ref="A31:R31"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="A33:R33"/>
+    <mergeCell ref="A34:R34"/>
+    <mergeCell ref="A35:R35"/>
+    <mergeCell ref="A36:R36"/>
+    <mergeCell ref="A37:R37"/>
+    <mergeCell ref="A38:R38"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="O44:P44"/>
     <mergeCell ref="Q44:R44"/>
@@ -9253,42 +9295,6 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A39:R39"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="A29:R29"/>
-    <mergeCell ref="A30:R30"/>
-    <mergeCell ref="A31:R31"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="A33:R33"/>
-    <mergeCell ref="A34:R34"/>
-    <mergeCell ref="A35:R35"/>
-    <mergeCell ref="A36:R36"/>
-    <mergeCell ref="A37:R37"/>
-    <mergeCell ref="A38:R38"/>
-    <mergeCell ref="A27:R27"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="A14:R14"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A18:R18"/>
-    <mergeCell ref="A19:R19"/>
-    <mergeCell ref="A20:R20"/>
-    <mergeCell ref="A21:R21"/>
-    <mergeCell ref="A22:R22"/>
-    <mergeCell ref="A23:R23"/>
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A8:R8"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="A10:R10"/>
-    <mergeCell ref="A11:R11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B43" r:id="rId1" display="http://www.sofia-decor.ru/"/>
@@ -9307,7 +9313,7 @@
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:R2"/>
     </sheetView>
   </sheetViews>
@@ -9320,799 +9326,799 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="183"/>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="185"/>
+      <c r="A1" s="211"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="213"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="214" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="188"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="216"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="180"/>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="181"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="182"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="187"/>
     </row>
     <row r="4" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="180"/>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="181"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="181"/>
-      <c r="O4" s="181"/>
-      <c r="P4" s="181"/>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="182"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="186"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="186"/>
+      <c r="O4" s="186"/>
+      <c r="P4" s="186"/>
+      <c r="Q4" s="186"/>
+      <c r="R4" s="187"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="180"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="182"/>
+      <c r="A5" s="185"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="186"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="186"/>
+      <c r="N5" s="186"/>
+      <c r="O5" s="186"/>
+      <c r="P5" s="186"/>
+      <c r="Q5" s="186"/>
+      <c r="R5" s="187"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="180"/>
-      <c r="B6" s="181"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="181"/>
-      <c r="K6" s="181"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="181"/>
-      <c r="N6" s="181"/>
-      <c r="O6" s="181"/>
-      <c r="P6" s="181"/>
-      <c r="Q6" s="181"/>
-      <c r="R6" s="182"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="186"/>
+      <c r="N6" s="186"/>
+      <c r="O6" s="186"/>
+      <c r="P6" s="186"/>
+      <c r="Q6" s="186"/>
+      <c r="R6" s="187"/>
     </row>
     <row r="7" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="181"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
-      <c r="K7" s="181"/>
-      <c r="L7" s="181"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="181"/>
-      <c r="O7" s="181"/>
-      <c r="P7" s="181"/>
-      <c r="Q7" s="181"/>
-      <c r="R7" s="182"/>
+      <c r="A7" s="185"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="186"/>
+      <c r="L7" s="186"/>
+      <c r="M7" s="186"/>
+      <c r="N7" s="186"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="186"/>
+      <c r="R7" s="187"/>
     </row>
     <row r="8" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="180"/>
-      <c r="B8" s="181"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="181"/>
-      <c r="L8" s="181"/>
-      <c r="M8" s="181"/>
-      <c r="N8" s="181"/>
-      <c r="O8" s="181"/>
-      <c r="P8" s="181"/>
-      <c r="Q8" s="181"/>
-      <c r="R8" s="182"/>
+      <c r="A8" s="185"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="186"/>
+      <c r="N8" s="186"/>
+      <c r="O8" s="186"/>
+      <c r="P8" s="186"/>
+      <c r="Q8" s="186"/>
+      <c r="R8" s="187"/>
     </row>
     <row r="9" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="180"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="181"/>
-      <c r="M9" s="181"/>
-      <c r="N9" s="181"/>
-      <c r="O9" s="181"/>
-      <c r="P9" s="181"/>
-      <c r="Q9" s="181"/>
-      <c r="R9" s="182"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="186"/>
+      <c r="L9" s="186"/>
+      <c r="M9" s="186"/>
+      <c r="N9" s="186"/>
+      <c r="O9" s="186"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="187"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="180"/>
-      <c r="B10" s="181"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="182"/>
+      <c r="A10" s="185"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="186"/>
+      <c r="L10" s="186"/>
+      <c r="M10" s="186"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="186"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="187"/>
     </row>
     <row r="11" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="180"/>
-      <c r="B11" s="181"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="181"/>
-      <c r="L11" s="181"/>
-      <c r="M11" s="181"/>
-      <c r="N11" s="181"/>
-      <c r="O11" s="181"/>
-      <c r="P11" s="181"/>
-      <c r="Q11" s="181"/>
-      <c r="R11" s="182"/>
+      <c r="A11" s="185"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="186"/>
+      <c r="J11" s="186"/>
+      <c r="K11" s="186"/>
+      <c r="L11" s="186"/>
+      <c r="M11" s="186"/>
+      <c r="N11" s="186"/>
+      <c r="O11" s="186"/>
+      <c r="P11" s="186"/>
+      <c r="Q11" s="186"/>
+      <c r="R11" s="187"/>
     </row>
     <row r="12" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="180"/>
-      <c r="B12" s="181"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="181"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="181"/>
-      <c r="I12" s="181"/>
-      <c r="J12" s="181"/>
-      <c r="K12" s="181"/>
-      <c r="L12" s="181"/>
-      <c r="M12" s="181"/>
-      <c r="N12" s="181"/>
-      <c r="O12" s="181"/>
-      <c r="P12" s="181"/>
-      <c r="Q12" s="181"/>
-      <c r="R12" s="182"/>
+      <c r="A12" s="185"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="186"/>
+      <c r="J12" s="186"/>
+      <c r="K12" s="186"/>
+      <c r="L12" s="186"/>
+      <c r="M12" s="186"/>
+      <c r="N12" s="186"/>
+      <c r="O12" s="186"/>
+      <c r="P12" s="186"/>
+      <c r="Q12" s="186"/>
+      <c r="R12" s="187"/>
     </row>
     <row r="13" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="180"/>
-      <c r="B13" s="181"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="181"/>
-      <c r="L13" s="181"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="181"/>
-      <c r="O13" s="181"/>
-      <c r="P13" s="181"/>
-      <c r="Q13" s="181"/>
-      <c r="R13" s="182"/>
+      <c r="A13" s="185"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="186"/>
+      <c r="L13" s="186"/>
+      <c r="M13" s="186"/>
+      <c r="N13" s="186"/>
+      <c r="O13" s="186"/>
+      <c r="P13" s="186"/>
+      <c r="Q13" s="186"/>
+      <c r="R13" s="187"/>
     </row>
     <row r="14" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="180"/>
-      <c r="B14" s="181"/>
-      <c r="C14" s="181"/>
-      <c r="D14" s="181"/>
-      <c r="E14" s="181"/>
-      <c r="F14" s="181"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="181"/>
-      <c r="L14" s="181"/>
-      <c r="M14" s="181"/>
-      <c r="N14" s="181"/>
-      <c r="O14" s="181"/>
-      <c r="P14" s="181"/>
-      <c r="Q14" s="181"/>
-      <c r="R14" s="182"/>
+      <c r="A14" s="185"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="186"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="186"/>
+      <c r="J14" s="186"/>
+      <c r="K14" s="186"/>
+      <c r="L14" s="186"/>
+      <c r="M14" s="186"/>
+      <c r="N14" s="186"/>
+      <c r="O14" s="186"/>
+      <c r="P14" s="186"/>
+      <c r="Q14" s="186"/>
+      <c r="R14" s="187"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="180"/>
-      <c r="B15" s="181"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="181"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="181"/>
-      <c r="K15" s="181"/>
-      <c r="L15" s="181"/>
-      <c r="M15" s="181"/>
-      <c r="N15" s="181"/>
-      <c r="O15" s="181"/>
-      <c r="P15" s="181"/>
-      <c r="Q15" s="181"/>
-      <c r="R15" s="182"/>
+      <c r="A15" s="185"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="186"/>
+      <c r="K15" s="186"/>
+      <c r="L15" s="186"/>
+      <c r="M15" s="186"/>
+      <c r="N15" s="186"/>
+      <c r="O15" s="186"/>
+      <c r="P15" s="186"/>
+      <c r="Q15" s="186"/>
+      <c r="R15" s="187"/>
     </row>
     <row r="16" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="180"/>
-      <c r="B16" s="181"/>
-      <c r="C16" s="181"/>
-      <c r="D16" s="181"/>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="181"/>
-      <c r="K16" s="181"/>
-      <c r="L16" s="181"/>
-      <c r="M16" s="181"/>
-      <c r="N16" s="181"/>
-      <c r="O16" s="181"/>
-      <c r="P16" s="181"/>
-      <c r="Q16" s="181"/>
-      <c r="R16" s="182"/>
+      <c r="A16" s="185"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="186"/>
+      <c r="L16" s="186"/>
+      <c r="M16" s="186"/>
+      <c r="N16" s="186"/>
+      <c r="O16" s="186"/>
+      <c r="P16" s="186"/>
+      <c r="Q16" s="186"/>
+      <c r="R16" s="187"/>
     </row>
     <row r="17" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="180"/>
-      <c r="B17" s="181"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="181"/>
-      <c r="J17" s="181"/>
-      <c r="K17" s="181"/>
-      <c r="L17" s="181"/>
-      <c r="M17" s="181"/>
-      <c r="N17" s="181"/>
-      <c r="O17" s="181"/>
-      <c r="P17" s="181"/>
-      <c r="Q17" s="181"/>
-      <c r="R17" s="182"/>
+      <c r="A17" s="185"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="186"/>
+      <c r="K17" s="186"/>
+      <c r="L17" s="186"/>
+      <c r="M17" s="186"/>
+      <c r="N17" s="186"/>
+      <c r="O17" s="186"/>
+      <c r="P17" s="186"/>
+      <c r="Q17" s="186"/>
+      <c r="R17" s="187"/>
     </row>
     <row r="18" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="180"/>
-      <c r="B18" s="181"/>
-      <c r="C18" s="181"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="181"/>
-      <c r="F18" s="181"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="181"/>
-      <c r="L18" s="181"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="181"/>
-      <c r="P18" s="181"/>
-      <c r="Q18" s="181"/>
-      <c r="R18" s="182"/>
+      <c r="A18" s="185"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="186"/>
+      <c r="L18" s="186"/>
+      <c r="M18" s="186"/>
+      <c r="N18" s="186"/>
+      <c r="O18" s="186"/>
+      <c r="P18" s="186"/>
+      <c r="Q18" s="186"/>
+      <c r="R18" s="187"/>
     </row>
     <row r="19" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="180"/>
-      <c r="B19" s="181"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="181"/>
-      <c r="J19" s="181"/>
-      <c r="K19" s="181"/>
-      <c r="L19" s="181"/>
-      <c r="M19" s="181"/>
-      <c r="N19" s="181"/>
-      <c r="O19" s="181"/>
-      <c r="P19" s="181"/>
-      <c r="Q19" s="181"/>
-      <c r="R19" s="182"/>
+      <c r="A19" s="185"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="186"/>
+      <c r="K19" s="186"/>
+      <c r="L19" s="186"/>
+      <c r="M19" s="186"/>
+      <c r="N19" s="186"/>
+      <c r="O19" s="186"/>
+      <c r="P19" s="186"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="187"/>
     </row>
     <row r="20" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="180"/>
-      <c r="B20" s="181"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="181"/>
-      <c r="J20" s="181"/>
-      <c r="K20" s="181"/>
-      <c r="L20" s="181"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="181"/>
-      <c r="O20" s="181"/>
-      <c r="P20" s="181"/>
-      <c r="Q20" s="181"/>
-      <c r="R20" s="182"/>
+      <c r="A20" s="185"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="186"/>
+      <c r="L20" s="186"/>
+      <c r="M20" s="186"/>
+      <c r="N20" s="186"/>
+      <c r="O20" s="186"/>
+      <c r="P20" s="186"/>
+      <c r="Q20" s="186"/>
+      <c r="R20" s="187"/>
     </row>
     <row r="21" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="180"/>
-      <c r="B21" s="181"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="181"/>
-      <c r="K21" s="181"/>
-      <c r="L21" s="181"/>
-      <c r="M21" s="181"/>
-      <c r="N21" s="181"/>
-      <c r="O21" s="181"/>
-      <c r="P21" s="181"/>
-      <c r="Q21" s="181"/>
-      <c r="R21" s="182"/>
+      <c r="A21" s="185"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="186"/>
+      <c r="K21" s="186"/>
+      <c r="L21" s="186"/>
+      <c r="M21" s="186"/>
+      <c r="N21" s="186"/>
+      <c r="O21" s="186"/>
+      <c r="P21" s="186"/>
+      <c r="Q21" s="186"/>
+      <c r="R21" s="187"/>
     </row>
     <row r="22" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="180"/>
-      <c r="B22" s="181"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="181"/>
-      <c r="K22" s="181"/>
-      <c r="L22" s="181"/>
-      <c r="M22" s="181"/>
-      <c r="N22" s="181"/>
-      <c r="O22" s="181"/>
-      <c r="P22" s="181"/>
-      <c r="Q22" s="181"/>
-      <c r="R22" s="182"/>
+      <c r="A22" s="185"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="186"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="186"/>
+      <c r="J22" s="186"/>
+      <c r="K22" s="186"/>
+      <c r="L22" s="186"/>
+      <c r="M22" s="186"/>
+      <c r="N22" s="186"/>
+      <c r="O22" s="186"/>
+      <c r="P22" s="186"/>
+      <c r="Q22" s="186"/>
+      <c r="R22" s="187"/>
     </row>
     <row r="23" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="180"/>
-      <c r="B23" s="181"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="181"/>
-      <c r="M23" s="181"/>
-      <c r="N23" s="181"/>
-      <c r="O23" s="181"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="181"/>
-      <c r="R23" s="182"/>
+      <c r="A23" s="185"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="186"/>
+      <c r="K23" s="186"/>
+      <c r="L23" s="186"/>
+      <c r="M23" s="186"/>
+      <c r="N23" s="186"/>
+      <c r="O23" s="186"/>
+      <c r="P23" s="186"/>
+      <c r="Q23" s="186"/>
+      <c r="R23" s="187"/>
     </row>
     <row r="24" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="180"/>
-      <c r="B24" s="181"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="181"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="181"/>
-      <c r="L24" s="181"/>
-      <c r="M24" s="181"/>
-      <c r="N24" s="181"/>
-      <c r="O24" s="181"/>
-      <c r="P24" s="181"/>
-      <c r="Q24" s="181"/>
-      <c r="R24" s="182"/>
+      <c r="A24" s="185"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="186"/>
+      <c r="L24" s="186"/>
+      <c r="M24" s="186"/>
+      <c r="N24" s="186"/>
+      <c r="O24" s="186"/>
+      <c r="P24" s="186"/>
+      <c r="Q24" s="186"/>
+      <c r="R24" s="187"/>
     </row>
     <row r="25" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="180"/>
-      <c r="B25" s="181"/>
-      <c r="C25" s="181"/>
-      <c r="D25" s="181"/>
-      <c r="E25" s="181"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="181"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="181"/>
-      <c r="J25" s="181"/>
-      <c r="K25" s="181"/>
-      <c r="L25" s="181"/>
-      <c r="M25" s="181"/>
-      <c r="N25" s="181"/>
-      <c r="O25" s="181"/>
-      <c r="P25" s="181"/>
-      <c r="Q25" s="181"/>
-      <c r="R25" s="182"/>
+      <c r="A25" s="185"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="186"/>
+      <c r="L25" s="186"/>
+      <c r="M25" s="186"/>
+      <c r="N25" s="186"/>
+      <c r="O25" s="186"/>
+      <c r="P25" s="186"/>
+      <c r="Q25" s="186"/>
+      <c r="R25" s="187"/>
     </row>
     <row r="26" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="180"/>
-      <c r="B26" s="181"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="181"/>
-      <c r="E26" s="181"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="181"/>
-      <c r="L26" s="181"/>
-      <c r="M26" s="181"/>
-      <c r="N26" s="181"/>
-      <c r="O26" s="181"/>
-      <c r="P26" s="181"/>
-      <c r="Q26" s="181"/>
-      <c r="R26" s="182"/>
+      <c r="A26" s="185"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="186"/>
+      <c r="K26" s="186"/>
+      <c r="L26" s="186"/>
+      <c r="M26" s="186"/>
+      <c r="N26" s="186"/>
+      <c r="O26" s="186"/>
+      <c r="P26" s="186"/>
+      <c r="Q26" s="186"/>
+      <c r="R26" s="187"/>
     </row>
     <row r="27" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="180"/>
-      <c r="B27" s="181"/>
-      <c r="C27" s="181"/>
-      <c r="D27" s="181"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="181"/>
-      <c r="L27" s="181"/>
-      <c r="M27" s="181"/>
-      <c r="N27" s="181"/>
-      <c r="O27" s="181"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="181"/>
-      <c r="R27" s="182"/>
+      <c r="A27" s="185"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="186"/>
+      <c r="L27" s="186"/>
+      <c r="M27" s="186"/>
+      <c r="N27" s="186"/>
+      <c r="O27" s="186"/>
+      <c r="P27" s="186"/>
+      <c r="Q27" s="186"/>
+      <c r="R27" s="187"/>
     </row>
     <row r="28" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="180"/>
-      <c r="B28" s="181"/>
-      <c r="C28" s="181"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="181"/>
-      <c r="K28" s="181"/>
-      <c r="L28" s="181"/>
-      <c r="M28" s="181"/>
-      <c r="N28" s="181"/>
-      <c r="O28" s="181"/>
-      <c r="P28" s="181"/>
-      <c r="Q28" s="181"/>
-      <c r="R28" s="182"/>
+      <c r="A28" s="185"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="186"/>
+      <c r="L28" s="186"/>
+      <c r="M28" s="186"/>
+      <c r="N28" s="186"/>
+      <c r="O28" s="186"/>
+      <c r="P28" s="186"/>
+      <c r="Q28" s="186"/>
+      <c r="R28" s="187"/>
     </row>
     <row r="29" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="180"/>
-      <c r="B29" s="181"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="181"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="181"/>
-      <c r="M29" s="181"/>
-      <c r="N29" s="181"/>
-      <c r="O29" s="181"/>
-      <c r="P29" s="181"/>
-      <c r="Q29" s="181"/>
-      <c r="R29" s="182"/>
+      <c r="A29" s="185"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="186"/>
+      <c r="K29" s="186"/>
+      <c r="L29" s="186"/>
+      <c r="M29" s="186"/>
+      <c r="N29" s="186"/>
+      <c r="O29" s="186"/>
+      <c r="P29" s="186"/>
+      <c r="Q29" s="186"/>
+      <c r="R29" s="187"/>
     </row>
     <row r="30" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="180"/>
-      <c r="B30" s="181"/>
-      <c r="C30" s="181"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="181"/>
-      <c r="L30" s="181"/>
-      <c r="M30" s="181"/>
-      <c r="N30" s="181"/>
-      <c r="O30" s="181"/>
-      <c r="P30" s="181"/>
-      <c r="Q30" s="181"/>
-      <c r="R30" s="182"/>
+      <c r="A30" s="185"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="186"/>
+      <c r="L30" s="186"/>
+      <c r="M30" s="186"/>
+      <c r="N30" s="186"/>
+      <c r="O30" s="186"/>
+      <c r="P30" s="186"/>
+      <c r="Q30" s="186"/>
+      <c r="R30" s="187"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="180"/>
-      <c r="B31" s="181"/>
-      <c r="C31" s="181"/>
-      <c r="D31" s="181"/>
-      <c r="E31" s="181"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="181"/>
-      <c r="L31" s="181"/>
-      <c r="M31" s="181"/>
-      <c r="N31" s="181"/>
-      <c r="O31" s="181"/>
-      <c r="P31" s="181"/>
-      <c r="Q31" s="181"/>
-      <c r="R31" s="182"/>
+      <c r="A31" s="185"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="186"/>
+      <c r="K31" s="186"/>
+      <c r="L31" s="186"/>
+      <c r="M31" s="186"/>
+      <c r="N31" s="186"/>
+      <c r="O31" s="186"/>
+      <c r="P31" s="186"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="187"/>
     </row>
     <row r="32" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="180"/>
-      <c r="B32" s="181"/>
-      <c r="C32" s="181"/>
-      <c r="D32" s="181"/>
-      <c r="E32" s="181"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="181"/>
-      <c r="I32" s="181"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="181"/>
-      <c r="L32" s="181"/>
-      <c r="M32" s="181"/>
-      <c r="N32" s="181"/>
-      <c r="O32" s="181"/>
-      <c r="P32" s="181"/>
-      <c r="Q32" s="181"/>
-      <c r="R32" s="182"/>
+      <c r="A32" s="185"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="186"/>
+      <c r="J32" s="186"/>
+      <c r="K32" s="186"/>
+      <c r="L32" s="186"/>
+      <c r="M32" s="186"/>
+      <c r="N32" s="186"/>
+      <c r="O32" s="186"/>
+      <c r="P32" s="186"/>
+      <c r="Q32" s="186"/>
+      <c r="R32" s="187"/>
       <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="180"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="181"/>
-      <c r="E33" s="181"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="181"/>
-      <c r="M33" s="181"/>
-      <c r="N33" s="181"/>
-      <c r="O33" s="181"/>
-      <c r="P33" s="181"/>
-      <c r="Q33" s="181"/>
-      <c r="R33" s="182"/>
+      <c r="A33" s="185"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="186"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="186"/>
+      <c r="K33" s="186"/>
+      <c r="L33" s="186"/>
+      <c r="M33" s="186"/>
+      <c r="N33" s="186"/>
+      <c r="O33" s="186"/>
+      <c r="P33" s="186"/>
+      <c r="Q33" s="186"/>
+      <c r="R33" s="187"/>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="180"/>
-      <c r="B34" s="181"/>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="181"/>
-      <c r="F34" s="181"/>
-      <c r="G34" s="181"/>
-      <c r="H34" s="181"/>
-      <c r="I34" s="181"/>
-      <c r="J34" s="181"/>
-      <c r="K34" s="181"/>
-      <c r="L34" s="181"/>
-      <c r="M34" s="181"/>
-      <c r="N34" s="181"/>
-      <c r="O34" s="181"/>
-      <c r="P34" s="181"/>
-      <c r="Q34" s="181"/>
-      <c r="R34" s="182"/>
+      <c r="A34" s="185"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="186"/>
+      <c r="J34" s="186"/>
+      <c r="K34" s="186"/>
+      <c r="L34" s="186"/>
+      <c r="M34" s="186"/>
+      <c r="N34" s="186"/>
+      <c r="O34" s="186"/>
+      <c r="P34" s="186"/>
+      <c r="Q34" s="186"/>
+      <c r="R34" s="187"/>
       <c r="S34" s="12"/>
     </row>
     <row r="35" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="180"/>
-      <c r="B35" s="181"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="181"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="181"/>
-      <c r="K35" s="181"/>
-      <c r="L35" s="181"/>
-      <c r="M35" s="181"/>
-      <c r="N35" s="181"/>
-      <c r="O35" s="181"/>
-      <c r="P35" s="181"/>
-      <c r="Q35" s="181"/>
-      <c r="R35" s="182"/>
+      <c r="A35" s="185"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="186"/>
+      <c r="K35" s="186"/>
+      <c r="L35" s="186"/>
+      <c r="M35" s="186"/>
+      <c r="N35" s="186"/>
+      <c r="O35" s="186"/>
+      <c r="P35" s="186"/>
+      <c r="Q35" s="186"/>
+      <c r="R35" s="187"/>
       <c r="S35" s="12"/>
     </row>
     <row r="36" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="180"/>
-      <c r="B36" s="181"/>
-      <c r="C36" s="181"/>
-      <c r="D36" s="181"/>
-      <c r="E36" s="181"/>
-      <c r="F36" s="181"/>
-      <c r="G36" s="181"/>
-      <c r="H36" s="181"/>
-      <c r="I36" s="181"/>
-      <c r="J36" s="181"/>
-      <c r="K36" s="181"/>
-      <c r="L36" s="181"/>
-      <c r="M36" s="181"/>
-      <c r="N36" s="181"/>
-      <c r="O36" s="181"/>
-      <c r="P36" s="181"/>
-      <c r="Q36" s="181"/>
-      <c r="R36" s="182"/>
+      <c r="A36" s="185"/>
+      <c r="B36" s="186"/>
+      <c r="C36" s="186"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="186"/>
+      <c r="F36" s="186"/>
+      <c r="G36" s="186"/>
+      <c r="H36" s="186"/>
+      <c r="I36" s="186"/>
+      <c r="J36" s="186"/>
+      <c r="K36" s="186"/>
+      <c r="L36" s="186"/>
+      <c r="M36" s="186"/>
+      <c r="N36" s="186"/>
+      <c r="O36" s="186"/>
+      <c r="P36" s="186"/>
+      <c r="Q36" s="186"/>
+      <c r="R36" s="187"/>
       <c r="S36" s="12"/>
     </row>
     <row r="37" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="180"/>
-      <c r="B37" s="181"/>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
-      <c r="E37" s="181"/>
-      <c r="F37" s="181"/>
-      <c r="G37" s="181"/>
-      <c r="H37" s="181"/>
-      <c r="I37" s="181"/>
-      <c r="J37" s="181"/>
-      <c r="K37" s="181"/>
-      <c r="L37" s="181"/>
-      <c r="M37" s="181"/>
-      <c r="N37" s="181"/>
-      <c r="O37" s="181"/>
-      <c r="P37" s="181"/>
-      <c r="Q37" s="181"/>
-      <c r="R37" s="182"/>
+      <c r="A37" s="185"/>
+      <c r="B37" s="186"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="186"/>
+      <c r="H37" s="186"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="186"/>
+      <c r="K37" s="186"/>
+      <c r="L37" s="186"/>
+      <c r="M37" s="186"/>
+      <c r="N37" s="186"/>
+      <c r="O37" s="186"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="186"/>
+      <c r="R37" s="187"/>
       <c r="S37" s="12"/>
     </row>
     <row r="38" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="180"/>
-      <c r="B38" s="181"/>
-      <c r="C38" s="181"/>
-      <c r="D38" s="181"/>
-      <c r="E38" s="181"/>
-      <c r="F38" s="181"/>
-      <c r="G38" s="181"/>
-      <c r="H38" s="181"/>
-      <c r="I38" s="181"/>
-      <c r="J38" s="181"/>
-      <c r="K38" s="181"/>
-      <c r="L38" s="181"/>
-      <c r="M38" s="181"/>
-      <c r="N38" s="181"/>
-      <c r="O38" s="181"/>
-      <c r="P38" s="181"/>
-      <c r="Q38" s="181"/>
-      <c r="R38" s="182"/>
+      <c r="A38" s="185"/>
+      <c r="B38" s="186"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="186"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="186"/>
+      <c r="K38" s="186"/>
+      <c r="L38" s="186"/>
+      <c r="M38" s="186"/>
+      <c r="N38" s="186"/>
+      <c r="O38" s="186"/>
+      <c r="P38" s="186"/>
+      <c r="Q38" s="186"/>
+      <c r="R38" s="187"/>
       <c r="S38" s="12"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="189" t="s">
+      <c r="A39" s="208" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="190"/>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="190"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="190"/>
-      <c r="J39" s="190"/>
-      <c r="K39" s="190"/>
-      <c r="L39" s="190"/>
-      <c r="M39" s="190"/>
-      <c r="N39" s="190"/>
-      <c r="O39" s="190"/>
-      <c r="P39" s="190"/>
-      <c r="Q39" s="190"/>
-      <c r="R39" s="191"/>
+      <c r="B39" s="209"/>
+      <c r="C39" s="209"/>
+      <c r="D39" s="209"/>
+      <c r="E39" s="209"/>
+      <c r="F39" s="209"/>
+      <c r="G39" s="209"/>
+      <c r="H39" s="209"/>
+      <c r="I39" s="209"/>
+      <c r="J39" s="209"/>
+      <c r="K39" s="209"/>
+      <c r="L39" s="209"/>
+      <c r="M39" s="209"/>
+      <c r="N39" s="209"/>
+      <c r="O39" s="209"/>
+      <c r="P39" s="209"/>
+      <c r="Q39" s="209"/>
+      <c r="R39" s="210"/>
       <c r="S39" s="12"/>
     </row>
     <row r="40" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="197"/>
+      <c r="A40" s="188"/>
       <c r="B40" s="54" t="s">
         <v>50</v>
       </c>
@@ -10121,8 +10127,8 @@
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
-      <c r="H40" s="200"/>
-      <c r="I40" s="201"/>
+      <c r="H40" s="191"/>
+      <c r="I40" s="192"/>
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
       <c r="L40" s="55"/>
@@ -10131,17 +10137,17 @@
       <c r="O40" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="P40" s="204" t="s">
+      <c r="P40" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="Q40" s="205"/>
+      <c r="Q40" s="196"/>
       <c r="R40" s="57" t="s">
         <v>54</v>
       </c>
       <c r="S40" s="12"/>
     </row>
     <row r="41" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="198"/>
+      <c r="A41" s="189"/>
       <c r="B41" s="43" t="s">
         <v>51</v>
       </c>
@@ -10160,8 +10166,8 @@
       <c r="G41" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="202"/>
-      <c r="I41" s="203"/>
+      <c r="H41" s="193"/>
+      <c r="I41" s="194"/>
       <c r="J41" s="44" t="s">
         <v>55</v>
       </c>
@@ -10178,100 +10184,136 @@
         <v>59</v>
       </c>
       <c r="O41" s="45"/>
-      <c r="P41" s="206"/>
-      <c r="Q41" s="207"/>
-      <c r="R41" s="212"/>
+      <c r="P41" s="197"/>
+      <c r="Q41" s="198"/>
+      <c r="R41" s="203"/>
       <c r="S41" s="12"/>
     </row>
     <row r="42" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="198"/>
+      <c r="A42" s="189"/>
       <c r="B42" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="215" t="s">
+      <c r="C42" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="216"/>
+      <c r="D42" s="207"/>
       <c r="E42" s="50"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="215" t="s">
+      <c r="J42" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="K42" s="216"/>
+      <c r="K42" s="207"/>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
       <c r="N42" s="31"/>
       <c r="O42" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="P42" s="208"/>
-      <c r="Q42" s="209"/>
-      <c r="R42" s="213"/>
+      <c r="P42" s="199"/>
+      <c r="Q42" s="200"/>
+      <c r="R42" s="204"/>
       <c r="S42" s="12"/>
     </row>
     <row r="43" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="198"/>
+      <c r="A43" s="189"/>
       <c r="B43" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="215" t="s">
+      <c r="C43" s="206" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="216"/>
+      <c r="D43" s="207"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="52"/>
       <c r="I43" s="53"/>
-      <c r="J43" s="215" t="s">
+      <c r="J43" s="206" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="216"/>
+      <c r="K43" s="207"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
       <c r="O43" s="47"/>
-      <c r="P43" s="210"/>
-      <c r="Q43" s="211"/>
-      <c r="R43" s="214"/>
+      <c r="P43" s="201"/>
+      <c r="Q43" s="202"/>
+      <c r="R43" s="205"/>
     </row>
     <row r="44" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="199"/>
+      <c r="A44" s="190"/>
       <c r="B44" s="58"/>
-      <c r="C44" s="192" t="s">
+      <c r="C44" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="193"/>
+      <c r="D44" s="181"/>
       <c r="E44" s="59"/>
       <c r="F44" s="60"/>
       <c r="G44" s="60"/>
       <c r="H44" s="61"/>
       <c r="I44" s="62"/>
-      <c r="J44" s="192" t="s">
+      <c r="J44" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="K44" s="193"/>
+      <c r="K44" s="181"/>
       <c r="L44" s="59"/>
       <c r="M44" s="59" t="s">
         <v>70</v>
       </c>
       <c r="N44" s="60"/>
-      <c r="O44" s="194" t="s">
+      <c r="O44" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="P44" s="195"/>
-      <c r="Q44" s="194" t="s">
+      <c r="P44" s="183"/>
+      <c r="Q44" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="R44" s="196"/>
+      <c r="R44" s="184"/>
     </row>
     <row r="45" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A11:R11"/>
+    <mergeCell ref="A24:R24"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:R14"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="A20:R20"/>
+    <mergeCell ref="A21:R21"/>
+    <mergeCell ref="A22:R22"/>
+    <mergeCell ref="A23:R23"/>
+    <mergeCell ref="A36:R36"/>
+    <mergeCell ref="A25:R25"/>
+    <mergeCell ref="A26:R26"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="A29:R29"/>
+    <mergeCell ref="A30:R30"/>
+    <mergeCell ref="A31:R31"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="A33:R33"/>
+    <mergeCell ref="A34:R34"/>
+    <mergeCell ref="A35:R35"/>
     <mergeCell ref="Q44:R44"/>
     <mergeCell ref="A37:R37"/>
     <mergeCell ref="A38:R38"/>
@@ -10288,42 +10330,6 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="O44:P44"/>
-    <mergeCell ref="A36:R36"/>
-    <mergeCell ref="A25:R25"/>
-    <mergeCell ref="A26:R26"/>
-    <mergeCell ref="A27:R27"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="A29:R29"/>
-    <mergeCell ref="A30:R30"/>
-    <mergeCell ref="A31:R31"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="A33:R33"/>
-    <mergeCell ref="A34:R34"/>
-    <mergeCell ref="A35:R35"/>
-    <mergeCell ref="A24:R24"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="A14:R14"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A18:R18"/>
-    <mergeCell ref="A19:R19"/>
-    <mergeCell ref="A20:R20"/>
-    <mergeCell ref="A21:R21"/>
-    <mergeCell ref="A22:R22"/>
-    <mergeCell ref="A23:R23"/>
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A8:R8"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="A10:R10"/>
-    <mergeCell ref="A11:R11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B43" r:id="rId1" display="http://www.sofia-decor.ru/"/>
@@ -10339,7 +10345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="K28" sqref="K28:N28"/>
     </sheetView>
   </sheetViews>
@@ -10389,18 +10395,18 @@
       <c r="J2" s="6"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="164" t="s">
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="163">
+      <c r="P2" s="144"/>
+      <c r="Q2" s="143">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
-      </c>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
+        <v>43629</v>
+      </c>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
       <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10416,17 +10422,17 @@
       <c r="J3" s="6"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="164" t="s">
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="142" t="s">
+      <c r="P3" s="144"/>
+      <c r="Q3" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="157"/>
-      <c r="S3" s="157"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="144"/>
       <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10707,23 +10713,23 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="153" t="s">
+      <c r="F16" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="148" t="str">
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="158" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J13:Q13</f>
         <v>Иванов И.И.</v>
       </c>
-      <c r="K16" s="148"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="148"/>
-      <c r="N16" s="148"/>
-      <c r="O16" s="148"/>
-      <c r="P16" s="148"/>
-      <c r="Q16" s="148"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="158"/>
+      <c r="P16" s="158"/>
+      <c r="Q16" s="158"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -10734,12 +10740,12 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="153" t="s">
+      <c r="F17" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
       <c r="J17" s="219" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J14:Q14</f>
         <v>Петров П.П.</v>
@@ -10761,23 +10767,23 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="153" t="s">
+      <c r="F18" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="148" t="str">
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="158" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J15:Q15</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="148"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="148"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="158"/>
+      <c r="M18" s="158"/>
+      <c r="N18" s="158"/>
+      <c r="O18" s="158"/>
+      <c r="P18" s="158"/>
+      <c r="Q18" s="158"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="4"/>
@@ -10788,12 +10794,12 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="153" t="s">
+      <c r="F19" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
       <c r="J19" s="219" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J16:Q16</f>
         <v>восьмой</v>
@@ -10815,12 +10821,12 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="153" t="s">
+      <c r="F20" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
       <c r="J20" s="219" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J17:Q17</f>
         <v>кухня</v>
@@ -10842,23 +10848,23 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="153" t="s">
+      <c r="F21" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="148" t="str">
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="158" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J18:Q18</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="148"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148"/>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="148"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="158"/>
+      <c r="M21" s="158"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="158"/>
+      <c r="P21" s="158"/>
+      <c r="Q21" s="158"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="4"/>
@@ -10869,12 +10875,12 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="153" t="s">
+      <c r="F22" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
       <c r="J22" s="219">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J19:Q19</f>
         <v>500</v>
@@ -10896,12 +10902,12 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="153" t="s">
+      <c r="F23" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="157"/>
       <c r="J23" s="219" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J20:Q20</f>
         <v>1-15,16</v>
@@ -10990,12 +10996,12 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="143" t="s">
+      <c r="G27" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -11008,29 +11014,29 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="145" t="s">
+      <c r="A28" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="146" t="str">
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="151" t="str">
         <f>builder</f>
         <v>_____________________</v>
       </c>
-      <c r="L28" s="146"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="146"/>
-      <c r="O28" s="146" t="s">
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="151"/>
+      <c r="O28" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="146"/>
+      <c r="P28" s="151"/>
       <c r="Q28" s="30" t="s">
         <v>3</v>
       </c>
@@ -11039,7 +11045,7 @@
       </c>
       <c r="S28" s="114">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="T28" s="22"/>
     </row>
@@ -11072,12 +11078,12 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="143" t="s">
+      <c r="G30" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="144"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -11090,28 +11096,28 @@
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="147" t="s">
+      <c r="A31" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="141" t="s">
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="146" t="s">
+      <c r="L31" s="163"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="163"/>
+      <c r="O31" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="146"/>
+      <c r="P31" s="151"/>
       <c r="Q31" s="30" t="s">
         <v>3</v>
       </c>
@@ -11120,33 +11126,33 @@
       </c>
       <c r="S31" s="114">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="T31" s="22"/>
     </row>
     <row r="32" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="141" t="s">
+      <c r="B32" s="165"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="146" t="s">
+      <c r="L32" s="163"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="146"/>
+      <c r="P32" s="151"/>
       <c r="Q32" s="30" t="s">
         <v>3</v>
       </c>
@@ -11155,7 +11161,7 @@
       </c>
       <c r="S32" s="114">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="T32" s="22"/>
     </row>
@@ -11188,12 +11194,12 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="143" t="s">
+      <c r="G34" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="144"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -11206,28 +11212,28 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="147" t="s">
+      <c r="A35" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="141" t="s">
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="141"/>
-      <c r="M35" s="141"/>
-      <c r="N35" s="141"/>
-      <c r="O35" s="146" t="s">
+      <c r="L35" s="163"/>
+      <c r="M35" s="163"/>
+      <c r="N35" s="163"/>
+      <c r="O35" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P35" s="146"/>
+      <c r="P35" s="151"/>
       <c r="Q35" s="30" t="s">
         <v>3</v>
       </c>
@@ -11236,7 +11242,7 @@
       </c>
       <c r="S35" s="114">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="T35" s="22"/>
     </row>
@@ -11264,21 +11270,21 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="E13:P15"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J23:Q23"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="J19:Q19"/>
@@ -11290,21 +11296,21 @@
     <mergeCell ref="J17:Q17"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="E13:P15"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="G30:J30"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -13009,7 +13015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A6" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="K26" sqref="K26:N26"/>
     </sheetView>
   </sheetViews>
@@ -13019,13 +13025,13 @@
     <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="1" customWidth="1"/>
     <col min="6" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="15" width="8.75" style="1"/>
     <col min="16" max="16" width="10.875" style="1" customWidth="1"/>
     <col min="17" max="17" width="10.75" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="6.375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.625" style="1" customWidth="1"/>
     <col min="20" max="20" width="2.5" style="1" customWidth="1"/>
     <col min="21" max="21" width="8.125" style="1" customWidth="1"/>
     <col min="22" max="16384" width="8.75" style="1"/>
@@ -13110,18 +13116,18 @@
       <c r="J4" s="6"/>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="164" t="s">
+      <c r="M4" s="148"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="163">
+      <c r="P4" s="144"/>
+      <c r="Q4" s="143">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
-      </c>
-      <c r="R4" s="157"/>
-      <c r="S4" s="157"/>
+        <v>43629</v>
+      </c>
+      <c r="R4" s="144"/>
+      <c r="S4" s="144"/>
       <c r="T4" s="29"/>
     </row>
     <row r="5" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13137,13 +13143,13 @@
       <c r="J5" s="6"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="165"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="157"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="157"/>
-      <c r="S5" s="157"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="149"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
       <c r="T5" s="28"/>
     </row>
     <row r="6" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13191,11 +13197,11 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="155" t="s">
+      <c r="A8" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -13215,11 +13221,11 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="155" t="s">
+      <c r="A9" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="156"/>
-      <c r="C9" s="156"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -13239,11 +13245,11 @@
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="155" t="s">
+      <c r="A10" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -13270,15 +13276,15 @@
       <c r="E11" s="238" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="159"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="159"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -13291,16 +13297,16 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
       <c r="O12" s="130"/>
       <c r="P12" s="131"/>
       <c r="Q12" s="5"/>
@@ -13313,16 +13319,16 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="159"/>
-      <c r="N13" s="159"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="150"/>
       <c r="O13" s="130"/>
       <c r="P13" s="131"/>
       <c r="Q13" s="5"/>
@@ -13335,16 +13341,16 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="150"/>
+      <c r="M14" s="150"/>
+      <c r="N14" s="150"/>
       <c r="O14" s="130"/>
       <c r="P14" s="131"/>
       <c r="Q14" s="5"/>
@@ -13358,23 +13364,23 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="153" t="s">
+      <c r="F15" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="148" t="str">
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="158" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J13:Q13</f>
         <v>Иванов И.И.</v>
       </c>
-      <c r="K15" s="148"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="148"/>
-      <c r="N15" s="148"/>
-      <c r="O15" s="148"/>
-      <c r="P15" s="148"/>
-      <c r="Q15" s="148"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="158"/>
+      <c r="M15" s="158"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="158"/>
+      <c r="P15" s="158"/>
+      <c r="Q15" s="158"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="4"/>
@@ -13385,23 +13391,23 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="153" t="s">
+      <c r="F16" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="148" t="str">
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="158" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J14:Q14</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K16" s="148"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="148"/>
-      <c r="N16" s="148"/>
-      <c r="O16" s="148"/>
-      <c r="P16" s="148"/>
-      <c r="Q16" s="148"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="158"/>
+      <c r="P16" s="158"/>
+      <c r="Q16" s="158"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -13412,23 +13418,23 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="153" t="s">
+      <c r="F17" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="148" t="str">
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="158" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J15:Q15</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K17" s="148"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="148"/>
-      <c r="N17" s="148"/>
-      <c r="O17" s="148"/>
-      <c r="P17" s="148"/>
-      <c r="Q17" s="148"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="158"/>
+      <c r="M17" s="158"/>
+      <c r="N17" s="158"/>
+      <c r="O17" s="158"/>
+      <c r="P17" s="158"/>
+      <c r="Q17" s="158"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="4"/>
@@ -13439,23 +13445,23 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="153" t="s">
+      <c r="F18" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="148" t="str">
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="158" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J16:Q16</f>
         <v>восьмой</v>
       </c>
-      <c r="K18" s="148"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="148"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="158"/>
+      <c r="M18" s="158"/>
+      <c r="N18" s="158"/>
+      <c r="O18" s="158"/>
+      <c r="P18" s="158"/>
+      <c r="Q18" s="158"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="4"/>
@@ -13466,23 +13472,23 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="153" t="s">
+      <c r="F19" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="148" t="str">
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="158" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J17:Q17</f>
         <v>кухня</v>
       </c>
-      <c r="K19" s="148"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="148"/>
-      <c r="P19" s="148"/>
-      <c r="Q19" s="148"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="158"/>
+      <c r="P19" s="158"/>
+      <c r="Q19" s="158"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="4"/>
@@ -13493,23 +13499,23 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="153" t="s">
+      <c r="F20" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="148" t="str">
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="158" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J18:Q18</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K20" s="148"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="148"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="148"/>
-      <c r="P20" s="148"/>
-      <c r="Q20" s="148"/>
+      <c r="K20" s="158"/>
+      <c r="L20" s="158"/>
+      <c r="M20" s="158"/>
+      <c r="N20" s="158"/>
+      <c r="O20" s="158"/>
+      <c r="P20" s="158"/>
+      <c r="Q20" s="158"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="4"/>
@@ -13520,23 +13526,23 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="153" t="s">
+      <c r="F21" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="148">
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="158">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J19:Q19</f>
         <v>500</v>
       </c>
-      <c r="K21" s="148"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148"/>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="148"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="158"/>
+      <c r="M21" s="158"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="158"/>
+      <c r="P21" s="158"/>
+      <c r="Q21" s="158"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="4"/>
@@ -13547,23 +13553,23 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="153" t="s">
+      <c r="F22" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="148" t="str">
+      <c r="G22" s="157"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="158" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J20:Q20</f>
         <v>1-15,16</v>
       </c>
-      <c r="K22" s="148"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="148"/>
-      <c r="N22" s="148"/>
-      <c r="O22" s="148"/>
-      <c r="P22" s="148"/>
-      <c r="Q22" s="148"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="158"/>
+      <c r="Q22" s="158"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="4"/>
@@ -13619,12 +13625,12 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="143" t="s">
+      <c r="G25" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="144"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="144"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -13637,29 +13643,29 @@
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="145" t="s">
+      <c r="A26" s="166" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="146" t="str">
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="151" t="str">
         <f>builder</f>
         <v>_____________________</v>
       </c>
-      <c r="L26" s="146"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146" t="s">
+      <c r="L26" s="151"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="151"/>
+      <c r="O26" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P26" s="146"/>
+      <c r="P26" s="151"/>
       <c r="Q26" s="140" t="s">
         <v>3</v>
       </c>
@@ -13668,7 +13674,7 @@
       </c>
       <c r="S26" s="114">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="T26" s="22"/>
     </row>
@@ -13701,12 +13707,12 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="143" t="s">
+      <c r="G28" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -13719,28 +13725,28 @@
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="147" t="s">
+      <c r="A29" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="141" t="s">
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="146" t="s">
+      <c r="L29" s="163"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="163"/>
+      <c r="O29" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="146"/>
+      <c r="P29" s="151"/>
       <c r="Q29" s="140" t="s">
         <v>3</v>
       </c>
@@ -13749,7 +13755,7 @@
       </c>
       <c r="S29" s="114">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="T29" s="22"/>
     </row>
@@ -13782,12 +13788,12 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="143" t="s">
+      <c r="G31" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="144"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -13800,28 +13806,28 @@
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="141" t="s">
+      <c r="B32" s="165"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="146" t="s">
+      <c r="L32" s="163"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="146"/>
+      <c r="P32" s="151"/>
       <c r="Q32" s="140" t="s">
         <v>3</v>
       </c>
@@ -13830,7 +13836,7 @@
       </c>
       <c r="S32" s="114">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="T32" s="22"/>
     </row>
@@ -13863,12 +13869,12 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="143" t="s">
+      <c r="G34" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="144"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -13881,28 +13887,28 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="147" t="s">
+      <c r="A35" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="141" t="s">
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="141"/>
-      <c r="M35" s="141"/>
-      <c r="N35" s="141"/>
-      <c r="O35" s="146" t="s">
+      <c r="L35" s="163"/>
+      <c r="M35" s="163"/>
+      <c r="N35" s="163"/>
+      <c r="O35" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P35" s="146"/>
+      <c r="P35" s="151"/>
       <c r="Q35" s="140" t="s">
         <v>3</v>
       </c>
@@ -13911,7 +13917,7 @@
       </c>
       <c r="S35" s="114">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="T35" s="22"/>
     </row>
@@ -13939,6 +13945,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="O29:P29"/>
     <mergeCell ref="O35:P35"/>
     <mergeCell ref="G31:J31"/>
     <mergeCell ref="A32:J32"/>
@@ -13955,32 +13987,6 @@
     <mergeCell ref="J20:Q20"/>
     <mergeCell ref="J18:Q18"/>
     <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>

--- a/dist/files/xls/shablon-alboma-dp.xlsx
+++ b/dist/files/xls/shablon-alboma-dp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OPEN_SERVER\OSPanel\domains\localhost\www\dist\files\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sshishenko\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -40,6 +40,8 @@
     <definedName name="Print_Area" localSheetId="9">'ТИТУЛЬНЫЙ ЛИСТ ТЗ'!$A$1:$T$36</definedName>
     <definedName name="product">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$J$20</definedName>
     <definedName name="room">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$J$17</definedName>
+    <definedName name="RPG">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$K$28</definedName>
+    <definedName name="VAP">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$K$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'ВЕДОМОСТЬ МАТЕРИАЛОВ'!$A$1:$K$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'ВЕДОМОСТЬ СТЕКОЛ И ЗЕРКАЛ'!$A$1:$S$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'ВЕДОМОСТЬ ФУРНИТУРЫ'!$A$1:$K$27</definedName>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="140">
   <si>
     <t>РАЗРАБОТАЛ</t>
   </si>
@@ -1535,7 +1537,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1901,118 +1903,154 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2029,15 +2067,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2097,33 +2126,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2192,7 +2194,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2202,6 +2203,13 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5715,18 +5723,18 @@
       <c r="J2" s="6"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="145" t="s">
+      <c r="M2" s="165"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="143">
+      <c r="P2" s="157"/>
+      <c r="Q2" s="163">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
-      </c>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
+        <v>43647</v>
+      </c>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
       <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5742,17 +5750,17 @@
       <c r="J3" s="6"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="145" t="s">
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="154" t="s">
+      <c r="P3" s="157"/>
+      <c r="Q3" s="142" t="s">
         <v>133</v>
       </c>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="157"/>
       <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5767,13 +5775,13 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="145" t="s">
+      <c r="L4" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
@@ -5791,24 +5799,24 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="145" t="s">
+      <c r="L5" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="150"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="150"/>
-      <c r="P5" s="150"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="159"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -5828,11 +5836,11 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="156"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -5852,11 +5860,11 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -5880,18 +5888,18 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="155" t="s">
+      <c r="E9" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -5904,16 +5912,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="150"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="159"/>
       <c r="O10" s="24"/>
       <c r="P10" s="26"/>
       <c r="Q10" s="5"/>
@@ -5926,16 +5934,16 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="150"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="150"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
       <c r="O11" s="24"/>
       <c r="P11" s="26"/>
       <c r="Q11" s="5"/>
@@ -5948,16 +5956,16 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="150"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
       <c r="O12" s="24"/>
       <c r="P12" s="26"/>
       <c r="Q12" s="5"/>
@@ -5971,22 +5979,22 @@
       <c r="C13" s="110"/>
       <c r="D13" s="110"/>
       <c r="E13" s="111"/>
-      <c r="F13" s="152" t="s">
+      <c r="F13" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="158" t="s">
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="158"/>
-      <c r="P13" s="158"/>
-      <c r="Q13" s="158"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
       <c r="R13" s="110"/>
       <c r="S13" s="110"/>
       <c r="T13" s="112"/>
@@ -5997,22 +6005,22 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="156" t="s">
+      <c r="F14" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="154" t="s">
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="154"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="154"/>
-      <c r="N14" s="154"/>
-      <c r="O14" s="154"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="154"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="142"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="4"/>
@@ -6023,22 +6031,22 @@
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
       <c r="E15" s="117"/>
-      <c r="F15" s="152" t="s">
+      <c r="F15" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="158" t="s">
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="158"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="158"/>
-      <c r="N15" s="158"/>
-      <c r="O15" s="158"/>
-      <c r="P15" s="158"/>
-      <c r="Q15" s="158"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
       <c r="R15" s="116"/>
       <c r="S15" s="116"/>
       <c r="T15" s="118"/>
@@ -6049,22 +6057,22 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="156" t="s">
+      <c r="F16" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="154" t="s">
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="154"/>
-      <c r="O16" s="154"/>
-      <c r="P16" s="154"/>
-      <c r="Q16" s="154"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="142"/>
+      <c r="Q16" s="142"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -6075,22 +6083,22 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="156" t="s">
+      <c r="F17" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="154" t="s">
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="162"/>
-      <c r="L17" s="162"/>
-      <c r="M17" s="162"/>
-      <c r="N17" s="162"/>
-      <c r="O17" s="162"/>
-      <c r="P17" s="162"/>
-      <c r="Q17" s="162"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="150"/>
+      <c r="Q17" s="150"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="4"/>
@@ -6101,22 +6109,22 @@
       <c r="C18" s="110"/>
       <c r="D18" s="110"/>
       <c r="E18" s="111"/>
-      <c r="F18" s="152" t="s">
+      <c r="F18" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="158" t="s">
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="149"/>
+      <c r="Q18" s="149"/>
       <c r="R18" s="110"/>
       <c r="S18" s="110"/>
       <c r="T18" s="112"/>
@@ -6127,22 +6135,22 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="156" t="s">
+      <c r="F19" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="154">
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="142">
         <v>500</v>
       </c>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="154"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="142"/>
+      <c r="Q19" s="142"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="4"/>
@@ -6153,22 +6161,22 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="156" t="s">
+      <c r="F20" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="154" t="s">
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="154"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="154"/>
-      <c r="O20" s="154"/>
-      <c r="P20" s="154"/>
-      <c r="Q20" s="154"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="142"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="4"/>
@@ -6224,12 +6232,12 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="164" t="s">
+      <c r="G23" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -6242,28 +6250,28 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="166" t="s">
+      <c r="A24" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="165"/>
-      <c r="C24" s="165"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="151" t="s">
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151" t="s">
+      <c r="L24" s="244"/>
+      <c r="M24" s="244"/>
+      <c r="N24" s="244"/>
+      <c r="O24" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="151"/>
+      <c r="P24" s="146"/>
       <c r="Q24" s="21" t="s">
         <v>3</v>
       </c>
@@ -6272,7 +6280,7 @@
       </c>
       <c r="S24" s="114">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43647</v>
       </c>
       <c r="T24" s="22"/>
     </row>
@@ -6305,12 +6313,12 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="164" t="s">
+      <c r="G26" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="165"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="165"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -6323,28 +6331,28 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="167" t="s">
+      <c r="A27" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="165"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="163" t="s">
+      <c r="B27" s="144"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="163"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="151" t="s">
+      <c r="L27" s="244"/>
+      <c r="M27" s="244"/>
+      <c r="N27" s="244"/>
+      <c r="O27" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="151"/>
+      <c r="P27" s="146"/>
       <c r="Q27" s="21" t="s">
         <v>3</v>
       </c>
@@ -6353,33 +6361,33 @@
       </c>
       <c r="S27" s="114">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43647</v>
       </c>
       <c r="T27" s="22"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="167" t="s">
+      <c r="A28" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="165"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="163" t="s">
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="163"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="151" t="s">
+      <c r="L28" s="244"/>
+      <c r="M28" s="244"/>
+      <c r="N28" s="244"/>
+      <c r="O28" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="151"/>
+      <c r="P28" s="146"/>
       <c r="Q28" s="21" t="s">
         <v>3</v>
       </c>
@@ -6388,7 +6396,7 @@
       </c>
       <c r="S28" s="114">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43647</v>
       </c>
       <c r="T28" s="22"/>
     </row>
@@ -6418,18 +6426,18 @@
       <c r="A30" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="159" t="s">
+      <c r="B30" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="159"/>
-      <c r="D30" s="159" t="s">
+      <c r="C30" s="160"/>
+      <c r="D30" s="160" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="159"/>
-      <c r="F30" s="160" t="s">
+      <c r="E30" s="160"/>
+      <c r="F30" s="161" t="s">
         <v>132</v>
       </c>
-      <c r="G30" s="160"/>
+      <c r="G30" s="161"/>
       <c r="H30" s="121"/>
       <c r="I30" s="121"/>
       <c r="J30" s="122" t="s">
@@ -6448,27 +6456,27 @@
     </row>
     <row r="31" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="124"/>
-      <c r="B31" s="141"/>
-      <c r="C31" s="141"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="162"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
       <c r="H31" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I31" s="121"/>
       <c r="J31" s="121"/>
-      <c r="K31" s="163" t="s">
+      <c r="K31" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="163"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="151" t="s">
+      <c r="L31" s="141"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="151"/>
+      <c r="P31" s="146"/>
       <c r="Q31" s="25" t="s">
         <v>3</v>
       </c>
@@ -6477,18 +6485,18 @@
       </c>
       <c r="S31" s="114">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43647</v>
       </c>
       <c r="T31" s="22"/>
     </row>
     <row r="32" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="125"/>
-      <c r="B32" s="142"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
+      <c r="B32" s="167"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -6505,12 +6513,12 @@
     </row>
     <row r="33" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="125"/>
-      <c r="B33" s="142"/>
-      <c r="C33" s="142"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
       <c r="H33" s="121"/>
       <c r="I33" s="121"/>
       <c r="J33" s="122" t="s">
@@ -6529,27 +6537,27 @@
     </row>
     <row r="34" spans="1:20" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="126"/>
-      <c r="B34" s="141"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="162"/>
+      <c r="G34" s="162"/>
       <c r="H34" s="121"/>
       <c r="I34" s="121"/>
       <c r="J34" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="K34" s="163" t="s">
+      <c r="K34" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="L34" s="163"/>
-      <c r="M34" s="163"/>
-      <c r="N34" s="163"/>
-      <c r="O34" s="151" t="s">
+      <c r="L34" s="141"/>
+      <c r="M34" s="141"/>
+      <c r="N34" s="141"/>
+      <c r="O34" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P34" s="151"/>
+      <c r="P34" s="146"/>
       <c r="Q34" s="21" t="s">
         <v>3</v>
       </c>
@@ -6558,7 +6566,7 @@
       </c>
       <c r="S34" s="114">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43647</v>
       </c>
       <c r="T34" s="22"/>
     </row>
@@ -6586,6 +6594,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="E9:N12"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
     <mergeCell ref="K34:N34"/>
     <mergeCell ref="J20:Q20"/>
     <mergeCell ref="G23:J23"/>
@@ -6602,48 +6652,6 @@
     <mergeCell ref="K28:N28"/>
     <mergeCell ref="K31:N31"/>
     <mergeCell ref="O28:P28"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="E9:N12"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -6686,14 +6694,14 @@
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
-      <c r="E1" s="240" t="s">
+      <c r="E1" s="239" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
       <c r="K1" s="137"/>
       <c r="L1" s="137"/>
       <c r="M1" s="137"/>
@@ -6706,28 +6714,28 @@
       <c r="T1" s="135"/>
     </row>
     <row r="2" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="163" t="s">
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="151" t="s">
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="151"/>
+      <c r="P2" s="146"/>
       <c r="Q2" s="128" t="s">
         <v>3</v>
       </c>
@@ -6766,14 +6774,14 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="242" t="s">
+      <c r="E4" s="241" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -6786,28 +6794,28 @@
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
-      <c r="K5" s="163" t="s">
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="151" t="s">
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="151"/>
+      <c r="P5" s="146"/>
       <c r="Q5" s="128" t="s">
         <v>3</v>
       </c>
@@ -6820,11 +6828,11 @@
       <c r="T5" s="22"/>
     </row>
     <row r="6" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="243"/>
-      <c r="C6" s="243"/>
+      <c r="B6" s="242"/>
+      <c r="C6" s="242"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -6844,11 +6852,11 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="243"/>
-      <c r="C7" s="243"/>
+      <c r="B7" s="242"/>
+      <c r="C7" s="242"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -6868,11 +6876,11 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="243"/>
-      <c r="C8" s="243"/>
+      <c r="B8" s="242"/>
+      <c r="C8" s="242"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -6899,15 +6907,15 @@
       <c r="E9" s="238" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="239"/>
-      <c r="G9" s="239"/>
-      <c r="H9" s="239"/>
-      <c r="I9" s="239"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="239"/>
-      <c r="L9" s="239"/>
-      <c r="M9" s="239"/>
-      <c r="N9" s="239"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="243"/>
+      <c r="H9" s="243"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="243"/>
+      <c r="K9" s="243"/>
+      <c r="L9" s="243"/>
+      <c r="M9" s="243"/>
+      <c r="N9" s="243"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -6920,16 +6928,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="239"/>
-      <c r="F10" s="239"/>
-      <c r="G10" s="239"/>
-      <c r="H10" s="239"/>
-      <c r="I10" s="239"/>
-      <c r="J10" s="239"/>
-      <c r="K10" s="239"/>
-      <c r="L10" s="239"/>
-      <c r="M10" s="239"/>
-      <c r="N10" s="239"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="243"/>
+      <c r="H10" s="243"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="243"/>
+      <c r="K10" s="243"/>
+      <c r="L10" s="243"/>
+      <c r="M10" s="243"/>
+      <c r="N10" s="243"/>
       <c r="O10" s="133"/>
       <c r="P10" s="131"/>
       <c r="Q10" s="5"/>
@@ -6942,16 +6950,16 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="239"/>
-      <c r="F11" s="239"/>
-      <c r="G11" s="239"/>
-      <c r="H11" s="239"/>
-      <c r="I11" s="239"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="239"/>
-      <c r="L11" s="239"/>
-      <c r="M11" s="239"/>
-      <c r="N11" s="239"/>
+      <c r="E11" s="243"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="243"/>
+      <c r="H11" s="243"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="243"/>
+      <c r="K11" s="243"/>
+      <c r="L11" s="243"/>
+      <c r="M11" s="243"/>
+      <c r="N11" s="243"/>
       <c r="O11" s="133"/>
       <c r="P11" s="131"/>
       <c r="Q11" s="5"/>
@@ -6964,16 +6972,16 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="239"/>
-      <c r="F12" s="239"/>
-      <c r="G12" s="239"/>
-      <c r="H12" s="239"/>
-      <c r="I12" s="239"/>
-      <c r="J12" s="239"/>
-      <c r="K12" s="239"/>
-      <c r="L12" s="239"/>
-      <c r="M12" s="239"/>
-      <c r="N12" s="239"/>
+      <c r="E12" s="243"/>
+      <c r="F12" s="243"/>
+      <c r="G12" s="243"/>
+      <c r="H12" s="243"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="243"/>
+      <c r="K12" s="243"/>
+      <c r="L12" s="243"/>
+      <c r="M12" s="243"/>
+      <c r="N12" s="243"/>
       <c r="O12" s="133"/>
       <c r="P12" s="131"/>
       <c r="Q12" s="5"/>
@@ -7009,23 +7017,23 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="156" t="s">
+      <c r="F14" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="158" t="str">
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J13:Q13</f>
         <v>Иванов И.И.</v>
       </c>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="158"/>
-      <c r="P14" s="158"/>
-      <c r="Q14" s="158"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="148"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="4"/>
@@ -7036,23 +7044,23 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="156" t="s">
+      <c r="F15" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="158" t="str">
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J14:Q14</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K15" s="158"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="158"/>
-      <c r="N15" s="158"/>
-      <c r="O15" s="158"/>
-      <c r="P15" s="158"/>
-      <c r="Q15" s="158"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="4"/>
@@ -7063,23 +7071,23 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="156" t="s">
+      <c r="F16" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="158" t="str">
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J15:Q15</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="158"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="148"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -7090,23 +7098,23 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="156" t="s">
+      <c r="F17" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="158" t="str">
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J16:Q16</f>
         <v>восьмой</v>
       </c>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="158"/>
-      <c r="N17" s="158"/>
-      <c r="O17" s="158"/>
-      <c r="P17" s="158"/>
-      <c r="Q17" s="158"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="148"/>
+      <c r="Q17" s="148"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="4"/>
@@ -7117,23 +7125,23 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="156" t="s">
+      <c r="F18" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="158" t="str">
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J17:Q17</f>
         <v>кухня</v>
       </c>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="158"/>
-      <c r="P18" s="158"/>
-      <c r="Q18" s="158"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="4"/>
@@ -7144,23 +7152,23 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="156" t="s">
+      <c r="F19" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="158" t="str">
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J18:Q18</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="158"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="148"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="4"/>
@@ -7171,23 +7179,23 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="156" t="s">
+      <c r="F20" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="158">
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="148">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J19:Q19</f>
         <v>500</v>
       </c>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="158"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="158"/>
-      <c r="Q20" s="158"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="148"/>
+      <c r="P20" s="148"/>
+      <c r="Q20" s="148"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="4"/>
@@ -7198,23 +7206,23 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="156" t="s">
+      <c r="F21" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="158" t="str">
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J20:Q20</f>
         <v>1-15,16</v>
       </c>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="158"/>
-      <c r="Q21" s="158"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="148"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="4"/>
@@ -7270,12 +7278,12 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="164" t="s">
+      <c r="G24" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="H24" s="165"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="165"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -7288,29 +7296,29 @@
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="166" t="s">
+      <c r="A25" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="165"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="151" t="str">
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="244" t="str">
         <f>builder</f>
         <v>_____________________</v>
       </c>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="151" t="s">
+      <c r="L25" s="244"/>
+      <c r="M25" s="244"/>
+      <c r="N25" s="244"/>
+      <c r="O25" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P25" s="151"/>
+      <c r="P25" s="146"/>
       <c r="Q25" s="140" t="s">
         <v>3</v>
       </c>
@@ -7319,7 +7327,7 @@
       </c>
       <c r="S25" s="114">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43647</v>
       </c>
       <c r="T25" s="22"/>
     </row>
@@ -7352,12 +7360,12 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="164" t="s">
+      <c r="G27" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -7370,28 +7378,29 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="167" t="s">
+      <c r="A28" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="165"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="163" t="s">
-        <v>4</v>
-      </c>
-      <c r="L28" s="163"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="151" t="s">
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="244" t="str">
+        <f>VAP</f>
+        <v>_____________________</v>
+      </c>
+      <c r="L28" s="244"/>
+      <c r="M28" s="244"/>
+      <c r="N28" s="244"/>
+      <c r="O28" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="151"/>
+      <c r="P28" s="146"/>
       <c r="Q28" s="140" t="s">
         <v>3</v>
       </c>
@@ -7400,33 +7409,34 @@
       </c>
       <c r="S28" s="114">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43647</v>
       </c>
       <c r="T28" s="22"/>
     </row>
     <row r="29" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="167" t="s">
+      <c r="A29" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="163" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="163"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="151" t="s">
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="244" t="str">
+        <f>RPG</f>
+        <v>_____________________</v>
+      </c>
+      <c r="L29" s="244"/>
+      <c r="M29" s="244"/>
+      <c r="N29" s="244"/>
+      <c r="O29" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="151"/>
+      <c r="P29" s="146"/>
       <c r="Q29" s="140" t="s">
         <v>3</v>
       </c>
@@ -7435,7 +7445,7 @@
       </c>
       <c r="S29" s="114">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43647</v>
       </c>
       <c r="T29" s="22"/>
     </row>
@@ -7468,12 +7478,12 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="164" t="s">
+      <c r="G31" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="165"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="165"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="144"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -7486,28 +7496,28 @@
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="167" t="s">
+      <c r="A32" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="165"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="165"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="165"/>
-      <c r="K32" s="163" t="s">
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="163"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="151" t="s">
+      <c r="L32" s="244"/>
+      <c r="M32" s="244"/>
+      <c r="N32" s="244"/>
+      <c r="O32" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="151"/>
+      <c r="P32" s="146"/>
       <c r="Q32" s="140" t="s">
         <v>3</v>
       </c>
@@ -7516,7 +7526,7 @@
       </c>
       <c r="S32" s="114">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43647</v>
       </c>
       <c r="T32" s="22"/>
     </row>
@@ -7549,12 +7559,12 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="164" t="s">
+      <c r="G34" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="165"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="165"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="144"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -7567,28 +7577,28 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="167" t="s">
+      <c r="A35" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="163" t="s">
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="163"/>
-      <c r="M35" s="163"/>
-      <c r="N35" s="163"/>
-      <c r="O35" s="151" t="s">
+      <c r="L35" s="244"/>
+      <c r="M35" s="244"/>
+      <c r="N35" s="244"/>
+      <c r="O35" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P35" s="151"/>
+      <c r="P35" s="146"/>
       <c r="Q35" s="140" t="s">
         <v>3</v>
       </c>
@@ -7597,7 +7607,7 @@
       </c>
       <c r="S35" s="114">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43647</v>
       </c>
       <c r="T35" s="22"/>
     </row>
@@ -7625,26 +7635,17 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="E9:N12"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:P32"/>
     <mergeCell ref="K28:N28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="F14:I14"/>
@@ -7661,17 +7662,26 @@
     <mergeCell ref="A25:J25"/>
     <mergeCell ref="K25:N25"/>
     <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="E9:N12"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="K5:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -7706,40 +7716,40 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="171" t="s">
+      <c r="A10" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="171"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="171"/>
-      <c r="M10" s="171"/>
-      <c r="N10" s="171"/>
-      <c r="O10" s="171"/>
-      <c r="P10" s="171"/>
-      <c r="Q10" s="171"/>
-      <c r="R10" s="171"/>
-      <c r="S10" s="171"/>
-      <c r="T10" s="171"/>
-      <c r="U10" s="171"/>
-      <c r="V10" s="171"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="168"/>
+      <c r="R10" s="168"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="168"/>
+      <c r="U10" s="168"/>
+      <c r="V10" s="168"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G12" s="39"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="172"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
     </row>
@@ -7747,15 +7757,15 @@
       <c r="G13" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="173" t="s">
+      <c r="H13" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="174"/>
-      <c r="J13" s="174"/>
-      <c r="K13" s="174"/>
-      <c r="L13" s="174"/>
-      <c r="M13" s="174"/>
-      <c r="N13" s="175"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="171"/>
+      <c r="N13" s="172"/>
       <c r="O13" s="34" t="s">
         <v>39</v>
       </c>
@@ -7767,15 +7777,15 @@
       <c r="G14" s="34">
         <v>2</v>
       </c>
-      <c r="H14" s="176" t="s">
+      <c r="H14" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="177"/>
-      <c r="M14" s="177"/>
-      <c r="N14" s="178"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
+      <c r="M14" s="174"/>
+      <c r="N14" s="175"/>
       <c r="O14" s="34" t="s">
         <v>41</v>
       </c>
@@ -7785,15 +7795,15 @@
       <c r="G15" s="34">
         <v>3</v>
       </c>
-      <c r="H15" s="176" t="s">
+      <c r="H15" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="177"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="177"/>
-      <c r="M15" s="177"/>
-      <c r="N15" s="178"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="174"/>
+      <c r="M15" s="174"/>
+      <c r="N15" s="175"/>
       <c r="O15" s="34" t="s">
         <v>36</v>
       </c>
@@ -7805,15 +7815,15 @@
       <c r="G16" s="34">
         <v>4</v>
       </c>
-      <c r="H16" s="176" t="s">
+      <c r="H16" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="177"/>
-      <c r="N16" s="178"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="174"/>
+      <c r="N16" s="175"/>
       <c r="O16" s="34" t="s">
         <v>43</v>
       </c>
@@ -7823,15 +7833,15 @@
       <c r="G17" s="34">
         <v>5</v>
       </c>
-      <c r="H17" s="176" t="s">
+      <c r="H17" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="177"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="177"/>
-      <c r="M17" s="177"/>
-      <c r="N17" s="178"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="174"/>
+      <c r="L17" s="174"/>
+      <c r="M17" s="174"/>
+      <c r="N17" s="175"/>
       <c r="O17" s="34" t="s">
         <v>43</v>
       </c>
@@ -7841,15 +7851,15 @@
       <c r="G18" s="34">
         <v>6</v>
       </c>
-      <c r="H18" s="176" t="s">
+      <c r="H18" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="177"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="177"/>
-      <c r="M18" s="177"/>
-      <c r="N18" s="178"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="175"/>
       <c r="O18" s="34" t="s">
         <v>43</v>
       </c>
@@ -7859,15 +7869,15 @@
       <c r="G19" s="34">
         <v>7</v>
       </c>
-      <c r="H19" s="176" t="s">
+      <c r="H19" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="177"/>
-      <c r="J19" s="177"/>
-      <c r="K19" s="177"/>
-      <c r="L19" s="177"/>
-      <c r="M19" s="177"/>
-      <c r="N19" s="178"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="174"/>
+      <c r="L19" s="174"/>
+      <c r="M19" s="174"/>
+      <c r="N19" s="175"/>
       <c r="O19" s="34" t="s">
         <v>43</v>
       </c>
@@ -7877,15 +7887,15 @@
       <c r="G20" s="34">
         <v>8</v>
       </c>
-      <c r="H20" s="176" t="s">
+      <c r="H20" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="177"/>
-      <c r="J20" s="177"/>
-      <c r="K20" s="177"/>
-      <c r="L20" s="177"/>
-      <c r="M20" s="177"/>
-      <c r="N20" s="178"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="174"/>
+      <c r="L20" s="174"/>
+      <c r="M20" s="174"/>
+      <c r="N20" s="175"/>
       <c r="O20" s="34" t="s">
         <v>43</v>
       </c>
@@ -7893,301 +7903,301 @@
     </row>
     <row r="21" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G21" s="39"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="179"/>
-      <c r="M21" s="179"/>
-      <c r="N21" s="179"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
     </row>
     <row r="22" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G22" s="33"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="168"/>
-      <c r="M22" s="168"/>
-      <c r="N22" s="168"/>
+      <c r="H22" s="176"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="176"/>
+      <c r="K22" s="176"/>
+      <c r="L22" s="176"/>
+      <c r="M22" s="176"/>
+      <c r="N22" s="176"/>
       <c r="O22" s="33"/>
       <c r="P22" s="36"/>
     </row>
     <row r="23" spans="7:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G23" s="33"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="168"/>
-      <c r="K23" s="168"/>
-      <c r="L23" s="168"/>
-      <c r="M23" s="168"/>
-      <c r="N23" s="168"/>
+      <c r="H23" s="176"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="176"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="176"/>
+      <c r="M23" s="176"/>
+      <c r="N23" s="176"/>
       <c r="O23" s="33"/>
       <c r="P23" s="37"/>
     </row>
     <row r="24" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G24" s="33"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="168"/>
-      <c r="K24" s="168"/>
-      <c r="L24" s="168"/>
-      <c r="M24" s="168"/>
-      <c r="N24" s="168"/>
+      <c r="H24" s="176"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="176"/>
+      <c r="K24" s="176"/>
+      <c r="L24" s="176"/>
+      <c r="M24" s="176"/>
+      <c r="N24" s="176"/>
       <c r="O24" s="33"/>
       <c r="P24" s="36"/>
     </row>
     <row r="25" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25" s="33"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="168"/>
-      <c r="K25" s="168"/>
-      <c r="L25" s="168"/>
-      <c r="M25" s="168"/>
-      <c r="N25" s="168"/>
+      <c r="H25" s="176"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="176"/>
+      <c r="K25" s="176"/>
+      <c r="L25" s="176"/>
+      <c r="M25" s="176"/>
+      <c r="N25" s="176"/>
       <c r="O25" s="33"/>
       <c r="P25" s="36"/>
     </row>
     <row r="26" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G26" s="33"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="168"/>
-      <c r="K26" s="168"/>
-      <c r="L26" s="168"/>
-      <c r="M26" s="168"/>
-      <c r="N26" s="168"/>
+      <c r="H26" s="176"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="176"/>
+      <c r="N26" s="176"/>
       <c r="O26" s="33"/>
       <c r="P26" s="36"/>
     </row>
     <row r="27" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G27" s="33"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="168"/>
-      <c r="K27" s="168"/>
-      <c r="L27" s="168"/>
-      <c r="M27" s="168"/>
-      <c r="N27" s="168"/>
+      <c r="H27" s="176"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="176"/>
+      <c r="K27" s="176"/>
+      <c r="L27" s="176"/>
+      <c r="M27" s="176"/>
+      <c r="N27" s="176"/>
       <c r="O27" s="33"/>
       <c r="P27" s="36"/>
     </row>
     <row r="28" spans="7:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G28" s="33"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="168"/>
-      <c r="L28" s="168"/>
-      <c r="M28" s="168"/>
-      <c r="N28" s="168"/>
+      <c r="H28" s="176"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="176"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="176"/>
+      <c r="N28" s="176"/>
       <c r="O28" s="33"/>
       <c r="P28" s="36"/>
     </row>
     <row r="29" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G29" s="33"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="168"/>
-      <c r="M29" s="168"/>
-      <c r="N29" s="168"/>
+      <c r="H29" s="176"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="176"/>
+      <c r="M29" s="176"/>
+      <c r="N29" s="176"/>
       <c r="O29" s="33"/>
       <c r="P29" s="36"/>
     </row>
     <row r="30" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G30" s="33"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="168"/>
-      <c r="K30" s="168"/>
-      <c r="L30" s="168"/>
-      <c r="M30" s="168"/>
-      <c r="N30" s="168"/>
+      <c r="H30" s="176"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="176"/>
+      <c r="L30" s="176"/>
+      <c r="M30" s="176"/>
+      <c r="N30" s="176"/>
       <c r="O30" s="33"/>
       <c r="P30" s="36"/>
     </row>
     <row r="31" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G31" s="33"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="168"/>
-      <c r="K31" s="168"/>
-      <c r="L31" s="168"/>
-      <c r="M31" s="168"/>
-      <c r="N31" s="168"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="176"/>
+      <c r="K31" s="176"/>
+      <c r="L31" s="176"/>
+      <c r="M31" s="176"/>
+      <c r="N31" s="176"/>
       <c r="O31" s="33"/>
       <c r="P31" s="36"/>
     </row>
     <row r="32" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G32" s="33"/>
-      <c r="H32" s="168"/>
-      <c r="I32" s="168"/>
-      <c r="J32" s="168"/>
-      <c r="K32" s="168"/>
-      <c r="L32" s="168"/>
-      <c r="M32" s="168"/>
-      <c r="N32" s="168"/>
+      <c r="H32" s="176"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="176"/>
+      <c r="K32" s="176"/>
+      <c r="L32" s="176"/>
+      <c r="M32" s="176"/>
+      <c r="N32" s="176"/>
       <c r="O32" s="33"/>
       <c r="P32" s="36"/>
     </row>
     <row r="33" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G33" s="33"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="168"/>
-      <c r="K33" s="168"/>
-      <c r="L33" s="168"/>
-      <c r="M33" s="168"/>
-      <c r="N33" s="168"/>
+      <c r="H33" s="176"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="176"/>
+      <c r="L33" s="176"/>
+      <c r="M33" s="176"/>
+      <c r="N33" s="176"/>
       <c r="O33" s="33"/>
       <c r="P33" s="36"/>
     </row>
     <row r="34" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G34" s="33"/>
-      <c r="H34" s="168"/>
-      <c r="I34" s="168"/>
-      <c r="J34" s="168"/>
-      <c r="K34" s="168"/>
-      <c r="L34" s="168"/>
-      <c r="M34" s="168"/>
-      <c r="N34" s="168"/>
+      <c r="H34" s="176"/>
+      <c r="I34" s="176"/>
+      <c r="J34" s="176"/>
+      <c r="K34" s="176"/>
+      <c r="L34" s="176"/>
+      <c r="M34" s="176"/>
+      <c r="N34" s="176"/>
       <c r="O34" s="33"/>
       <c r="P34" s="36"/>
     </row>
     <row r="35" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G35" s="33"/>
-      <c r="H35" s="168"/>
-      <c r="I35" s="168"/>
-      <c r="J35" s="168"/>
-      <c r="K35" s="168"/>
-      <c r="L35" s="168"/>
-      <c r="M35" s="168"/>
-      <c r="N35" s="168"/>
+      <c r="H35" s="176"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="176"/>
+      <c r="K35" s="176"/>
+      <c r="L35" s="176"/>
+      <c r="M35" s="176"/>
+      <c r="N35" s="176"/>
       <c r="O35" s="33"/>
       <c r="P35" s="36"/>
     </row>
     <row r="36" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G36" s="33"/>
-      <c r="H36" s="168"/>
-      <c r="I36" s="168"/>
-      <c r="J36" s="168"/>
-      <c r="K36" s="168"/>
-      <c r="L36" s="168"/>
-      <c r="M36" s="168"/>
-      <c r="N36" s="168"/>
+      <c r="H36" s="176"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="176"/>
+      <c r="K36" s="176"/>
+      <c r="L36" s="176"/>
+      <c r="M36" s="176"/>
+      <c r="N36" s="176"/>
       <c r="O36" s="33"/>
       <c r="P36" s="36"/>
     </row>
     <row r="37" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G37" s="33"/>
-      <c r="H37" s="168"/>
-      <c r="I37" s="168"/>
-      <c r="J37" s="168"/>
-      <c r="K37" s="168"/>
-      <c r="L37" s="168"/>
-      <c r="M37" s="168"/>
-      <c r="N37" s="168"/>
+      <c r="H37" s="176"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="176"/>
+      <c r="K37" s="176"/>
+      <c r="L37" s="176"/>
+      <c r="M37" s="176"/>
+      <c r="N37" s="176"/>
       <c r="O37" s="33"/>
       <c r="P37" s="36"/>
     </row>
     <row r="38" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G38" s="33"/>
-      <c r="H38" s="168"/>
-      <c r="I38" s="168"/>
-      <c r="J38" s="168"/>
-      <c r="K38" s="168"/>
-      <c r="L38" s="168"/>
-      <c r="M38" s="168"/>
-      <c r="N38" s="168"/>
+      <c r="H38" s="176"/>
+      <c r="I38" s="176"/>
+      <c r="J38" s="176"/>
+      <c r="K38" s="176"/>
+      <c r="L38" s="176"/>
+      <c r="M38" s="176"/>
+      <c r="N38" s="176"/>
       <c r="O38" s="33"/>
       <c r="P38" s="36"/>
     </row>
     <row r="39" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G39" s="33"/>
-      <c r="H39" s="168"/>
-      <c r="I39" s="168"/>
-      <c r="J39" s="168"/>
-      <c r="K39" s="168"/>
-      <c r="L39" s="168"/>
-      <c r="M39" s="168"/>
-      <c r="N39" s="168"/>
+      <c r="H39" s="176"/>
+      <c r="I39" s="176"/>
+      <c r="J39" s="176"/>
+      <c r="K39" s="176"/>
+      <c r="L39" s="176"/>
+      <c r="M39" s="176"/>
+      <c r="N39" s="176"/>
       <c r="O39" s="33"/>
       <c r="P39" s="36"/>
     </row>
     <row r="40" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G40" s="33"/>
-      <c r="H40" s="168"/>
-      <c r="I40" s="168"/>
-      <c r="J40" s="168"/>
-      <c r="K40" s="168"/>
-      <c r="L40" s="168"/>
-      <c r="M40" s="168"/>
-      <c r="N40" s="168"/>
+      <c r="H40" s="176"/>
+      <c r="I40" s="176"/>
+      <c r="J40" s="176"/>
+      <c r="K40" s="176"/>
+      <c r="L40" s="176"/>
+      <c r="M40" s="176"/>
+      <c r="N40" s="176"/>
       <c r="O40" s="33"/>
       <c r="P40" s="36"/>
     </row>
     <row r="41" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G41" s="33"/>
-      <c r="H41" s="168"/>
-      <c r="I41" s="168"/>
-      <c r="J41" s="168"/>
-      <c r="K41" s="168"/>
-      <c r="L41" s="168"/>
-      <c r="M41" s="168"/>
-      <c r="N41" s="168"/>
+      <c r="H41" s="176"/>
+      <c r="I41" s="176"/>
+      <c r="J41" s="176"/>
+      <c r="K41" s="176"/>
+      <c r="L41" s="176"/>
+      <c r="M41" s="176"/>
+      <c r="N41" s="176"/>
       <c r="O41" s="33"/>
       <c r="P41" s="36"/>
     </row>
     <row r="42" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G42" s="33"/>
-      <c r="H42" s="168"/>
-      <c r="I42" s="168"/>
-      <c r="J42" s="168"/>
-      <c r="K42" s="168"/>
-      <c r="L42" s="168"/>
-      <c r="M42" s="168"/>
-      <c r="N42" s="168"/>
+      <c r="H42" s="176"/>
+      <c r="I42" s="176"/>
+      <c r="J42" s="176"/>
+      <c r="K42" s="176"/>
+      <c r="L42" s="176"/>
+      <c r="M42" s="176"/>
+      <c r="N42" s="176"/>
       <c r="O42" s="33"/>
       <c r="P42" s="36"/>
     </row>
     <row r="43" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G43" s="33"/>
-      <c r="H43" s="168"/>
-      <c r="I43" s="168"/>
-      <c r="J43" s="168"/>
-      <c r="K43" s="168"/>
-      <c r="L43" s="168"/>
-      <c r="M43" s="168"/>
-      <c r="N43" s="168"/>
+      <c r="H43" s="176"/>
+      <c r="I43" s="176"/>
+      <c r="J43" s="176"/>
+      <c r="K43" s="176"/>
+      <c r="L43" s="176"/>
+      <c r="M43" s="176"/>
+      <c r="N43" s="176"/>
       <c r="O43" s="33"/>
       <c r="P43" s="36"/>
     </row>
     <row r="44" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G44" s="33"/>
-      <c r="H44" s="168"/>
-      <c r="I44" s="168"/>
-      <c r="J44" s="168"/>
-      <c r="K44" s="168"/>
-      <c r="L44" s="168"/>
-      <c r="M44" s="168"/>
-      <c r="N44" s="168"/>
+      <c r="H44" s="176"/>
+      <c r="I44" s="176"/>
+      <c r="J44" s="176"/>
+      <c r="K44" s="176"/>
+      <c r="L44" s="176"/>
+      <c r="M44" s="176"/>
+      <c r="N44" s="176"/>
       <c r="O44" s="33"/>
       <c r="P44" s="36"/>
     </row>
     <row r="45" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G45" s="33"/>
-      <c r="H45" s="168"/>
-      <c r="I45" s="168"/>
-      <c r="J45" s="168"/>
-      <c r="K45" s="168"/>
-      <c r="L45" s="168"/>
-      <c r="M45" s="168"/>
-      <c r="N45" s="168"/>
+      <c r="H45" s="176"/>
+      <c r="I45" s="176"/>
+      <c r="J45" s="176"/>
+      <c r="K45" s="176"/>
+      <c r="L45" s="176"/>
+      <c r="M45" s="176"/>
+      <c r="N45" s="176"/>
       <c r="O45" s="33"/>
       <c r="P45" s="36"/>
     </row>
@@ -8197,56 +8207,36 @@
     <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Y57" s="41">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43647</v>
       </c>
     </row>
     <row r="58" spans="2:25" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B58" s="169" t="str">
+      <c r="B58" s="178" t="str">
         <f ca="1">"Москва " &amp; YEAR(Y57)</f>
         <v>Москва 2019</v>
       </c>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
-      <c r="E58" s="170"/>
-      <c r="F58" s="170"/>
-      <c r="G58" s="170"/>
-      <c r="H58" s="170"/>
-      <c r="I58" s="170"/>
-      <c r="J58" s="170"/>
-      <c r="K58" s="170"/>
-      <c r="L58" s="170"/>
-      <c r="M58" s="170"/>
-      <c r="N58" s="170"/>
-      <c r="O58" s="170"/>
-      <c r="P58" s="170"/>
-      <c r="Q58" s="170"/>
-      <c r="R58" s="170"/>
-      <c r="S58" s="170"/>
-      <c r="T58" s="170"/>
-      <c r="U58" s="170"/>
+      <c r="C58" s="179"/>
+      <c r="D58" s="179"/>
+      <c r="E58" s="179"/>
+      <c r="F58" s="179"/>
+      <c r="G58" s="179"/>
+      <c r="H58" s="179"/>
+      <c r="I58" s="179"/>
+      <c r="J58" s="179"/>
+      <c r="K58" s="179"/>
+      <c r="L58" s="179"/>
+      <c r="M58" s="179"/>
+      <c r="N58" s="179"/>
+      <c r="O58" s="179"/>
+      <c r="P58" s="179"/>
+      <c r="Q58" s="179"/>
+      <c r="R58" s="179"/>
+      <c r="S58" s="179"/>
+      <c r="T58" s="179"/>
+      <c r="U58" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A10:V10"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H25:N25"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="H35:N35"/>
-    <mergeCell ref="H36:N36"/>
     <mergeCell ref="H26:N26"/>
     <mergeCell ref="H27:N27"/>
     <mergeCell ref="H28:N28"/>
@@ -8263,6 +8253,26 @@
     <mergeCell ref="H39:N39"/>
     <mergeCell ref="H40:N40"/>
     <mergeCell ref="H31:N31"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="H35:N35"/>
+    <mergeCell ref="H36:N36"/>
+    <mergeCell ref="A10:V10"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H16:N16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -8291,799 +8301,799 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="211"/>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-      <c r="M1" s="212"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="212"/>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="213"/>
+      <c r="A1" s="183"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="185"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="216"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="188"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="187"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="181"/>
+      <c r="R3" s="182"/>
     </row>
     <row r="4" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="186"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="186"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="186"/>
-      <c r="N4" s="186"/>
-      <c r="O4" s="186"/>
-      <c r="P4" s="186"/>
-      <c r="Q4" s="186"/>
-      <c r="R4" s="187"/>
+      <c r="A4" s="180"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="181"/>
+      <c r="M4" s="181"/>
+      <c r="N4" s="181"/>
+      <c r="O4" s="181"/>
+      <c r="P4" s="181"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="182"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="186"/>
-      <c r="M5" s="186"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="186"/>
-      <c r="P5" s="186"/>
-      <c r="Q5" s="186"/>
-      <c r="R5" s="187"/>
+      <c r="A5" s="180"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="182"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="186"/>
-      <c r="L6" s="186"/>
-      <c r="M6" s="186"/>
-      <c r="N6" s="186"/>
-      <c r="O6" s="186"/>
-      <c r="P6" s="186"/>
-      <c r="Q6" s="186"/>
-      <c r="R6" s="187"/>
+      <c r="A6" s="180"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="181"/>
+      <c r="P6" s="181"/>
+      <c r="Q6" s="181"/>
+      <c r="R6" s="182"/>
     </row>
     <row r="7" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="186"/>
-      <c r="L7" s="186"/>
-      <c r="M7" s="186"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="186"/>
-      <c r="R7" s="187"/>
+      <c r="A7" s="180"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="181"/>
+      <c r="L7" s="181"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="181"/>
+      <c r="P7" s="181"/>
+      <c r="Q7" s="181"/>
+      <c r="R7" s="182"/>
     </row>
     <row r="8" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="186"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="186"/>
-      <c r="L8" s="186"/>
-      <c r="M8" s="186"/>
-      <c r="N8" s="186"/>
-      <c r="O8" s="186"/>
-      <c r="P8" s="186"/>
-      <c r="Q8" s="186"/>
-      <c r="R8" s="187"/>
+      <c r="A8" s="180"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="181"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181"/>
+      <c r="P8" s="181"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="182"/>
     </row>
     <row r="9" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="186"/>
-      <c r="L9" s="186"/>
-      <c r="M9" s="186"/>
-      <c r="N9" s="186"/>
-      <c r="O9" s="186"/>
-      <c r="P9" s="186"/>
-      <c r="Q9" s="186"/>
-      <c r="R9" s="187"/>
+      <c r="A9" s="180"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="181"/>
+      <c r="R9" s="182"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
-      <c r="B10" s="186"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="186"/>
-      <c r="L10" s="186"/>
-      <c r="M10" s="186"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="186"/>
-      <c r="P10" s="186"/>
-      <c r="Q10" s="186"/>
-      <c r="R10" s="187"/>
+      <c r="A10" s="180"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="181"/>
+      <c r="R10" s="182"/>
     </row>
     <row r="11" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
-      <c r="B11" s="186"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="186"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="186"/>
-      <c r="L11" s="186"/>
-      <c r="M11" s="186"/>
-      <c r="N11" s="186"/>
-      <c r="O11" s="186"/>
-      <c r="P11" s="186"/>
-      <c r="Q11" s="186"/>
-      <c r="R11" s="187"/>
+      <c r="A11" s="180"/>
+      <c r="B11" s="181"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="181"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="181"/>
+      <c r="M11" s="181"/>
+      <c r="N11" s="181"/>
+      <c r="O11" s="181"/>
+      <c r="P11" s="181"/>
+      <c r="Q11" s="181"/>
+      <c r="R11" s="182"/>
     </row>
     <row r="12" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
-      <c r="B12" s="186"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="186"/>
-      <c r="L12" s="186"/>
-      <c r="M12" s="186"/>
-      <c r="N12" s="186"/>
-      <c r="O12" s="186"/>
-      <c r="P12" s="186"/>
-      <c r="Q12" s="186"/>
-      <c r="R12" s="187"/>
+      <c r="A12" s="180"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="181"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="181"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="181"/>
+      <c r="O12" s="181"/>
+      <c r="P12" s="181"/>
+      <c r="Q12" s="181"/>
+      <c r="R12" s="182"/>
     </row>
     <row r="13" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="185"/>
-      <c r="B13" s="186"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="186"/>
-      <c r="L13" s="186"/>
-      <c r="M13" s="186"/>
-      <c r="N13" s="186"/>
-      <c r="O13" s="186"/>
-      <c r="P13" s="186"/>
-      <c r="Q13" s="186"/>
-      <c r="R13" s="187"/>
+      <c r="A13" s="180"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="181"/>
+      <c r="M13" s="181"/>
+      <c r="N13" s="181"/>
+      <c r="O13" s="181"/>
+      <c r="P13" s="181"/>
+      <c r="Q13" s="181"/>
+      <c r="R13" s="182"/>
     </row>
     <row r="14" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="185"/>
-      <c r="B14" s="186"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="186"/>
-      <c r="L14" s="186"/>
-      <c r="M14" s="186"/>
-      <c r="N14" s="186"/>
-      <c r="O14" s="186"/>
-      <c r="P14" s="186"/>
-      <c r="Q14" s="186"/>
-      <c r="R14" s="187"/>
+      <c r="A14" s="180"/>
+      <c r="B14" s="181"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="181"/>
+      <c r="K14" s="181"/>
+      <c r="L14" s="181"/>
+      <c r="M14" s="181"/>
+      <c r="N14" s="181"/>
+      <c r="O14" s="181"/>
+      <c r="P14" s="181"/>
+      <c r="Q14" s="181"/>
+      <c r="R14" s="182"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
-      <c r="B15" s="186"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="186"/>
-      <c r="L15" s="186"/>
-      <c r="M15" s="186"/>
-      <c r="N15" s="186"/>
-      <c r="O15" s="186"/>
-      <c r="P15" s="186"/>
-      <c r="Q15" s="186"/>
-      <c r="R15" s="187"/>
+      <c r="A15" s="180"/>
+      <c r="B15" s="181"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="181"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="181"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="181"/>
+      <c r="O15" s="181"/>
+      <c r="P15" s="181"/>
+      <c r="Q15" s="181"/>
+      <c r="R15" s="182"/>
     </row>
     <row r="16" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="185"/>
-      <c r="B16" s="186"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="186"/>
-      <c r="L16" s="186"/>
-      <c r="M16" s="186"/>
-      <c r="N16" s="186"/>
-      <c r="O16" s="186"/>
-      <c r="P16" s="186"/>
-      <c r="Q16" s="186"/>
-      <c r="R16" s="187"/>
+      <c r="A16" s="180"/>
+      <c r="B16" s="181"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="181"/>
+      <c r="L16" s="181"/>
+      <c r="M16" s="181"/>
+      <c r="N16" s="181"/>
+      <c r="O16" s="181"/>
+      <c r="P16" s="181"/>
+      <c r="Q16" s="181"/>
+      <c r="R16" s="182"/>
     </row>
     <row r="17" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="185"/>
-      <c r="B17" s="186"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="186"/>
-      <c r="L17" s="186"/>
-      <c r="M17" s="186"/>
-      <c r="N17" s="186"/>
-      <c r="O17" s="186"/>
-      <c r="P17" s="186"/>
-      <c r="Q17" s="186"/>
-      <c r="R17" s="187"/>
+      <c r="A17" s="180"/>
+      <c r="B17" s="181"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="181"/>
+      <c r="K17" s="181"/>
+      <c r="L17" s="181"/>
+      <c r="M17" s="181"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="181"/>
+      <c r="P17" s="181"/>
+      <c r="Q17" s="181"/>
+      <c r="R17" s="182"/>
     </row>
     <row r="18" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="185"/>
-      <c r="B18" s="186"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="186"/>
-      <c r="L18" s="186"/>
-      <c r="M18" s="186"/>
-      <c r="N18" s="186"/>
-      <c r="O18" s="186"/>
-      <c r="P18" s="186"/>
-      <c r="Q18" s="186"/>
-      <c r="R18" s="187"/>
+      <c r="A18" s="180"/>
+      <c r="B18" s="181"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="181"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="181"/>
+      <c r="Q18" s="181"/>
+      <c r="R18" s="182"/>
     </row>
     <row r="19" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
-      <c r="B19" s="186"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="186"/>
-      <c r="L19" s="186"/>
-      <c r="M19" s="186"/>
-      <c r="N19" s="186"/>
-      <c r="O19" s="186"/>
-      <c r="P19" s="186"/>
-      <c r="Q19" s="186"/>
-      <c r="R19" s="187"/>
+      <c r="A19" s="180"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="181"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="181"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="181"/>
+      <c r="P19" s="181"/>
+      <c r="Q19" s="181"/>
+      <c r="R19" s="182"/>
     </row>
     <row r="20" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="185"/>
-      <c r="B20" s="186"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="186"/>
-      <c r="L20" s="186"/>
-      <c r="M20" s="186"/>
-      <c r="N20" s="186"/>
-      <c r="O20" s="186"/>
-      <c r="P20" s="186"/>
-      <c r="Q20" s="186"/>
-      <c r="R20" s="187"/>
+      <c r="A20" s="180"/>
+      <c r="B20" s="181"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="181"/>
+      <c r="K20" s="181"/>
+      <c r="L20" s="181"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="181"/>
+      <c r="P20" s="181"/>
+      <c r="Q20" s="181"/>
+      <c r="R20" s="182"/>
     </row>
     <row r="21" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="185"/>
-      <c r="B21" s="186"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="186"/>
-      <c r="L21" s="186"/>
-      <c r="M21" s="186"/>
-      <c r="N21" s="186"/>
-      <c r="O21" s="186"/>
-      <c r="P21" s="186"/>
-      <c r="Q21" s="186"/>
-      <c r="R21" s="187"/>
+      <c r="A21" s="180"/>
+      <c r="B21" s="181"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="181"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="181"/>
+      <c r="M21" s="181"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="181"/>
+      <c r="P21" s="181"/>
+      <c r="Q21" s="181"/>
+      <c r="R21" s="182"/>
     </row>
     <row r="22" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="185"/>
-      <c r="B22" s="186"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="186"/>
-      <c r="L22" s="186"/>
-      <c r="M22" s="186"/>
-      <c r="N22" s="186"/>
-      <c r="O22" s="186"/>
-      <c r="P22" s="186"/>
-      <c r="Q22" s="186"/>
-      <c r="R22" s="187"/>
+      <c r="A22" s="180"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="181"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="182"/>
     </row>
     <row r="23" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
-      <c r="B23" s="186"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="186"/>
-      <c r="K23" s="186"/>
-      <c r="L23" s="186"/>
-      <c r="M23" s="186"/>
-      <c r="N23" s="186"/>
-      <c r="O23" s="186"/>
-      <c r="P23" s="186"/>
-      <c r="Q23" s="186"/>
-      <c r="R23" s="187"/>
+      <c r="A23" s="180"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="182"/>
     </row>
     <row r="24" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="185"/>
-      <c r="B24" s="186"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="186"/>
-      <c r="L24" s="186"/>
-      <c r="M24" s="186"/>
-      <c r="N24" s="186"/>
-      <c r="O24" s="186"/>
-      <c r="P24" s="186"/>
-      <c r="Q24" s="186"/>
-      <c r="R24" s="187"/>
+      <c r="A24" s="180"/>
+      <c r="B24" s="181"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="181"/>
+      <c r="K24" s="181"/>
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="181"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="181"/>
+      <c r="R24" s="182"/>
     </row>
     <row r="25" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="185"/>
-      <c r="B25" s="186"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="186"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="186"/>
-      <c r="L25" s="186"/>
-      <c r="M25" s="186"/>
-      <c r="N25" s="186"/>
-      <c r="O25" s="186"/>
-      <c r="P25" s="186"/>
-      <c r="Q25" s="186"/>
-      <c r="R25" s="187"/>
+      <c r="A25" s="180"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="181"/>
+      <c r="N25" s="181"/>
+      <c r="O25" s="181"/>
+      <c r="P25" s="181"/>
+      <c r="Q25" s="181"/>
+      <c r="R25" s="182"/>
     </row>
     <row r="26" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="185"/>
-      <c r="B26" s="186"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="186"/>
-      <c r="K26" s="186"/>
-      <c r="L26" s="186"/>
-      <c r="M26" s="186"/>
-      <c r="N26" s="186"/>
-      <c r="O26" s="186"/>
-      <c r="P26" s="186"/>
-      <c r="Q26" s="186"/>
-      <c r="R26" s="187"/>
+      <c r="A26" s="180"/>
+      <c r="B26" s="181"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="181"/>
+      <c r="K26" s="181"/>
+      <c r="L26" s="181"/>
+      <c r="M26" s="181"/>
+      <c r="N26" s="181"/>
+      <c r="O26" s="181"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="181"/>
+      <c r="R26" s="182"/>
     </row>
     <row r="27" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
-      <c r="B27" s="186"/>
-      <c r="C27" s="186"/>
-      <c r="D27" s="186"/>
-      <c r="E27" s="186"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="186"/>
-      <c r="L27" s="186"/>
-      <c r="M27" s="186"/>
-      <c r="N27" s="186"/>
-      <c r="O27" s="186"/>
-      <c r="P27" s="186"/>
-      <c r="Q27" s="186"/>
-      <c r="R27" s="187"/>
+      <c r="A27" s="180"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="181"/>
+      <c r="M27" s="181"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="182"/>
     </row>
     <row r="28" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="185"/>
-      <c r="B28" s="186"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="186"/>
-      <c r="L28" s="186"/>
-      <c r="M28" s="186"/>
-      <c r="N28" s="186"/>
-      <c r="O28" s="186"/>
-      <c r="P28" s="186"/>
-      <c r="Q28" s="186"/>
-      <c r="R28" s="187"/>
+      <c r="A28" s="180"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="181"/>
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="181"/>
+      <c r="R28" s="182"/>
     </row>
     <row r="29" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="185"/>
-      <c r="B29" s="186"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="186"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="186"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="186"/>
-      <c r="J29" s="186"/>
-      <c r="K29" s="186"/>
-      <c r="L29" s="186"/>
-      <c r="M29" s="186"/>
-      <c r="N29" s="186"/>
-      <c r="O29" s="186"/>
-      <c r="P29" s="186"/>
-      <c r="Q29" s="186"/>
-      <c r="R29" s="187"/>
+      <c r="A29" s="180"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="181"/>
+      <c r="R29" s="182"/>
     </row>
     <row r="30" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="185"/>
-      <c r="B30" s="186"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="186"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="186"/>
-      <c r="L30" s="186"/>
-      <c r="M30" s="186"/>
-      <c r="N30" s="186"/>
-      <c r="O30" s="186"/>
-      <c r="P30" s="186"/>
-      <c r="Q30" s="186"/>
-      <c r="R30" s="187"/>
+      <c r="A30" s="180"/>
+      <c r="B30" s="181"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="181"/>
+      <c r="K30" s="181"/>
+      <c r="L30" s="181"/>
+      <c r="M30" s="181"/>
+      <c r="N30" s="181"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="181"/>
+      <c r="R30" s="182"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="186"/>
-      <c r="K31" s="186"/>
-      <c r="L31" s="186"/>
-      <c r="M31" s="186"/>
-      <c r="N31" s="186"/>
-      <c r="O31" s="186"/>
-      <c r="P31" s="186"/>
-      <c r="Q31" s="186"/>
-      <c r="R31" s="187"/>
+      <c r="A31" s="180"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="181"/>
+      <c r="K31" s="181"/>
+      <c r="L31" s="181"/>
+      <c r="M31" s="181"/>
+      <c r="N31" s="181"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="181"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="182"/>
     </row>
     <row r="32" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="185"/>
-      <c r="B32" s="186"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="186"/>
-      <c r="L32" s="186"/>
-      <c r="M32" s="186"/>
-      <c r="N32" s="186"/>
-      <c r="O32" s="186"/>
-      <c r="P32" s="186"/>
-      <c r="Q32" s="186"/>
-      <c r="R32" s="187"/>
+      <c r="A32" s="180"/>
+      <c r="B32" s="181"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="181"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="181"/>
+      <c r="K32" s="181"/>
+      <c r="L32" s="181"/>
+      <c r="M32" s="181"/>
+      <c r="N32" s="181"/>
+      <c r="O32" s="181"/>
+      <c r="P32" s="181"/>
+      <c r="Q32" s="181"/>
+      <c r="R32" s="182"/>
       <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="185"/>
-      <c r="B33" s="186"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="186"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="186"/>
-      <c r="L33" s="186"/>
-      <c r="M33" s="186"/>
-      <c r="N33" s="186"/>
-      <c r="O33" s="186"/>
-      <c r="P33" s="186"/>
-      <c r="Q33" s="186"/>
-      <c r="R33" s="187"/>
+      <c r="A33" s="180"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="181"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="181"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="182"/>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="185"/>
-      <c r="B34" s="186"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="186"/>
-      <c r="K34" s="186"/>
-      <c r="L34" s="186"/>
-      <c r="M34" s="186"/>
-      <c r="N34" s="186"/>
-      <c r="O34" s="186"/>
-      <c r="P34" s="186"/>
-      <c r="Q34" s="186"/>
-      <c r="R34" s="187"/>
+      <c r="A34" s="180"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="181"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="181"/>
+      <c r="K34" s="181"/>
+      <c r="L34" s="181"/>
+      <c r="M34" s="181"/>
+      <c r="N34" s="181"/>
+      <c r="O34" s="181"/>
+      <c r="P34" s="181"/>
+      <c r="Q34" s="181"/>
+      <c r="R34" s="182"/>
       <c r="S34" s="12"/>
     </row>
     <row r="35" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="185"/>
-      <c r="B35" s="186"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="186"/>
-      <c r="K35" s="186"/>
-      <c r="L35" s="186"/>
-      <c r="M35" s="186"/>
-      <c r="N35" s="186"/>
-      <c r="O35" s="186"/>
-      <c r="P35" s="186"/>
-      <c r="Q35" s="186"/>
-      <c r="R35" s="187"/>
+      <c r="A35" s="180"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="181"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="181"/>
+      <c r="K35" s="181"/>
+      <c r="L35" s="181"/>
+      <c r="M35" s="181"/>
+      <c r="N35" s="181"/>
+      <c r="O35" s="181"/>
+      <c r="P35" s="181"/>
+      <c r="Q35" s="181"/>
+      <c r="R35" s="182"/>
       <c r="S35" s="12"/>
     </row>
     <row r="36" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="185"/>
-      <c r="B36" s="186"/>
-      <c r="C36" s="186"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="186"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="186"/>
-      <c r="J36" s="186"/>
-      <c r="K36" s="186"/>
-      <c r="L36" s="186"/>
-      <c r="M36" s="186"/>
-      <c r="N36" s="186"/>
-      <c r="O36" s="186"/>
-      <c r="P36" s="186"/>
-      <c r="Q36" s="186"/>
-      <c r="R36" s="187"/>
+      <c r="A36" s="180"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="181"/>
+      <c r="F36" s="181"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="181"/>
+      <c r="I36" s="181"/>
+      <c r="J36" s="181"/>
+      <c r="K36" s="181"/>
+      <c r="L36" s="181"/>
+      <c r="M36" s="181"/>
+      <c r="N36" s="181"/>
+      <c r="O36" s="181"/>
+      <c r="P36" s="181"/>
+      <c r="Q36" s="181"/>
+      <c r="R36" s="182"/>
       <c r="S36" s="12"/>
     </row>
     <row r="37" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="185"/>
-      <c r="B37" s="186"/>
-      <c r="C37" s="186"/>
-      <c r="D37" s="186"/>
-      <c r="E37" s="186"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="186"/>
-      <c r="H37" s="186"/>
-      <c r="I37" s="186"/>
-      <c r="J37" s="186"/>
-      <c r="K37" s="186"/>
-      <c r="L37" s="186"/>
-      <c r="M37" s="186"/>
-      <c r="N37" s="186"/>
-      <c r="O37" s="186"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="186"/>
-      <c r="R37" s="187"/>
+      <c r="A37" s="180"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
+      <c r="E37" s="181"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="181"/>
+      <c r="I37" s="181"/>
+      <c r="J37" s="181"/>
+      <c r="K37" s="181"/>
+      <c r="L37" s="181"/>
+      <c r="M37" s="181"/>
+      <c r="N37" s="181"/>
+      <c r="O37" s="181"/>
+      <c r="P37" s="181"/>
+      <c r="Q37" s="181"/>
+      <c r="R37" s="182"/>
       <c r="S37" s="12"/>
     </row>
     <row r="38" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="185"/>
-      <c r="B38" s="186"/>
-      <c r="C38" s="186"/>
-      <c r="D38" s="186"/>
-      <c r="E38" s="186"/>
-      <c r="F38" s="186"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="186"/>
-      <c r="K38" s="186"/>
-      <c r="L38" s="186"/>
-      <c r="M38" s="186"/>
-      <c r="N38" s="186"/>
-      <c r="O38" s="186"/>
-      <c r="P38" s="186"/>
-      <c r="Q38" s="186"/>
-      <c r="R38" s="187"/>
+      <c r="A38" s="180"/>
+      <c r="B38" s="181"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="181"/>
+      <c r="H38" s="181"/>
+      <c r="I38" s="181"/>
+      <c r="J38" s="181"/>
+      <c r="K38" s="181"/>
+      <c r="L38" s="181"/>
+      <c r="M38" s="181"/>
+      <c r="N38" s="181"/>
+      <c r="O38" s="181"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="181"/>
+      <c r="R38" s="182"/>
       <c r="S38" s="12"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="208" t="s">
+      <c r="A39" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="209"/>
-      <c r="C39" s="209"/>
-      <c r="D39" s="209"/>
-      <c r="E39" s="209"/>
-      <c r="F39" s="209"/>
-      <c r="G39" s="209"/>
-      <c r="H39" s="209"/>
-      <c r="I39" s="209"/>
-      <c r="J39" s="209"/>
-      <c r="K39" s="209"/>
-      <c r="L39" s="209"/>
-      <c r="M39" s="209"/>
-      <c r="N39" s="209"/>
-      <c r="O39" s="209"/>
-      <c r="P39" s="209"/>
-      <c r="Q39" s="209"/>
-      <c r="R39" s="210"/>
+      <c r="B39" s="190"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="190"/>
+      <c r="G39" s="190"/>
+      <c r="H39" s="190"/>
+      <c r="I39" s="190"/>
+      <c r="J39" s="190"/>
+      <c r="K39" s="190"/>
+      <c r="L39" s="190"/>
+      <c r="M39" s="190"/>
+      <c r="N39" s="190"/>
+      <c r="O39" s="190"/>
+      <c r="P39" s="190"/>
+      <c r="Q39" s="190"/>
+      <c r="R39" s="191"/>
       <c r="S39" s="12"/>
     </row>
     <row r="40" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="188"/>
+      <c r="A40" s="197"/>
       <c r="B40" s="54" t="s">
         <v>50</v>
       </c>
@@ -9092,8 +9102,8 @@
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
-      <c r="H40" s="191"/>
-      <c r="I40" s="192"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="201"/>
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
       <c r="L40" s="55"/>
@@ -9102,17 +9112,17 @@
       <c r="O40" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="P40" s="195" t="s">
+      <c r="P40" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="Q40" s="196"/>
+      <c r="Q40" s="205"/>
       <c r="R40" s="57" t="s">
         <v>54</v>
       </c>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="189"/>
+    <row r="41" spans="1:19" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="198"/>
       <c r="B41" s="43" t="s">
         <v>51</v>
       </c>
@@ -9131,8 +9141,8 @@
       <c r="G41" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="193"/>
-      <c r="I41" s="194"/>
+      <c r="H41" s="202"/>
+      <c r="I41" s="203"/>
       <c r="J41" s="44" t="s">
         <v>55</v>
       </c>
@@ -9149,136 +9159,100 @@
         <v>59</v>
       </c>
       <c r="O41" s="45"/>
-      <c r="P41" s="197"/>
-      <c r="Q41" s="198"/>
-      <c r="R41" s="203"/>
+      <c r="P41" s="206"/>
+      <c r="Q41" s="207"/>
+      <c r="R41" s="212"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="189"/>
+    <row r="42" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="198"/>
       <c r="B42" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="206" t="s">
+      <c r="C42" s="215" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="207"/>
+      <c r="D42" s="216"/>
       <c r="E42" s="50"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="206" t="s">
+      <c r="J42" s="215" t="s">
         <v>65</v>
       </c>
-      <c r="K42" s="207"/>
+      <c r="K42" s="216"/>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
       <c r="N42" s="31"/>
       <c r="O42" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="P42" s="199"/>
-      <c r="Q42" s="200"/>
-      <c r="R42" s="204"/>
+      <c r="P42" s="208"/>
+      <c r="Q42" s="209"/>
+      <c r="R42" s="213"/>
       <c r="S42" s="12"/>
     </row>
     <row r="43" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="189"/>
+      <c r="A43" s="198"/>
       <c r="B43" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="206" t="s">
+      <c r="C43" s="215" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="207"/>
+      <c r="D43" s="216"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="52"/>
       <c r="I43" s="53"/>
-      <c r="J43" s="206" t="s">
+      <c r="J43" s="215" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="207"/>
+      <c r="K43" s="216"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
       <c r="O43" s="47"/>
-      <c r="P43" s="201"/>
-      <c r="Q43" s="202"/>
-      <c r="R43" s="205"/>
+      <c r="P43" s="210"/>
+      <c r="Q43" s="211"/>
+      <c r="R43" s="214"/>
     </row>
     <row r="44" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="190"/>
+      <c r="A44" s="199"/>
       <c r="B44" s="58"/>
-      <c r="C44" s="180" t="s">
+      <c r="C44" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="181"/>
+      <c r="D44" s="193"/>
       <c r="E44" s="59"/>
       <c r="F44" s="60"/>
       <c r="G44" s="60"/>
       <c r="H44" s="61"/>
       <c r="I44" s="62"/>
-      <c r="J44" s="180" t="s">
+      <c r="J44" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="K44" s="181"/>
+      <c r="K44" s="193"/>
       <c r="L44" s="59"/>
       <c r="M44" s="59" t="s">
         <v>70</v>
       </c>
       <c r="N44" s="60"/>
-      <c r="O44" s="182" t="s">
+      <c r="O44" s="194" t="s">
         <v>71</v>
       </c>
-      <c r="P44" s="183"/>
-      <c r="Q44" s="182" t="s">
+      <c r="P44" s="195"/>
+      <c r="Q44" s="194" t="s">
         <v>72</v>
       </c>
-      <c r="R44" s="184"/>
+      <c r="R44" s="196"/>
     </row>
     <row r="45" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A8:R8"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="A10:R10"/>
-    <mergeCell ref="A11:R11"/>
-    <mergeCell ref="A27:R27"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="A14:R14"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A18:R18"/>
-    <mergeCell ref="A19:R19"/>
-    <mergeCell ref="A20:R20"/>
-    <mergeCell ref="A21:R21"/>
-    <mergeCell ref="A22:R22"/>
-    <mergeCell ref="A23:R23"/>
-    <mergeCell ref="A39:R39"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="A29:R29"/>
-    <mergeCell ref="A30:R30"/>
-    <mergeCell ref="A31:R31"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="A33:R33"/>
-    <mergeCell ref="A34:R34"/>
-    <mergeCell ref="A35:R35"/>
-    <mergeCell ref="A36:R36"/>
-    <mergeCell ref="A37:R37"/>
-    <mergeCell ref="A38:R38"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="O44:P44"/>
     <mergeCell ref="Q44:R44"/>
@@ -9295,6 +9269,42 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A39:R39"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="A29:R29"/>
+    <mergeCell ref="A30:R30"/>
+    <mergeCell ref="A31:R31"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="A33:R33"/>
+    <mergeCell ref="A34:R34"/>
+    <mergeCell ref="A35:R35"/>
+    <mergeCell ref="A36:R36"/>
+    <mergeCell ref="A37:R37"/>
+    <mergeCell ref="A38:R38"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:R14"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="A20:R20"/>
+    <mergeCell ref="A21:R21"/>
+    <mergeCell ref="A22:R22"/>
+    <mergeCell ref="A23:R23"/>
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A11:R11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B43" r:id="rId1" display="http://www.sofia-decor.ru/"/>
@@ -9326,799 +9336,799 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="211"/>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-      <c r="M1" s="212"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="212"/>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="213"/>
+      <c r="A1" s="183"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="185"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="216"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="188"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="187"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="181"/>
+      <c r="R3" s="182"/>
     </row>
     <row r="4" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="186"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="186"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="186"/>
-      <c r="N4" s="186"/>
-      <c r="O4" s="186"/>
-      <c r="P4" s="186"/>
-      <c r="Q4" s="186"/>
-      <c r="R4" s="187"/>
+      <c r="A4" s="180"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="181"/>
+      <c r="M4" s="181"/>
+      <c r="N4" s="181"/>
+      <c r="O4" s="181"/>
+      <c r="P4" s="181"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="182"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="186"/>
-      <c r="M5" s="186"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="186"/>
-      <c r="P5" s="186"/>
-      <c r="Q5" s="186"/>
-      <c r="R5" s="187"/>
+      <c r="A5" s="180"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="182"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="186"/>
-      <c r="L6" s="186"/>
-      <c r="M6" s="186"/>
-      <c r="N6" s="186"/>
-      <c r="O6" s="186"/>
-      <c r="P6" s="186"/>
-      <c r="Q6" s="186"/>
-      <c r="R6" s="187"/>
+      <c r="A6" s="180"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="181"/>
+      <c r="P6" s="181"/>
+      <c r="Q6" s="181"/>
+      <c r="R6" s="182"/>
     </row>
     <row r="7" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="186"/>
-      <c r="L7" s="186"/>
-      <c r="M7" s="186"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="186"/>
-      <c r="R7" s="187"/>
+      <c r="A7" s="180"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="181"/>
+      <c r="L7" s="181"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="181"/>
+      <c r="P7" s="181"/>
+      <c r="Q7" s="181"/>
+      <c r="R7" s="182"/>
     </row>
     <row r="8" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="186"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="186"/>
-      <c r="L8" s="186"/>
-      <c r="M8" s="186"/>
-      <c r="N8" s="186"/>
-      <c r="O8" s="186"/>
-      <c r="P8" s="186"/>
-      <c r="Q8" s="186"/>
-      <c r="R8" s="187"/>
+      <c r="A8" s="180"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="181"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181"/>
+      <c r="P8" s="181"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="182"/>
     </row>
     <row r="9" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="186"/>
-      <c r="L9" s="186"/>
-      <c r="M9" s="186"/>
-      <c r="N9" s="186"/>
-      <c r="O9" s="186"/>
-      <c r="P9" s="186"/>
-      <c r="Q9" s="186"/>
-      <c r="R9" s="187"/>
+      <c r="A9" s="180"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="181"/>
+      <c r="R9" s="182"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
-      <c r="B10" s="186"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="186"/>
-      <c r="L10" s="186"/>
-      <c r="M10" s="186"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="186"/>
-      <c r="P10" s="186"/>
-      <c r="Q10" s="186"/>
-      <c r="R10" s="187"/>
+      <c r="A10" s="180"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="181"/>
+      <c r="R10" s="182"/>
     </row>
     <row r="11" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
-      <c r="B11" s="186"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="186"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="186"/>
-      <c r="L11" s="186"/>
-      <c r="M11" s="186"/>
-      <c r="N11" s="186"/>
-      <c r="O11" s="186"/>
-      <c r="P11" s="186"/>
-      <c r="Q11" s="186"/>
-      <c r="R11" s="187"/>
+      <c r="A11" s="180"/>
+      <c r="B11" s="181"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="181"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="181"/>
+      <c r="M11" s="181"/>
+      <c r="N11" s="181"/>
+      <c r="O11" s="181"/>
+      <c r="P11" s="181"/>
+      <c r="Q11" s="181"/>
+      <c r="R11" s="182"/>
     </row>
     <row r="12" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
-      <c r="B12" s="186"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="186"/>
-      <c r="L12" s="186"/>
-      <c r="M12" s="186"/>
-      <c r="N12" s="186"/>
-      <c r="O12" s="186"/>
-      <c r="P12" s="186"/>
-      <c r="Q12" s="186"/>
-      <c r="R12" s="187"/>
+      <c r="A12" s="180"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="181"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="181"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="181"/>
+      <c r="O12" s="181"/>
+      <c r="P12" s="181"/>
+      <c r="Q12" s="181"/>
+      <c r="R12" s="182"/>
     </row>
     <row r="13" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="185"/>
-      <c r="B13" s="186"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="186"/>
-      <c r="L13" s="186"/>
-      <c r="M13" s="186"/>
-      <c r="N13" s="186"/>
-      <c r="O13" s="186"/>
-      <c r="P13" s="186"/>
-      <c r="Q13" s="186"/>
-      <c r="R13" s="187"/>
+      <c r="A13" s="180"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="181"/>
+      <c r="M13" s="181"/>
+      <c r="N13" s="181"/>
+      <c r="O13" s="181"/>
+      <c r="P13" s="181"/>
+      <c r="Q13" s="181"/>
+      <c r="R13" s="182"/>
     </row>
     <row r="14" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="185"/>
-      <c r="B14" s="186"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="186"/>
-      <c r="L14" s="186"/>
-      <c r="M14" s="186"/>
-      <c r="N14" s="186"/>
-      <c r="O14" s="186"/>
-      <c r="P14" s="186"/>
-      <c r="Q14" s="186"/>
-      <c r="R14" s="187"/>
+      <c r="A14" s="180"/>
+      <c r="B14" s="181"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="181"/>
+      <c r="K14" s="181"/>
+      <c r="L14" s="181"/>
+      <c r="M14" s="181"/>
+      <c r="N14" s="181"/>
+      <c r="O14" s="181"/>
+      <c r="P14" s="181"/>
+      <c r="Q14" s="181"/>
+      <c r="R14" s="182"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
-      <c r="B15" s="186"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="186"/>
-      <c r="L15" s="186"/>
-      <c r="M15" s="186"/>
-      <c r="N15" s="186"/>
-      <c r="O15" s="186"/>
-      <c r="P15" s="186"/>
-      <c r="Q15" s="186"/>
-      <c r="R15" s="187"/>
+      <c r="A15" s="180"/>
+      <c r="B15" s="181"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="181"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="181"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="181"/>
+      <c r="O15" s="181"/>
+      <c r="P15" s="181"/>
+      <c r="Q15" s="181"/>
+      <c r="R15" s="182"/>
     </row>
     <row r="16" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="185"/>
-      <c r="B16" s="186"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="186"/>
-      <c r="L16" s="186"/>
-      <c r="M16" s="186"/>
-      <c r="N16" s="186"/>
-      <c r="O16" s="186"/>
-      <c r="P16" s="186"/>
-      <c r="Q16" s="186"/>
-      <c r="R16" s="187"/>
+      <c r="A16" s="180"/>
+      <c r="B16" s="181"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="181"/>
+      <c r="L16" s="181"/>
+      <c r="M16" s="181"/>
+      <c r="N16" s="181"/>
+      <c r="O16" s="181"/>
+      <c r="P16" s="181"/>
+      <c r="Q16" s="181"/>
+      <c r="R16" s="182"/>
     </row>
     <row r="17" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="185"/>
-      <c r="B17" s="186"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="186"/>
-      <c r="L17" s="186"/>
-      <c r="M17" s="186"/>
-      <c r="N17" s="186"/>
-      <c r="O17" s="186"/>
-      <c r="P17" s="186"/>
-      <c r="Q17" s="186"/>
-      <c r="R17" s="187"/>
+      <c r="A17" s="180"/>
+      <c r="B17" s="181"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="181"/>
+      <c r="K17" s="181"/>
+      <c r="L17" s="181"/>
+      <c r="M17" s="181"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="181"/>
+      <c r="P17" s="181"/>
+      <c r="Q17" s="181"/>
+      <c r="R17" s="182"/>
     </row>
     <row r="18" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="185"/>
-      <c r="B18" s="186"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="186"/>
-      <c r="L18" s="186"/>
-      <c r="M18" s="186"/>
-      <c r="N18" s="186"/>
-      <c r="O18" s="186"/>
-      <c r="P18" s="186"/>
-      <c r="Q18" s="186"/>
-      <c r="R18" s="187"/>
+      <c r="A18" s="180"/>
+      <c r="B18" s="181"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="181"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="181"/>
+      <c r="Q18" s="181"/>
+      <c r="R18" s="182"/>
     </row>
     <row r="19" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
-      <c r="B19" s="186"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="186"/>
-      <c r="L19" s="186"/>
-      <c r="M19" s="186"/>
-      <c r="N19" s="186"/>
-      <c r="O19" s="186"/>
-      <c r="P19" s="186"/>
-      <c r="Q19" s="186"/>
-      <c r="R19" s="187"/>
+      <c r="A19" s="180"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="181"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="181"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="181"/>
+      <c r="P19" s="181"/>
+      <c r="Q19" s="181"/>
+      <c r="R19" s="182"/>
     </row>
     <row r="20" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="185"/>
-      <c r="B20" s="186"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="186"/>
-      <c r="L20" s="186"/>
-      <c r="M20" s="186"/>
-      <c r="N20" s="186"/>
-      <c r="O20" s="186"/>
-      <c r="P20" s="186"/>
-      <c r="Q20" s="186"/>
-      <c r="R20" s="187"/>
+      <c r="A20" s="180"/>
+      <c r="B20" s="181"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="181"/>
+      <c r="K20" s="181"/>
+      <c r="L20" s="181"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="181"/>
+      <c r="P20" s="181"/>
+      <c r="Q20" s="181"/>
+      <c r="R20" s="182"/>
     </row>
     <row r="21" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="185"/>
-      <c r="B21" s="186"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="186"/>
-      <c r="L21" s="186"/>
-      <c r="M21" s="186"/>
-      <c r="N21" s="186"/>
-      <c r="O21" s="186"/>
-      <c r="P21" s="186"/>
-      <c r="Q21" s="186"/>
-      <c r="R21" s="187"/>
+      <c r="A21" s="180"/>
+      <c r="B21" s="181"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="181"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="181"/>
+      <c r="M21" s="181"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="181"/>
+      <c r="P21" s="181"/>
+      <c r="Q21" s="181"/>
+      <c r="R21" s="182"/>
     </row>
     <row r="22" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="185"/>
-      <c r="B22" s="186"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="186"/>
-      <c r="L22" s="186"/>
-      <c r="M22" s="186"/>
-      <c r="N22" s="186"/>
-      <c r="O22" s="186"/>
-      <c r="P22" s="186"/>
-      <c r="Q22" s="186"/>
-      <c r="R22" s="187"/>
+      <c r="A22" s="180"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="181"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="182"/>
     </row>
     <row r="23" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
-      <c r="B23" s="186"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="186"/>
-      <c r="K23" s="186"/>
-      <c r="L23" s="186"/>
-      <c r="M23" s="186"/>
-      <c r="N23" s="186"/>
-      <c r="O23" s="186"/>
-      <c r="P23" s="186"/>
-      <c r="Q23" s="186"/>
-      <c r="R23" s="187"/>
+      <c r="A23" s="180"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="182"/>
     </row>
     <row r="24" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="185"/>
-      <c r="B24" s="186"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="186"/>
-      <c r="L24" s="186"/>
-      <c r="M24" s="186"/>
-      <c r="N24" s="186"/>
-      <c r="O24" s="186"/>
-      <c r="P24" s="186"/>
-      <c r="Q24" s="186"/>
-      <c r="R24" s="187"/>
+      <c r="A24" s="180"/>
+      <c r="B24" s="181"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="181"/>
+      <c r="K24" s="181"/>
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="181"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="181"/>
+      <c r="R24" s="182"/>
     </row>
     <row r="25" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="185"/>
-      <c r="B25" s="186"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="186"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="186"/>
-      <c r="L25" s="186"/>
-      <c r="M25" s="186"/>
-      <c r="N25" s="186"/>
-      <c r="O25" s="186"/>
-      <c r="P25" s="186"/>
-      <c r="Q25" s="186"/>
-      <c r="R25" s="187"/>
+      <c r="A25" s="180"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="181"/>
+      <c r="N25" s="181"/>
+      <c r="O25" s="181"/>
+      <c r="P25" s="181"/>
+      <c r="Q25" s="181"/>
+      <c r="R25" s="182"/>
     </row>
     <row r="26" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="185"/>
-      <c r="B26" s="186"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="186"/>
-      <c r="K26" s="186"/>
-      <c r="L26" s="186"/>
-      <c r="M26" s="186"/>
-      <c r="N26" s="186"/>
-      <c r="O26" s="186"/>
-      <c r="P26" s="186"/>
-      <c r="Q26" s="186"/>
-      <c r="R26" s="187"/>
+      <c r="A26" s="180"/>
+      <c r="B26" s="181"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="181"/>
+      <c r="K26" s="181"/>
+      <c r="L26" s="181"/>
+      <c r="M26" s="181"/>
+      <c r="N26" s="181"/>
+      <c r="O26" s="181"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="181"/>
+      <c r="R26" s="182"/>
     </row>
     <row r="27" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
-      <c r="B27" s="186"/>
-      <c r="C27" s="186"/>
-      <c r="D27" s="186"/>
-      <c r="E27" s="186"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="186"/>
-      <c r="L27" s="186"/>
-      <c r="M27" s="186"/>
-      <c r="N27" s="186"/>
-      <c r="O27" s="186"/>
-      <c r="P27" s="186"/>
-      <c r="Q27" s="186"/>
-      <c r="R27" s="187"/>
+      <c r="A27" s="180"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="181"/>
+      <c r="M27" s="181"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="182"/>
     </row>
     <row r="28" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="185"/>
-      <c r="B28" s="186"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="186"/>
-      <c r="L28" s="186"/>
-      <c r="M28" s="186"/>
-      <c r="N28" s="186"/>
-      <c r="O28" s="186"/>
-      <c r="P28" s="186"/>
-      <c r="Q28" s="186"/>
-      <c r="R28" s="187"/>
+      <c r="A28" s="180"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="181"/>
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="181"/>
+      <c r="R28" s="182"/>
     </row>
     <row r="29" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="185"/>
-      <c r="B29" s="186"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="186"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="186"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="186"/>
-      <c r="J29" s="186"/>
-      <c r="K29" s="186"/>
-      <c r="L29" s="186"/>
-      <c r="M29" s="186"/>
-      <c r="N29" s="186"/>
-      <c r="O29" s="186"/>
-      <c r="P29" s="186"/>
-      <c r="Q29" s="186"/>
-      <c r="R29" s="187"/>
+      <c r="A29" s="180"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="181"/>
+      <c r="R29" s="182"/>
     </row>
     <row r="30" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="185"/>
-      <c r="B30" s="186"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="186"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="186"/>
-      <c r="L30" s="186"/>
-      <c r="M30" s="186"/>
-      <c r="N30" s="186"/>
-      <c r="O30" s="186"/>
-      <c r="P30" s="186"/>
-      <c r="Q30" s="186"/>
-      <c r="R30" s="187"/>
+      <c r="A30" s="180"/>
+      <c r="B30" s="181"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="181"/>
+      <c r="K30" s="181"/>
+      <c r="L30" s="181"/>
+      <c r="M30" s="181"/>
+      <c r="N30" s="181"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="181"/>
+      <c r="R30" s="182"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="186"/>
-      <c r="K31" s="186"/>
-      <c r="L31" s="186"/>
-      <c r="M31" s="186"/>
-      <c r="N31" s="186"/>
-      <c r="O31" s="186"/>
-      <c r="P31" s="186"/>
-      <c r="Q31" s="186"/>
-      <c r="R31" s="187"/>
+      <c r="A31" s="180"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="181"/>
+      <c r="K31" s="181"/>
+      <c r="L31" s="181"/>
+      <c r="M31" s="181"/>
+      <c r="N31" s="181"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="181"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="182"/>
     </row>
     <row r="32" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="185"/>
-      <c r="B32" s="186"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="186"/>
-      <c r="L32" s="186"/>
-      <c r="M32" s="186"/>
-      <c r="N32" s="186"/>
-      <c r="O32" s="186"/>
-      <c r="P32" s="186"/>
-      <c r="Q32" s="186"/>
-      <c r="R32" s="187"/>
+      <c r="A32" s="180"/>
+      <c r="B32" s="181"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="181"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="181"/>
+      <c r="K32" s="181"/>
+      <c r="L32" s="181"/>
+      <c r="M32" s="181"/>
+      <c r="N32" s="181"/>
+      <c r="O32" s="181"/>
+      <c r="P32" s="181"/>
+      <c r="Q32" s="181"/>
+      <c r="R32" s="182"/>
       <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="185"/>
-      <c r="B33" s="186"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="186"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="186"/>
-      <c r="L33" s="186"/>
-      <c r="M33" s="186"/>
-      <c r="N33" s="186"/>
-      <c r="O33" s="186"/>
-      <c r="P33" s="186"/>
-      <c r="Q33" s="186"/>
-      <c r="R33" s="187"/>
+      <c r="A33" s="180"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="181"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="181"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="182"/>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="185"/>
-      <c r="B34" s="186"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="186"/>
-      <c r="K34" s="186"/>
-      <c r="L34" s="186"/>
-      <c r="M34" s="186"/>
-      <c r="N34" s="186"/>
-      <c r="O34" s="186"/>
-      <c r="P34" s="186"/>
-      <c r="Q34" s="186"/>
-      <c r="R34" s="187"/>
+      <c r="A34" s="180"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="181"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="181"/>
+      <c r="K34" s="181"/>
+      <c r="L34" s="181"/>
+      <c r="M34" s="181"/>
+      <c r="N34" s="181"/>
+      <c r="O34" s="181"/>
+      <c r="P34" s="181"/>
+      <c r="Q34" s="181"/>
+      <c r="R34" s="182"/>
       <c r="S34" s="12"/>
     </row>
     <row r="35" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="185"/>
-      <c r="B35" s="186"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="186"/>
-      <c r="K35" s="186"/>
-      <c r="L35" s="186"/>
-      <c r="M35" s="186"/>
-      <c r="N35" s="186"/>
-      <c r="O35" s="186"/>
-      <c r="P35" s="186"/>
-      <c r="Q35" s="186"/>
-      <c r="R35" s="187"/>
+      <c r="A35" s="180"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="181"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="181"/>
+      <c r="K35" s="181"/>
+      <c r="L35" s="181"/>
+      <c r="M35" s="181"/>
+      <c r="N35" s="181"/>
+      <c r="O35" s="181"/>
+      <c r="P35" s="181"/>
+      <c r="Q35" s="181"/>
+      <c r="R35" s="182"/>
       <c r="S35" s="12"/>
     </row>
     <row r="36" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="185"/>
-      <c r="B36" s="186"/>
-      <c r="C36" s="186"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="186"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="186"/>
-      <c r="J36" s="186"/>
-      <c r="K36" s="186"/>
-      <c r="L36" s="186"/>
-      <c r="M36" s="186"/>
-      <c r="N36" s="186"/>
-      <c r="O36" s="186"/>
-      <c r="P36" s="186"/>
-      <c r="Q36" s="186"/>
-      <c r="R36" s="187"/>
+      <c r="A36" s="180"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="181"/>
+      <c r="F36" s="181"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="181"/>
+      <c r="I36" s="181"/>
+      <c r="J36" s="181"/>
+      <c r="K36" s="181"/>
+      <c r="L36" s="181"/>
+      <c r="M36" s="181"/>
+      <c r="N36" s="181"/>
+      <c r="O36" s="181"/>
+      <c r="P36" s="181"/>
+      <c r="Q36" s="181"/>
+      <c r="R36" s="182"/>
       <c r="S36" s="12"/>
     </row>
     <row r="37" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="185"/>
-      <c r="B37" s="186"/>
-      <c r="C37" s="186"/>
-      <c r="D37" s="186"/>
-      <c r="E37" s="186"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="186"/>
-      <c r="H37" s="186"/>
-      <c r="I37" s="186"/>
-      <c r="J37" s="186"/>
-      <c r="K37" s="186"/>
-      <c r="L37" s="186"/>
-      <c r="M37" s="186"/>
-      <c r="N37" s="186"/>
-      <c r="O37" s="186"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="186"/>
-      <c r="R37" s="187"/>
+      <c r="A37" s="180"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
+      <c r="E37" s="181"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="181"/>
+      <c r="I37" s="181"/>
+      <c r="J37" s="181"/>
+      <c r="K37" s="181"/>
+      <c r="L37" s="181"/>
+      <c r="M37" s="181"/>
+      <c r="N37" s="181"/>
+      <c r="O37" s="181"/>
+      <c r="P37" s="181"/>
+      <c r="Q37" s="181"/>
+      <c r="R37" s="182"/>
       <c r="S37" s="12"/>
     </row>
     <row r="38" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="185"/>
-      <c r="B38" s="186"/>
-      <c r="C38" s="186"/>
-      <c r="D38" s="186"/>
-      <c r="E38" s="186"/>
-      <c r="F38" s="186"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="186"/>
-      <c r="K38" s="186"/>
-      <c r="L38" s="186"/>
-      <c r="M38" s="186"/>
-      <c r="N38" s="186"/>
-      <c r="O38" s="186"/>
-      <c r="P38" s="186"/>
-      <c r="Q38" s="186"/>
-      <c r="R38" s="187"/>
+      <c r="A38" s="180"/>
+      <c r="B38" s="181"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="181"/>
+      <c r="H38" s="181"/>
+      <c r="I38" s="181"/>
+      <c r="J38" s="181"/>
+      <c r="K38" s="181"/>
+      <c r="L38" s="181"/>
+      <c r="M38" s="181"/>
+      <c r="N38" s="181"/>
+      <c r="O38" s="181"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="181"/>
+      <c r="R38" s="182"/>
       <c r="S38" s="12"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="208" t="s">
+      <c r="A39" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="209"/>
-      <c r="C39" s="209"/>
-      <c r="D39" s="209"/>
-      <c r="E39" s="209"/>
-      <c r="F39" s="209"/>
-      <c r="G39" s="209"/>
-      <c r="H39" s="209"/>
-      <c r="I39" s="209"/>
-      <c r="J39" s="209"/>
-      <c r="K39" s="209"/>
-      <c r="L39" s="209"/>
-      <c r="M39" s="209"/>
-      <c r="N39" s="209"/>
-      <c r="O39" s="209"/>
-      <c r="P39" s="209"/>
-      <c r="Q39" s="209"/>
-      <c r="R39" s="210"/>
+      <c r="B39" s="190"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="190"/>
+      <c r="G39" s="190"/>
+      <c r="H39" s="190"/>
+      <c r="I39" s="190"/>
+      <c r="J39" s="190"/>
+      <c r="K39" s="190"/>
+      <c r="L39" s="190"/>
+      <c r="M39" s="190"/>
+      <c r="N39" s="190"/>
+      <c r="O39" s="190"/>
+      <c r="P39" s="190"/>
+      <c r="Q39" s="190"/>
+      <c r="R39" s="191"/>
       <c r="S39" s="12"/>
     </row>
     <row r="40" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="188"/>
+      <c r="A40" s="197"/>
       <c r="B40" s="54" t="s">
         <v>50</v>
       </c>
@@ -10127,8 +10137,8 @@
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
-      <c r="H40" s="191"/>
-      <c r="I40" s="192"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="201"/>
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
       <c r="L40" s="55"/>
@@ -10137,17 +10147,17 @@
       <c r="O40" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="P40" s="195" t="s">
+      <c r="P40" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="Q40" s="196"/>
+      <c r="Q40" s="205"/>
       <c r="R40" s="57" t="s">
         <v>54</v>
       </c>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="189"/>
+    <row r="41" spans="1:19" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="198"/>
       <c r="B41" s="43" t="s">
         <v>51</v>
       </c>
@@ -10166,8 +10176,8 @@
       <c r="G41" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="193"/>
-      <c r="I41" s="194"/>
+      <c r="H41" s="202"/>
+      <c r="I41" s="203"/>
       <c r="J41" s="44" t="s">
         <v>55</v>
       </c>
@@ -10184,136 +10194,100 @@
         <v>59</v>
       </c>
       <c r="O41" s="45"/>
-      <c r="P41" s="197"/>
-      <c r="Q41" s="198"/>
-      <c r="R41" s="203"/>
+      <c r="P41" s="206"/>
+      <c r="Q41" s="207"/>
+      <c r="R41" s="212"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="189"/>
+    <row r="42" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="198"/>
       <c r="B42" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="206" t="s">
+      <c r="C42" s="215" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="207"/>
+      <c r="D42" s="216"/>
       <c r="E42" s="50"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="206" t="s">
+      <c r="J42" s="215" t="s">
         <v>65</v>
       </c>
-      <c r="K42" s="207"/>
+      <c r="K42" s="216"/>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
       <c r="N42" s="31"/>
       <c r="O42" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="P42" s="199"/>
-      <c r="Q42" s="200"/>
-      <c r="R42" s="204"/>
+      <c r="P42" s="208"/>
+      <c r="Q42" s="209"/>
+      <c r="R42" s="213"/>
       <c r="S42" s="12"/>
     </row>
     <row r="43" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="189"/>
+      <c r="A43" s="198"/>
       <c r="B43" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="206" t="s">
+      <c r="C43" s="215" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="207"/>
+      <c r="D43" s="216"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="52"/>
       <c r="I43" s="53"/>
-      <c r="J43" s="206" t="s">
+      <c r="J43" s="215" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="207"/>
+      <c r="K43" s="216"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
       <c r="O43" s="47"/>
-      <c r="P43" s="201"/>
-      <c r="Q43" s="202"/>
-      <c r="R43" s="205"/>
+      <c r="P43" s="210"/>
+      <c r="Q43" s="211"/>
+      <c r="R43" s="214"/>
     </row>
     <row r="44" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="190"/>
+      <c r="A44" s="199"/>
       <c r="B44" s="58"/>
-      <c r="C44" s="180" t="s">
+      <c r="C44" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="181"/>
+      <c r="D44" s="193"/>
       <c r="E44" s="59"/>
       <c r="F44" s="60"/>
       <c r="G44" s="60"/>
       <c r="H44" s="61"/>
       <c r="I44" s="62"/>
-      <c r="J44" s="180" t="s">
+      <c r="J44" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="K44" s="181"/>
+      <c r="K44" s="193"/>
       <c r="L44" s="59"/>
       <c r="M44" s="59" t="s">
         <v>70</v>
       </c>
       <c r="N44" s="60"/>
-      <c r="O44" s="182" t="s">
+      <c r="O44" s="194" t="s">
         <v>71</v>
       </c>
-      <c r="P44" s="183"/>
-      <c r="Q44" s="182" t="s">
+      <c r="P44" s="195"/>
+      <c r="Q44" s="194" t="s">
         <v>72</v>
       </c>
-      <c r="R44" s="184"/>
+      <c r="R44" s="196"/>
     </row>
     <row r="45" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A8:R8"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="A10:R10"/>
-    <mergeCell ref="A11:R11"/>
-    <mergeCell ref="A24:R24"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="A14:R14"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A18:R18"/>
-    <mergeCell ref="A19:R19"/>
-    <mergeCell ref="A20:R20"/>
-    <mergeCell ref="A21:R21"/>
-    <mergeCell ref="A22:R22"/>
-    <mergeCell ref="A23:R23"/>
-    <mergeCell ref="A36:R36"/>
-    <mergeCell ref="A25:R25"/>
-    <mergeCell ref="A26:R26"/>
-    <mergeCell ref="A27:R27"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="A29:R29"/>
-    <mergeCell ref="A30:R30"/>
-    <mergeCell ref="A31:R31"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="A33:R33"/>
-    <mergeCell ref="A34:R34"/>
-    <mergeCell ref="A35:R35"/>
     <mergeCell ref="Q44:R44"/>
     <mergeCell ref="A37:R37"/>
     <mergeCell ref="A38:R38"/>
@@ -10330,6 +10304,42 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="O44:P44"/>
+    <mergeCell ref="A36:R36"/>
+    <mergeCell ref="A25:R25"/>
+    <mergeCell ref="A26:R26"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="A29:R29"/>
+    <mergeCell ref="A30:R30"/>
+    <mergeCell ref="A31:R31"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="A33:R33"/>
+    <mergeCell ref="A34:R34"/>
+    <mergeCell ref="A35:R35"/>
+    <mergeCell ref="A24:R24"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:R14"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="A20:R20"/>
+    <mergeCell ref="A21:R21"/>
+    <mergeCell ref="A22:R22"/>
+    <mergeCell ref="A23:R23"/>
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A11:R11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B43" r:id="rId1" display="http://www.sofia-decor.ru/"/>
@@ -10395,18 +10405,18 @@
       <c r="J2" s="6"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="145" t="s">
+      <c r="M2" s="165"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="143">
+      <c r="P2" s="157"/>
+      <c r="Q2" s="163">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
-      </c>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
+        <v>43647</v>
+      </c>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
       <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10422,17 +10432,17 @@
       <c r="J3" s="6"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="145" t="s">
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="154" t="s">
+      <c r="P3" s="157"/>
+      <c r="Q3" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="157"/>
       <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10713,23 +10723,23 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="156" t="s">
+      <c r="F16" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="158" t="str">
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J13:Q13</f>
         <v>Иванов И.И.</v>
       </c>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="158"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="148"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -10740,12 +10750,12 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="156" t="s">
+      <c r="F17" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
       <c r="J17" s="219" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J14:Q14</f>
         <v>Петров П.П.</v>
@@ -10767,23 +10777,23 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="156" t="s">
+      <c r="F18" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="158" t="str">
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J15:Q15</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="158"/>
-      <c r="P18" s="158"/>
-      <c r="Q18" s="158"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="4"/>
@@ -10794,12 +10804,12 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="156" t="s">
+      <c r="F19" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
       <c r="J19" s="219" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J16:Q16</f>
         <v>восьмой</v>
@@ -10821,12 +10831,12 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="156" t="s">
+      <c r="F20" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
       <c r="J20" s="219" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J17:Q17</f>
         <v>кухня</v>
@@ -10848,23 +10858,23 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="156" t="s">
+      <c r="F21" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="158" t="str">
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J18:Q18</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="158"/>
-      <c r="Q21" s="158"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="148"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="4"/>
@@ -10875,12 +10885,12 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="156" t="s">
+      <c r="F22" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
       <c r="J22" s="219">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J19:Q19</f>
         <v>500</v>
@@ -10902,12 +10912,12 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="156" t="s">
+      <c r="F23" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
       <c r="J23" s="219" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J20:Q20</f>
         <v>1-15,16</v>
@@ -10996,12 +11006,12 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="164" t="s">
+      <c r="G27" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -11014,29 +11024,29 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="166" t="s">
+      <c r="A28" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="165"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="151" t="str">
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="244" t="str">
         <f>builder</f>
         <v>_____________________</v>
       </c>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="151" t="s">
+      <c r="L28" s="244"/>
+      <c r="M28" s="244"/>
+      <c r="N28" s="244"/>
+      <c r="O28" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="151"/>
+      <c r="P28" s="146"/>
       <c r="Q28" s="30" t="s">
         <v>3</v>
       </c>
@@ -11045,7 +11055,7 @@
       </c>
       <c r="S28" s="114">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43647</v>
       </c>
       <c r="T28" s="22"/>
     </row>
@@ -11078,12 +11088,12 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="164" t="s">
+      <c r="G30" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="165"/>
-      <c r="I30" s="165"/>
-      <c r="J30" s="165"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -11096,28 +11106,29 @@
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="167" t="s">
+      <c r="A31" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="165"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="165"/>
-      <c r="K31" s="163" t="s">
-        <v>4</v>
-      </c>
-      <c r="L31" s="163"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="151" t="s">
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="244" t="str">
+        <f>VAP</f>
+        <v>_____________________</v>
+      </c>
+      <c r="L31" s="244"/>
+      <c r="M31" s="244"/>
+      <c r="N31" s="244"/>
+      <c r="O31" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="151"/>
+      <c r="P31" s="146"/>
       <c r="Q31" s="30" t="s">
         <v>3</v>
       </c>
@@ -11126,33 +11137,34 @@
       </c>
       <c r="S31" s="114">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43647</v>
       </c>
       <c r="T31" s="22"/>
     </row>
     <row r="32" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="167" t="s">
+      <c r="A32" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="165"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="165"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="165"/>
-      <c r="K32" s="163" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="163"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="151" t="s">
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="244" t="str">
+        <f>RPG</f>
+        <v>_____________________</v>
+      </c>
+      <c r="L32" s="244"/>
+      <c r="M32" s="244"/>
+      <c r="N32" s="244"/>
+      <c r="O32" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="151"/>
+      <c r="P32" s="146"/>
       <c r="Q32" s="30" t="s">
         <v>3</v>
       </c>
@@ -11161,7 +11173,7 @@
       </c>
       <c r="S32" s="114">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43647</v>
       </c>
       <c r="T32" s="22"/>
     </row>
@@ -11194,12 +11206,12 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="164" t="s">
+      <c r="G34" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="165"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="165"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="144"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -11212,28 +11224,28 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="167" t="s">
+      <c r="A35" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="163" t="s">
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="163"/>
-      <c r="M35" s="163"/>
-      <c r="N35" s="163"/>
-      <c r="O35" s="151" t="s">
+      <c r="L35" s="141"/>
+      <c r="M35" s="141"/>
+      <c r="N35" s="141"/>
+      <c r="O35" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P35" s="151"/>
+      <c r="P35" s="146"/>
       <c r="Q35" s="30" t="s">
         <v>3</v>
       </c>
@@ -11242,7 +11254,7 @@
       </c>
       <c r="S35" s="114">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43647</v>
       </c>
       <c r="T35" s="22"/>
     </row>
@@ -11270,21 +11282,21 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="E13:P15"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="G34:J34"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="J19:Q19"/>
@@ -11296,21 +11308,21 @@
     <mergeCell ref="J17:Q17"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="E13:P15"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -13116,18 +13128,18 @@
       <c r="J4" s="6"/>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="145" t="s">
+      <c r="M4" s="165"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="143">
+      <c r="P4" s="157"/>
+      <c r="Q4" s="163">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
-      </c>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
+        <v>43647</v>
+      </c>
+      <c r="R4" s="157"/>
+      <c r="S4" s="157"/>
       <c r="T4" s="29"/>
     </row>
     <row r="5" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13143,13 +13155,13 @@
       <c r="J5" s="6"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="149"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="157"/>
+      <c r="S5" s="157"/>
       <c r="T5" s="28"/>
     </row>
     <row r="6" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13197,11 +13209,11 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -13221,11 +13233,11 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="156"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -13245,11 +13257,11 @@
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="156"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -13276,15 +13288,15 @@
       <c r="E11" s="238" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="150"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="150"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -13297,16 +13309,16 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="150"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
       <c r="O12" s="130"/>
       <c r="P12" s="131"/>
       <c r="Q12" s="5"/>
@@ -13319,16 +13331,16 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="150"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="150"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
       <c r="O13" s="130"/>
       <c r="P13" s="131"/>
       <c r="Q13" s="5"/>
@@ -13341,16 +13353,16 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="150"/>
-      <c r="N14" s="150"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
       <c r="O14" s="130"/>
       <c r="P14" s="131"/>
       <c r="Q14" s="5"/>
@@ -13364,23 +13376,23 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="156" t="s">
+      <c r="F15" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="158" t="str">
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J13:Q13</f>
         <v>Иванов И.И.</v>
       </c>
-      <c r="K15" s="158"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="158"/>
-      <c r="N15" s="158"/>
-      <c r="O15" s="158"/>
-      <c r="P15" s="158"/>
-      <c r="Q15" s="158"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="4"/>
@@ -13391,23 +13403,23 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="156" t="s">
+      <c r="F16" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="158" t="str">
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J14:Q14</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="158"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="148"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -13418,23 +13430,23 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="156" t="s">
+      <c r="F17" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="158" t="str">
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J15:Q15</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="158"/>
-      <c r="N17" s="158"/>
-      <c r="O17" s="158"/>
-      <c r="P17" s="158"/>
-      <c r="Q17" s="158"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="148"/>
+      <c r="Q17" s="148"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="4"/>
@@ -13445,23 +13457,23 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="156" t="s">
+      <c r="F18" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="158" t="str">
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J16:Q16</f>
         <v>восьмой</v>
       </c>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="158"/>
-      <c r="P18" s="158"/>
-      <c r="Q18" s="158"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="4"/>
@@ -13472,23 +13484,23 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="156" t="s">
+      <c r="F19" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="158" t="str">
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J17:Q17</f>
         <v>кухня</v>
       </c>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="158"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="148"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="4"/>
@@ -13499,23 +13511,23 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="156" t="s">
+      <c r="F20" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="158" t="str">
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J18:Q18</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="158"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="158"/>
-      <c r="Q20" s="158"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="148"/>
+      <c r="P20" s="148"/>
+      <c r="Q20" s="148"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="4"/>
@@ -13526,23 +13538,23 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="156" t="s">
+      <c r="F21" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="158">
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="148">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J19:Q19</f>
         <v>500</v>
       </c>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="158"/>
-      <c r="Q21" s="158"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="148"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="4"/>
@@ -13553,23 +13565,23 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="156" t="s">
+      <c r="F22" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="158" t="str">
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="148" t="str">
         <f>'ТИТУЛЬНЫЙ ЛИСТ ДП'!J20:Q20</f>
         <v>1-15,16</v>
       </c>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="158"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="158"/>
-      <c r="Q22" s="158"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="148"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="148"/>
+      <c r="Q22" s="148"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="4"/>
@@ -13625,12 +13637,12 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="164" t="s">
+      <c r="G25" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="165"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="165"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -13643,29 +13655,29 @@
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="166" t="s">
+      <c r="A26" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="165"/>
-      <c r="C26" s="165"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="165"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="151" t="str">
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="244" t="str">
         <f>builder</f>
         <v>_____________________</v>
       </c>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151" t="s">
+      <c r="L26" s="244"/>
+      <c r="M26" s="244"/>
+      <c r="N26" s="244"/>
+      <c r="O26" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P26" s="151"/>
+      <c r="P26" s="146"/>
       <c r="Q26" s="140" t="s">
         <v>3</v>
       </c>
@@ -13674,7 +13686,7 @@
       </c>
       <c r="S26" s="114">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43647</v>
       </c>
       <c r="T26" s="22"/>
     </row>
@@ -13707,12 +13719,12 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="164" t="s">
+      <c r="G28" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="165"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -13725,28 +13737,29 @@
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="167" t="s">
+      <c r="A29" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="163" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="163"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="151" t="s">
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="244" t="str">
+        <f>VAP</f>
+        <v>_____________________</v>
+      </c>
+      <c r="L29" s="244"/>
+      <c r="M29" s="244"/>
+      <c r="N29" s="244"/>
+      <c r="O29" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="151"/>
+      <c r="P29" s="146"/>
       <c r="Q29" s="140" t="s">
         <v>3</v>
       </c>
@@ -13755,7 +13768,7 @@
       </c>
       <c r="S29" s="114">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43647</v>
       </c>
       <c r="T29" s="22"/>
     </row>
@@ -13788,12 +13801,12 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="164" t="s">
+      <c r="G31" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="165"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="165"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="144"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -13806,28 +13819,28 @@
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="167" t="s">
+      <c r="A32" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="165"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="165"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="165"/>
-      <c r="K32" s="163" t="s">
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="163"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="151" t="s">
+      <c r="L32" s="245"/>
+      <c r="M32" s="245"/>
+      <c r="N32" s="245"/>
+      <c r="O32" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="151"/>
+      <c r="P32" s="146"/>
       <c r="Q32" s="140" t="s">
         <v>3</v>
       </c>
@@ -13836,7 +13849,7 @@
       </c>
       <c r="S32" s="114">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43647</v>
       </c>
       <c r="T32" s="22"/>
     </row>
@@ -13869,12 +13882,12 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="164" t="s">
+      <c r="G34" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="165"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="165"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="144"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -13887,28 +13900,29 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="167" t="s">
+      <c r="A35" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="163" t="s">
-        <v>4</v>
-      </c>
-      <c r="L35" s="163"/>
-      <c r="M35" s="163"/>
-      <c r="N35" s="163"/>
-      <c r="O35" s="151" t="s">
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="244" t="str">
+        <f>RPG</f>
+        <v>_____________________</v>
+      </c>
+      <c r="L35" s="244"/>
+      <c r="M35" s="244"/>
+      <c r="N35" s="244"/>
+      <c r="O35" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P35" s="151"/>
+      <c r="P35" s="146"/>
       <c r="Q35" s="140" t="s">
         <v>3</v>
       </c>
@@ -13917,7 +13931,7 @@
       </c>
       <c r="S35" s="114">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43647</v>
       </c>
       <c r="T35" s="22"/>
     </row>
@@ -13945,32 +13959,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="O29:P29"/>
     <mergeCell ref="O35:P35"/>
     <mergeCell ref="G31:J31"/>
     <mergeCell ref="A32:J32"/>
@@ -13987,6 +13975,32 @@
     <mergeCell ref="J20:Q20"/>
     <mergeCell ref="J18:Q18"/>
     <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
